--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58639F1-C6FF-467E-AD7B-E4BDE4579D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D3C785-0282-4DF4-9C8F-A796DCC37550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="853" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="853" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="MESSWERTE EVALUATION" sheetId="29" r:id="rId1"/>
@@ -686,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -948,14 +948,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,24 +965,6 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1004,6 +986,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1073,10 +1073,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,7 +1391,7 @@
   <dimension ref="A1:AK318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,40 +1426,40 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="129" t="s">
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="132" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="134"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="141"/>
     </row>
     <row r="2" spans="1:37" s="90" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -1471,54 +1467,54 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="140" t="s">
+      <c r="G2" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="134" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="135" t="s">
+      <c r="K2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="135" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="129" t="s">
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="129" t="s">
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="129" t="s">
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="131"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="125"/>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1534,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
       <c r="J3" s="143"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
@@ -2245,10 +2241,18 @@
       <c r="O12" s="109">
         <v>28416.07</v>
       </c>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
+      <c r="P12" s="107">
+        <v>47320.1</v>
+      </c>
+      <c r="Q12" s="108">
+        <v>59804.2</v>
+      </c>
+      <c r="R12" s="108">
+        <v>59804.3</v>
+      </c>
+      <c r="S12" s="108">
+        <v>14269.8</v>
+      </c>
       <c r="T12" s="108"/>
       <c r="U12" s="107"/>
       <c r="V12" s="108"/>
@@ -2306,10 +2310,18 @@
       <c r="O13" s="115">
         <v>23.06</v>
       </c>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
+      <c r="P13" s="113">
+        <v>13.849500000000001</v>
+      </c>
+      <c r="Q13" s="114">
+        <v>10.958399999999999</v>
+      </c>
+      <c r="R13" s="114">
+        <v>10.958399999999999</v>
+      </c>
+      <c r="S13" s="114">
+        <v>45.926499999999997</v>
+      </c>
       <c r="T13" s="114"/>
       <c r="U13" s="113"/>
       <c r="V13" s="114"/>
@@ -5851,21 +5863,21 @@
       <c r="C82" s="97"/>
       <c r="D82" s="97"/>
       <c r="E82" s="94"/>
-      <c r="F82" s="123"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="124"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="125"/>
+      <c r="F82" s="136"/>
+      <c r="G82" s="137"/>
+      <c r="H82" s="137"/>
+      <c r="I82" s="137"/>
+      <c r="J82" s="138"/>
       <c r="K82" s="65"/>
       <c r="L82" s="87"/>
       <c r="M82" s="87"/>
       <c r="N82" s="87"/>
       <c r="O82" s="64"/>
-      <c r="P82" s="123"/>
-      <c r="Q82" s="124"/>
-      <c r="R82" s="124"/>
-      <c r="S82" s="124"/>
-      <c r="T82" s="125"/>
+      <c r="P82" s="136"/>
+      <c r="Q82" s="137"/>
+      <c r="R82" s="137"/>
+      <c r="S82" s="137"/>
+      <c r="T82" s="138"/>
       <c r="U82" s="65"/>
       <c r="V82" s="87"/>
       <c r="W82" s="87"/>
@@ -8394,9 +8406,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="P82:T82"/>
@@ -8417,6 +8426,9 @@
     <mergeCell ref="K26:O26"/>
     <mergeCell ref="K38:O38"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12352,9 +12364,9 @@
       <c r="I73" s="148"/>
       <c r="J73" s="149"/>
       <c r="K73" s="153"/>
-      <c r="L73" s="166"/>
-      <c r="M73" s="166"/>
-      <c r="N73" s="166"/>
+      <c r="L73" s="154"/>
+      <c r="M73" s="154"/>
+      <c r="N73" s="154"/>
       <c r="O73" s="155"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -12677,19 +12689,19 @@
         <v>10</v>
       </c>
       <c r="J90" s="145"/>
-      <c r="K90" s="165">
+      <c r="K90" s="101">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
       </c>
-      <c r="L90" s="165">
+      <c r="L90" s="101">
         <f t="shared" ref="L90:N90" si="25">(L87+L88+L89)/3</f>
         <v>6465.996666666666</v>
       </c>
-      <c r="M90" s="165">
+      <c r="M90" s="101">
         <f t="shared" si="25"/>
         <v>6477.72</v>
       </c>
-      <c r="N90" s="165">
+      <c r="N90" s="101">
         <f t="shared" si="25"/>
         <v>2780.8700000000003</v>
       </c>
@@ -12783,9 +12795,9 @@
       <c r="I93" s="148"/>
       <c r="J93" s="149"/>
       <c r="K93" s="153"/>
-      <c r="L93" s="166"/>
-      <c r="M93" s="166"/>
-      <c r="N93" s="166"/>
+      <c r="L93" s="154"/>
+      <c r="M93" s="154"/>
+      <c r="N93" s="154"/>
       <c r="O93" s="155"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D3C785-0282-4DF4-9C8F-A796DCC37550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2904DAE3-554A-484B-BBF1-C4208779139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="853" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="853" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="MESSWERTE EVALUATION" sheetId="29" r:id="rId1"/>
@@ -686,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -948,6 +948,27 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -957,14 +978,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -987,41 +1008,23 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1068,11 +1071,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81A5C4-0DEF-4D93-A6BF-5419A031E380}">
   <dimension ref="A1:AK318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,40 +1429,40 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="123" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="139" t="s">
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="141"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:37" s="90" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -1467,54 +1470,54 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="142" t="s">
+      <c r="J2" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="129" t="s">
+      <c r="K2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="129" t="s">
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="123" t="s">
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="123" t="s">
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="123" t="s">
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="125"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="134"/>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1530,11 +1533,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="143"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="146"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1649,60 +1652,11 @@
       <c r="O4" s="109">
         <v>11309.13</v>
       </c>
-      <c r="P4" s="110">
-        <v>38091.199999999997</v>
-      </c>
-      <c r="Q4" s="111">
-        <v>27833.7</v>
-      </c>
-      <c r="R4" s="111">
-        <v>27833.7</v>
-      </c>
-      <c r="S4" s="111">
-        <v>11117.7</v>
-      </c>
-      <c r="T4" s="111">
-        <v>25484.1</v>
-      </c>
-      <c r="U4" s="110">
-        <v>38699.9</v>
-      </c>
-      <c r="V4" s="111">
-        <v>27891.5</v>
-      </c>
-      <c r="W4" s="111">
-        <v>28205.9</v>
-      </c>
-      <c r="X4" s="111">
-        <v>11688</v>
-      </c>
-      <c r="Y4" s="111">
-        <v>24723.1</v>
-      </c>
-      <c r="Z4" s="110">
-        <v>204110</v>
-      </c>
-      <c r="AA4" s="111">
-        <v>52926.7</v>
-      </c>
-      <c r="AB4" s="111">
-        <v>47137.9</v>
-      </c>
-      <c r="AC4" s="111">
-        <v>9430.16</v>
-      </c>
-      <c r="AD4" s="110">
-        <v>248099</v>
-      </c>
-      <c r="AE4" s="111">
-        <v>49682.9</v>
-      </c>
-      <c r="AF4" s="111">
-        <v>61148.2</v>
-      </c>
-      <c r="AG4" s="112">
-        <v>9093.4699999999993</v>
-      </c>
+      <c r="P4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AG4" s="123"/>
       <c r="AH4" s="111"/>
       <c r="AI4" s="111"/>
       <c r="AJ4" s="111"/>
@@ -1748,60 +1702,11 @@
       <c r="O5" s="115">
         <v>57.95</v>
       </c>
-      <c r="P5" s="113">
-        <v>17.204999999999998</v>
-      </c>
-      <c r="Q5" s="114">
-        <v>23.5456</v>
-      </c>
-      <c r="R5" s="114">
-        <v>23.545500000000001</v>
-      </c>
-      <c r="S5" s="114">
-        <v>58.947499999999998</v>
-      </c>
-      <c r="T5" s="114">
-        <v>25.7164</v>
-      </c>
-      <c r="U5" s="113">
-        <v>16.9344</v>
-      </c>
-      <c r="V5" s="114">
-        <v>23.4968</v>
-      </c>
-      <c r="W5" s="114">
-        <v>23.2349</v>
-      </c>
-      <c r="X5" s="114">
-        <v>56.071199999999997</v>
-      </c>
-      <c r="Y5" s="114">
-        <v>26.507999999999999</v>
-      </c>
-      <c r="Z5" s="113">
-        <v>3.21082</v>
-      </c>
-      <c r="AA5" s="114">
-        <v>12.382400000000001</v>
-      </c>
-      <c r="AB5" s="114">
-        <v>13.903</v>
-      </c>
-      <c r="AC5" s="114">
-        <v>69.496099999999998</v>
-      </c>
-      <c r="AD5" s="113">
-        <v>2.6415299999999999</v>
-      </c>
-      <c r="AE5" s="114">
-        <v>13.190899999999999</v>
-      </c>
-      <c r="AF5" s="114">
-        <v>10.717599999999999</v>
-      </c>
-      <c r="AG5" s="115">
-        <v>72.069299999999998</v>
-      </c>
+      <c r="P5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="Z5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AG5" s="125"/>
       <c r="AH5" s="114"/>
       <c r="AI5" s="114"/>
       <c r="AJ5" s="114"/>
@@ -1851,24 +1756,60 @@
       <c r="O6" s="109">
         <v>8026.52</v>
       </c>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="112"/>
+      <c r="P6" s="110">
+        <v>38091.199999999997</v>
+      </c>
+      <c r="Q6" s="111">
+        <v>27833.7</v>
+      </c>
+      <c r="R6" s="111">
+        <v>27833.7</v>
+      </c>
+      <c r="S6" s="111">
+        <v>11117.7</v>
+      </c>
+      <c r="T6" s="111">
+        <v>25484.1</v>
+      </c>
+      <c r="U6" s="110">
+        <v>38699.9</v>
+      </c>
+      <c r="V6" s="111">
+        <v>27891.5</v>
+      </c>
+      <c r="W6" s="111">
+        <v>28205.9</v>
+      </c>
+      <c r="X6" s="111">
+        <v>11688</v>
+      </c>
+      <c r="Y6" s="111">
+        <v>24723.1</v>
+      </c>
+      <c r="Z6" s="110">
+        <v>204110</v>
+      </c>
+      <c r="AA6" s="111">
+        <v>52926.7</v>
+      </c>
+      <c r="AB6" s="111">
+        <v>47137.9</v>
+      </c>
+      <c r="AC6" s="111">
+        <v>9430.16</v>
+      </c>
+      <c r="AD6" s="110">
+        <v>248099</v>
+      </c>
+      <c r="AE6" s="111">
+        <v>49682.9</v>
+      </c>
+      <c r="AF6" s="111">
+        <v>61148.2</v>
+      </c>
+      <c r="AG6" s="112">
+        <v>9093.4699999999993</v>
+      </c>
       <c r="AH6" s="111"/>
       <c r="AI6" s="111"/>
       <c r="AJ6" s="111"/>
@@ -1914,24 +1855,60 @@
       <c r="O7" s="115">
         <v>81.650000000000006</v>
       </c>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="114"/>
-      <c r="AF7" s="114"/>
-      <c r="AG7" s="115"/>
+      <c r="P7" s="113">
+        <v>17.204999999999998</v>
+      </c>
+      <c r="Q7" s="114">
+        <v>23.5456</v>
+      </c>
+      <c r="R7" s="114">
+        <v>23.545500000000001</v>
+      </c>
+      <c r="S7" s="114">
+        <v>58.947499999999998</v>
+      </c>
+      <c r="T7" s="114">
+        <v>25.7164</v>
+      </c>
+      <c r="U7" s="113">
+        <v>16.9344</v>
+      </c>
+      <c r="V7" s="114">
+        <v>23.4968</v>
+      </c>
+      <c r="W7" s="114">
+        <v>23.2349</v>
+      </c>
+      <c r="X7" s="114">
+        <v>56.071199999999997</v>
+      </c>
+      <c r="Y7" s="114">
+        <v>26.507999999999999</v>
+      </c>
+      <c r="Z7" s="113">
+        <v>3.21082</v>
+      </c>
+      <c r="AA7" s="114">
+        <v>12.382400000000001</v>
+      </c>
+      <c r="AB7" s="114">
+        <v>13.903</v>
+      </c>
+      <c r="AC7" s="114">
+        <v>69.496099999999998</v>
+      </c>
+      <c r="AD7" s="113">
+        <v>2.6415299999999999</v>
+      </c>
+      <c r="AE7" s="114">
+        <v>13.190899999999999</v>
+      </c>
+      <c r="AF7" s="114">
+        <v>10.717599999999999</v>
+      </c>
+      <c r="AG7" s="115">
+        <v>72.069299999999998</v>
+      </c>
       <c r="AH7" s="114"/>
       <c r="AI7" s="114"/>
       <c r="AJ7" s="114"/>
@@ -2253,20 +2230,48 @@
       <c r="S12" s="108">
         <v>14269.8</v>
       </c>
-      <c r="T12" s="108"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="108"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="109"/>
+      <c r="T12" s="108">
+        <v>225130</v>
+      </c>
+      <c r="U12" s="107">
+        <v>46691.199999999997</v>
+      </c>
+      <c r="V12" s="108">
+        <v>55252.7</v>
+      </c>
+      <c r="W12" s="108">
+        <v>58801</v>
+      </c>
+      <c r="X12" s="108">
+        <v>14378.7</v>
+      </c>
+      <c r="Y12" s="108">
+        <v>227440</v>
+      </c>
+      <c r="Z12" s="107">
+        <v>223168</v>
+      </c>
+      <c r="AA12" s="108">
+        <v>62589.4</v>
+      </c>
+      <c r="AB12" s="108">
+        <v>59236.4</v>
+      </c>
+      <c r="AC12" s="108">
+        <v>14749.7</v>
+      </c>
+      <c r="AD12" s="107">
+        <v>271951</v>
+      </c>
+      <c r="AE12" s="108">
+        <v>62829</v>
+      </c>
+      <c r="AF12" s="108">
+        <v>61175.6</v>
+      </c>
+      <c r="AG12" s="109">
+        <v>13555.3</v>
+      </c>
       <c r="AH12" s="108"/>
       <c r="AI12" s="108"/>
       <c r="AJ12" s="108"/>
@@ -2322,20 +2327,48 @@
       <c r="S13" s="114">
         <v>45.926499999999997</v>
       </c>
-      <c r="T13" s="114"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="114"/>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="114"/>
-      <c r="AG13" s="115"/>
+      <c r="T13" s="114">
+        <v>2.9110299999999998</v>
+      </c>
+      <c r="U13" s="113">
+        <v>14.036</v>
+      </c>
+      <c r="V13" s="114">
+        <v>11.8611</v>
+      </c>
+      <c r="W13" s="114">
+        <v>11.1454</v>
+      </c>
+      <c r="X13" s="114">
+        <v>45.578499999999998</v>
+      </c>
+      <c r="Y13" s="114">
+        <v>2.8814700000000002</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>2.93662</v>
+      </c>
+      <c r="AA13" s="114">
+        <v>10.470800000000001</v>
+      </c>
+      <c r="AB13" s="114">
+        <v>11.063499999999999</v>
+      </c>
+      <c r="AC13" s="114">
+        <v>44.432200000000002</v>
+      </c>
+      <c r="AD13" s="113">
+        <v>2.40984</v>
+      </c>
+      <c r="AE13" s="114">
+        <v>10.430899999999999</v>
+      </c>
+      <c r="AF13" s="114">
+        <v>10.7128</v>
+      </c>
+      <c r="AG13" s="115">
+        <v>48.347099999999998</v>
+      </c>
       <c r="AH13" s="114"/>
       <c r="AI13" s="114"/>
       <c r="AJ13" s="114"/>
@@ -2347,20 +2380,20 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="126" t="s">
+      <c r="F14" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="126" t="s">
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="128"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="131"/>
       <c r="P14" s="116"/>
       <c r="Q14" s="117"/>
       <c r="R14" s="117"/>
@@ -3077,20 +3110,20 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="126" t="s">
+      <c r="F26" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="126" t="s">
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="128"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="131"/>
       <c r="P26" s="116"/>
       <c r="Q26" s="117"/>
       <c r="R26" s="117"/>
@@ -3807,20 +3840,20 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="126" t="s">
+      <c r="F38" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="126" t="s">
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="127"/>
-      <c r="M38" s="127"/>
-      <c r="N38" s="127"/>
-      <c r="O38" s="128"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="131"/>
       <c r="P38" s="116"/>
       <c r="Q38" s="117"/>
       <c r="R38" s="117"/>
@@ -3927,60 +3960,11 @@
       <c r="O40" s="109">
         <v>4033.49</v>
       </c>
-      <c r="P40" s="107">
-        <v>38895.9</v>
-      </c>
-      <c r="Q40" s="108">
-        <v>28209</v>
-      </c>
-      <c r="R40" s="108">
-        <v>28208.9</v>
-      </c>
-      <c r="S40" s="108">
-        <v>12369.1</v>
-      </c>
-      <c r="T40" s="109">
-        <v>55807</v>
-      </c>
-      <c r="U40" s="110">
-        <v>39616.199999999997</v>
-      </c>
-      <c r="V40" s="111">
-        <v>29323.200000000001</v>
-      </c>
-      <c r="W40" s="111">
-        <v>29489.9</v>
-      </c>
-      <c r="X40" s="111">
-        <v>12041.4</v>
-      </c>
-      <c r="Y40" s="111">
-        <v>31578</v>
-      </c>
-      <c r="Z40" s="110">
-        <v>229739</v>
-      </c>
-      <c r="AA40" s="111">
-        <v>47324.6</v>
-      </c>
-      <c r="AB40" s="111">
-        <v>47324.5</v>
-      </c>
-      <c r="AC40" s="111">
-        <v>11134.8</v>
-      </c>
-      <c r="AD40" s="110">
-        <v>256064</v>
-      </c>
-      <c r="AE40" s="111">
-        <v>49874.400000000001</v>
-      </c>
-      <c r="AF40" s="111">
-        <v>51081.1</v>
-      </c>
-      <c r="AG40" s="112">
-        <v>10971.5</v>
-      </c>
+      <c r="P40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AG40" s="123"/>
       <c r="AH40" s="111"/>
       <c r="AI40" s="111"/>
       <c r="AJ40" s="111"/>
@@ -4026,60 +4010,11 @@
       <c r="O41" s="115">
         <v>162.47999999999999</v>
       </c>
-      <c r="P41" s="113">
-        <v>16.8491</v>
-      </c>
-      <c r="Q41" s="114">
-        <v>23.232299999999999</v>
-      </c>
-      <c r="R41" s="114">
-        <v>23.232299999999999</v>
-      </c>
-      <c r="S41" s="114">
-        <v>52.983800000000002</v>
-      </c>
-      <c r="T41" s="115">
-        <v>11.7433</v>
-      </c>
-      <c r="U41" s="113">
-        <v>16.5427</v>
-      </c>
-      <c r="V41" s="114">
-        <v>22.349499999999999</v>
-      </c>
-      <c r="W41" s="114">
-        <v>22.223199999999999</v>
-      </c>
-      <c r="X41" s="114">
-        <v>54.4255</v>
-      </c>
-      <c r="Y41" s="114">
-        <v>20.753699999999998</v>
-      </c>
-      <c r="Z41" s="113">
-        <v>2.85263</v>
-      </c>
-      <c r="AA41" s="114">
-        <v>13.8482</v>
-      </c>
-      <c r="AB41" s="114">
-        <v>13.8482</v>
-      </c>
-      <c r="AC41" s="114">
-        <v>58.856699999999996</v>
-      </c>
-      <c r="AD41" s="113">
-        <v>2.5593599999999999</v>
-      </c>
-      <c r="AE41" s="114">
-        <v>13.1402</v>
-      </c>
-      <c r="AF41" s="114">
-        <v>12.829800000000001</v>
-      </c>
-      <c r="AG41" s="115">
-        <v>59.732799999999997</v>
-      </c>
+      <c r="P41" s="124"/>
+      <c r="U41" s="124"/>
+      <c r="Z41" s="124"/>
+      <c r="AD41" s="124"/>
+      <c r="AG41" s="125"/>
       <c r="AH41" s="114"/>
       <c r="AI41" s="114"/>
       <c r="AJ41" s="114"/>
@@ -4129,24 +4064,60 @@
       <c r="O42" s="109">
         <v>4839.6000000000004</v>
       </c>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111"/>
-      <c r="U42" s="110"/>
-      <c r="V42" s="111"/>
-      <c r="W42" s="111"/>
-      <c r="X42" s="111"/>
-      <c r="Y42" s="111"/>
-      <c r="Z42" s="110"/>
-      <c r="AA42" s="111"/>
-      <c r="AB42" s="111"/>
-      <c r="AC42" s="111"/>
-      <c r="AD42" s="110"/>
-      <c r="AE42" s="111"/>
-      <c r="AF42" s="111"/>
-      <c r="AG42" s="112"/>
+      <c r="P42" s="107">
+        <v>38895.9</v>
+      </c>
+      <c r="Q42" s="108">
+        <v>28209</v>
+      </c>
+      <c r="R42" s="108">
+        <v>28208.9</v>
+      </c>
+      <c r="S42" s="108">
+        <v>12369.1</v>
+      </c>
+      <c r="T42" s="108">
+        <v>55807</v>
+      </c>
+      <c r="U42" s="110">
+        <v>39616.199999999997</v>
+      </c>
+      <c r="V42" s="111">
+        <v>29323.200000000001</v>
+      </c>
+      <c r="W42" s="111">
+        <v>29489.9</v>
+      </c>
+      <c r="X42" s="111">
+        <v>12041.4</v>
+      </c>
+      <c r="Y42" s="111">
+        <v>31578</v>
+      </c>
+      <c r="Z42" s="110">
+        <v>229739</v>
+      </c>
+      <c r="AA42" s="111">
+        <v>47324.6</v>
+      </c>
+      <c r="AB42" s="111">
+        <v>47324.5</v>
+      </c>
+      <c r="AC42" s="111">
+        <v>11134.8</v>
+      </c>
+      <c r="AD42" s="110">
+        <v>256064</v>
+      </c>
+      <c r="AE42" s="111">
+        <v>49874.400000000001</v>
+      </c>
+      <c r="AF42" s="111">
+        <v>51081.1</v>
+      </c>
+      <c r="AG42" s="112">
+        <v>10971.5</v>
+      </c>
       <c r="AH42" s="111"/>
       <c r="AI42" s="111"/>
       <c r="AJ42" s="111"/>
@@ -4192,24 +4163,60 @@
       <c r="O43" s="115">
         <v>135.41999999999999</v>
       </c>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="114"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="114"/>
-      <c r="AG43" s="115"/>
+      <c r="P43" s="113">
+        <v>16.8491</v>
+      </c>
+      <c r="Q43" s="114">
+        <v>23.232299999999999</v>
+      </c>
+      <c r="R43" s="114">
+        <v>23.232299999999999</v>
+      </c>
+      <c r="S43" s="114">
+        <v>52.983800000000002</v>
+      </c>
+      <c r="T43" s="114">
+        <v>11.7433</v>
+      </c>
+      <c r="U43" s="113">
+        <v>16.5427</v>
+      </c>
+      <c r="V43" s="114">
+        <v>22.349499999999999</v>
+      </c>
+      <c r="W43" s="114">
+        <v>22.223199999999999</v>
+      </c>
+      <c r="X43" s="114">
+        <v>54.4255</v>
+      </c>
+      <c r="Y43" s="114">
+        <v>20.753699999999998</v>
+      </c>
+      <c r="Z43" s="113">
+        <v>2.85263</v>
+      </c>
+      <c r="AA43" s="114">
+        <v>13.8482</v>
+      </c>
+      <c r="AB43" s="114">
+        <v>13.8482</v>
+      </c>
+      <c r="AC43" s="114">
+        <v>58.856699999999996</v>
+      </c>
+      <c r="AD43" s="113">
+        <v>2.5593599999999999</v>
+      </c>
+      <c r="AE43" s="114">
+        <v>13.1402</v>
+      </c>
+      <c r="AF43" s="114">
+        <v>12.829800000000001</v>
+      </c>
+      <c r="AG43" s="115">
+        <v>59.732799999999997</v>
+      </c>
       <c r="AH43" s="114"/>
       <c r="AI43" s="114"/>
       <c r="AJ43" s="114"/>
@@ -4531,7 +4538,7 @@
       <c r="S48" s="108">
         <v>14271.8</v>
       </c>
-      <c r="T48" s="109">
+      <c r="T48" s="108">
         <v>13148.3</v>
       </c>
       <c r="U48" s="107">
@@ -4628,7 +4635,7 @@
       <c r="S49" s="114">
         <v>45.919800000000002</v>
       </c>
-      <c r="T49" s="115">
+      <c r="T49" s="114">
         <v>49.843600000000002</v>
       </c>
       <c r="U49" s="113">
@@ -4681,20 +4688,20 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="126" t="s">
+      <c r="F50" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="126" t="s">
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="127"/>
-      <c r="M50" s="127"/>
-      <c r="N50" s="127"/>
-      <c r="O50" s="128"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="130"/>
+      <c r="N50" s="130"/>
+      <c r="O50" s="131"/>
       <c r="P50" s="60"/>
       <c r="Q50" s="58"/>
       <c r="R50" s="58"/>
@@ -5863,21 +5870,21 @@
       <c r="C82" s="97"/>
       <c r="D82" s="97"/>
       <c r="E82" s="94"/>
-      <c r="F82" s="136"/>
-      <c r="G82" s="137"/>
-      <c r="H82" s="137"/>
-      <c r="I82" s="137"/>
-      <c r="J82" s="138"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="127"/>
+      <c r="I82" s="127"/>
+      <c r="J82" s="128"/>
       <c r="K82" s="65"/>
       <c r="L82" s="87"/>
       <c r="M82" s="87"/>
       <c r="N82" s="87"/>
       <c r="O82" s="64"/>
-      <c r="P82" s="136"/>
-      <c r="Q82" s="137"/>
-      <c r="R82" s="137"/>
-      <c r="S82" s="137"/>
-      <c r="T82" s="138"/>
+      <c r="P82" s="126"/>
+      <c r="Q82" s="127"/>
+      <c r="R82" s="127"/>
+      <c r="S82" s="127"/>
+      <c r="T82" s="128"/>
       <c r="U82" s="65"/>
       <c r="V82" s="87"/>
       <c r="W82" s="87"/>
@@ -8406,6 +8413,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="P82:T82"/>
@@ -8422,13 +8436,6 @@
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="F38:J38"/>
     <mergeCell ref="K2:O2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8548,10 +8555,10 @@
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="73"/>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="160"/>
+      <c r="J6" s="163"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -8559,10 +8566,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="162"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="70">
         <v>635.53</v>
       </c>
@@ -8578,10 +8585,10 @@
       <c r="G7" s="75">
         <v>1491.74</v>
       </c>
-      <c r="I7" s="161" t="s">
+      <c r="I7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="162"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="70">
         <v>7089.11</v>
       </c>
@@ -8599,8 +8606,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="164"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="70">
         <v>629.29</v>
       </c>
@@ -8616,8 +8623,8 @@
       <c r="G8" s="75">
         <v>1494.82</v>
       </c>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
       <c r="K8" s="70">
         <v>7358.56</v>
       </c>
@@ -8635,8 +8642,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="70">
         <v>628.95500000000004</v>
       </c>
@@ -8652,8 +8659,8 @@
       <c r="G9" s="75">
         <v>1494.92</v>
       </c>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
       <c r="K9" s="70">
         <v>7082.39</v>
       </c>
@@ -8671,10 +8678,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="145"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -8695,10 +8702,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="144" t="s">
+      <c r="I10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="145"/>
+      <c r="J10" s="167"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -8721,10 +8728,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="147"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -8745,10 +8752,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="147"/>
+      <c r="J11" s="148"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -8771,66 +8778,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="150" t="s">
+      <c r="B12" s="152"/>
+      <c r="C12" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="152"/>
-      <c r="I12" s="148" t="s">
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
+      <c r="I12" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150" t="s">
+      <c r="J12" s="152"/>
+      <c r="K12" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="152"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="155"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="155"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="148"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="158"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="161"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -8851,10 +8858,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="146" t="s">
+      <c r="I15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="147"/>
+      <c r="J15" s="148"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -8877,15 +8884,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="164"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -8979,10 +8986,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="159" t="s">
+      <c r="I26" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="160"/>
+      <c r="J26" s="163"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -8990,10 +8997,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="70">
         <v>580.4</v>
       </c>
@@ -9009,10 +9016,10 @@
       <c r="G27" s="75">
         <v>1038.54</v>
       </c>
-      <c r="I27" s="161" t="s">
+      <c r="I27" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="162"/>
+      <c r="J27" s="165"/>
       <c r="K27" s="70">
         <v>6864.08</v>
       </c>
@@ -9030,8 +9037,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
-      <c r="B28" s="162"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="70">
         <v>621.89099999999996</v>
       </c>
@@ -9047,8 +9054,8 @@
       <c r="G28" s="75">
         <v>1099.28</v>
       </c>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="165"/>
       <c r="K28" s="70">
         <v>7156.32</v>
       </c>
@@ -9066,8 +9073,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="161"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="164"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="70">
         <v>580.40200000000004</v>
       </c>
@@ -9083,8 +9090,8 @@
       <c r="G29" s="75">
         <v>1049.24</v>
       </c>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
       <c r="K29" s="70">
         <v>7146.28</v>
       </c>
@@ -9102,10 +9109,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="145"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -9126,10 +9133,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="144" t="s">
+      <c r="I30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="145"/>
+      <c r="J30" s="167"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -9152,10 +9159,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="147"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -9176,10 +9183,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="146" t="s">
+      <c r="I31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="147"/>
+      <c r="J31" s="148"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -9202,66 +9209,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="150" t="s">
+      <c r="B32" s="152"/>
+      <c r="C32" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="152"/>
-      <c r="I32" s="148" t="s">
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
+      <c r="I32" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="149"/>
-      <c r="K32" s="150" t="s">
+      <c r="J32" s="152"/>
+      <c r="K32" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="152"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="155"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="148"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="155"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="158"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="158"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="148"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="158"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="161"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -9282,10 +9289,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="146" t="s">
+      <c r="I35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="147"/>
+      <c r="J35" s="148"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -9308,15 +9315,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="163"/>
-      <c r="B36" s="164"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -9410,10 +9417,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="159" t="s">
+      <c r="I46" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="160"/>
+      <c r="J46" s="163"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -9421,10 +9428,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="161" t="s">
+      <c r="A47" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="162"/>
+      <c r="B47" s="165"/>
       <c r="C47" s="70">
         <v>745.63</v>
       </c>
@@ -9440,10 +9447,10 @@
       <c r="G47" s="75">
         <v>2824.25</v>
       </c>
-      <c r="I47" s="161" t="s">
+      <c r="I47" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="162"/>
+      <c r="J47" s="165"/>
       <c r="K47" s="70">
         <v>7380.65</v>
       </c>
@@ -9461,8 +9468,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="161"/>
-      <c r="B48" s="162"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
       <c r="C48" s="70">
         <v>747.9</v>
       </c>
@@ -9478,8 +9485,8 @@
       <c r="G48" s="75">
         <v>2802.62</v>
       </c>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="165"/>
       <c r="K48" s="70">
         <v>7272.22</v>
       </c>
@@ -9497,8 +9504,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="161"/>
-      <c r="B49" s="162"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
       <c r="C49" s="70">
         <v>758.29</v>
       </c>
@@ -9514,8 +9521,8 @@
       <c r="G49" s="75">
         <v>3130.42</v>
       </c>
-      <c r="I49" s="161"/>
-      <c r="J49" s="162"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="165"/>
       <c r="K49" s="70">
         <v>7382.71</v>
       </c>
@@ -9533,10 +9540,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="144" t="s">
+      <c r="A50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="145"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="70">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -9557,10 +9564,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="144" t="s">
+      <c r="I50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="145"/>
+      <c r="J50" s="167"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -9583,10 +9590,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="146" t="s">
+      <c r="A51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="147"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -9607,10 +9614,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="146" t="s">
+      <c r="I51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="147"/>
+      <c r="J51" s="148"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -9633,66 +9640,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="148" t="s">
+      <c r="A52" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="149"/>
-      <c r="C52" s="150" t="s">
+      <c r="B52" s="152"/>
+      <c r="C52" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="151"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="152"/>
-      <c r="I52" s="148" t="s">
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="155"/>
+      <c r="I52" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="149"/>
-      <c r="K52" s="150" t="s">
+      <c r="J52" s="152"/>
+      <c r="K52" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="151"/>
-      <c r="M52" s="151"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="152"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="155"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="148"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="155"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
-      <c r="N53" s="154"/>
-      <c r="O53" s="155"/>
+      <c r="A53" s="151"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="158"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="158"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="148"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="158"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="149"/>
-      <c r="K54" s="156"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="158"/>
+      <c r="A54" s="151"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="161"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="152"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="160"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="146" t="s">
+      <c r="A55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="147"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -9713,10 +9720,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="146" t="s">
+      <c r="I55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="147"/>
+      <c r="J55" s="148"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -9739,15 +9746,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="163"/>
-      <c r="B56" s="164"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="164"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="150"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -9841,10 +9848,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="159" t="s">
+      <c r="I66" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="160"/>
+      <c r="J66" s="163"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -9852,10 +9859,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="161" t="s">
+      <c r="A67" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="162"/>
+      <c r="B67" s="165"/>
       <c r="C67" s="70">
         <v>851.19100000000003</v>
       </c>
@@ -9871,10 +9878,10 @@
       <c r="G67" s="75">
         <v>2880.17</v>
       </c>
-      <c r="I67" s="161" t="s">
+      <c r="I67" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="162"/>
+      <c r="J67" s="165"/>
       <c r="K67" s="70">
         <v>7455.63</v>
       </c>
@@ -9892,8 +9899,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
-      <c r="B68" s="162"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
       <c r="C68" s="70">
         <v>850.14499999999998</v>
       </c>
@@ -9909,8 +9916,8 @@
       <c r="G68" s="75">
         <v>2829.59</v>
       </c>
-      <c r="I68" s="161"/>
-      <c r="J68" s="162"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="165"/>
       <c r="K68" s="70">
         <v>7455.62</v>
       </c>
@@ -9928,8 +9935,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="161"/>
-      <c r="B69" s="162"/>
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
       <c r="C69" s="70">
         <v>834.03200000000004</v>
       </c>
@@ -9945,8 +9952,8 @@
       <c r="G69" s="75">
         <v>2836.45</v>
       </c>
-      <c r="I69" s="161"/>
-      <c r="J69" s="162"/>
+      <c r="I69" s="164"/>
+      <c r="J69" s="165"/>
       <c r="K69" s="70">
         <v>7460.2</v>
       </c>
@@ -9964,10 +9971,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="144" t="s">
+      <c r="A70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="145"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -9988,10 +9995,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="144" t="s">
+      <c r="I70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="145"/>
+      <c r="J70" s="167"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -10014,10 +10021,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="146" t="s">
+      <c r="A71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="147"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -10038,10 +10045,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="146" t="s">
+      <c r="I71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="147"/>
+      <c r="J71" s="148"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -10064,66 +10071,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="148" t="s">
+      <c r="A72" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="149"/>
-      <c r="C72" s="150" t="s">
+      <c r="B72" s="152"/>
+      <c r="C72" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="152"/>
-      <c r="I72" s="148" t="s">
+      <c r="D72" s="154"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="155"/>
+      <c r="I72" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="149"/>
-      <c r="K72" s="150" t="s">
+      <c r="J72" s="152"/>
+      <c r="K72" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="151"/>
-      <c r="M72" s="151"/>
-      <c r="N72" s="151"/>
-      <c r="O72" s="152"/>
+      <c r="L72" s="154"/>
+      <c r="M72" s="154"/>
+      <c r="N72" s="154"/>
+      <c r="O72" s="155"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="148"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="153"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="154"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="155"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="149"/>
-      <c r="K73" s="153"/>
-      <c r="L73" s="154"/>
-      <c r="M73" s="154"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="155"/>
+      <c r="A73" s="151"/>
+      <c r="B73" s="152"/>
+      <c r="C73" s="156"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="158"/>
+      <c r="I73" s="151"/>
+      <c r="J73" s="152"/>
+      <c r="K73" s="156"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+      <c r="O73" s="158"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="148"/>
-      <c r="B74" s="149"/>
-      <c r="C74" s="156"/>
-      <c r="D74" s="157"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="158"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="149"/>
-      <c r="K74" s="156"/>
-      <c r="L74" s="157"/>
-      <c r="M74" s="157"/>
-      <c r="N74" s="157"/>
-      <c r="O74" s="158"/>
+      <c r="A74" s="151"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="159"/>
+      <c r="D74" s="160"/>
+      <c r="E74" s="160"/>
+      <c r="F74" s="160"/>
+      <c r="G74" s="161"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="152"/>
+      <c r="K74" s="159"/>
+      <c r="L74" s="160"/>
+      <c r="M74" s="160"/>
+      <c r="N74" s="160"/>
+      <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="146" t="s">
+      <c r="A75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="147"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -10144,10 +10151,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="146" t="s">
+      <c r="I75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="147"/>
+      <c r="J75" s="148"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -10170,15 +10177,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="163"/>
-      <c r="B76" s="164"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="150"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="163"/>
-      <c r="J76" s="164"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -10272,10 +10279,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="159" t="s">
+      <c r="I86" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="160"/>
+      <c r="J86" s="163"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -10283,10 +10290,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="161" t="s">
+      <c r="A87" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="162"/>
+      <c r="B87" s="165"/>
       <c r="C87" s="70">
         <v>1489.28</v>
       </c>
@@ -10302,10 +10309,10 @@
       <c r="G87" s="75">
         <v>3642.82</v>
       </c>
-      <c r="I87" s="161" t="s">
+      <c r="I87" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="162"/>
+      <c r="J87" s="165"/>
       <c r="K87" s="70">
         <v>10457.9</v>
       </c>
@@ -10323,8 +10330,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="161"/>
-      <c r="B88" s="162"/>
+      <c r="A88" s="164"/>
+      <c r="B88" s="165"/>
       <c r="C88" s="70">
         <v>1485.23</v>
       </c>
@@ -10340,8 +10347,8 @@
       <c r="G88" s="75">
         <v>3664.44</v>
       </c>
-      <c r="I88" s="161"/>
-      <c r="J88" s="162"/>
+      <c r="I88" s="164"/>
+      <c r="J88" s="165"/>
       <c r="K88" s="70">
         <v>10466</v>
       </c>
@@ -10359,8 +10366,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="161"/>
-      <c r="B89" s="162"/>
+      <c r="A89" s="164"/>
+      <c r="B89" s="165"/>
       <c r="C89" s="70">
         <v>1560.48</v>
       </c>
@@ -10376,8 +10383,8 @@
       <c r="G89" s="75">
         <v>3678.27</v>
       </c>
-      <c r="I89" s="161"/>
-      <c r="J89" s="162"/>
+      <c r="I89" s="164"/>
+      <c r="J89" s="165"/>
       <c r="K89" s="70">
         <v>10649.4</v>
       </c>
@@ -10395,10 +10402,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="144" t="s">
+      <c r="A90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="145"/>
+      <c r="B90" s="167"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -10419,10 +10426,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="144" t="s">
+      <c r="I90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="145"/>
+      <c r="J90" s="167"/>
       <c r="K90" s="70">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -10445,10 +10452,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="146" t="s">
+      <c r="A91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="147"/>
+      <c r="B91" s="148"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -10469,10 +10476,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="146" t="s">
+      <c r="I91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="147"/>
+      <c r="J91" s="148"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -10495,66 +10502,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="148" t="s">
+      <c r="A92" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="149"/>
-      <c r="C92" s="150" t="s">
+      <c r="B92" s="152"/>
+      <c r="C92" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="151"/>
-      <c r="E92" s="151"/>
-      <c r="F92" s="151"/>
-      <c r="G92" s="152"/>
-      <c r="I92" s="148" t="s">
+      <c r="D92" s="154"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="155"/>
+      <c r="I92" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="149"/>
-      <c r="K92" s="150" t="s">
+      <c r="J92" s="152"/>
+      <c r="K92" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="151"/>
-      <c r="M92" s="151"/>
-      <c r="N92" s="151"/>
-      <c r="O92" s="152"/>
+      <c r="L92" s="154"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="154"/>
+      <c r="O92" s="155"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="148"/>
-      <c r="B93" s="149"/>
-      <c r="C93" s="153"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="155"/>
-      <c r="I93" s="148"/>
-      <c r="J93" s="149"/>
-      <c r="K93" s="153"/>
-      <c r="L93" s="154"/>
-      <c r="M93" s="154"/>
-      <c r="N93" s="154"/>
-      <c r="O93" s="155"/>
+      <c r="A93" s="151"/>
+      <c r="B93" s="152"/>
+      <c r="C93" s="156"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="157"/>
+      <c r="F93" s="157"/>
+      <c r="G93" s="158"/>
+      <c r="I93" s="151"/>
+      <c r="J93" s="152"/>
+      <c r="K93" s="156"/>
+      <c r="L93" s="157"/>
+      <c r="M93" s="157"/>
+      <c r="N93" s="157"/>
+      <c r="O93" s="158"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="148"/>
-      <c r="B94" s="149"/>
-      <c r="C94" s="156"/>
-      <c r="D94" s="157"/>
-      <c r="E94" s="157"/>
-      <c r="F94" s="157"/>
-      <c r="G94" s="158"/>
-      <c r="I94" s="148"/>
-      <c r="J94" s="149"/>
-      <c r="K94" s="156"/>
-      <c r="L94" s="157"/>
-      <c r="M94" s="157"/>
-      <c r="N94" s="157"/>
-      <c r="O94" s="158"/>
+      <c r="A94" s="151"/>
+      <c r="B94" s="152"/>
+      <c r="C94" s="159"/>
+      <c r="D94" s="160"/>
+      <c r="E94" s="160"/>
+      <c r="F94" s="160"/>
+      <c r="G94" s="161"/>
+      <c r="I94" s="151"/>
+      <c r="J94" s="152"/>
+      <c r="K94" s="159"/>
+      <c r="L94" s="160"/>
+      <c r="M94" s="160"/>
+      <c r="N94" s="160"/>
+      <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="146" t="s">
+      <c r="A95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="147"/>
+      <c r="B95" s="148"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -10575,10 +10582,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="146" t="s">
+      <c r="I95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="147"/>
+      <c r="J95" s="148"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -10601,15 +10608,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="163"/>
-      <c r="B96" s="164"/>
+      <c r="A96" s="149"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="163"/>
-      <c r="J96" s="164"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="150"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -10620,60 +10627,11 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -10690,11 +10648,60 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10814,10 +10821,10 @@
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="73"/>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="160"/>
+      <c r="J6" s="163"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -10825,10 +10832,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="162"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="70">
         <v>612.423</v>
       </c>
@@ -10844,10 +10851,10 @@
       <c r="G7" s="75">
         <v>844.05100000000004</v>
       </c>
-      <c r="I7" s="161" t="s">
+      <c r="I7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="162"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="70">
         <v>7187.79</v>
       </c>
@@ -10865,8 +10872,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="164"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="70">
         <v>605.51700000000005</v>
       </c>
@@ -10882,8 +10889,8 @@
       <c r="G8" s="75">
         <v>842.09500000000003</v>
       </c>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
       <c r="K8" s="70">
         <v>7585.26</v>
       </c>
@@ -10901,8 +10908,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="70">
         <v>614.81899999999996</v>
       </c>
@@ -10918,8 +10925,8 @@
       <c r="G9" s="75">
         <v>842.58900000000006</v>
       </c>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
       <c r="K9" s="70">
         <v>7483.74</v>
       </c>
@@ -10937,10 +10944,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="145"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -10961,10 +10968,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="144" t="s">
+      <c r="I10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="145"/>
+      <c r="J10" s="167"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -10987,10 +10994,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="147"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -11011,10 +11018,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="147"/>
+      <c r="J11" s="148"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -11037,66 +11044,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="150" t="s">
+      <c r="B12" s="152"/>
+      <c r="C12" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="152"/>
-      <c r="I12" s="148" t="s">
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
+      <c r="I12" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150" t="s">
+      <c r="J12" s="152"/>
+      <c r="K12" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="152"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="155"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="155"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="148"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="158"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="161"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -11117,10 +11124,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="146" t="s">
+      <c r="I15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="147"/>
+      <c r="J15" s="148"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -11143,15 +11150,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="164"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -11245,10 +11252,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="159" t="s">
+      <c r="I26" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="160"/>
+      <c r="J26" s="163"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -11256,10 +11263,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="70">
         <v>566.81399999999996</v>
       </c>
@@ -11275,10 +11282,10 @@
       <c r="G27" s="75">
         <v>653.01499999999999</v>
       </c>
-      <c r="I27" s="161" t="s">
+      <c r="I27" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="162"/>
+      <c r="J27" s="165"/>
       <c r="K27" s="70">
         <v>6804.88</v>
       </c>
@@ -11296,8 +11303,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
-      <c r="B28" s="162"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="70">
         <v>565.11699999999996</v>
       </c>
@@ -11313,8 +11320,8 @@
       <c r="G28" s="75">
         <v>652.77</v>
       </c>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="165"/>
       <c r="K28" s="70">
         <v>7083.24</v>
       </c>
@@ -11332,8 +11339,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="161"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="164"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="70">
         <v>650.37800000000004</v>
       </c>
@@ -11349,8 +11356,8 @@
       <c r="G29" s="75">
         <v>653.59400000000005</v>
       </c>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
       <c r="K29" s="70">
         <v>7092.87</v>
       </c>
@@ -11368,10 +11375,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="145"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -11392,10 +11399,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="144" t="s">
+      <c r="I30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="145"/>
+      <c r="J30" s="167"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -11418,10 +11425,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="147"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -11442,10 +11449,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="146" t="s">
+      <c r="I31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="147"/>
+      <c r="J31" s="148"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -11468,66 +11475,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="150" t="s">
+      <c r="B32" s="152"/>
+      <c r="C32" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="152"/>
-      <c r="I32" s="148" t="s">
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
+      <c r="I32" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="149"/>
-      <c r="K32" s="150" t="s">
+      <c r="J32" s="152"/>
+      <c r="K32" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="152"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="155"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="148"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="155"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="158"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="158"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="148"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="158"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="161"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -11548,10 +11555,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="146" t="s">
+      <c r="I35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="147"/>
+      <c r="J35" s="148"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -11574,15 +11581,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="163"/>
-      <c r="B36" s="164"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -11676,10 +11683,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="159" t="s">
+      <c r="I46" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="160"/>
+      <c r="J46" s="163"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -11687,10 +11694,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="161" t="s">
+      <c r="A47" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="162"/>
+      <c r="B47" s="165"/>
       <c r="C47" s="70">
         <v>640.30799999999999</v>
       </c>
@@ -11706,10 +11713,10 @@
       <c r="G47" s="75">
         <v>729.649</v>
       </c>
-      <c r="I47" s="161" t="s">
+      <c r="I47" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="162"/>
+      <c r="J47" s="165"/>
       <c r="K47" s="70">
         <v>6392.16</v>
       </c>
@@ -11727,8 +11734,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="161"/>
-      <c r="B48" s="162"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
       <c r="C48" s="70">
         <v>625.80700000000002</v>
       </c>
@@ -11744,8 +11751,8 @@
       <c r="G48" s="75">
         <v>713.64700000000005</v>
       </c>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="165"/>
       <c r="K48" s="70">
         <v>6820</v>
       </c>
@@ -11763,8 +11770,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="161"/>
-      <c r="B49" s="162"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
       <c r="C49" s="70">
         <v>616.697</v>
       </c>
@@ -11780,8 +11787,8 @@
       <c r="G49" s="75">
         <v>695.51499999999999</v>
       </c>
-      <c r="I49" s="161"/>
-      <c r="J49" s="162"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="165"/>
       <c r="K49" s="70">
         <v>6522.44</v>
       </c>
@@ -11799,10 +11806,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="144" t="s">
+      <c r="A50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="145"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="70">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -11823,10 +11830,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="144" t="s">
+      <c r="I50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="145"/>
+      <c r="J50" s="167"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -11849,10 +11856,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="146" t="s">
+      <c r="A51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="147"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -11873,10 +11880,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="146" t="s">
+      <c r="I51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="147"/>
+      <c r="J51" s="148"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -11899,66 +11906,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="148" t="s">
+      <c r="A52" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="149"/>
-      <c r="C52" s="150" t="s">
+      <c r="B52" s="152"/>
+      <c r="C52" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="151"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="152"/>
-      <c r="I52" s="148" t="s">
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="155"/>
+      <c r="I52" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="149"/>
-      <c r="K52" s="150" t="s">
+      <c r="J52" s="152"/>
+      <c r="K52" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="151"/>
-      <c r="M52" s="151"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="152"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="155"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="148"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="155"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
-      <c r="N53" s="154"/>
-      <c r="O53" s="155"/>
+      <c r="A53" s="151"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="158"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="158"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="148"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="158"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="149"/>
-      <c r="K54" s="156"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="158"/>
+      <c r="A54" s="151"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="161"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="152"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="160"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="146" t="s">
+      <c r="A55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="147"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -11979,10 +11986,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="146" t="s">
+      <c r="I55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="147"/>
+      <c r="J55" s="148"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -12005,15 +12012,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="163"/>
-      <c r="B56" s="164"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="164"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="150"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -12107,10 +12114,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="159" t="s">
+      <c r="I66" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="160"/>
+      <c r="J66" s="163"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -12118,10 +12125,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="161" t="s">
+      <c r="A67" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="162"/>
+      <c r="B67" s="165"/>
       <c r="C67" s="70">
         <v>728.58100000000002</v>
       </c>
@@ -12137,10 +12144,10 @@
       <c r="G67" s="75">
         <v>832.13300000000004</v>
       </c>
-      <c r="I67" s="161" t="s">
+      <c r="I67" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="162"/>
+      <c r="J67" s="165"/>
       <c r="K67" s="70">
         <v>6829.4</v>
       </c>
@@ -12158,8 +12165,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
-      <c r="B68" s="162"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
       <c r="C68" s="70">
         <v>736.02800000000002</v>
       </c>
@@ -12175,8 +12182,8 @@
       <c r="G68" s="75">
         <v>848.15899999999999</v>
       </c>
-      <c r="I68" s="161"/>
-      <c r="J68" s="162"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="165"/>
       <c r="K68" s="70">
         <v>6525.61</v>
       </c>
@@ -12194,8 +12201,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="161"/>
-      <c r="B69" s="162"/>
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
       <c r="C69" s="70">
         <v>728.84299999999996</v>
       </c>
@@ -12211,8 +12218,8 @@
       <c r="G69" s="75">
         <v>831.49300000000005</v>
       </c>
-      <c r="I69" s="161"/>
-      <c r="J69" s="162"/>
+      <c r="I69" s="164"/>
+      <c r="J69" s="165"/>
       <c r="K69" s="70">
         <v>6569.18</v>
       </c>
@@ -12230,10 +12237,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="144" t="s">
+      <c r="A70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="145"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -12254,10 +12261,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="144" t="s">
+      <c r="I70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="145"/>
+      <c r="J70" s="167"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -12280,10 +12287,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="146" t="s">
+      <c r="A71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="147"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -12304,10 +12311,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="146" t="s">
+      <c r="I71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="147"/>
+      <c r="J71" s="148"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -12330,66 +12337,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="148" t="s">
+      <c r="A72" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="149"/>
-      <c r="C72" s="150" t="s">
+      <c r="B72" s="152"/>
+      <c r="C72" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="152"/>
-      <c r="I72" s="148" t="s">
+      <c r="D72" s="154"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="155"/>
+      <c r="I72" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="149"/>
-      <c r="K72" s="150" t="s">
+      <c r="J72" s="152"/>
+      <c r="K72" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="151"/>
-      <c r="M72" s="151"/>
-      <c r="N72" s="151"/>
-      <c r="O72" s="152"/>
+      <c r="L72" s="154"/>
+      <c r="M72" s="154"/>
+      <c r="N72" s="154"/>
+      <c r="O72" s="155"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="148"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="153"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="154"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="155"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="149"/>
-      <c r="K73" s="153"/>
-      <c r="L73" s="154"/>
-      <c r="M73" s="154"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="155"/>
+      <c r="A73" s="151"/>
+      <c r="B73" s="152"/>
+      <c r="C73" s="156"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="158"/>
+      <c r="I73" s="151"/>
+      <c r="J73" s="152"/>
+      <c r="K73" s="156"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+      <c r="O73" s="158"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="148"/>
-      <c r="B74" s="149"/>
-      <c r="C74" s="156"/>
-      <c r="D74" s="157"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="158"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="149"/>
-      <c r="K74" s="156"/>
-      <c r="L74" s="157"/>
-      <c r="M74" s="157"/>
-      <c r="N74" s="157"/>
-      <c r="O74" s="158"/>
+      <c r="A74" s="151"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="159"/>
+      <c r="D74" s="160"/>
+      <c r="E74" s="160"/>
+      <c r="F74" s="160"/>
+      <c r="G74" s="161"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="152"/>
+      <c r="K74" s="159"/>
+      <c r="L74" s="160"/>
+      <c r="M74" s="160"/>
+      <c r="N74" s="160"/>
+      <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="146" t="s">
+      <c r="A75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="147"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -12410,10 +12417,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="146" t="s">
+      <c r="I75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="147"/>
+      <c r="J75" s="148"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -12436,15 +12443,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="163"/>
-      <c r="B76" s="164"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="150"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="163"/>
-      <c r="J76" s="164"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -12538,10 +12545,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="159" t="s">
+      <c r="I86" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="160"/>
+      <c r="J86" s="163"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -12549,10 +12556,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="161" t="s">
+      <c r="A87" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="162"/>
+      <c r="B87" s="165"/>
       <c r="C87" s="70">
         <v>1514.7</v>
       </c>
@@ -12568,10 +12575,10 @@
       <c r="G87" s="75">
         <v>1356.97</v>
       </c>
-      <c r="I87" s="161" t="s">
+      <c r="I87" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="162"/>
+      <c r="J87" s="165"/>
       <c r="K87" s="70">
         <v>9831.2999999999993</v>
       </c>
@@ -12589,8 +12596,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="161"/>
-      <c r="B88" s="162"/>
+      <c r="A88" s="164"/>
+      <c r="B88" s="165"/>
       <c r="C88" s="70">
         <v>1499.89</v>
       </c>
@@ -12606,8 +12613,8 @@
       <c r="G88" s="75">
         <v>1345.56</v>
       </c>
-      <c r="I88" s="161"/>
-      <c r="J88" s="162"/>
+      <c r="I88" s="164"/>
+      <c r="J88" s="165"/>
       <c r="K88" s="70">
         <v>10540.3</v>
       </c>
@@ -12625,8 +12632,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="161"/>
-      <c r="B89" s="162"/>
+      <c r="A89" s="164"/>
+      <c r="B89" s="165"/>
       <c r="C89" s="70">
         <v>1426.87</v>
       </c>
@@ -12642,8 +12649,8 @@
       <c r="G89" s="75">
         <v>1322.16</v>
       </c>
-      <c r="I89" s="161"/>
-      <c r="J89" s="162"/>
+      <c r="I89" s="164"/>
+      <c r="J89" s="165"/>
       <c r="K89" s="70">
         <v>10526.8</v>
       </c>
@@ -12661,10 +12668,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="144" t="s">
+      <c r="A90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="145"/>
+      <c r="B90" s="167"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -12685,10 +12692,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="144" t="s">
+      <c r="I90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="145"/>
+      <c r="J90" s="167"/>
       <c r="K90" s="101">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -12711,10 +12718,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="146" t="s">
+      <c r="A91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="147"/>
+      <c r="B91" s="148"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -12735,10 +12742,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="146" t="s">
+      <c r="I91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="147"/>
+      <c r="J91" s="148"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -12761,66 +12768,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="148" t="s">
+      <c r="A92" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="149"/>
-      <c r="C92" s="150" t="s">
+      <c r="B92" s="152"/>
+      <c r="C92" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="151"/>
-      <c r="E92" s="151"/>
-      <c r="F92" s="151"/>
-      <c r="G92" s="152"/>
-      <c r="I92" s="148" t="s">
+      <c r="D92" s="154"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="155"/>
+      <c r="I92" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="149"/>
-      <c r="K92" s="150" t="s">
+      <c r="J92" s="152"/>
+      <c r="K92" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="151"/>
-      <c r="M92" s="151"/>
-      <c r="N92" s="151"/>
-      <c r="O92" s="152"/>
+      <c r="L92" s="154"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="154"/>
+      <c r="O92" s="155"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="148"/>
-      <c r="B93" s="149"/>
-      <c r="C93" s="153"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="155"/>
-      <c r="I93" s="148"/>
-      <c r="J93" s="149"/>
-      <c r="K93" s="153"/>
-      <c r="L93" s="154"/>
-      <c r="M93" s="154"/>
-      <c r="N93" s="154"/>
-      <c r="O93" s="155"/>
+      <c r="A93" s="151"/>
+      <c r="B93" s="152"/>
+      <c r="C93" s="156"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="157"/>
+      <c r="F93" s="157"/>
+      <c r="G93" s="158"/>
+      <c r="I93" s="151"/>
+      <c r="J93" s="152"/>
+      <c r="K93" s="156"/>
+      <c r="L93" s="157"/>
+      <c r="M93" s="157"/>
+      <c r="N93" s="157"/>
+      <c r="O93" s="158"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="148"/>
-      <c r="B94" s="149"/>
-      <c r="C94" s="156"/>
-      <c r="D94" s="157"/>
-      <c r="E94" s="157"/>
-      <c r="F94" s="157"/>
-      <c r="G94" s="158"/>
-      <c r="I94" s="148"/>
-      <c r="J94" s="149"/>
-      <c r="K94" s="156"/>
-      <c r="L94" s="157"/>
-      <c r="M94" s="157"/>
-      <c r="N94" s="157"/>
-      <c r="O94" s="158"/>
+      <c r="A94" s="151"/>
+      <c r="B94" s="152"/>
+      <c r="C94" s="159"/>
+      <c r="D94" s="160"/>
+      <c r="E94" s="160"/>
+      <c r="F94" s="160"/>
+      <c r="G94" s="161"/>
+      <c r="I94" s="151"/>
+      <c r="J94" s="152"/>
+      <c r="K94" s="159"/>
+      <c r="L94" s="160"/>
+      <c r="M94" s="160"/>
+      <c r="N94" s="160"/>
+      <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="146" t="s">
+      <c r="A95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="147"/>
+      <c r="B95" s="148"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -12841,10 +12848,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="146" t="s">
+      <c r="I95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="147"/>
+      <c r="J95" s="148"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -12867,15 +12874,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="163"/>
-      <c r="B96" s="164"/>
+      <c r="A96" s="149"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="163"/>
-      <c r="J96" s="164"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="150"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -12886,48 +12893,27 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -12940,27 +12926,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13080,10 +13087,10 @@
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="73"/>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="160"/>
+      <c r="J6" s="163"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -13091,10 +13098,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="162"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="85">
         <v>604.44000000000005</v>
       </c>
@@ -13110,10 +13117,10 @@
       <c r="G7" s="86">
         <v>701.48</v>
       </c>
-      <c r="I7" s="161" t="s">
+      <c r="I7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="162"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="70">
         <v>6985.72</v>
       </c>
@@ -13131,8 +13138,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="164"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="82">
         <v>590.54999999999995</v>
       </c>
@@ -13148,8 +13155,8 @@
       <c r="G8" s="84">
         <v>701.51</v>
       </c>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
       <c r="K8" s="70">
         <v>7269.43</v>
       </c>
@@ -13167,8 +13174,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="70">
         <v>591.9</v>
       </c>
@@ -13184,8 +13191,8 @@
       <c r="G9" s="75">
         <v>703.45</v>
       </c>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
       <c r="K9" s="70">
         <v>7263.19</v>
       </c>
@@ -13203,10 +13210,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="145"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -13227,10 +13234,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="144" t="s">
+      <c r="I10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="145"/>
+      <c r="J10" s="167"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -13253,10 +13260,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="147"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -13277,10 +13284,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="147"/>
+      <c r="J11" s="148"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -13303,66 +13310,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="150" t="s">
+      <c r="B12" s="152"/>
+      <c r="C12" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="152"/>
-      <c r="I12" s="148" t="s">
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
+      <c r="I12" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150" t="s">
+      <c r="J12" s="152"/>
+      <c r="K12" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="152"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="155"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="155"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="148"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="158"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="161"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -13383,10 +13390,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="146" t="s">
+      <c r="I15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="147"/>
+      <c r="J15" s="148"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -13409,15 +13416,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="164"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -13511,10 +13518,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="159" t="s">
+      <c r="I26" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="160"/>
+      <c r="J26" s="163"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -13522,10 +13529,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="70">
         <v>567.65</v>
       </c>
@@ -13541,10 +13548,10 @@
       <c r="G27" s="75">
         <v>652.16999999999996</v>
       </c>
-      <c r="I27" s="161" t="s">
+      <c r="I27" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="162"/>
+      <c r="J27" s="165"/>
       <c r="K27" s="70">
         <v>6682.46</v>
       </c>
@@ -13562,8 +13569,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
-      <c r="B28" s="162"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="70">
         <v>566.14</v>
       </c>
@@ -13579,8 +13586,8 @@
       <c r="G28" s="75">
         <v>655.39</v>
       </c>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="165"/>
       <c r="K28" s="70">
         <v>7080.63</v>
       </c>
@@ -13598,8 +13605,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="161"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="164"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="70">
         <v>568.79999999999995</v>
       </c>
@@ -13615,8 +13622,8 @@
       <c r="G29" s="75">
         <v>652.82000000000005</v>
       </c>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
       <c r="K29" s="70">
         <v>6682.73</v>
       </c>
@@ -13634,10 +13641,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="145"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -13658,10 +13665,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="144" t="s">
+      <c r="I30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="145"/>
+      <c r="J30" s="167"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -13684,10 +13691,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="147"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -13708,10 +13715,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="146" t="s">
+      <c r="I31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="147"/>
+      <c r="J31" s="148"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -13734,66 +13741,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="150" t="s">
+      <c r="B32" s="152"/>
+      <c r="C32" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="152"/>
-      <c r="I32" s="148" t="s">
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
+      <c r="I32" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="149"/>
-      <c r="K32" s="150" t="s">
+      <c r="J32" s="152"/>
+      <c r="K32" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="152"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="155"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="148"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="155"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="158"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="158"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="148"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="158"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="161"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -13814,10 +13821,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="146" t="s">
+      <c r="I35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="147"/>
+      <c r="J35" s="148"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -13840,15 +13847,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="163"/>
-      <c r="B36" s="164"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -13942,10 +13949,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="159" t="s">
+      <c r="I46" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="160"/>
+      <c r="J46" s="163"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -13953,10 +13960,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="161" t="s">
+      <c r="A47" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="162"/>
+      <c r="B47" s="165"/>
       <c r="C47" s="74">
         <v>656.57</v>
       </c>
@@ -13972,10 +13979,10 @@
       <c r="G47" s="75">
         <v>656.423</v>
       </c>
-      <c r="I47" s="161" t="s">
+      <c r="I47" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="162"/>
+      <c r="J47" s="165"/>
       <c r="K47" s="70">
         <v>6162.07</v>
       </c>
@@ -13993,8 +14000,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="161"/>
-      <c r="B48" s="162"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
       <c r="C48" s="74">
         <v>621.61</v>
       </c>
@@ -14010,8 +14017,8 @@
       <c r="G48" s="75">
         <v>648.48</v>
       </c>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="165"/>
       <c r="K48" s="70">
         <v>6162.92</v>
       </c>
@@ -14029,8 +14036,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="161"/>
-      <c r="B49" s="162"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
       <c r="C49" s="74">
         <v>622.58000000000004</v>
       </c>
@@ -14046,8 +14053,8 @@
       <c r="G49" s="75">
         <v>632.22</v>
       </c>
-      <c r="I49" s="161"/>
-      <c r="J49" s="162"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="165"/>
       <c r="K49" s="70">
         <v>6153.56</v>
       </c>
@@ -14065,10 +14072,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="144" t="s">
+      <c r="A50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="145"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="74">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -14089,10 +14096,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="144" t="s">
+      <c r="I50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="145"/>
+      <c r="J50" s="167"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -14115,10 +14122,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="146" t="s">
+      <c r="A51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="147"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="76">
         <v>0.63</v>
       </c>
@@ -14134,10 +14141,10 @@
       <c r="G51" s="78">
         <v>0.65</v>
       </c>
-      <c r="I51" s="146" t="s">
+      <c r="I51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="147"/>
+      <c r="J51" s="148"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -14160,66 +14167,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="148" t="s">
+      <c r="A52" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="149"/>
-      <c r="C52" s="150" t="s">
+      <c r="B52" s="152"/>
+      <c r="C52" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="151"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="152"/>
-      <c r="I52" s="148" t="s">
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="155"/>
+      <c r="I52" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="149"/>
-      <c r="K52" s="150" t="s">
+      <c r="J52" s="152"/>
+      <c r="K52" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="151"/>
-      <c r="M52" s="151"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="152"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="155"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="148"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="155"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
-      <c r="N53" s="154"/>
-      <c r="O53" s="155"/>
+      <c r="A53" s="151"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="158"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="158"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="148"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="158"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="149"/>
-      <c r="K54" s="156"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="158"/>
+      <c r="A54" s="151"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="161"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="152"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="160"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="146" t="s">
+      <c r="A55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="147"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -14240,10 +14247,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="146" t="s">
+      <c r="I55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="147"/>
+      <c r="J55" s="148"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -14266,15 +14273,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="163"/>
-      <c r="B56" s="164"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="164"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="150"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -14368,10 +14375,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="159" t="s">
+      <c r="I66" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="160"/>
+      <c r="J66" s="163"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -14379,10 +14386,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="161" t="s">
+      <c r="A67" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="162"/>
+      <c r="B67" s="165"/>
       <c r="C67" s="70">
         <v>751.18100000000004</v>
       </c>
@@ -14398,10 +14405,10 @@
       <c r="G67" s="75">
         <v>800.94</v>
       </c>
-      <c r="I67" s="161" t="s">
+      <c r="I67" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="162"/>
+      <c r="J67" s="165"/>
       <c r="K67" s="70">
         <v>6835.64</v>
       </c>
@@ -14419,8 +14426,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
-      <c r="B68" s="162"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
       <c r="C68" s="70">
         <v>750.57799999999997</v>
       </c>
@@ -14436,8 +14443,8 @@
       <c r="G68" s="75">
         <v>803.08600000000001</v>
       </c>
-      <c r="I68" s="161"/>
-      <c r="J68" s="162"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="165"/>
       <c r="K68" s="70">
         <v>6567.81</v>
       </c>
@@ -14455,8 +14462,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="161"/>
-      <c r="B69" s="162"/>
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
       <c r="C69" s="70">
         <v>736.66700000000003</v>
       </c>
@@ -14472,8 +14479,8 @@
       <c r="G69" s="75">
         <v>772.69399999999996</v>
       </c>
-      <c r="I69" s="161"/>
-      <c r="J69" s="162"/>
+      <c r="I69" s="164"/>
+      <c r="J69" s="165"/>
       <c r="K69" s="70">
         <v>6728.4</v>
       </c>
@@ -14491,10 +14498,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="144" t="s">
+      <c r="A70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="145"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -14515,10 +14522,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="144" t="s">
+      <c r="I70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="145"/>
+      <c r="J70" s="167"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -14541,10 +14548,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="146" t="s">
+      <c r="A71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="147"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -14565,10 +14572,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="146" t="s">
+      <c r="I71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="147"/>
+      <c r="J71" s="148"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -14591,66 +14598,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="148" t="s">
+      <c r="A72" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="149"/>
-      <c r="C72" s="150" t="s">
+      <c r="B72" s="152"/>
+      <c r="C72" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="152"/>
-      <c r="I72" s="148" t="s">
+      <c r="D72" s="154"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="155"/>
+      <c r="I72" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="149"/>
-      <c r="K72" s="150" t="s">
+      <c r="J72" s="152"/>
+      <c r="K72" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="151"/>
-      <c r="M72" s="151"/>
-      <c r="N72" s="151"/>
-      <c r="O72" s="152"/>
+      <c r="L72" s="154"/>
+      <c r="M72" s="154"/>
+      <c r="N72" s="154"/>
+      <c r="O72" s="155"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="148"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="153"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="154"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="155"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="149"/>
-      <c r="K73" s="153"/>
-      <c r="L73" s="154"/>
-      <c r="M73" s="154"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="155"/>
+      <c r="A73" s="151"/>
+      <c r="B73" s="152"/>
+      <c r="C73" s="156"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="158"/>
+      <c r="I73" s="151"/>
+      <c r="J73" s="152"/>
+      <c r="K73" s="156"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+      <c r="O73" s="158"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="148"/>
-      <c r="B74" s="149"/>
-      <c r="C74" s="156"/>
-      <c r="D74" s="157"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="158"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="149"/>
-      <c r="K74" s="156"/>
-      <c r="L74" s="157"/>
-      <c r="M74" s="157"/>
-      <c r="N74" s="157"/>
-      <c r="O74" s="158"/>
+      <c r="A74" s="151"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="159"/>
+      <c r="D74" s="160"/>
+      <c r="E74" s="160"/>
+      <c r="F74" s="160"/>
+      <c r="G74" s="161"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="152"/>
+      <c r="K74" s="159"/>
+      <c r="L74" s="160"/>
+      <c r="M74" s="160"/>
+      <c r="N74" s="160"/>
+      <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="146" t="s">
+      <c r="A75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="147"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -14671,10 +14678,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="146" t="s">
+      <c r="I75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="147"/>
+      <c r="J75" s="148"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -14697,15 +14704,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="163"/>
-      <c r="B76" s="164"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="150"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="163"/>
-      <c r="J76" s="164"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -14799,10 +14806,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="159" t="s">
+      <c r="I86" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="160"/>
+      <c r="J86" s="163"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -14810,10 +14817,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="161" t="s">
+      <c r="A87" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="162"/>
+      <c r="B87" s="165"/>
       <c r="C87" s="70">
         <v>1492.18</v>
       </c>
@@ -14829,10 +14836,10 @@
       <c r="G87" s="75">
         <v>1294.4000000000001</v>
       </c>
-      <c r="I87" s="161" t="s">
+      <c r="I87" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="162"/>
+      <c r="J87" s="165"/>
       <c r="K87" s="70">
         <v>10439.799999999999</v>
       </c>
@@ -14850,8 +14857,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="161"/>
-      <c r="B88" s="162"/>
+      <c r="A88" s="164"/>
+      <c r="B88" s="165"/>
       <c r="C88" s="70">
         <v>1553.43</v>
       </c>
@@ -14867,8 +14874,8 @@
       <c r="G88" s="75">
         <v>1294.48</v>
       </c>
-      <c r="I88" s="161"/>
-      <c r="J88" s="162"/>
+      <c r="I88" s="164"/>
+      <c r="J88" s="165"/>
       <c r="K88" s="70">
         <v>10799.3</v>
       </c>
@@ -14886,8 +14893,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="161"/>
-      <c r="B89" s="162"/>
+      <c r="A89" s="164"/>
+      <c r="B89" s="165"/>
       <c r="C89" s="70">
         <v>1558.89</v>
       </c>
@@ -14903,8 +14910,8 @@
       <c r="G89" s="75">
         <v>1335.85</v>
       </c>
-      <c r="I89" s="161"/>
-      <c r="J89" s="162"/>
+      <c r="I89" s="164"/>
+      <c r="J89" s="165"/>
       <c r="K89" s="70">
         <v>10768.4</v>
       </c>
@@ -14922,10 +14929,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="144" t="s">
+      <c r="A90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="145"/>
+      <c r="B90" s="167"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -14946,10 +14953,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="144" t="s">
+      <c r="I90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="145"/>
+      <c r="J90" s="167"/>
       <c r="K90" s="70">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -14972,10 +14979,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="146" t="s">
+      <c r="A91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="147"/>
+      <c r="B91" s="148"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -14996,10 +15003,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="146" t="s">
+      <c r="I91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="147"/>
+      <c r="J91" s="148"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -15022,66 +15029,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="148" t="s">
+      <c r="A92" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="149"/>
-      <c r="C92" s="150" t="s">
+      <c r="B92" s="152"/>
+      <c r="C92" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="151"/>
-      <c r="E92" s="151"/>
-      <c r="F92" s="151"/>
-      <c r="G92" s="152"/>
-      <c r="I92" s="148" t="s">
+      <c r="D92" s="154"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="155"/>
+      <c r="I92" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="149"/>
-      <c r="K92" s="150" t="s">
+      <c r="J92" s="152"/>
+      <c r="K92" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="151"/>
-      <c r="M92" s="151"/>
-      <c r="N92" s="151"/>
-      <c r="O92" s="152"/>
+      <c r="L92" s="154"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="154"/>
+      <c r="O92" s="155"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="148"/>
-      <c r="B93" s="149"/>
-      <c r="C93" s="153"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="155"/>
-      <c r="I93" s="148"/>
-      <c r="J93" s="149"/>
-      <c r="K93" s="153"/>
-      <c r="L93" s="154"/>
-      <c r="M93" s="154"/>
-      <c r="N93" s="154"/>
-      <c r="O93" s="155"/>
+      <c r="A93" s="151"/>
+      <c r="B93" s="152"/>
+      <c r="C93" s="156"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="157"/>
+      <c r="F93" s="157"/>
+      <c r="G93" s="158"/>
+      <c r="I93" s="151"/>
+      <c r="J93" s="152"/>
+      <c r="K93" s="156"/>
+      <c r="L93" s="157"/>
+      <c r="M93" s="157"/>
+      <c r="N93" s="157"/>
+      <c r="O93" s="158"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="148"/>
-      <c r="B94" s="149"/>
-      <c r="C94" s="156"/>
-      <c r="D94" s="157"/>
-      <c r="E94" s="157"/>
-      <c r="F94" s="157"/>
-      <c r="G94" s="158"/>
-      <c r="I94" s="148"/>
-      <c r="J94" s="149"/>
-      <c r="K94" s="156"/>
-      <c r="L94" s="157"/>
-      <c r="M94" s="157"/>
-      <c r="N94" s="157"/>
-      <c r="O94" s="158"/>
+      <c r="A94" s="151"/>
+      <c r="B94" s="152"/>
+      <c r="C94" s="159"/>
+      <c r="D94" s="160"/>
+      <c r="E94" s="160"/>
+      <c r="F94" s="160"/>
+      <c r="G94" s="161"/>
+      <c r="I94" s="151"/>
+      <c r="J94" s="152"/>
+      <c r="K94" s="159"/>
+      <c r="L94" s="160"/>
+      <c r="M94" s="160"/>
+      <c r="N94" s="160"/>
+      <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="146" t="s">
+      <c r="A95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="147"/>
+      <c r="B95" s="148"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -15102,10 +15109,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="146" t="s">
+      <c r="I95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="147"/>
+      <c r="J95" s="148"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -15128,15 +15135,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="163"/>
-      <c r="B96" s="164"/>
+      <c r="A96" s="149"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="163"/>
-      <c r="J96" s="164"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="150"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -15147,48 +15154,27 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -15201,27 +15187,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15341,10 +15348,10 @@
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
       <c r="G6" s="73"/>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="160"/>
+      <c r="J6" s="163"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -15352,10 +15359,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="162"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="70">
         <v>582.29</v>
       </c>
@@ -15371,10 +15378,10 @@
       <c r="G7" s="75">
         <v>697.94399999999996</v>
       </c>
-      <c r="I7" s="161" t="s">
+      <c r="I7" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="162"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="70">
         <v>7174.12</v>
       </c>
@@ -15392,8 +15399,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
-      <c r="B8" s="162"/>
+      <c r="A8" s="164"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="70">
         <v>580.86699999999996</v>
       </c>
@@ -15409,8 +15416,8 @@
       <c r="G8" s="75">
         <v>712.18100000000004</v>
       </c>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
       <c r="K8" s="70">
         <v>6883.99</v>
       </c>
@@ -15428,8 +15435,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="70">
         <v>580.44200000000001</v>
       </c>
@@ -15445,8 +15452,8 @@
       <c r="G9" s="75">
         <v>707.85199999999998</v>
       </c>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
       <c r="K9" s="70">
         <v>6875.02</v>
       </c>
@@ -15464,10 +15471,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="145"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -15488,10 +15495,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="144" t="s">
+      <c r="I10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="145"/>
+      <c r="J10" s="167"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -15514,10 +15521,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="147"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -15538,10 +15545,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="147"/>
+      <c r="J11" s="148"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -15564,66 +15571,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="150" t="s">
+      <c r="B12" s="152"/>
+      <c r="C12" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="152"/>
-      <c r="I12" s="148" t="s">
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
+      <c r="I12" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150" t="s">
+      <c r="J12" s="152"/>
+      <c r="K12" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="152"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="155"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="155"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="148"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="158"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="161"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -15644,10 +15651,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="146" t="s">
+      <c r="I15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="147"/>
+      <c r="J15" s="148"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -15670,15 +15677,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163"/>
-      <c r="B16" s="164"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="164"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -15772,10 +15779,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="159" t="s">
+      <c r="I26" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="160"/>
+      <c r="J26" s="163"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -15783,10 +15790,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="70">
         <v>539.41</v>
       </c>
@@ -15802,10 +15809,10 @@
       <c r="G27" s="75">
         <v>666.495</v>
       </c>
-      <c r="I27" s="161" t="s">
+      <c r="I27" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="162"/>
+      <c r="J27" s="165"/>
       <c r="K27" s="70">
         <v>6627.48</v>
       </c>
@@ -15823,8 +15830,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
-      <c r="B28" s="162"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="70">
         <v>545.24800000000005</v>
       </c>
@@ -15840,8 +15847,8 @@
       <c r="G28" s="75">
         <v>659.37800000000004</v>
       </c>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="165"/>
       <c r="K28" s="70">
         <v>6664.87</v>
       </c>
@@ -15859,8 +15866,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="161"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="164"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="70">
         <v>547.53399999999999</v>
       </c>
@@ -15876,8 +15883,8 @@
       <c r="G29" s="75">
         <v>666.62099999999998</v>
       </c>
-      <c r="I29" s="161"/>
-      <c r="J29" s="162"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
       <c r="K29" s="70">
         <v>6635.9</v>
       </c>
@@ -15895,10 +15902,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="145"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -15919,10 +15926,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="144" t="s">
+      <c r="I30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="145"/>
+      <c r="J30" s="167"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -15945,10 +15952,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="147"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -15969,10 +15976,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="146" t="s">
+      <c r="I31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="147"/>
+      <c r="J31" s="148"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -15995,66 +16002,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="150" t="s">
+      <c r="B32" s="152"/>
+      <c r="C32" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="152"/>
-      <c r="I32" s="148" t="s">
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
+      <c r="I32" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="149"/>
-      <c r="K32" s="150" t="s">
+      <c r="J32" s="152"/>
+      <c r="K32" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="152"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="155"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="148"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="155"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="158"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="158"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="148"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="158"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="161"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -16075,10 +16082,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="146" t="s">
+      <c r="I35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="147"/>
+      <c r="J35" s="148"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -16101,15 +16108,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="163"/>
-      <c r="B36" s="164"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -16203,10 +16210,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="159" t="s">
+      <c r="I46" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="160"/>
+      <c r="J46" s="163"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -16214,10 +16221,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="161" t="s">
+      <c r="A47" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="162"/>
+      <c r="B47" s="165"/>
       <c r="C47" s="70">
         <v>637.39400000000001</v>
       </c>
@@ -16233,10 +16240,10 @@
       <c r="G47" s="75">
         <v>584.47400000000005</v>
       </c>
-      <c r="I47" s="161" t="s">
+      <c r="I47" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="162"/>
+      <c r="J47" s="165"/>
       <c r="K47" s="70">
         <v>6106.13</v>
       </c>
@@ -16254,8 +16261,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="161"/>
-      <c r="B48" s="162"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
       <c r="C48" s="70">
         <v>645.43299999999999</v>
       </c>
@@ -16271,8 +16278,8 @@
       <c r="G48" s="75">
         <v>583.87900000000002</v>
       </c>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="165"/>
       <c r="K48" s="70">
         <v>6146.53</v>
       </c>
@@ -16290,8 +16297,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="161"/>
-      <c r="B49" s="162"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
       <c r="C49" s="70">
         <v>631.678</v>
       </c>
@@ -16307,8 +16314,8 @@
       <c r="G49" s="75">
         <v>593.36300000000006</v>
       </c>
-      <c r="I49" s="161"/>
-      <c r="J49" s="162"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="165"/>
       <c r="K49" s="70">
         <v>6143.9</v>
       </c>
@@ -16326,10 +16333,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="144" t="s">
+      <c r="A50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="145"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="70">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -16350,10 +16357,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="144" t="s">
+      <c r="I50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="145"/>
+      <c r="J50" s="167"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -16376,10 +16383,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="146" t="s">
+      <c r="A51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="147"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -16400,10 +16407,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="146" t="s">
+      <c r="I51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="147"/>
+      <c r="J51" s="148"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -16426,66 +16433,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="148" t="s">
+      <c r="A52" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="149"/>
-      <c r="C52" s="150" t="s">
+      <c r="B52" s="152"/>
+      <c r="C52" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="151"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="152"/>
-      <c r="I52" s="148" t="s">
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="155"/>
+      <c r="I52" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="149"/>
-      <c r="K52" s="150" t="s">
+      <c r="J52" s="152"/>
+      <c r="K52" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="151"/>
-      <c r="M52" s="151"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="152"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="155"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="148"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="155"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
-      <c r="N53" s="154"/>
-      <c r="O53" s="155"/>
+      <c r="A53" s="151"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="158"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="158"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="148"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="158"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="149"/>
-      <c r="K54" s="156"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="158"/>
+      <c r="A54" s="151"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="161"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="152"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="160"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="146" t="s">
+      <c r="A55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="147"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -16506,10 +16513,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="146" t="s">
+      <c r="I55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="147"/>
+      <c r="J55" s="148"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -16532,15 +16539,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="163"/>
-      <c r="B56" s="164"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="164"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="150"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -16634,10 +16641,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="159" t="s">
+      <c r="I66" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="160"/>
+      <c r="J66" s="163"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -16645,10 +16652,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="161" t="s">
+      <c r="A67" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="162"/>
+      <c r="B67" s="165"/>
       <c r="C67" s="105">
         <v>744.72299999999996</v>
       </c>
@@ -16664,10 +16671,10 @@
       <c r="G67" s="106">
         <v>757.41099999999994</v>
       </c>
-      <c r="I67" s="161" t="s">
+      <c r="I67" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="162"/>
+      <c r="J67" s="165"/>
       <c r="K67" s="70">
         <v>6119.24</v>
       </c>
@@ -16685,8 +16692,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
-      <c r="B68" s="162"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
       <c r="C68" s="105">
         <v>744.39499999999998</v>
       </c>
@@ -16702,8 +16709,8 @@
       <c r="G68" s="106">
         <v>754.50900000000001</v>
       </c>
-      <c r="I68" s="161"/>
-      <c r="J68" s="162"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="165"/>
       <c r="K68" s="70">
         <v>6137.4</v>
       </c>
@@ -16721,8 +16728,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="161"/>
-      <c r="B69" s="162"/>
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
       <c r="C69" s="105">
         <v>746.53800000000001</v>
       </c>
@@ -16738,8 +16745,8 @@
       <c r="G69" s="106">
         <v>749.27</v>
       </c>
-      <c r="I69" s="161"/>
-      <c r="J69" s="162"/>
+      <c r="I69" s="164"/>
+      <c r="J69" s="165"/>
       <c r="K69" s="70">
         <v>6116.48</v>
       </c>
@@ -16757,10 +16764,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="144" t="s">
+      <c r="A70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="145"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -16781,10 +16788,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="144" t="s">
+      <c r="I70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="145"/>
+      <c r="J70" s="167"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -16807,10 +16814,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="146" t="s">
+      <c r="A71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="147"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -16831,10 +16838,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="146" t="s">
+      <c r="I71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="147"/>
+      <c r="J71" s="148"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -16857,66 +16864,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="148" t="s">
+      <c r="A72" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="149"/>
-      <c r="C72" s="150" t="s">
+      <c r="B72" s="152"/>
+      <c r="C72" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="152"/>
-      <c r="I72" s="148" t="s">
+      <c r="D72" s="154"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="155"/>
+      <c r="I72" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="149"/>
-      <c r="K72" s="150" t="s">
+      <c r="J72" s="152"/>
+      <c r="K72" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="151"/>
-      <c r="M72" s="151"/>
-      <c r="N72" s="151"/>
-      <c r="O72" s="152"/>
+      <c r="L72" s="154"/>
+      <c r="M72" s="154"/>
+      <c r="N72" s="154"/>
+      <c r="O72" s="155"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="148"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="153"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="154"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="155"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="149"/>
-      <c r="K73" s="153"/>
-      <c r="L73" s="154"/>
-      <c r="M73" s="154"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="155"/>
+      <c r="A73" s="151"/>
+      <c r="B73" s="152"/>
+      <c r="C73" s="156"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="158"/>
+      <c r="I73" s="151"/>
+      <c r="J73" s="152"/>
+      <c r="K73" s="156"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+      <c r="O73" s="158"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="148"/>
-      <c r="B74" s="149"/>
-      <c r="C74" s="156"/>
-      <c r="D74" s="157"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="158"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="149"/>
-      <c r="K74" s="156"/>
-      <c r="L74" s="157"/>
-      <c r="M74" s="157"/>
-      <c r="N74" s="157"/>
-      <c r="O74" s="158"/>
+      <c r="A74" s="151"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="159"/>
+      <c r="D74" s="160"/>
+      <c r="E74" s="160"/>
+      <c r="F74" s="160"/>
+      <c r="G74" s="161"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="152"/>
+      <c r="K74" s="159"/>
+      <c r="L74" s="160"/>
+      <c r="M74" s="160"/>
+      <c r="N74" s="160"/>
+      <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="146" t="s">
+      <c r="A75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="147"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -16937,10 +16944,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="146" t="s">
+      <c r="I75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="147"/>
+      <c r="J75" s="148"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -16963,15 +16970,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="163"/>
-      <c r="B76" s="164"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="150"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="163"/>
-      <c r="J76" s="164"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -17065,10 +17072,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="159" t="s">
+      <c r="I86" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="160"/>
+      <c r="J86" s="163"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -17076,10 +17083,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="161" t="s">
+      <c r="A87" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="162"/>
+      <c r="B87" s="165"/>
       <c r="C87" s="70">
         <v>1539.08</v>
       </c>
@@ -17095,10 +17102,10 @@
       <c r="G87" s="75">
         <v>1261.68</v>
       </c>
-      <c r="I87" s="161" t="s">
+      <c r="I87" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="162"/>
+      <c r="J87" s="165"/>
       <c r="K87" s="70">
         <v>10604.7</v>
       </c>
@@ -17116,8 +17123,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="161"/>
-      <c r="B88" s="162"/>
+      <c r="A88" s="164"/>
+      <c r="B88" s="165"/>
       <c r="C88" s="70">
         <v>1630.5</v>
       </c>
@@ -17133,8 +17140,8 @@
       <c r="G88" s="75">
         <v>1334.83</v>
       </c>
-      <c r="I88" s="161"/>
-      <c r="J88" s="162"/>
+      <c r="I88" s="164"/>
+      <c r="J88" s="165"/>
       <c r="K88" s="70">
         <v>10929.6</v>
       </c>
@@ -17152,8 +17159,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="161"/>
-      <c r="B89" s="162"/>
+      <c r="A89" s="164"/>
+      <c r="B89" s="165"/>
       <c r="C89" s="70">
         <v>1596.17</v>
       </c>
@@ -17169,8 +17176,8 @@
       <c r="G89" s="75">
         <v>1249.71</v>
       </c>
-      <c r="I89" s="161"/>
-      <c r="J89" s="162"/>
+      <c r="I89" s="164"/>
+      <c r="J89" s="165"/>
       <c r="K89" s="70">
         <v>10662.1</v>
       </c>
@@ -17188,10 +17195,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="144" t="s">
+      <c r="A90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="145"/>
+      <c r="B90" s="167"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -17212,10 +17219,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="144" t="s">
+      <c r="I90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="145"/>
+      <c r="J90" s="167"/>
       <c r="K90" s="70">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -17238,10 +17245,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="146" t="s">
+      <c r="A91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="147"/>
+      <c r="B91" s="148"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -17262,10 +17269,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="146" t="s">
+      <c r="I91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="147"/>
+      <c r="J91" s="148"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -17288,66 +17295,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="148" t="s">
+      <c r="A92" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="149"/>
-      <c r="C92" s="150" t="s">
+      <c r="B92" s="152"/>
+      <c r="C92" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="151"/>
-      <c r="E92" s="151"/>
-      <c r="F92" s="151"/>
-      <c r="G92" s="152"/>
-      <c r="I92" s="148" t="s">
+      <c r="D92" s="154"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="155"/>
+      <c r="I92" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="149"/>
-      <c r="K92" s="150" t="s">
+      <c r="J92" s="152"/>
+      <c r="K92" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="151"/>
-      <c r="M92" s="151"/>
-      <c r="N92" s="151"/>
-      <c r="O92" s="152"/>
+      <c r="L92" s="154"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="154"/>
+      <c r="O92" s="155"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="148"/>
-      <c r="B93" s="149"/>
-      <c r="C93" s="153"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="155"/>
-      <c r="I93" s="148"/>
-      <c r="J93" s="149"/>
-      <c r="K93" s="153"/>
-      <c r="L93" s="154"/>
-      <c r="M93" s="154"/>
-      <c r="N93" s="154"/>
-      <c r="O93" s="155"/>
+      <c r="A93" s="151"/>
+      <c r="B93" s="152"/>
+      <c r="C93" s="156"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="157"/>
+      <c r="F93" s="157"/>
+      <c r="G93" s="158"/>
+      <c r="I93" s="151"/>
+      <c r="J93" s="152"/>
+      <c r="K93" s="156"/>
+      <c r="L93" s="157"/>
+      <c r="M93" s="157"/>
+      <c r="N93" s="157"/>
+      <c r="O93" s="158"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="148"/>
-      <c r="B94" s="149"/>
-      <c r="C94" s="156"/>
-      <c r="D94" s="157"/>
-      <c r="E94" s="157"/>
-      <c r="F94" s="157"/>
-      <c r="G94" s="158"/>
-      <c r="I94" s="148"/>
-      <c r="J94" s="149"/>
-      <c r="K94" s="156"/>
-      <c r="L94" s="157"/>
-      <c r="M94" s="157"/>
-      <c r="N94" s="157"/>
-      <c r="O94" s="158"/>
+      <c r="A94" s="151"/>
+      <c r="B94" s="152"/>
+      <c r="C94" s="159"/>
+      <c r="D94" s="160"/>
+      <c r="E94" s="160"/>
+      <c r="F94" s="160"/>
+      <c r="G94" s="161"/>
+      <c r="I94" s="151"/>
+      <c r="J94" s="152"/>
+      <c r="K94" s="159"/>
+      <c r="L94" s="160"/>
+      <c r="M94" s="160"/>
+      <c r="N94" s="160"/>
+      <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="146" t="s">
+      <c r="A95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="147"/>
+      <c r="B95" s="148"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -17368,10 +17375,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="146" t="s">
+      <c r="I95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="147"/>
+      <c r="J95" s="148"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -17394,15 +17401,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="163"/>
-      <c r="B96" s="164"/>
+      <c r="A96" s="149"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="163"/>
-      <c r="J96" s="164"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="150"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -17413,48 +17420,27 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -17467,27 +17453,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2904DAE3-554A-484B-BBF1-C4208779139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF22D69-C31D-4C97-B081-07CF1B014CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="853" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -951,14 +951,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,6 +964,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,35 +1014,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1071,11 +1071,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:AK318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,40 +1429,40 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="132" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="135" t="s">
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="137"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="143"/>
     </row>
     <row r="2" spans="1:37" s="90" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -1470,54 +1470,54 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="143" t="s">
+      <c r="G2" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="143" t="s">
+      <c r="H2" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="143" t="s">
+      <c r="I2" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="138" t="s">
+      <c r="K2" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="138" t="s">
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="132" t="s">
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="132" t="s">
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="132" t="s">
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="134"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="140"/>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1533,11 +1533,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="146"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="134"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2380,20 +2380,20 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="129" t="s">
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="131"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="130"/>
       <c r="P14" s="116"/>
       <c r="Q14" s="117"/>
       <c r="R14" s="117"/>
@@ -2630,24 +2630,60 @@
       <c r="O18" s="109">
         <v>5240.72</v>
       </c>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111"/>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="111"/>
-      <c r="AG18" s="112"/>
+      <c r="P18" s="110">
+        <v>39385.5</v>
+      </c>
+      <c r="Q18" s="111">
+        <v>27637.1</v>
+      </c>
+      <c r="R18" s="111">
+        <v>27637.1</v>
+      </c>
+      <c r="S18" s="111">
+        <v>13404.9</v>
+      </c>
+      <c r="T18" s="111">
+        <v>45702.2</v>
+      </c>
+      <c r="U18" s="110">
+        <v>38676.199999999997</v>
+      </c>
+      <c r="V18" s="111">
+        <v>28531.4</v>
+      </c>
+      <c r="W18" s="111">
+        <v>27864.5</v>
+      </c>
+      <c r="X18" s="111">
+        <v>13021.9</v>
+      </c>
+      <c r="Y18" s="111">
+        <v>28214.6</v>
+      </c>
+      <c r="Z18" s="110">
+        <v>214517</v>
+      </c>
+      <c r="AA18" s="111">
+        <v>47612</v>
+      </c>
+      <c r="AB18" s="111">
+        <v>49579.4</v>
+      </c>
+      <c r="AC18" s="111">
+        <v>10944.1</v>
+      </c>
+      <c r="AD18" s="110">
+        <v>253972</v>
+      </c>
+      <c r="AE18" s="111">
+        <v>50578.6</v>
+      </c>
+      <c r="AF18" s="111">
+        <v>49782</v>
+      </c>
+      <c r="AG18" s="112">
+        <v>10880.1</v>
+      </c>
       <c r="AH18" s="111"/>
       <c r="AI18" s="111"/>
       <c r="AJ18" s="111"/>
@@ -2693,24 +2729,60 @@
       <c r="O19" s="115">
         <v>125.05</v>
       </c>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="114"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="114"/>
-      <c r="Y19" s="114"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="114"/>
-      <c r="AB19" s="114"/>
-      <c r="AC19" s="114"/>
-      <c r="AD19" s="113"/>
-      <c r="AE19" s="114"/>
-      <c r="AF19" s="114"/>
-      <c r="AG19" s="115"/>
+      <c r="P19" s="113">
+        <v>16.639600000000002</v>
+      </c>
+      <c r="Q19" s="114">
+        <v>23.713100000000001</v>
+      </c>
+      <c r="R19" s="114">
+        <v>13.713100000000001</v>
+      </c>
+      <c r="S19" s="114">
+        <v>48.889699999999998</v>
+      </c>
+      <c r="T19" s="114">
+        <v>14.3398</v>
+      </c>
+      <c r="U19" s="113">
+        <v>16.944800000000001</v>
+      </c>
+      <c r="V19" s="114">
+        <v>22.9697</v>
+      </c>
+      <c r="W19" s="114">
+        <v>23.519600000000001</v>
+      </c>
+      <c r="X19" s="114">
+        <v>50.327500000000001</v>
+      </c>
+      <c r="Y19" s="114">
+        <v>23.227699999999999</v>
+      </c>
+      <c r="Z19" s="113">
+        <v>3.05505</v>
+      </c>
+      <c r="AA19" s="114">
+        <v>13.7646</v>
+      </c>
+      <c r="AB19" s="114">
+        <v>13.218400000000001</v>
+      </c>
+      <c r="AC19" s="114">
+        <v>59.8825</v>
+      </c>
+      <c r="AD19" s="113">
+        <v>2.5804399999999998</v>
+      </c>
+      <c r="AE19" s="114">
+        <v>12.9573</v>
+      </c>
+      <c r="AF19" s="114">
+        <v>13.1646</v>
+      </c>
+      <c r="AG19" s="115">
+        <v>60.234900000000003</v>
+      </c>
       <c r="AH19" s="114"/>
       <c r="AI19" s="114"/>
       <c r="AJ19" s="114"/>
@@ -3110,20 +3182,20 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="129" t="s">
+      <c r="F26" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="129" t="s">
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="131"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="130"/>
       <c r="P26" s="116"/>
       <c r="Q26" s="117"/>
       <c r="R26" s="117"/>
@@ -3360,7 +3432,9 @@
       <c r="O30" s="109">
         <v>5095.0200000000004</v>
       </c>
-      <c r="P30" s="110"/>
+      <c r="P30" s="110">
+        <v>38896</v>
+      </c>
       <c r="Q30" s="111"/>
       <c r="R30" s="111"/>
       <c r="S30" s="111"/>
@@ -3423,7 +3497,9 @@
       <c r="O31" s="115">
         <v>128.63</v>
       </c>
-      <c r="P31" s="113"/>
+      <c r="P31" s="113">
+        <v>16.849</v>
+      </c>
       <c r="Q31" s="114"/>
       <c r="R31" s="114"/>
       <c r="S31" s="114"/>
@@ -3840,20 +3916,20 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="129" t="s">
+      <c r="F38" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="129" t="s">
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="131"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="130"/>
       <c r="P38" s="116"/>
       <c r="Q38" s="117"/>
       <c r="R38" s="117"/>
@@ -4688,20 +4764,20 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="129" t="s">
+      <c r="F50" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="129" t="s">
+      <c r="G50" s="129"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="130"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="130"/>
-      <c r="O50" s="131"/>
+      <c r="L50" s="129"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="129"/>
+      <c r="O50" s="130"/>
       <c r="P50" s="60"/>
       <c r="Q50" s="58"/>
       <c r="R50" s="58"/>
@@ -5870,21 +5946,21 @@
       <c r="C82" s="97"/>
       <c r="D82" s="97"/>
       <c r="E82" s="94"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="127"/>
-      <c r="H82" s="127"/>
-      <c r="I82" s="127"/>
-      <c r="J82" s="128"/>
+      <c r="F82" s="135"/>
+      <c r="G82" s="136"/>
+      <c r="H82" s="136"/>
+      <c r="I82" s="136"/>
+      <c r="J82" s="137"/>
       <c r="K82" s="65"/>
       <c r="L82" s="87"/>
       <c r="M82" s="87"/>
       <c r="N82" s="87"/>
       <c r="O82" s="64"/>
-      <c r="P82" s="126"/>
-      <c r="Q82" s="127"/>
-      <c r="R82" s="127"/>
-      <c r="S82" s="127"/>
-      <c r="T82" s="128"/>
+      <c r="P82" s="135"/>
+      <c r="Q82" s="136"/>
+      <c r="R82" s="136"/>
+      <c r="S82" s="136"/>
+      <c r="T82" s="137"/>
       <c r="U82" s="65"/>
       <c r="V82" s="87"/>
       <c r="W82" s="87"/>
@@ -8413,13 +8489,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="P82:T82"/>
@@ -8436,6 +8505,13 @@
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="F38:J38"/>
     <mergeCell ref="K2:O2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8678,10 +8754,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="167"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -8702,10 +8778,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="167"/>
+      <c r="J10" s="148"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -8728,10 +8804,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="148"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -8752,10 +8828,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="147" t="s">
+      <c r="I11" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="148"/>
+      <c r="J11" s="150"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -8834,10 +8910,10 @@
       <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="148"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -8858,10 +8934,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="147" t="s">
+      <c r="I15" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="148"/>
+      <c r="J15" s="150"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -8884,15 +8960,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="149"/>
-      <c r="B16" s="150"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="167"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -9109,10 +9185,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="167"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -9133,10 +9209,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="166" t="s">
+      <c r="I30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="167"/>
+      <c r="J30" s="148"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -9159,10 +9235,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="148"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -9183,10 +9259,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="147" t="s">
+      <c r="I31" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="148"/>
+      <c r="J31" s="150"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -9265,10 +9341,10 @@
       <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="148"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -9289,10 +9365,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="147" t="s">
+      <c r="I35" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="148"/>
+      <c r="J35" s="150"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -9315,15 +9391,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="149"/>
-      <c r="B36" s="150"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="150"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="167"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -9540,10 +9616,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="166" t="s">
+      <c r="A50" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="167"/>
+      <c r="B50" s="148"/>
       <c r="C50" s="70">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -9564,10 +9640,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="166" t="s">
+      <c r="I50" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="167"/>
+      <c r="J50" s="148"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -9590,10 +9666,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="147" t="s">
+      <c r="A51" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="148"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -9614,10 +9690,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="147" t="s">
+      <c r="I51" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="148"/>
+      <c r="J51" s="150"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -9696,10 +9772,10 @@
       <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="147" t="s">
+      <c r="A55" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="148"/>
+      <c r="B55" s="150"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -9720,10 +9796,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="147" t="s">
+      <c r="I55" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="148"/>
+      <c r="J55" s="150"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -9746,15 +9822,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="149"/>
-      <c r="B56" s="150"/>
+      <c r="A56" s="166"/>
+      <c r="B56" s="167"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="149"/>
-      <c r="J56" s="150"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="167"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -9971,10 +10047,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="166" t="s">
+      <c r="A70" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="167"/>
+      <c r="B70" s="148"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -9995,10 +10071,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="166" t="s">
+      <c r="I70" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="167"/>
+      <c r="J70" s="148"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -10021,10 +10097,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="147" t="s">
+      <c r="A71" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="148"/>
+      <c r="B71" s="150"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -10045,10 +10121,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="147" t="s">
+      <c r="I71" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="148"/>
+      <c r="J71" s="150"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -10127,10 +10203,10 @@
       <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="147" t="s">
+      <c r="A75" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="148"/>
+      <c r="B75" s="150"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -10151,10 +10227,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="147" t="s">
+      <c r="I75" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="148"/>
+      <c r="J75" s="150"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -10177,15 +10253,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="149"/>
-      <c r="B76" s="150"/>
+      <c r="A76" s="166"/>
+      <c r="B76" s="167"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="149"/>
-      <c r="J76" s="150"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="167"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -10402,10 +10478,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="166" t="s">
+      <c r="A90" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="167"/>
+      <c r="B90" s="148"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -10426,10 +10502,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="166" t="s">
+      <c r="I90" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="167"/>
+      <c r="J90" s="148"/>
       <c r="K90" s="70">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -10452,10 +10528,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="148"/>
+      <c r="B91" s="150"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -10476,10 +10552,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="147" t="s">
+      <c r="I91" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="148"/>
+      <c r="J91" s="150"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -10558,10 +10634,10 @@
       <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="147" t="s">
+      <c r="A95" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="148"/>
+      <c r="B95" s="150"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -10582,10 +10658,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="147" t="s">
+      <c r="I95" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="148"/>
+      <c r="J95" s="150"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -10608,15 +10684,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="149"/>
-      <c r="B96" s="150"/>
+      <c r="A96" s="166"/>
+      <c r="B96" s="167"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="149"/>
-      <c r="J96" s="150"/>
+      <c r="I96" s="166"/>
+      <c r="J96" s="167"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -10627,11 +10703,60 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -10648,60 +10773,11 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10944,10 +11020,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="167"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -10968,10 +11044,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="167"/>
+      <c r="J10" s="148"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -10994,10 +11070,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="148"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -11018,10 +11094,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="147" t="s">
+      <c r="I11" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="148"/>
+      <c r="J11" s="150"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -11100,10 +11176,10 @@
       <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="148"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -11124,10 +11200,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="147" t="s">
+      <c r="I15" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="148"/>
+      <c r="J15" s="150"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -11150,15 +11226,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="149"/>
-      <c r="B16" s="150"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="167"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -11375,10 +11451,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="167"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -11399,10 +11475,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="166" t="s">
+      <c r="I30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="167"/>
+      <c r="J30" s="148"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -11425,10 +11501,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="148"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -11449,10 +11525,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="147" t="s">
+      <c r="I31" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="148"/>
+      <c r="J31" s="150"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -11531,10 +11607,10 @@
       <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="148"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -11555,10 +11631,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="147" t="s">
+      <c r="I35" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="148"/>
+      <c r="J35" s="150"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -11581,15 +11657,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="149"/>
-      <c r="B36" s="150"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="150"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="167"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -11806,10 +11882,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="166" t="s">
+      <c r="A50" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="167"/>
+      <c r="B50" s="148"/>
       <c r="C50" s="70">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -11830,10 +11906,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="166" t="s">
+      <c r="I50" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="167"/>
+      <c r="J50" s="148"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -11856,10 +11932,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="147" t="s">
+      <c r="A51" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="148"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -11880,10 +11956,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="147" t="s">
+      <c r="I51" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="148"/>
+      <c r="J51" s="150"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -11962,10 +12038,10 @@
       <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="147" t="s">
+      <c r="A55" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="148"/>
+      <c r="B55" s="150"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -11986,10 +12062,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="147" t="s">
+      <c r="I55" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="148"/>
+      <c r="J55" s="150"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -12012,15 +12088,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="149"/>
-      <c r="B56" s="150"/>
+      <c r="A56" s="166"/>
+      <c r="B56" s="167"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="149"/>
-      <c r="J56" s="150"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="167"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -12237,10 +12313,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="166" t="s">
+      <c r="A70" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="167"/>
+      <c r="B70" s="148"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -12261,10 +12337,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="166" t="s">
+      <c r="I70" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="167"/>
+      <c r="J70" s="148"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -12287,10 +12363,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="147" t="s">
+      <c r="A71" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="148"/>
+      <c r="B71" s="150"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -12311,10 +12387,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="147" t="s">
+      <c r="I71" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="148"/>
+      <c r="J71" s="150"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -12393,10 +12469,10 @@
       <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="147" t="s">
+      <c r="A75" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="148"/>
+      <c r="B75" s="150"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -12417,10 +12493,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="147" t="s">
+      <c r="I75" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="148"/>
+      <c r="J75" s="150"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -12443,15 +12519,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="149"/>
-      <c r="B76" s="150"/>
+      <c r="A76" s="166"/>
+      <c r="B76" s="167"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="149"/>
-      <c r="J76" s="150"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="167"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -12668,10 +12744,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="166" t="s">
+      <c r="A90" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="167"/>
+      <c r="B90" s="148"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -12692,10 +12768,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="166" t="s">
+      <c r="I90" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="167"/>
+      <c r="J90" s="148"/>
       <c r="K90" s="101">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -12718,10 +12794,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="148"/>
+      <c r="B91" s="150"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -12742,10 +12818,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="147" t="s">
+      <c r="I91" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="148"/>
+      <c r="J91" s="150"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -12824,10 +12900,10 @@
       <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="147" t="s">
+      <c r="A95" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="148"/>
+      <c r="B95" s="150"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -12848,10 +12924,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="147" t="s">
+      <c r="I95" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="148"/>
+      <c r="J95" s="150"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -12874,15 +12950,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="149"/>
-      <c r="B96" s="150"/>
+      <c r="A96" s="166"/>
+      <c r="B96" s="167"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="149"/>
-      <c r="J96" s="150"/>
+      <c r="I96" s="166"/>
+      <c r="J96" s="167"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -12893,27 +12969,48 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -12926,48 +13023,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13210,10 +13286,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="167"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -13234,10 +13310,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="167"/>
+      <c r="J10" s="148"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -13260,10 +13336,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="148"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -13284,10 +13360,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="147" t="s">
+      <c r="I11" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="148"/>
+      <c r="J11" s="150"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -13366,10 +13442,10 @@
       <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="148"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -13390,10 +13466,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="147" t="s">
+      <c r="I15" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="148"/>
+      <c r="J15" s="150"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -13416,15 +13492,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="149"/>
-      <c r="B16" s="150"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="167"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -13641,10 +13717,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="167"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -13665,10 +13741,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="166" t="s">
+      <c r="I30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="167"/>
+      <c r="J30" s="148"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -13691,10 +13767,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="148"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -13715,10 +13791,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="147" t="s">
+      <c r="I31" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="148"/>
+      <c r="J31" s="150"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -13797,10 +13873,10 @@
       <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="148"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -13821,10 +13897,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="147" t="s">
+      <c r="I35" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="148"/>
+      <c r="J35" s="150"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -13847,15 +13923,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="149"/>
-      <c r="B36" s="150"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="150"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="167"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -14072,10 +14148,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="166" t="s">
+      <c r="A50" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="167"/>
+      <c r="B50" s="148"/>
       <c r="C50" s="74">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -14096,10 +14172,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="166" t="s">
+      <c r="I50" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="167"/>
+      <c r="J50" s="148"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -14122,10 +14198,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="147" t="s">
+      <c r="A51" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="148"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="76">
         <v>0.63</v>
       </c>
@@ -14141,10 +14217,10 @@
       <c r="G51" s="78">
         <v>0.65</v>
       </c>
-      <c r="I51" s="147" t="s">
+      <c r="I51" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="148"/>
+      <c r="J51" s="150"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -14223,10 +14299,10 @@
       <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="147" t="s">
+      <c r="A55" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="148"/>
+      <c r="B55" s="150"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -14247,10 +14323,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="147" t="s">
+      <c r="I55" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="148"/>
+      <c r="J55" s="150"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -14273,15 +14349,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="149"/>
-      <c r="B56" s="150"/>
+      <c r="A56" s="166"/>
+      <c r="B56" s="167"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="149"/>
-      <c r="J56" s="150"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="167"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -14498,10 +14574,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="166" t="s">
+      <c r="A70" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="167"/>
+      <c r="B70" s="148"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -14522,10 +14598,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="166" t="s">
+      <c r="I70" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="167"/>
+      <c r="J70" s="148"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -14548,10 +14624,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="147" t="s">
+      <c r="A71" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="148"/>
+      <c r="B71" s="150"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -14572,10 +14648,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="147" t="s">
+      <c r="I71" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="148"/>
+      <c r="J71" s="150"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -14654,10 +14730,10 @@
       <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="147" t="s">
+      <c r="A75" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="148"/>
+      <c r="B75" s="150"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -14678,10 +14754,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="147" t="s">
+      <c r="I75" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="148"/>
+      <c r="J75" s="150"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -14704,15 +14780,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="149"/>
-      <c r="B76" s="150"/>
+      <c r="A76" s="166"/>
+      <c r="B76" s="167"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="149"/>
-      <c r="J76" s="150"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="167"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -14929,10 +15005,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="166" t="s">
+      <c r="A90" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="167"/>
+      <c r="B90" s="148"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -14953,10 +15029,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="166" t="s">
+      <c r="I90" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="167"/>
+      <c r="J90" s="148"/>
       <c r="K90" s="70">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -14979,10 +15055,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="148"/>
+      <c r="B91" s="150"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -15003,10 +15079,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="147" t="s">
+      <c r="I91" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="148"/>
+      <c r="J91" s="150"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -15085,10 +15161,10 @@
       <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="147" t="s">
+      <c r="A95" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="148"/>
+      <c r="B95" s="150"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -15109,10 +15185,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="147" t="s">
+      <c r="I95" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="148"/>
+      <c r="J95" s="150"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -15135,15 +15211,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="149"/>
-      <c r="B96" s="150"/>
+      <c r="A96" s="166"/>
+      <c r="B96" s="167"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="149"/>
-      <c r="J96" s="150"/>
+      <c r="I96" s="166"/>
+      <c r="J96" s="167"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -15154,27 +15230,48 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -15187,48 +15284,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15471,10 +15547,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="167"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -15495,10 +15571,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="167"/>
+      <c r="J10" s="148"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -15521,10 +15597,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="148"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -15545,10 +15621,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="147" t="s">
+      <c r="I11" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="148"/>
+      <c r="J11" s="150"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -15627,10 +15703,10 @@
       <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="148"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -15651,10 +15727,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="147" t="s">
+      <c r="I15" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="148"/>
+      <c r="J15" s="150"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -15677,15 +15753,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="149"/>
-      <c r="B16" s="150"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="167"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -15902,10 +15978,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="167"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -15926,10 +16002,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="166" t="s">
+      <c r="I30" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="167"/>
+      <c r="J30" s="148"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -15952,10 +16028,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="148"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -15976,10 +16052,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="147" t="s">
+      <c r="I31" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="148"/>
+      <c r="J31" s="150"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -16058,10 +16134,10 @@
       <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="148"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -16082,10 +16158,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="147" t="s">
+      <c r="I35" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="148"/>
+      <c r="J35" s="150"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -16108,15 +16184,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="149"/>
-      <c r="B36" s="150"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="150"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="167"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -16333,10 +16409,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="166" t="s">
+      <c r="A50" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="167"/>
+      <c r="B50" s="148"/>
       <c r="C50" s="70">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -16357,10 +16433,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="166" t="s">
+      <c r="I50" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="167"/>
+      <c r="J50" s="148"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -16383,10 +16459,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="147" t="s">
+      <c r="A51" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="148"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -16407,10 +16483,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="147" t="s">
+      <c r="I51" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="148"/>
+      <c r="J51" s="150"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -16489,10 +16565,10 @@
       <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="147" t="s">
+      <c r="A55" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="148"/>
+      <c r="B55" s="150"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -16513,10 +16589,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="147" t="s">
+      <c r="I55" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="148"/>
+      <c r="J55" s="150"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -16539,15 +16615,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="149"/>
-      <c r="B56" s="150"/>
+      <c r="A56" s="166"/>
+      <c r="B56" s="167"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="149"/>
-      <c r="J56" s="150"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="167"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -16764,10 +16840,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="166" t="s">
+      <c r="A70" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="167"/>
+      <c r="B70" s="148"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -16788,10 +16864,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="166" t="s">
+      <c r="I70" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="167"/>
+      <c r="J70" s="148"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -16814,10 +16890,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="147" t="s">
+      <c r="A71" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="148"/>
+      <c r="B71" s="150"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -16838,10 +16914,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="147" t="s">
+      <c r="I71" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="148"/>
+      <c r="J71" s="150"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -16920,10 +16996,10 @@
       <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="147" t="s">
+      <c r="A75" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="148"/>
+      <c r="B75" s="150"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -16944,10 +17020,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="147" t="s">
+      <c r="I75" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="148"/>
+      <c r="J75" s="150"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -16970,15 +17046,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="149"/>
-      <c r="B76" s="150"/>
+      <c r="A76" s="166"/>
+      <c r="B76" s="167"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="149"/>
-      <c r="J76" s="150"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="167"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -17195,10 +17271,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="166" t="s">
+      <c r="A90" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="167"/>
+      <c r="B90" s="148"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -17219,10 +17295,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="166" t="s">
+      <c r="I90" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="167"/>
+      <c r="J90" s="148"/>
       <c r="K90" s="70">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -17245,10 +17321,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="147" t="s">
+      <c r="A91" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="148"/>
+      <c r="B91" s="150"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -17269,10 +17345,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="147" t="s">
+      <c r="I91" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="148"/>
+      <c r="J91" s="150"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -17351,10 +17427,10 @@
       <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="147" t="s">
+      <c r="A95" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="148"/>
+      <c r="B95" s="150"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -17375,10 +17451,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="147" t="s">
+      <c r="I95" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="148"/>
+      <c r="J95" s="150"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -17401,15 +17477,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="149"/>
-      <c r="B96" s="150"/>
+      <c r="A96" s="166"/>
+      <c r="B96" s="167"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="149"/>
-      <c r="J96" s="150"/>
+      <c r="I96" s="166"/>
+      <c r="J96" s="167"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -17420,27 +17496,48 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -17453,48 +17550,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF22D69-C31D-4C97-B081-07CF1B014CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150F483-F2E6-4D44-B32C-FB8E200C10F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="853" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -951,11 +951,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -964,27 +967,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,17 +996,35 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1071,11 +1071,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:AK318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,40 +1429,40 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="138" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="141" t="s">
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="143"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="137"/>
     </row>
     <row r="2" spans="1:37" s="90" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -1470,54 +1470,54 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="131" t="s">
+      <c r="G2" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="133" t="s">
+      <c r="J2" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="144" t="s">
+      <c r="K2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="144" t="s">
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="138" t="s">
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="138" t="s">
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="138" t="s">
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="140"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="134"/>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1533,11 +1533,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="134"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="146"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2380,20 +2380,20 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="128" t="s">
+      <c r="F14" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="128" t="s">
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="131"/>
       <c r="P14" s="116"/>
       <c r="Q14" s="117"/>
       <c r="R14" s="117"/>
@@ -3182,20 +3182,20 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="128" t="s">
+      <c r="F26" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="128" t="s">
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="131"/>
       <c r="P26" s="116"/>
       <c r="Q26" s="117"/>
       <c r="R26" s="117"/>
@@ -3435,9 +3435,15 @@
       <c r="P30" s="110">
         <v>38896</v>
       </c>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
+      <c r="Q30" s="111">
+        <v>27021.3</v>
+      </c>
+      <c r="R30" s="111">
+        <v>27021.3</v>
+      </c>
+      <c r="S30" s="111">
+        <v>12764</v>
+      </c>
       <c r="T30" s="111"/>
       <c r="U30" s="110"/>
       <c r="V30" s="111"/>
@@ -3500,9 +3506,15 @@
       <c r="P31" s="113">
         <v>16.849</v>
       </c>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
+      <c r="Q31" s="114">
+        <v>24.253399999999999</v>
+      </c>
+      <c r="R31" s="114">
+        <v>24.253499999999999</v>
+      </c>
+      <c r="S31" s="114">
+        <v>51.344200000000001</v>
+      </c>
       <c r="T31" s="114"/>
       <c r="U31" s="113"/>
       <c r="V31" s="114"/>
@@ -3916,20 +3928,20 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="128" t="s">
+      <c r="F38" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="128" t="s">
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="131"/>
       <c r="P38" s="116"/>
       <c r="Q38" s="117"/>
       <c r="R38" s="117"/>
@@ -4764,20 +4776,20 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="128" t="s">
+      <c r="F50" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="128" t="s">
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="129"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="129"/>
-      <c r="O50" s="130"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="130"/>
+      <c r="N50" s="130"/>
+      <c r="O50" s="131"/>
       <c r="P50" s="60"/>
       <c r="Q50" s="58"/>
       <c r="R50" s="58"/>
@@ -5946,21 +5958,21 @@
       <c r="C82" s="97"/>
       <c r="D82" s="97"/>
       <c r="E82" s="94"/>
-      <c r="F82" s="135"/>
-      <c r="G82" s="136"/>
-      <c r="H82" s="136"/>
-      <c r="I82" s="136"/>
-      <c r="J82" s="137"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="127"/>
+      <c r="I82" s="127"/>
+      <c r="J82" s="128"/>
       <c r="K82" s="65"/>
       <c r="L82" s="87"/>
       <c r="M82" s="87"/>
       <c r="N82" s="87"/>
       <c r="O82" s="64"/>
-      <c r="P82" s="135"/>
-      <c r="Q82" s="136"/>
-      <c r="R82" s="136"/>
-      <c r="S82" s="136"/>
-      <c r="T82" s="137"/>
+      <c r="P82" s="126"/>
+      <c r="Q82" s="127"/>
+      <c r="R82" s="127"/>
+      <c r="S82" s="127"/>
+      <c r="T82" s="128"/>
       <c r="U82" s="65"/>
       <c r="V82" s="87"/>
       <c r="W82" s="87"/>
@@ -8489,6 +8501,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="P82:T82"/>
@@ -8505,13 +8524,6 @@
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="F38:J38"/>
     <mergeCell ref="K2:O2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8754,10 +8766,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="148"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -8778,10 +8790,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="147" t="s">
+      <c r="I10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="148"/>
+      <c r="J10" s="167"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -8804,10 +8816,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="150"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -8828,10 +8840,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="150"/>
+      <c r="J11" s="148"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -8910,10 +8922,10 @@
       <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="150"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -8934,10 +8946,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="149" t="s">
+      <c r="I15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="150"/>
+      <c r="J15" s="148"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -8960,15 +8972,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="167"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -9185,10 +9197,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="148"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -9209,10 +9221,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="147" t="s">
+      <c r="I30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="148"/>
+      <c r="J30" s="167"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -9235,10 +9247,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="150"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -9259,10 +9271,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="149" t="s">
+      <c r="I31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="150"/>
+      <c r="J31" s="148"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -9341,10 +9353,10 @@
       <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="149" t="s">
+      <c r="A35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="150"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -9365,10 +9377,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="149" t="s">
+      <c r="I35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="150"/>
+      <c r="J35" s="148"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -9391,15 +9403,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="166"/>
-      <c r="B36" s="167"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="167"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -9616,10 +9628,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="148"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="70">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -9640,10 +9652,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="147" t="s">
+      <c r="I50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="148"/>
+      <c r="J50" s="167"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -9666,10 +9678,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="149" t="s">
+      <c r="A51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="150"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -9690,10 +9702,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="149" t="s">
+      <c r="I51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="150"/>
+      <c r="J51" s="148"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -9772,10 +9784,10 @@
       <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="149" t="s">
+      <c r="A55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="150"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -9796,10 +9808,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="149" t="s">
+      <c r="I55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="150"/>
+      <c r="J55" s="148"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -9822,15 +9834,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="166"/>
-      <c r="B56" s="167"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="167"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="150"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -10047,10 +10059,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="147" t="s">
+      <c r="A70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="148"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -10071,10 +10083,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="147" t="s">
+      <c r="I70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="148"/>
+      <c r="J70" s="167"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -10097,10 +10109,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="149" t="s">
+      <c r="A71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="150"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -10121,10 +10133,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="149" t="s">
+      <c r="I71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="150"/>
+      <c r="J71" s="148"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -10203,10 +10215,10 @@
       <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="149" t="s">
+      <c r="A75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="150"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -10227,10 +10239,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="149" t="s">
+      <c r="I75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="150"/>
+      <c r="J75" s="148"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -10253,15 +10265,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="166"/>
-      <c r="B76" s="167"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="150"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="166"/>
-      <c r="J76" s="167"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -10478,10 +10490,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="147" t="s">
+      <c r="A90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="148"/>
+      <c r="B90" s="167"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -10502,10 +10514,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="147" t="s">
+      <c r="I90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="148"/>
+      <c r="J90" s="167"/>
       <c r="K90" s="70">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -10528,10 +10540,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="149" t="s">
+      <c r="A91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="150"/>
+      <c r="B91" s="148"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -10552,10 +10564,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="149" t="s">
+      <c r="I91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="150"/>
+      <c r="J91" s="148"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -10634,10 +10646,10 @@
       <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="149" t="s">
+      <c r="A95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="150"/>
+      <c r="B95" s="148"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -10658,10 +10670,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="149" t="s">
+      <c r="I95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="150"/>
+      <c r="J95" s="148"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -10684,15 +10696,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="166"/>
-      <c r="B96" s="167"/>
+      <c r="A96" s="149"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="166"/>
-      <c r="J96" s="167"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="150"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -10703,60 +10715,11 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -10773,11 +10736,60 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11020,10 +11032,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="148"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -11044,10 +11056,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="147" t="s">
+      <c r="I10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="148"/>
+      <c r="J10" s="167"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -11070,10 +11082,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="150"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -11094,10 +11106,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="150"/>
+      <c r="J11" s="148"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -11176,10 +11188,10 @@
       <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="150"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -11200,10 +11212,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="149" t="s">
+      <c r="I15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="150"/>
+      <c r="J15" s="148"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -11226,15 +11238,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="167"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -11451,10 +11463,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="148"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -11475,10 +11487,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="147" t="s">
+      <c r="I30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="148"/>
+      <c r="J30" s="167"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -11501,10 +11513,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="150"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -11525,10 +11537,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="149" t="s">
+      <c r="I31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="150"/>
+      <c r="J31" s="148"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -11607,10 +11619,10 @@
       <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="149" t="s">
+      <c r="A35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="150"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -11631,10 +11643,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="149" t="s">
+      <c r="I35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="150"/>
+      <c r="J35" s="148"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -11657,15 +11669,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="166"/>
-      <c r="B36" s="167"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="167"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -11882,10 +11894,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="148"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="70">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -11906,10 +11918,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="147" t="s">
+      <c r="I50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="148"/>
+      <c r="J50" s="167"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -11932,10 +11944,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="149" t="s">
+      <c r="A51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="150"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -11956,10 +11968,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="149" t="s">
+      <c r="I51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="150"/>
+      <c r="J51" s="148"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -12038,10 +12050,10 @@
       <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="149" t="s">
+      <c r="A55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="150"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -12062,10 +12074,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="149" t="s">
+      <c r="I55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="150"/>
+      <c r="J55" s="148"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -12088,15 +12100,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="166"/>
-      <c r="B56" s="167"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="167"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="150"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -12313,10 +12325,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="147" t="s">
+      <c r="A70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="148"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -12337,10 +12349,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="147" t="s">
+      <c r="I70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="148"/>
+      <c r="J70" s="167"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -12363,10 +12375,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="149" t="s">
+      <c r="A71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="150"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -12387,10 +12399,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="149" t="s">
+      <c r="I71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="150"/>
+      <c r="J71" s="148"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -12469,10 +12481,10 @@
       <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="149" t="s">
+      <c r="A75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="150"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -12493,10 +12505,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="149" t="s">
+      <c r="I75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="150"/>
+      <c r="J75" s="148"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -12519,15 +12531,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="166"/>
-      <c r="B76" s="167"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="150"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="166"/>
-      <c r="J76" s="167"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -12744,10 +12756,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="147" t="s">
+      <c r="A90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="148"/>
+      <c r="B90" s="167"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -12768,10 +12780,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="147" t="s">
+      <c r="I90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="148"/>
+      <c r="J90" s="167"/>
       <c r="K90" s="101">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -12794,10 +12806,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="149" t="s">
+      <c r="A91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="150"/>
+      <c r="B91" s="148"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -12818,10 +12830,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="149" t="s">
+      <c r="I91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="150"/>
+      <c r="J91" s="148"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -12900,10 +12912,10 @@
       <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="149" t="s">
+      <c r="A95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="150"/>
+      <c r="B95" s="148"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -12924,10 +12936,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="149" t="s">
+      <c r="I95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="150"/>
+      <c r="J95" s="148"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -12950,15 +12962,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="166"/>
-      <c r="B96" s="167"/>
+      <c r="A96" s="149"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="166"/>
-      <c r="J96" s="167"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="150"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -12969,48 +12981,27 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -13023,27 +13014,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13286,10 +13298,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="148"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -13310,10 +13322,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="147" t="s">
+      <c r="I10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="148"/>
+      <c r="J10" s="167"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -13336,10 +13348,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="150"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -13360,10 +13372,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="150"/>
+      <c r="J11" s="148"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -13442,10 +13454,10 @@
       <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="150"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -13466,10 +13478,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="149" t="s">
+      <c r="I15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="150"/>
+      <c r="J15" s="148"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -13492,15 +13504,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="167"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -13717,10 +13729,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="148"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -13741,10 +13753,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="147" t="s">
+      <c r="I30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="148"/>
+      <c r="J30" s="167"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -13767,10 +13779,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="150"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -13791,10 +13803,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="149" t="s">
+      <c r="I31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="150"/>
+      <c r="J31" s="148"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -13873,10 +13885,10 @@
       <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="149" t="s">
+      <c r="A35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="150"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -13897,10 +13909,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="149" t="s">
+      <c r="I35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="150"/>
+      <c r="J35" s="148"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -13923,15 +13935,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="166"/>
-      <c r="B36" s="167"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="167"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -14148,10 +14160,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="148"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="74">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -14172,10 +14184,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="147" t="s">
+      <c r="I50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="148"/>
+      <c r="J50" s="167"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -14198,10 +14210,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="149" t="s">
+      <c r="A51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="150"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="76">
         <v>0.63</v>
       </c>
@@ -14217,10 +14229,10 @@
       <c r="G51" s="78">
         <v>0.65</v>
       </c>
-      <c r="I51" s="149" t="s">
+      <c r="I51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="150"/>
+      <c r="J51" s="148"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -14299,10 +14311,10 @@
       <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="149" t="s">
+      <c r="A55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="150"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -14323,10 +14335,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="149" t="s">
+      <c r="I55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="150"/>
+      <c r="J55" s="148"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -14349,15 +14361,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="166"/>
-      <c r="B56" s="167"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="167"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="150"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -14574,10 +14586,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="147" t="s">
+      <c r="A70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="148"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -14598,10 +14610,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="147" t="s">
+      <c r="I70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="148"/>
+      <c r="J70" s="167"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -14624,10 +14636,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="149" t="s">
+      <c r="A71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="150"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -14648,10 +14660,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="149" t="s">
+      <c r="I71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="150"/>
+      <c r="J71" s="148"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -14730,10 +14742,10 @@
       <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="149" t="s">
+      <c r="A75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="150"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -14754,10 +14766,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="149" t="s">
+      <c r="I75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="150"/>
+      <c r="J75" s="148"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -14780,15 +14792,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="166"/>
-      <c r="B76" s="167"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="150"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="166"/>
-      <c r="J76" s="167"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -15005,10 +15017,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="147" t="s">
+      <c r="A90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="148"/>
+      <c r="B90" s="167"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -15029,10 +15041,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="147" t="s">
+      <c r="I90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="148"/>
+      <c r="J90" s="167"/>
       <c r="K90" s="70">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -15055,10 +15067,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="149" t="s">
+      <c r="A91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="150"/>
+      <c r="B91" s="148"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -15079,10 +15091,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="149" t="s">
+      <c r="I91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="150"/>
+      <c r="J91" s="148"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -15161,10 +15173,10 @@
       <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="149" t="s">
+      <c r="A95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="150"/>
+      <c r="B95" s="148"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -15185,10 +15197,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="149" t="s">
+      <c r="I95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="150"/>
+      <c r="J95" s="148"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -15211,15 +15223,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="166"/>
-      <c r="B96" s="167"/>
+      <c r="A96" s="149"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="166"/>
-      <c r="J96" s="167"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="150"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -15230,48 +15242,27 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -15284,27 +15275,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15547,10 +15559,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="148"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="70">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -15571,10 +15583,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="147" t="s">
+      <c r="I10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="148"/>
+      <c r="J10" s="167"/>
       <c r="K10" s="70">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -15597,10 +15609,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="150"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -15621,10 +15633,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="150"/>
+      <c r="J11" s="148"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -15703,10 +15715,10 @@
       <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="150"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -15727,10 +15739,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="149" t="s">
+      <c r="I15" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="150"/>
+      <c r="J15" s="148"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -15753,15 +15765,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="166"/>
-      <c r="B16" s="167"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="167"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
@@ -15978,10 +15990,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="148"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="70">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -16002,10 +16014,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="147" t="s">
+      <c r="I30" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="148"/>
+      <c r="J30" s="167"/>
       <c r="K30" s="70">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -16028,10 +16040,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="150"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -16052,10 +16064,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="149" t="s">
+      <c r="I31" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="150"/>
+      <c r="J31" s="148"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -16134,10 +16146,10 @@
       <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="149" t="s">
+      <c r="A35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="150"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -16158,10 +16170,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="149" t="s">
+      <c r="I35" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="150"/>
+      <c r="J35" s="148"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -16184,15 +16196,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="166"/>
-      <c r="B36" s="167"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="150"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="80"/>
       <c r="G36" s="81"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="167"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
       <c r="M36" s="71"/>
@@ -16409,10 +16421,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="148"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="70">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -16433,10 +16445,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="147" t="s">
+      <c r="I50" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="148"/>
+      <c r="J50" s="167"/>
       <c r="K50" s="70">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -16459,10 +16471,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="149" t="s">
+      <c r="A51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="150"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -16483,10 +16495,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="149" t="s">
+      <c r="I51" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="150"/>
+      <c r="J51" s="148"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -16565,10 +16577,10 @@
       <c r="O54" s="161"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="149" t="s">
+      <c r="A55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="150"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -16589,10 +16601,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="149" t="s">
+      <c r="I55" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="150"/>
+      <c r="J55" s="148"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -16615,15 +16627,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="166"/>
-      <c r="B56" s="167"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
       <c r="C56" s="71"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="80"/>
       <c r="G56" s="81"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="167"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="150"/>
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
       <c r="M56" s="71"/>
@@ -16840,10 +16852,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="147" t="s">
+      <c r="A70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="148"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="70">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -16864,10 +16876,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="147" t="s">
+      <c r="I70" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="148"/>
+      <c r="J70" s="167"/>
       <c r="K70" s="70">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -16890,10 +16902,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="149" t="s">
+      <c r="A71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="150"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -16914,10 +16926,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="149" t="s">
+      <c r="I71" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="150"/>
+      <c r="J71" s="148"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -16996,10 +17008,10 @@
       <c r="O74" s="161"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="149" t="s">
+      <c r="A75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="150"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -17020,10 +17032,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="149" t="s">
+      <c r="I75" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="150"/>
+      <c r="J75" s="148"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -17046,15 +17058,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="166"/>
-      <c r="B76" s="167"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="150"/>
       <c r="C76" s="71"/>
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="80"/>
       <c r="G76" s="81"/>
-      <c r="I76" s="166"/>
-      <c r="J76" s="167"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="150"/>
       <c r="K76" s="71"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
@@ -17271,10 +17283,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="147" t="s">
+      <c r="A90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="148"/>
+      <c r="B90" s="167"/>
       <c r="C90" s="70">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -17295,10 +17307,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="147" t="s">
+      <c r="I90" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="148"/>
+      <c r="J90" s="167"/>
       <c r="K90" s="70">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -17321,10 +17333,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="149" t="s">
+      <c r="A91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="150"/>
+      <c r="B91" s="148"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -17345,10 +17357,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="149" t="s">
+      <c r="I91" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="150"/>
+      <c r="J91" s="148"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -17427,10 +17439,10 @@
       <c r="O94" s="161"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="149" t="s">
+      <c r="A95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="150"/>
+      <c r="B95" s="148"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -17451,10 +17463,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="149" t="s">
+      <c r="I95" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="150"/>
+      <c r="J95" s="148"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -17477,15 +17489,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="166"/>
-      <c r="B96" s="167"/>
+      <c r="A96" s="149"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
       <c r="E96" s="71"/>
       <c r="F96" s="80"/>
       <c r="G96" s="81"/>
-      <c r="I96" s="166"/>
-      <c r="J96" s="167"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="150"/>
       <c r="K96" s="71"/>
       <c r="L96" s="71"/>
       <c r="M96" s="71"/>
@@ -17496,48 +17508,27 @@
     <row r="99" s="100" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -17550,27 +17541,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150F483-F2E6-4D44-B32C-FB8E200C10F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9B349C-053E-4AB2-A2F5-65695582970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="853" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="37">
   <si>
     <t>distinctValues</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>11,514,9</t>
+  </si>
+  <si>
+    <t>13,912,6</t>
   </si>
 </sst>
 </file>
@@ -1393,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81A5C4-0DEF-4D93-A6BF-5419A031E380}">
   <dimension ref="A1:AK318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,20 +3447,48 @@
       <c r="S30" s="111">
         <v>12764</v>
       </c>
-      <c r="T30" s="111"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="111"/>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="111"/>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="111"/>
-      <c r="AF30" s="111"/>
-      <c r="AG30" s="112"/>
+      <c r="T30" s="66">
+        <v>46072.7</v>
+      </c>
+      <c r="U30" s="110">
+        <v>40117.699999999997</v>
+      </c>
+      <c r="V30" s="111">
+        <v>27230.9</v>
+      </c>
+      <c r="W30" s="111">
+        <v>27697.200000000001</v>
+      </c>
+      <c r="X30" s="111">
+        <v>12414.4</v>
+      </c>
+      <c r="Y30" s="111">
+        <v>28783.599999999999</v>
+      </c>
+      <c r="Z30" s="110">
+        <v>214465</v>
+      </c>
+      <c r="AA30" s="111">
+        <v>55650.5</v>
+      </c>
+      <c r="AB30" s="111">
+        <v>50506.3</v>
+      </c>
+      <c r="AC30" s="111">
+        <v>11413.2</v>
+      </c>
+      <c r="AD30" s="110">
+        <v>249707</v>
+      </c>
+      <c r="AE30" s="111">
+        <v>51496.7</v>
+      </c>
+      <c r="AF30" s="111">
+        <v>49101.5</v>
+      </c>
+      <c r="AG30" s="112">
+        <v>11046.6</v>
+      </c>
       <c r="AH30" s="111"/>
       <c r="AI30" s="111"/>
       <c r="AJ30" s="111"/>
@@ -3515,20 +3546,48 @@
       <c r="S31" s="114">
         <v>51.344200000000001</v>
       </c>
-      <c r="T31" s="114"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114"/>
-      <c r="Y31" s="114"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="114"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="114"/>
-      <c r="AG31" s="115"/>
+      <c r="T31" s="52">
+        <v>14.224500000000001</v>
+      </c>
+      <c r="U31" s="113">
+        <v>16.335899999999999</v>
+      </c>
+      <c r="V31" s="114">
+        <v>24.066800000000001</v>
+      </c>
+      <c r="W31" s="114">
+        <v>23.6616</v>
+      </c>
+      <c r="X31" s="114">
+        <v>52.790500000000002</v>
+      </c>
+      <c r="Y31" s="114">
+        <v>22.7685</v>
+      </c>
+      <c r="Z31" s="113">
+        <v>3.0557799999999999</v>
+      </c>
+      <c r="AA31" s="114">
+        <v>11.776400000000001</v>
+      </c>
+      <c r="AB31" s="114">
+        <v>12.9758</v>
+      </c>
+      <c r="AC31" s="114">
+        <v>57.421100000000003</v>
+      </c>
+      <c r="AD31" s="113">
+        <v>2.62452</v>
+      </c>
+      <c r="AE31" s="114">
+        <v>12.7263</v>
+      </c>
+      <c r="AF31" s="114">
+        <v>13.347099999999999</v>
+      </c>
+      <c r="AG31" s="115">
+        <v>59.326700000000002</v>
+      </c>
       <c r="AH31" s="114"/>
       <c r="AI31" s="114"/>
       <c r="AJ31" s="114"/>
@@ -3838,24 +3897,60 @@
       <c r="O36" s="109">
         <v>3384.4</v>
       </c>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="108"/>
-      <c r="T36" s="108"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="108"/>
-      <c r="W36" s="108"/>
-      <c r="X36" s="108"/>
-      <c r="Y36" s="108"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="108"/>
-      <c r="AB36" s="108"/>
-      <c r="AC36" s="108"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="108"/>
-      <c r="AF36" s="108"/>
-      <c r="AG36" s="109"/>
+      <c r="P36" s="107">
+        <v>42203.8</v>
+      </c>
+      <c r="Q36" s="108">
+        <v>54449.2</v>
+      </c>
+      <c r="R36" s="108">
+        <v>54449.2</v>
+      </c>
+      <c r="S36" s="108">
+        <v>14526.8</v>
+      </c>
+      <c r="T36" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="U36" s="107">
+        <v>40756.5</v>
+      </c>
+      <c r="V36" s="108">
+        <v>54551.6</v>
+      </c>
+      <c r="W36" s="108">
+        <v>55664.9</v>
+      </c>
+      <c r="X36" s="108">
+        <v>14415.1</v>
+      </c>
+      <c r="Y36" s="108">
+        <v>13529</v>
+      </c>
+      <c r="Z36" s="107">
+        <v>218222</v>
+      </c>
+      <c r="AA36" s="108">
+        <v>68904.800000000003</v>
+      </c>
+      <c r="AB36" s="108">
+        <v>68904.600000000006</v>
+      </c>
+      <c r="AC36" s="108">
+        <v>11975.5</v>
+      </c>
+      <c r="AD36" s="107">
+        <v>272134</v>
+      </c>
+      <c r="AE36" s="108">
+        <v>72414.5</v>
+      </c>
+      <c r="AF36" s="108">
+        <v>70873.7</v>
+      </c>
+      <c r="AG36" s="109">
+        <v>12789.3</v>
+      </c>
       <c r="AH36" s="108"/>
       <c r="AI36" s="108"/>
       <c r="AJ36" s="108"/>
@@ -3899,24 +3994,60 @@
       <c r="O37" s="115">
         <v>193.64</v>
       </c>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="114"/>
-      <c r="S37" s="114"/>
-      <c r="T37" s="114"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="114"/>
-      <c r="X37" s="114"/>
-      <c r="Y37" s="114"/>
-      <c r="Z37" s="113"/>
-      <c r="AA37" s="114"/>
-      <c r="AB37" s="114"/>
-      <c r="AC37" s="114"/>
-      <c r="AD37" s="113"/>
-      <c r="AE37" s="114"/>
-      <c r="AF37" s="114"/>
-      <c r="AG37" s="115"/>
+      <c r="P37" s="113">
+        <v>15.528499999999999</v>
+      </c>
+      <c r="Q37" s="114">
+        <v>12.036199999999999</v>
+      </c>
+      <c r="R37" s="114">
+        <v>12.036199999999999</v>
+      </c>
+      <c r="S37" s="114">
+        <v>45.113799999999998</v>
+      </c>
+      <c r="T37" s="114">
+        <v>47.105400000000003</v>
+      </c>
+      <c r="U37" s="113">
+        <v>16.079899999999999</v>
+      </c>
+      <c r="V37" s="114">
+        <v>12.0136</v>
+      </c>
+      <c r="W37" s="114">
+        <v>11.773300000000001</v>
+      </c>
+      <c r="X37" s="114">
+        <v>45.463500000000003</v>
+      </c>
+      <c r="Y37" s="114">
+        <v>48.441000000000003</v>
+      </c>
+      <c r="Z37" s="113">
+        <v>3.0031699999999999</v>
+      </c>
+      <c r="AA37" s="114">
+        <v>9.5111000000000008</v>
+      </c>
+      <c r="AB37" s="114">
+        <v>9.51112</v>
+      </c>
+      <c r="AC37" s="114">
+        <v>54.725200000000001</v>
+      </c>
+      <c r="AD37" s="113">
+        <v>2.40822</v>
+      </c>
+      <c r="AE37" s="114">
+        <v>9.0501299999999993</v>
+      </c>
+      <c r="AF37" s="114">
+        <v>9.2468699999999995</v>
+      </c>
+      <c r="AG37" s="115">
+        <v>51.242699999999999</v>
+      </c>
       <c r="AH37" s="114"/>
       <c r="AI37" s="114"/>
       <c r="AJ37" s="114"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B49016B-38DC-4C90-82AF-11997303EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A066B481-B005-4BDB-B528-79E8326B591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="730" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="39">
   <si>
     <t>distinctValues</t>
   </si>
@@ -167,6 +167,9 @@
       </rPr>
       <t>[only possible for scale = 1,0 !!]</t>
     </r>
+  </si>
+  <si>
+    <t>10,779,6</t>
   </si>
 </sst>
 </file>
@@ -1446,8 +1449,8 @@
   <dimension ref="A1:AZ318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ9" sqref="AQ9"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,24 +3477,60 @@
       <c r="O24" s="109">
         <v>3936.47</v>
       </c>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="108"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="108"/>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="108"/>
-      <c r="AC24" s="108"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="108"/>
-      <c r="AF24" s="108"/>
-      <c r="AG24" s="109"/>
+      <c r="P24" s="107">
+        <v>41272.1</v>
+      </c>
+      <c r="Q24" s="108">
+        <v>55916.4</v>
+      </c>
+      <c r="R24" s="108">
+        <v>55916.4</v>
+      </c>
+      <c r="S24" s="108">
+        <v>14500.1</v>
+      </c>
+      <c r="T24" s="108">
+        <v>15235.4</v>
+      </c>
+      <c r="U24" s="107">
+        <v>40209.9</v>
+      </c>
+      <c r="V24" s="108">
+        <v>54890.2</v>
+      </c>
+      <c r="W24" s="108">
+        <v>53275.7</v>
+      </c>
+      <c r="X24" s="108">
+        <v>13526.2</v>
+      </c>
+      <c r="Y24" s="108">
+        <v>15134</v>
+      </c>
+      <c r="Z24" s="107">
+        <v>215276</v>
+      </c>
+      <c r="AA24" s="108">
+        <v>65302.7</v>
+      </c>
+      <c r="AB24" s="108">
+        <v>67387.7</v>
+      </c>
+      <c r="AC24" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD24" s="107">
+        <v>259054</v>
+      </c>
+      <c r="AE24" s="108">
+        <v>69350.7</v>
+      </c>
+      <c r="AF24" s="108">
+        <v>67249.100000000006</v>
+      </c>
+      <c r="AG24" s="109">
+        <v>10685.8</v>
+      </c>
       <c r="AH24" s="129"/>
       <c r="AI24" s="130"/>
       <c r="AJ24" s="130"/>
@@ -3552,24 +3591,60 @@
       <c r="O25" s="115">
         <v>166.48</v>
       </c>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="114"/>
-      <c r="X25" s="114"/>
-      <c r="Y25" s="114"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="114"/>
-      <c r="AB25" s="114"/>
-      <c r="AC25" s="114"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="114"/>
-      <c r="AF25" s="114"/>
-      <c r="AG25" s="115"/>
+      <c r="P25" s="113">
+        <v>15.879</v>
+      </c>
+      <c r="Q25" s="114">
+        <v>11.7204</v>
+      </c>
+      <c r="R25" s="114">
+        <v>11.7204</v>
+      </c>
+      <c r="S25" s="114">
+        <v>45.196800000000003</v>
+      </c>
+      <c r="T25" s="114">
+        <v>43.015599999999999</v>
+      </c>
+      <c r="U25" s="113">
+        <v>16.298500000000001</v>
+      </c>
+      <c r="V25" s="114">
+        <v>11.939500000000001</v>
+      </c>
+      <c r="W25" s="114">
+        <v>12.301299999999999</v>
+      </c>
+      <c r="X25" s="114">
+        <v>48.451099999999997</v>
+      </c>
+      <c r="Y25" s="114">
+        <v>43.303899999999999</v>
+      </c>
+      <c r="Z25" s="113">
+        <v>3.0442800000000001</v>
+      </c>
+      <c r="AA25" s="114">
+        <v>10.0357</v>
+      </c>
+      <c r="AB25" s="114">
+        <v>9.7252200000000002</v>
+      </c>
+      <c r="AC25" s="114">
+        <v>60.796399999999998</v>
+      </c>
+      <c r="AD25" s="113">
+        <v>2.52982</v>
+      </c>
+      <c r="AE25" s="114">
+        <v>9.4499499999999994</v>
+      </c>
+      <c r="AF25" s="114">
+        <v>9.74526</v>
+      </c>
+      <c r="AG25" s="115">
+        <v>61.330199999999998</v>
+      </c>
       <c r="AH25" s="134"/>
       <c r="AI25" s="135"/>
       <c r="AJ25" s="135"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A066B481-B005-4BDB-B528-79E8326B591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC38C71-255D-4126-8359-5804E602CF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="730" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -1448,9 +1448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81A5C4-0DEF-4D93-A6BF-5419A031E380}">
   <dimension ref="A1:AZ318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,10 +1826,20 @@
       <c r="AI4" s="111"/>
       <c r="AJ4" s="111"/>
       <c r="AK4" s="66"/>
-      <c r="AM4" s="21"/>
-      <c r="AR4" s="21"/>
-      <c r="AV4" s="21"/>
-      <c r="AY4" s="123"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="131"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="67"/>
       <c r="AZ4" s="69"/>
     </row>
     <row r="5" spans="1:52" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1881,10 +1891,20 @@
       <c r="AI5" s="114"/>
       <c r="AJ5" s="114"/>
       <c r="AK5" s="52"/>
-      <c r="AM5" s="124"/>
-      <c r="AR5" s="124"/>
-      <c r="AV5" s="124"/>
-      <c r="AY5" s="125"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="53"/>
       <c r="AZ5" s="23" t="s">
         <v>20</v>
       </c>
@@ -1991,10 +2011,20 @@
       <c r="AI6" s="111"/>
       <c r="AJ6" s="111"/>
       <c r="AK6" s="66"/>
-      <c r="AM6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AY6" s="123"/>
+      <c r="AL6" s="131"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="131"/>
+      <c r="AR6" s="68"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="66"/>
+      <c r="AX6" s="66"/>
+      <c r="AY6" s="67"/>
       <c r="AZ6" s="69"/>
     </row>
     <row r="7" spans="1:52" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2095,10 +2125,20 @@
       <c r="AI7" s="114"/>
       <c r="AJ7" s="114"/>
       <c r="AK7" s="52"/>
-      <c r="AM7" s="124"/>
-      <c r="AR7" s="124"/>
-      <c r="AV7" s="124"/>
-      <c r="AY7" s="125"/>
+      <c r="AL7" s="136"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="136"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="53"/>
       <c r="AZ7" s="23" t="s">
         <v>20</v>
       </c>
@@ -2169,10 +2209,20 @@
       <c r="AI8" s="111"/>
       <c r="AJ8" s="111"/>
       <c r="AK8" s="66"/>
-      <c r="AM8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AY8" s="123"/>
+      <c r="AL8" s="131"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="131"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="67"/>
       <c r="AZ8" s="69"/>
     </row>
     <row r="9" spans="1:52" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2237,10 +2287,20 @@
       <c r="AI9" s="114"/>
       <c r="AJ9" s="114"/>
       <c r="AK9" s="52"/>
-      <c r="AM9" s="124"/>
-      <c r="AR9" s="124"/>
-      <c r="AV9" s="124"/>
-      <c r="AY9" s="125"/>
+      <c r="AL9" s="136"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="136"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="52"/>
+      <c r="AU9" s="52"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="52"/>
+      <c r="AY9" s="53"/>
       <c r="AZ9" s="23" t="s">
         <v>20</v>
       </c>
@@ -2307,14 +2367,44 @@
       <c r="AE10" s="111"/>
       <c r="AF10" s="111"/>
       <c r="AG10" s="112"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="111"/>
-      <c r="AK10" s="66"/>
-      <c r="AM10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AY10" s="123"/>
+      <c r="AH10" s="110">
+        <v>30328</v>
+      </c>
+      <c r="AI10" s="111">
+        <v>3108.78</v>
+      </c>
+      <c r="AJ10" s="111">
+        <v>3108.76</v>
+      </c>
+      <c r="AK10" s="66">
+        <v>3502.18</v>
+      </c>
+      <c r="AL10" s="131"/>
+      <c r="AM10" s="68">
+        <v>30511.7</v>
+      </c>
+      <c r="AN10" s="66">
+        <v>3057.37</v>
+      </c>
+      <c r="AO10" s="66">
+        <v>3189.17</v>
+      </c>
+      <c r="AP10" s="66">
+        <v>3741.64</v>
+      </c>
+      <c r="AQ10" s="131"/>
+      <c r="AR10" s="68">
+        <v>198093</v>
+      </c>
+      <c r="AS10" s="66">
+        <v>4729.8100000000004</v>
+      </c>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="67"/>
       <c r="AZ10" s="69"/>
     </row>
     <row r="11" spans="1:52" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2375,14 +2465,44 @@
       <c r="AE11" s="114"/>
       <c r="AF11" s="114"/>
       <c r="AG11" s="115"/>
-      <c r="AH11" s="113"/>
-      <c r="AI11" s="114"/>
-      <c r="AJ11" s="114"/>
-      <c r="AK11" s="52"/>
-      <c r="AM11" s="124"/>
-      <c r="AR11" s="124"/>
-      <c r="AV11" s="124"/>
-      <c r="AY11" s="125"/>
+      <c r="AH11" s="113">
+        <v>21.609100000000002</v>
+      </c>
+      <c r="AI11" s="114">
+        <v>210.809</v>
+      </c>
+      <c r="AJ11" s="114">
+        <v>210.81100000000001</v>
+      </c>
+      <c r="AK11" s="52">
+        <v>187.12899999999999</v>
+      </c>
+      <c r="AL11" s="136"/>
+      <c r="AM11" s="54">
+        <v>21.478999999999999</v>
+      </c>
+      <c r="AN11" s="52">
+        <v>214.35400000000001</v>
+      </c>
+      <c r="AO11" s="52">
+        <v>205.495</v>
+      </c>
+      <c r="AP11" s="52">
+        <v>175.15299999999999</v>
+      </c>
+      <c r="AQ11" s="136"/>
+      <c r="AR11" s="54">
+        <v>3.3083399999999998</v>
+      </c>
+      <c r="AS11" s="52">
+        <v>138.559</v>
+      </c>
+      <c r="AT11" s="52"/>
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="54"/>
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="52"/>
+      <c r="AY11" s="53"/>
       <c r="AZ11" s="23" t="s">
         <v>20</v>
       </c>
@@ -2485,14 +2605,54 @@
       <c r="AG12" s="109">
         <v>13555.3</v>
       </c>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="108"/>
-      <c r="AJ12" s="108"/>
-      <c r="AK12" s="55"/>
-      <c r="AM12" s="140"/>
-      <c r="AR12" s="140"/>
-      <c r="AV12" s="140"/>
-      <c r="AY12" s="126"/>
+      <c r="AH12" s="107">
+        <v>31805.8</v>
+      </c>
+      <c r="AI12" s="108">
+        <v>3892.67</v>
+      </c>
+      <c r="AJ12" s="108">
+        <v>3892.67</v>
+      </c>
+      <c r="AK12" s="55">
+        <v>4229.75</v>
+      </c>
+      <c r="AL12" s="131"/>
+      <c r="AM12" s="57">
+        <v>31099</v>
+      </c>
+      <c r="AN12" s="55">
+        <v>3774.73</v>
+      </c>
+      <c r="AO12" s="55">
+        <v>3813.24</v>
+      </c>
+      <c r="AP12" s="55">
+        <v>4323.75</v>
+      </c>
+      <c r="AQ12" s="131"/>
+      <c r="AR12" s="57">
+        <v>195265</v>
+      </c>
+      <c r="AS12" s="55">
+        <v>5935.02</v>
+      </c>
+      <c r="AT12" s="55">
+        <v>5882.95</v>
+      </c>
+      <c r="AU12" s="55">
+        <v>4123.9399999999996</v>
+      </c>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="55">
+        <v>5935.01</v>
+      </c>
+      <c r="AX12" s="55">
+        <v>6326.94</v>
+      </c>
+      <c r="AY12" s="56">
+        <v>3932.33</v>
+      </c>
       <c r="AZ12" s="69"/>
     </row>
     <row r="13" spans="1:52" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2589,14 +2749,54 @@
       <c r="AG13" s="115">
         <v>48.347099999999998</v>
       </c>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="114"/>
-      <c r="AJ13" s="114"/>
-      <c r="AK13" s="52"/>
-      <c r="AM13" s="124"/>
-      <c r="AR13" s="124"/>
-      <c r="AV13" s="124"/>
-      <c r="AY13" s="125"/>
+      <c r="AH13" s="113">
+        <v>20.6051</v>
+      </c>
+      <c r="AI13" s="114">
+        <v>168.357</v>
+      </c>
+      <c r="AJ13" s="114">
+        <v>168.357</v>
+      </c>
+      <c r="AK13" s="52">
+        <v>154.941</v>
+      </c>
+      <c r="AL13" s="136"/>
+      <c r="AM13" s="54">
+        <v>21.07</v>
+      </c>
+      <c r="AN13" s="52">
+        <v>173.61799999999999</v>
+      </c>
+      <c r="AO13" s="52">
+        <v>171.864</v>
+      </c>
+      <c r="AP13" s="52">
+        <v>151.572</v>
+      </c>
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="54">
+        <v>3.3562599999999998</v>
+      </c>
+      <c r="AS13" s="52">
+        <v>110.423</v>
+      </c>
+      <c r="AT13" s="52">
+        <v>111.4</v>
+      </c>
+      <c r="AU13" s="52">
+        <v>158.916</v>
+      </c>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="52">
+        <v>110.423</v>
+      </c>
+      <c r="AX13" s="52">
+        <v>103.58199999999999</v>
+      </c>
+      <c r="AY13" s="53">
+        <v>166.66</v>
+      </c>
       <c r="AZ13" s="23" t="s">
         <v>20</v>
       </c>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F00D6A-993B-4CBC-BB69-F1B61B1F7FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DD299F-2CF1-4C7D-8E7F-143B6B519412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="730" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="730" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="MESSWERTE EVALUATION" sheetId="29" r:id="rId1"/>
@@ -724,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1031,6 +1031,57 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,62 +1100,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1151,18 +1157,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1480,8 +1481,8 @@
   <dimension ref="A1:AZ318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ8" sqref="AQ8"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW5" sqref="AW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,6 +1514,7 @@
     <col min="39" max="39" width="11.42578125" style="7"/>
     <col min="43" max="43" width="14" customWidth="1"/>
     <col min="44" max="44" width="11.42578125" style="7"/>
+    <col min="47" max="47" width="11.42578125" customWidth="1"/>
     <col min="48" max="48" width="11.42578125" style="7"/>
     <col min="51" max="51" width="11.42578125" style="8"/>
     <col min="52" max="52" width="18.42578125" style="14" customWidth="1"/>
@@ -1524,60 +1526,60 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="162" t="s">
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="156" t="s">
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="158"/>
-      <c r="AH1" s="156" t="s">
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="175"/>
+      <c r="AH1" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="157"/>
-      <c r="AJ1" s="157"/>
-      <c r="AK1" s="157"/>
-      <c r="AL1" s="157"/>
-      <c r="AM1" s="157"/>
-      <c r="AN1" s="157"/>
-      <c r="AO1" s="157"/>
-      <c r="AP1" s="157"/>
-      <c r="AQ1" s="157"/>
-      <c r="AR1" s="157"/>
-      <c r="AS1" s="157"/>
-      <c r="AT1" s="157"/>
-      <c r="AU1" s="157"/>
-      <c r="AV1" s="157"/>
-      <c r="AW1" s="157"/>
-      <c r="AX1" s="157"/>
-      <c r="AY1" s="158"/>
+      <c r="AI1" s="174"/>
+      <c r="AJ1" s="174"/>
+      <c r="AK1" s="174"/>
+      <c r="AL1" s="174"/>
+      <c r="AM1" s="174"/>
+      <c r="AN1" s="174"/>
+      <c r="AO1" s="174"/>
+      <c r="AP1" s="174"/>
+      <c r="AQ1" s="174"/>
+      <c r="AR1" s="174"/>
+      <c r="AS1" s="174"/>
+      <c r="AT1" s="174"/>
+      <c r="AU1" s="174"/>
+      <c r="AV1" s="174"/>
+      <c r="AW1" s="174"/>
+      <c r="AX1" s="174"/>
+      <c r="AY1" s="175"/>
       <c r="AZ1" s="50"/>
     </row>
     <row r="2" spans="1:52" s="84" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1586,80 +1588,80 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="171" t="s">
+      <c r="F2" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="173" t="s">
+      <c r="G2" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="173" t="s">
+      <c r="H2" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="173" t="s">
+      <c r="I2" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="175" t="s">
+      <c r="J2" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="159" t="s">
+      <c r="K2" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="159" t="s">
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="162" t="s">
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="162" t="s">
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="162" t="s">
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="159" t="s">
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="160"/>
-      <c r="AJ2" s="160"/>
-      <c r="AK2" s="160"/>
-      <c r="AL2" s="161"/>
-      <c r="AM2" s="162" t="s">
+      <c r="AI2" s="177"/>
+      <c r="AJ2" s="177"/>
+      <c r="AK2" s="177"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="AN2" s="163"/>
-      <c r="AO2" s="163"/>
-      <c r="AP2" s="163"/>
-      <c r="AQ2" s="164"/>
-      <c r="AR2" s="162" t="s">
+      <c r="AN2" s="171"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="172"/>
+      <c r="AR2" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="AS2" s="163"/>
-      <c r="AT2" s="163"/>
-      <c r="AU2" s="164"/>
-      <c r="AV2" s="162" t="s">
+      <c r="AS2" s="171"/>
+      <c r="AT2" s="171"/>
+      <c r="AU2" s="172"/>
+      <c r="AV2" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="163"/>
-      <c r="AX2" s="163"/>
-      <c r="AY2" s="164"/>
+      <c r="AW2" s="171"/>
+      <c r="AX2" s="171"/>
+      <c r="AY2" s="172"/>
       <c r="AZ2" s="13"/>
     </row>
     <row r="3" spans="1:52" s="20" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1676,11 +1678,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="176"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1881,14 +1883,30 @@
         <v>3375.56</v>
       </c>
       <c r="AQ4" s="143"/>
-      <c r="AR4" s="144"/>
-      <c r="AS4" s="142"/>
-      <c r="AT4" s="142"/>
-      <c r="AU4" s="142"/>
-      <c r="AV4" s="144"/>
-      <c r="AW4" s="142"/>
-      <c r="AX4" s="142"/>
-      <c r="AY4" s="145"/>
+      <c r="AR4" s="144">
+        <v>179789</v>
+      </c>
+      <c r="AS4" s="142">
+        <v>3896.25</v>
+      </c>
+      <c r="AT4" s="142">
+        <v>3896.27</v>
+      </c>
+      <c r="AU4" s="142">
+        <v>2829.14</v>
+      </c>
+      <c r="AV4" s="144">
+        <v>196644</v>
+      </c>
+      <c r="AW4" s="142">
+        <v>3849.34</v>
+      </c>
+      <c r="AX4" s="142">
+        <v>3849.32</v>
+      </c>
+      <c r="AY4" s="145">
+        <v>2896.52</v>
+      </c>
       <c r="AZ4" s="63"/>
     </row>
     <row r="5" spans="1:52" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1962,14 +1980,30 @@
         <v>194.148</v>
       </c>
       <c r="AQ5" s="123"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="53"/>
+      <c r="AR5" s="54">
+        <v>3.6451600000000002</v>
+      </c>
+      <c r="AS5" s="52">
+        <v>168.203</v>
+      </c>
+      <c r="AT5" s="52">
+        <v>168.202</v>
+      </c>
+      <c r="AU5" s="52">
+        <v>231.64599999999999</v>
+      </c>
+      <c r="AV5" s="54">
+        <v>3.3327200000000001</v>
+      </c>
+      <c r="AW5" s="52">
+        <v>170.25299999999999</v>
+      </c>
+      <c r="AX5" s="52">
+        <v>170.25299999999999</v>
+      </c>
+      <c r="AY5" s="53">
+        <v>226.25700000000001</v>
+      </c>
       <c r="AZ5" s="23" t="s">
         <v>20</v>
       </c>
@@ -3022,26 +3056,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:52" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="40"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="168" t="s">
+      <c r="F14" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="168" t="s">
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="170"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="162"/>
       <c r="P14" s="104"/>
       <c r="Q14" s="105"/>
       <c r="R14" s="105"/>
@@ -3060,24 +3094,26 @@
       <c r="AE14" s="105"/>
       <c r="AF14" s="105"/>
       <c r="AG14" s="106"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="198" t="s">
+      <c r="AH14" s="134">
+        <v>30164.7</v>
+      </c>
+      <c r="AI14" s="135"/>
+      <c r="AJ14" s="135"/>
+      <c r="AK14" s="147"/>
+      <c r="AL14" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="AM14" s="128"/>
-      <c r="AN14" s="120"/>
-      <c r="AO14" s="120"/>
-      <c r="AP14" s="120"/>
-      <c r="AQ14" s="198" t="s">
+      <c r="AM14" s="200"/>
+      <c r="AN14" s="150"/>
+      <c r="AO14" s="150"/>
+      <c r="AP14" s="150"/>
+      <c r="AQ14" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="AR14" s="128"/>
-      <c r="AS14" s="120"/>
-      <c r="AT14" s="120"/>
-      <c r="AU14" s="120"/>
+      <c r="AR14" s="200"/>
+      <c r="AS14" s="150"/>
+      <c r="AT14" s="150"/>
+      <c r="AU14" s="150"/>
       <c r="AV14" s="128"/>
       <c r="AW14" s="120"/>
       <c r="AX14" s="120"/>
@@ -3118,20 +3154,22 @@
       <c r="AE15" s="108"/>
       <c r="AF15" s="108"/>
       <c r="AG15" s="109"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="122"/>
-      <c r="AJ15" s="122"/>
-      <c r="AK15" s="123"/>
-      <c r="AL15" s="199"/>
-      <c r="AM15" s="129"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="125"/>
-      <c r="AQ15" s="199"/>
-      <c r="AR15" s="129"/>
-      <c r="AS15" s="125"/>
-      <c r="AT15" s="125"/>
-      <c r="AU15" s="125"/>
+      <c r="AH15" s="101">
+        <v>21.725999999999999</v>
+      </c>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="102"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="157"/>
+      <c r="AM15" s="111"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="157"/>
+      <c r="AR15" s="111"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
       <c r="AV15" s="129"/>
       <c r="AW15" s="125"/>
       <c r="AX15" s="125"/>
@@ -4098,20 +4136,20 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="168" t="s">
+      <c r="F26" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="168" t="s">
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="170"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="162"/>
       <c r="P26" s="104"/>
       <c r="Q26" s="105"/>
       <c r="R26" s="105"/>
@@ -5164,20 +5202,20 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="168" t="s">
+      <c r="F38" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="168" t="s">
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="169"/>
-      <c r="M38" s="169"/>
-      <c r="N38" s="169"/>
-      <c r="O38" s="170"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="162"/>
       <c r="P38" s="104"/>
       <c r="Q38" s="105"/>
       <c r="R38" s="105"/>
@@ -6204,20 +6242,20 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="168" t="s">
+      <c r="F50" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="169"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="170"/>
-      <c r="K50" s="168" t="s">
+      <c r="G50" s="161"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="169"/>
-      <c r="M50" s="169"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="170"/>
+      <c r="L50" s="161"/>
+      <c r="M50" s="161"/>
+      <c r="N50" s="161"/>
+      <c r="O50" s="162"/>
       <c r="P50" s="57"/>
       <c r="Q50" s="55"/>
       <c r="R50" s="55"/>
@@ -7566,21 +7604,21 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="165"/>
-      <c r="G82" s="166"/>
-      <c r="H82" s="166"/>
-      <c r="I82" s="166"/>
-      <c r="J82" s="167"/>
+      <c r="F82" s="167"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="168"/>
+      <c r="I82" s="168"/>
+      <c r="J82" s="169"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
       <c r="N82" s="81"/>
       <c r="O82" s="61"/>
-      <c r="P82" s="165"/>
-      <c r="Q82" s="166"/>
-      <c r="R82" s="166"/>
-      <c r="S82" s="166"/>
-      <c r="T82" s="167"/>
+      <c r="P82" s="167"/>
+      <c r="Q82" s="168"/>
+      <c r="R82" s="168"/>
+      <c r="S82" s="168"/>
+      <c r="T82" s="169"/>
       <c r="U82" s="62"/>
       <c r="V82" s="81"/>
       <c r="W82" s="81"/>
@@ -10656,15 +10694,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AH1:AY1"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="P82:T82"/>
@@ -10681,11 +10715,15 @@
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="F38:J38"/>
     <mergeCell ref="K2:O2"/>
-    <mergeCell ref="AH1:AY1"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10805,10 +10843,10 @@
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="67"/>
-      <c r="I6" s="192" t="s">
+      <c r="I6" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="193"/>
+      <c r="J6" s="195"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -10816,10 +10854,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="195"/>
+      <c r="B7" s="197"/>
       <c r="C7" s="64">
         <v>635.53</v>
       </c>
@@ -10835,10 +10873,10 @@
       <c r="G7" s="69">
         <v>1491.74</v>
       </c>
-      <c r="I7" s="194" t="s">
+      <c r="I7" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="195"/>
+      <c r="J7" s="197"/>
       <c r="K7" s="64">
         <v>7089.11</v>
       </c>
@@ -10856,8 +10894,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="195"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="64">
         <v>629.29</v>
       </c>
@@ -10873,8 +10911,8 @@
       <c r="G8" s="69">
         <v>1494.82</v>
       </c>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
       <c r="K8" s="64">
         <v>7358.56</v>
       </c>
@@ -10892,8 +10930,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="64">
         <v>628.95500000000004</v>
       </c>
@@ -10909,8 +10947,8 @@
       <c r="G9" s="69">
         <v>1494.92</v>
       </c>
-      <c r="I9" s="194"/>
-      <c r="J9" s="195"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
       <c r="K9" s="64">
         <v>7082.39</v>
       </c>
@@ -10928,10 +10966,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -10952,10 +10990,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="196" t="s">
+      <c r="I10" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="197"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -10978,10 +11016,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="178"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -11002,10 +11040,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="177" t="s">
+      <c r="I11" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="178"/>
+      <c r="J11" s="182"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -11028,66 +11066,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="183" t="s">
+      <c r="B12" s="184"/>
+      <c r="C12" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="185"/>
-      <c r="I12" s="181" t="s">
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="187"/>
+      <c r="I12" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183" t="s">
+      <c r="J12" s="184"/>
+      <c r="K12" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="185"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="187"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="188"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="188"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="190"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="190"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="191"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="191"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="193"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="178"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -11108,10 +11146,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="177" t="s">
+      <c r="I15" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="178"/>
+      <c r="J15" s="182"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -11134,15 +11172,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="180"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="180"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -11236,10 +11274,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="192" t="s">
+      <c r="I26" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="193"/>
+      <c r="J26" s="195"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -11247,10 +11285,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="195"/>
+      <c r="B27" s="197"/>
       <c r="C27" s="64">
         <v>580.4</v>
       </c>
@@ -11266,10 +11304,10 @@
       <c r="G27" s="69">
         <v>1038.54</v>
       </c>
-      <c r="I27" s="194" t="s">
+      <c r="I27" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="195"/>
+      <c r="J27" s="197"/>
       <c r="K27" s="64">
         <v>6864.08</v>
       </c>
@@ -11287,8 +11325,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="194"/>
-      <c r="B28" s="195"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="197"/>
       <c r="C28" s="64">
         <v>621.89099999999996</v>
       </c>
@@ -11304,8 +11342,8 @@
       <c r="G28" s="69">
         <v>1099.28</v>
       </c>
-      <c r="I28" s="194"/>
-      <c r="J28" s="195"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
       <c r="K28" s="64">
         <v>7156.32</v>
       </c>
@@ -11323,8 +11361,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="194"/>
-      <c r="B29" s="195"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="197"/>
       <c r="C29" s="64">
         <v>580.40200000000004</v>
       </c>
@@ -11340,8 +11378,8 @@
       <c r="G29" s="69">
         <v>1049.24</v>
       </c>
-      <c r="I29" s="194"/>
-      <c r="J29" s="195"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
       <c r="K29" s="64">
         <v>7146.28</v>
       </c>
@@ -11359,10 +11397,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="196" t="s">
+      <c r="A30" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="197"/>
+      <c r="B30" s="180"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -11383,10 +11421,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="196" t="s">
+      <c r="I30" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="197"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -11409,10 +11447,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -11433,10 +11471,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="177" t="s">
+      <c r="I31" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="178"/>
+      <c r="J31" s="182"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -11459,66 +11497,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="182"/>
-      <c r="C32" s="183" t="s">
+      <c r="B32" s="184"/>
+      <c r="C32" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="185"/>
-      <c r="I32" s="181" t="s">
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="187"/>
+      <c r="I32" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="182"/>
-      <c r="K32" s="183" t="s">
+      <c r="J32" s="184"/>
+      <c r="K32" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="185"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="187"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="188"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="188"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="190"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="190"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="189"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="191"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="190"/>
-      <c r="O34" s="191"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="192"/>
+      <c r="G34" s="193"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="192"/>
+      <c r="N34" s="192"/>
+      <c r="O34" s="193"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="177" t="s">
+      <c r="A35" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="178"/>
+      <c r="B35" s="182"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -11539,10 +11577,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="177" t="s">
+      <c r="I35" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="178"/>
+      <c r="J35" s="182"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -11565,15 +11603,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
-      <c r="B36" s="180"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="199"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="180"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="199"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -11667,10 +11705,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="192" t="s">
+      <c r="I46" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="193"/>
+      <c r="J46" s="195"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -11678,10 +11716,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="194" t="s">
+      <c r="A47" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="195"/>
+      <c r="B47" s="197"/>
       <c r="C47" s="64">
         <v>745.63</v>
       </c>
@@ -11697,10 +11735,10 @@
       <c r="G47" s="69">
         <v>2824.25</v>
       </c>
-      <c r="I47" s="194" t="s">
+      <c r="I47" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="195"/>
+      <c r="J47" s="197"/>
       <c r="K47" s="64">
         <v>7380.65</v>
       </c>
@@ -11718,8 +11756,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="194"/>
-      <c r="B48" s="195"/>
+      <c r="A48" s="196"/>
+      <c r="B48" s="197"/>
       <c r="C48" s="64">
         <v>747.9</v>
       </c>
@@ -11735,8 +11773,8 @@
       <c r="G48" s="69">
         <v>2802.62</v>
       </c>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="197"/>
       <c r="K48" s="64">
         <v>7272.22</v>
       </c>
@@ -11754,8 +11792,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="194"/>
-      <c r="B49" s="195"/>
+      <c r="A49" s="196"/>
+      <c r="B49" s="197"/>
       <c r="C49" s="64">
         <v>758.29</v>
       </c>
@@ -11771,8 +11809,8 @@
       <c r="G49" s="69">
         <v>3130.42</v>
       </c>
-      <c r="I49" s="194"/>
-      <c r="J49" s="195"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
       <c r="K49" s="64">
         <v>7382.71</v>
       </c>
@@ -11790,10 +11828,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="196" t="s">
+      <c r="A50" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="197"/>
+      <c r="B50" s="180"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -11814,10 +11852,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="196" t="s">
+      <c r="I50" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="197"/>
+      <c r="J50" s="180"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -11840,10 +11878,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="177" t="s">
+      <c r="A51" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="178"/>
+      <c r="B51" s="182"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -11864,10 +11902,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="177" t="s">
+      <c r="I51" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="178"/>
+      <c r="J51" s="182"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -11890,66 +11928,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="181" t="s">
+      <c r="A52" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="182"/>
-      <c r="C52" s="183" t="s">
+      <c r="B52" s="184"/>
+      <c r="C52" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="184"/>
-      <c r="E52" s="184"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
-      <c r="I52" s="181" t="s">
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="187"/>
+      <c r="I52" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="182"/>
-      <c r="K52" s="183" t="s">
+      <c r="J52" s="184"/>
+      <c r="K52" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="184"/>
-      <c r="M52" s="184"/>
-      <c r="N52" s="184"/>
-      <c r="O52" s="185"/>
+      <c r="L52" s="186"/>
+      <c r="M52" s="186"/>
+      <c r="N52" s="186"/>
+      <c r="O52" s="187"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="181"/>
-      <c r="B53" s="182"/>
-      <c r="C53" s="186"/>
-      <c r="D53" s="187"/>
-      <c r="E53" s="187"/>
-      <c r="F53" s="187"/>
-      <c r="G53" s="188"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="182"/>
-      <c r="K53" s="186"/>
-      <c r="L53" s="187"/>
-      <c r="M53" s="187"/>
-      <c r="N53" s="187"/>
-      <c r="O53" s="188"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="184"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="189"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="190"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="184"/>
+      <c r="K53" s="188"/>
+      <c r="L53" s="189"/>
+      <c r="M53" s="189"/>
+      <c r="N53" s="189"/>
+      <c r="O53" s="190"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="181"/>
-      <c r="B54" s="182"/>
-      <c r="C54" s="189"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="191"/>
-      <c r="I54" s="181"/>
-      <c r="J54" s="182"/>
-      <c r="K54" s="189"/>
-      <c r="L54" s="190"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="190"/>
-      <c r="O54" s="191"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="192"/>
+      <c r="E54" s="192"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="193"/>
+      <c r="I54" s="183"/>
+      <c r="J54" s="184"/>
+      <c r="K54" s="191"/>
+      <c r="L54" s="192"/>
+      <c r="M54" s="192"/>
+      <c r="N54" s="192"/>
+      <c r="O54" s="193"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="177" t="s">
+      <c r="A55" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="178"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -11970,10 +12008,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="177" t="s">
+      <c r="I55" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="178"/>
+      <c r="J55" s="182"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -11996,15 +12034,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="179"/>
-      <c r="B56" s="180"/>
+      <c r="A56" s="198"/>
+      <c r="B56" s="199"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="179"/>
-      <c r="J56" s="180"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="199"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -12098,10 +12136,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="192" t="s">
+      <c r="I66" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="193"/>
+      <c r="J66" s="195"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -12109,10 +12147,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="194" t="s">
+      <c r="A67" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="195"/>
+      <c r="B67" s="197"/>
       <c r="C67" s="64">
         <v>851.19100000000003</v>
       </c>
@@ -12128,10 +12166,10 @@
       <c r="G67" s="69">
         <v>2880.17</v>
       </c>
-      <c r="I67" s="194" t="s">
+      <c r="I67" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="195"/>
+      <c r="J67" s="197"/>
       <c r="K67" s="64">
         <v>7455.63</v>
       </c>
@@ -12149,8 +12187,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="194"/>
-      <c r="B68" s="195"/>
+      <c r="A68" s="196"/>
+      <c r="B68" s="197"/>
       <c r="C68" s="64">
         <v>850.14499999999998</v>
       </c>
@@ -12166,8 +12204,8 @@
       <c r="G68" s="69">
         <v>2829.59</v>
       </c>
-      <c r="I68" s="194"/>
-      <c r="J68" s="195"/>
+      <c r="I68" s="196"/>
+      <c r="J68" s="197"/>
       <c r="K68" s="64">
         <v>7455.62</v>
       </c>
@@ -12185,8 +12223,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="194"/>
-      <c r="B69" s="195"/>
+      <c r="A69" s="196"/>
+      <c r="B69" s="197"/>
       <c r="C69" s="64">
         <v>834.03200000000004</v>
       </c>
@@ -12202,8 +12240,8 @@
       <c r="G69" s="69">
         <v>2836.45</v>
       </c>
-      <c r="I69" s="194"/>
-      <c r="J69" s="195"/>
+      <c r="I69" s="196"/>
+      <c r="J69" s="197"/>
       <c r="K69" s="64">
         <v>7460.2</v>
       </c>
@@ -12221,10 +12259,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="197"/>
+      <c r="B70" s="180"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -12245,10 +12283,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="196" t="s">
+      <c r="I70" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="197"/>
+      <c r="J70" s="180"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -12271,10 +12309,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="177" t="s">
+      <c r="A71" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="178"/>
+      <c r="B71" s="182"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -12295,10 +12333,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="177" t="s">
+      <c r="I71" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="178"/>
+      <c r="J71" s="182"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -12321,66 +12359,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="181" t="s">
+      <c r="A72" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="182"/>
-      <c r="C72" s="183" t="s">
+      <c r="B72" s="184"/>
+      <c r="C72" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="184"/>
-      <c r="E72" s="184"/>
-      <c r="F72" s="184"/>
-      <c r="G72" s="185"/>
-      <c r="I72" s="181" t="s">
+      <c r="D72" s="186"/>
+      <c r="E72" s="186"/>
+      <c r="F72" s="186"/>
+      <c r="G72" s="187"/>
+      <c r="I72" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="182"/>
-      <c r="K72" s="183" t="s">
+      <c r="J72" s="184"/>
+      <c r="K72" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="184"/>
-      <c r="M72" s="184"/>
-      <c r="N72" s="184"/>
-      <c r="O72" s="185"/>
+      <c r="L72" s="186"/>
+      <c r="M72" s="186"/>
+      <c r="N72" s="186"/>
+      <c r="O72" s="187"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="181"/>
-      <c r="B73" s="182"/>
-      <c r="C73" s="186"/>
-      <c r="D73" s="187"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="187"/>
-      <c r="G73" s="188"/>
-      <c r="I73" s="181"/>
-      <c r="J73" s="182"/>
-      <c r="K73" s="186"/>
-      <c r="L73" s="187"/>
-      <c r="M73" s="187"/>
-      <c r="N73" s="187"/>
-      <c r="O73" s="188"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="188"/>
+      <c r="D73" s="189"/>
+      <c r="E73" s="189"/>
+      <c r="F73" s="189"/>
+      <c r="G73" s="190"/>
+      <c r="I73" s="183"/>
+      <c r="J73" s="184"/>
+      <c r="K73" s="188"/>
+      <c r="L73" s="189"/>
+      <c r="M73" s="189"/>
+      <c r="N73" s="189"/>
+      <c r="O73" s="190"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="181"/>
-      <c r="B74" s="182"/>
-      <c r="C74" s="189"/>
-      <c r="D74" s="190"/>
-      <c r="E74" s="190"/>
-      <c r="F74" s="190"/>
-      <c r="G74" s="191"/>
-      <c r="I74" s="181"/>
-      <c r="J74" s="182"/>
-      <c r="K74" s="189"/>
-      <c r="L74" s="190"/>
-      <c r="M74" s="190"/>
-      <c r="N74" s="190"/>
-      <c r="O74" s="191"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="191"/>
+      <c r="D74" s="192"/>
+      <c r="E74" s="192"/>
+      <c r="F74" s="192"/>
+      <c r="G74" s="193"/>
+      <c r="I74" s="183"/>
+      <c r="J74" s="184"/>
+      <c r="K74" s="191"/>
+      <c r="L74" s="192"/>
+      <c r="M74" s="192"/>
+      <c r="N74" s="192"/>
+      <c r="O74" s="193"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="177" t="s">
+      <c r="A75" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="178"/>
+      <c r="B75" s="182"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -12401,10 +12439,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="177" t="s">
+      <c r="I75" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="178"/>
+      <c r="J75" s="182"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -12427,15 +12465,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="179"/>
-      <c r="B76" s="180"/>
+      <c r="A76" s="198"/>
+      <c r="B76" s="199"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="179"/>
-      <c r="J76" s="180"/>
+      <c r="I76" s="198"/>
+      <c r="J76" s="199"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -12529,10 +12567,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="192" t="s">
+      <c r="I86" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="193"/>
+      <c r="J86" s="195"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -12540,10 +12578,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="194" t="s">
+      <c r="A87" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="195"/>
+      <c r="B87" s="197"/>
       <c r="C87" s="64">
         <v>1489.28</v>
       </c>
@@ -12559,10 +12597,10 @@
       <c r="G87" s="69">
         <v>3642.82</v>
       </c>
-      <c r="I87" s="194" t="s">
+      <c r="I87" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="195"/>
+      <c r="J87" s="197"/>
       <c r="K87" s="64">
         <v>10457.9</v>
       </c>
@@ -12580,8 +12618,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="194"/>
-      <c r="B88" s="195"/>
+      <c r="A88" s="196"/>
+      <c r="B88" s="197"/>
       <c r="C88" s="64">
         <v>1485.23</v>
       </c>
@@ -12597,8 +12635,8 @@
       <c r="G88" s="69">
         <v>3664.44</v>
       </c>
-      <c r="I88" s="194"/>
-      <c r="J88" s="195"/>
+      <c r="I88" s="196"/>
+      <c r="J88" s="197"/>
       <c r="K88" s="64">
         <v>10466</v>
       </c>
@@ -12616,8 +12654,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="194"/>
-      <c r="B89" s="195"/>
+      <c r="A89" s="196"/>
+      <c r="B89" s="197"/>
       <c r="C89" s="64">
         <v>1560.48</v>
       </c>
@@ -12633,8 +12671,8 @@
       <c r="G89" s="69">
         <v>3678.27</v>
       </c>
-      <c r="I89" s="194"/>
-      <c r="J89" s="195"/>
+      <c r="I89" s="196"/>
+      <c r="J89" s="197"/>
       <c r="K89" s="64">
         <v>10649.4</v>
       </c>
@@ -12652,10 +12690,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="196" t="s">
+      <c r="A90" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="197"/>
+      <c r="B90" s="180"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -12676,10 +12714,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="196" t="s">
+      <c r="I90" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="197"/>
+      <c r="J90" s="180"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -12702,10 +12740,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="177" t="s">
+      <c r="A91" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="178"/>
+      <c r="B91" s="182"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -12726,10 +12764,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="177" t="s">
+      <c r="I91" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="178"/>
+      <c r="J91" s="182"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -12752,66 +12790,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="181" t="s">
+      <c r="A92" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="182"/>
-      <c r="C92" s="183" t="s">
+      <c r="B92" s="184"/>
+      <c r="C92" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="184"/>
-      <c r="E92" s="184"/>
-      <c r="F92" s="184"/>
-      <c r="G92" s="185"/>
-      <c r="I92" s="181" t="s">
+      <c r="D92" s="186"/>
+      <c r="E92" s="186"/>
+      <c r="F92" s="186"/>
+      <c r="G92" s="187"/>
+      <c r="I92" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="182"/>
-      <c r="K92" s="183" t="s">
+      <c r="J92" s="184"/>
+      <c r="K92" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="184"/>
-      <c r="M92" s="184"/>
-      <c r="N92" s="184"/>
-      <c r="O92" s="185"/>
+      <c r="L92" s="186"/>
+      <c r="M92" s="186"/>
+      <c r="N92" s="186"/>
+      <c r="O92" s="187"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="181"/>
-      <c r="B93" s="182"/>
-      <c r="C93" s="186"/>
-      <c r="D93" s="187"/>
-      <c r="E93" s="187"/>
-      <c r="F93" s="187"/>
-      <c r="G93" s="188"/>
-      <c r="I93" s="181"/>
-      <c r="J93" s="182"/>
-      <c r="K93" s="186"/>
-      <c r="L93" s="187"/>
-      <c r="M93" s="187"/>
-      <c r="N93" s="187"/>
-      <c r="O93" s="188"/>
+      <c r="A93" s="183"/>
+      <c r="B93" s="184"/>
+      <c r="C93" s="188"/>
+      <c r="D93" s="189"/>
+      <c r="E93" s="189"/>
+      <c r="F93" s="189"/>
+      <c r="G93" s="190"/>
+      <c r="I93" s="183"/>
+      <c r="J93" s="184"/>
+      <c r="K93" s="188"/>
+      <c r="L93" s="189"/>
+      <c r="M93" s="189"/>
+      <c r="N93" s="189"/>
+      <c r="O93" s="190"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="181"/>
-      <c r="B94" s="182"/>
-      <c r="C94" s="189"/>
-      <c r="D94" s="190"/>
-      <c r="E94" s="190"/>
-      <c r="F94" s="190"/>
-      <c r="G94" s="191"/>
-      <c r="I94" s="181"/>
-      <c r="J94" s="182"/>
-      <c r="K94" s="189"/>
-      <c r="L94" s="190"/>
-      <c r="M94" s="190"/>
-      <c r="N94" s="190"/>
-      <c r="O94" s="191"/>
+      <c r="A94" s="183"/>
+      <c r="B94" s="184"/>
+      <c r="C94" s="191"/>
+      <c r="D94" s="192"/>
+      <c r="E94" s="192"/>
+      <c r="F94" s="192"/>
+      <c r="G94" s="193"/>
+      <c r="I94" s="183"/>
+      <c r="J94" s="184"/>
+      <c r="K94" s="191"/>
+      <c r="L94" s="192"/>
+      <c r="M94" s="192"/>
+      <c r="N94" s="192"/>
+      <c r="O94" s="193"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="177" t="s">
+      <c r="A95" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="178"/>
+      <c r="B95" s="182"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -12832,10 +12870,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="177" t="s">
+      <c r="I95" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="178"/>
+      <c r="J95" s="182"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -12858,15 +12896,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="179"/>
-      <c r="B96" s="180"/>
+      <c r="A96" s="198"/>
+      <c r="B96" s="199"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="179"/>
-      <c r="J96" s="180"/>
+      <c r="I96" s="198"/>
+      <c r="J96" s="199"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -12877,11 +12915,60 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -12898,60 +12985,11 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13071,10 +13109,10 @@
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="67"/>
-      <c r="I6" s="192" t="s">
+      <c r="I6" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="193"/>
+      <c r="J6" s="195"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -13082,10 +13120,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="195"/>
+      <c r="B7" s="197"/>
       <c r="C7" s="64">
         <v>612.423</v>
       </c>
@@ -13101,10 +13139,10 @@
       <c r="G7" s="69">
         <v>844.05100000000004</v>
       </c>
-      <c r="I7" s="194" t="s">
+      <c r="I7" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="195"/>
+      <c r="J7" s="197"/>
       <c r="K7" s="64">
         <v>7187.79</v>
       </c>
@@ -13122,8 +13160,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="195"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="64">
         <v>605.51700000000005</v>
       </c>
@@ -13139,8 +13177,8 @@
       <c r="G8" s="69">
         <v>842.09500000000003</v>
       </c>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
       <c r="K8" s="64">
         <v>7585.26</v>
       </c>
@@ -13158,8 +13196,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="64">
         <v>614.81899999999996</v>
       </c>
@@ -13175,8 +13213,8 @@
       <c r="G9" s="69">
         <v>842.58900000000006</v>
       </c>
-      <c r="I9" s="194"/>
-      <c r="J9" s="195"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
       <c r="K9" s="64">
         <v>7483.74</v>
       </c>
@@ -13194,10 +13232,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -13218,10 +13256,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="196" t="s">
+      <c r="I10" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="197"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -13244,10 +13282,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="178"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -13268,10 +13306,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="177" t="s">
+      <c r="I11" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="178"/>
+      <c r="J11" s="182"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -13294,66 +13332,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="183" t="s">
+      <c r="B12" s="184"/>
+      <c r="C12" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="185"/>
-      <c r="I12" s="181" t="s">
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="187"/>
+      <c r="I12" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183" t="s">
+      <c r="J12" s="184"/>
+      <c r="K12" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="185"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="187"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="188"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="188"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="190"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="190"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="191"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="191"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="193"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="178"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -13374,10 +13412,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="177" t="s">
+      <c r="I15" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="178"/>
+      <c r="J15" s="182"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -13400,15 +13438,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="180"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="180"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -13502,10 +13540,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="192" t="s">
+      <c r="I26" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="193"/>
+      <c r="J26" s="195"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -13513,10 +13551,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="195"/>
+      <c r="B27" s="197"/>
       <c r="C27" s="64">
         <v>566.81399999999996</v>
       </c>
@@ -13532,10 +13570,10 @@
       <c r="G27" s="69">
         <v>653.01499999999999</v>
       </c>
-      <c r="I27" s="194" t="s">
+      <c r="I27" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="195"/>
+      <c r="J27" s="197"/>
       <c r="K27" s="64">
         <v>6804.88</v>
       </c>
@@ -13553,8 +13591,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="194"/>
-      <c r="B28" s="195"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="197"/>
       <c r="C28" s="64">
         <v>565.11699999999996</v>
       </c>
@@ -13570,8 +13608,8 @@
       <c r="G28" s="69">
         <v>652.77</v>
       </c>
-      <c r="I28" s="194"/>
-      <c r="J28" s="195"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
       <c r="K28" s="64">
         <v>7083.24</v>
       </c>
@@ -13589,8 +13627,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="194"/>
-      <c r="B29" s="195"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="197"/>
       <c r="C29" s="64">
         <v>650.37800000000004</v>
       </c>
@@ -13606,8 +13644,8 @@
       <c r="G29" s="69">
         <v>653.59400000000005</v>
       </c>
-      <c r="I29" s="194"/>
-      <c r="J29" s="195"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
       <c r="K29" s="64">
         <v>7092.87</v>
       </c>
@@ -13625,10 +13663,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="196" t="s">
+      <c r="A30" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="197"/>
+      <c r="B30" s="180"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -13649,10 +13687,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="196" t="s">
+      <c r="I30" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="197"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -13675,10 +13713,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -13699,10 +13737,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="177" t="s">
+      <c r="I31" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="178"/>
+      <c r="J31" s="182"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -13725,66 +13763,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="182"/>
-      <c r="C32" s="183" t="s">
+      <c r="B32" s="184"/>
+      <c r="C32" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="185"/>
-      <c r="I32" s="181" t="s">
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="187"/>
+      <c r="I32" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="182"/>
-      <c r="K32" s="183" t="s">
+      <c r="J32" s="184"/>
+      <c r="K32" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="185"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="187"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="188"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="188"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="190"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="190"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="189"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="191"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="190"/>
-      <c r="O34" s="191"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="192"/>
+      <c r="G34" s="193"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="192"/>
+      <c r="N34" s="192"/>
+      <c r="O34" s="193"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="177" t="s">
+      <c r="A35" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="178"/>
+      <c r="B35" s="182"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -13805,10 +13843,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="177" t="s">
+      <c r="I35" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="178"/>
+      <c r="J35" s="182"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -13831,15 +13869,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
-      <c r="B36" s="180"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="199"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="180"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="199"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -13933,10 +13971,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="192" t="s">
+      <c r="I46" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="193"/>
+      <c r="J46" s="195"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -13944,10 +13982,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="194" t="s">
+      <c r="A47" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="195"/>
+      <c r="B47" s="197"/>
       <c r="C47" s="64">
         <v>640.30799999999999</v>
       </c>
@@ -13963,10 +14001,10 @@
       <c r="G47" s="69">
         <v>729.649</v>
       </c>
-      <c r="I47" s="194" t="s">
+      <c r="I47" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="195"/>
+      <c r="J47" s="197"/>
       <c r="K47" s="64">
         <v>6392.16</v>
       </c>
@@ -13984,8 +14022,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="194"/>
-      <c r="B48" s="195"/>
+      <c r="A48" s="196"/>
+      <c r="B48" s="197"/>
       <c r="C48" s="64">
         <v>625.80700000000002</v>
       </c>
@@ -14001,8 +14039,8 @@
       <c r="G48" s="69">
         <v>713.64700000000005</v>
       </c>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="197"/>
       <c r="K48" s="64">
         <v>6820</v>
       </c>
@@ -14020,8 +14058,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="194"/>
-      <c r="B49" s="195"/>
+      <c r="A49" s="196"/>
+      <c r="B49" s="197"/>
       <c r="C49" s="64">
         <v>616.697</v>
       </c>
@@ -14037,8 +14075,8 @@
       <c r="G49" s="69">
         <v>695.51499999999999</v>
       </c>
-      <c r="I49" s="194"/>
-      <c r="J49" s="195"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
       <c r="K49" s="64">
         <v>6522.44</v>
       </c>
@@ -14056,10 +14094,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="196" t="s">
+      <c r="A50" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="197"/>
+      <c r="B50" s="180"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -14080,10 +14118,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="196" t="s">
+      <c r="I50" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="197"/>
+      <c r="J50" s="180"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -14106,10 +14144,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="177" t="s">
+      <c r="A51" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="178"/>
+      <c r="B51" s="182"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -14130,10 +14168,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="177" t="s">
+      <c r="I51" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="178"/>
+      <c r="J51" s="182"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -14156,66 +14194,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="181" t="s">
+      <c r="A52" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="182"/>
-      <c r="C52" s="183" t="s">
+      <c r="B52" s="184"/>
+      <c r="C52" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="184"/>
-      <c r="E52" s="184"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
-      <c r="I52" s="181" t="s">
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="187"/>
+      <c r="I52" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="182"/>
-      <c r="K52" s="183" t="s">
+      <c r="J52" s="184"/>
+      <c r="K52" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="184"/>
-      <c r="M52" s="184"/>
-      <c r="N52" s="184"/>
-      <c r="O52" s="185"/>
+      <c r="L52" s="186"/>
+      <c r="M52" s="186"/>
+      <c r="N52" s="186"/>
+      <c r="O52" s="187"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="181"/>
-      <c r="B53" s="182"/>
-      <c r="C53" s="186"/>
-      <c r="D53" s="187"/>
-      <c r="E53" s="187"/>
-      <c r="F53" s="187"/>
-      <c r="G53" s="188"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="182"/>
-      <c r="K53" s="186"/>
-      <c r="L53" s="187"/>
-      <c r="M53" s="187"/>
-      <c r="N53" s="187"/>
-      <c r="O53" s="188"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="184"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="189"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="190"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="184"/>
+      <c r="K53" s="188"/>
+      <c r="L53" s="189"/>
+      <c r="M53" s="189"/>
+      <c r="N53" s="189"/>
+      <c r="O53" s="190"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="181"/>
-      <c r="B54" s="182"/>
-      <c r="C54" s="189"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="191"/>
-      <c r="I54" s="181"/>
-      <c r="J54" s="182"/>
-      <c r="K54" s="189"/>
-      <c r="L54" s="190"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="190"/>
-      <c r="O54" s="191"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="192"/>
+      <c r="E54" s="192"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="193"/>
+      <c r="I54" s="183"/>
+      <c r="J54" s="184"/>
+      <c r="K54" s="191"/>
+      <c r="L54" s="192"/>
+      <c r="M54" s="192"/>
+      <c r="N54" s="192"/>
+      <c r="O54" s="193"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="177" t="s">
+      <c r="A55" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="178"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -14236,10 +14274,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="177" t="s">
+      <c r="I55" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="178"/>
+      <c r="J55" s="182"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -14262,15 +14300,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="179"/>
-      <c r="B56" s="180"/>
+      <c r="A56" s="198"/>
+      <c r="B56" s="199"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="179"/>
-      <c r="J56" s="180"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="199"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -14364,10 +14402,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="192" t="s">
+      <c r="I66" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="193"/>
+      <c r="J66" s="195"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -14375,10 +14413,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="194" t="s">
+      <c r="A67" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="195"/>
+      <c r="B67" s="197"/>
       <c r="C67" s="64">
         <v>728.58100000000002</v>
       </c>
@@ -14394,10 +14432,10 @@
       <c r="G67" s="69">
         <v>832.13300000000004</v>
       </c>
-      <c r="I67" s="194" t="s">
+      <c r="I67" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="195"/>
+      <c r="J67" s="197"/>
       <c r="K67" s="64">
         <v>6829.4</v>
       </c>
@@ -14415,8 +14453,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="194"/>
-      <c r="B68" s="195"/>
+      <c r="A68" s="196"/>
+      <c r="B68" s="197"/>
       <c r="C68" s="64">
         <v>736.02800000000002</v>
       </c>
@@ -14432,8 +14470,8 @@
       <c r="G68" s="69">
         <v>848.15899999999999</v>
       </c>
-      <c r="I68" s="194"/>
-      <c r="J68" s="195"/>
+      <c r="I68" s="196"/>
+      <c r="J68" s="197"/>
       <c r="K68" s="64">
         <v>6525.61</v>
       </c>
@@ -14451,8 +14489,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="194"/>
-      <c r="B69" s="195"/>
+      <c r="A69" s="196"/>
+      <c r="B69" s="197"/>
       <c r="C69" s="64">
         <v>728.84299999999996</v>
       </c>
@@ -14468,8 +14506,8 @@
       <c r="G69" s="69">
         <v>831.49300000000005</v>
       </c>
-      <c r="I69" s="194"/>
-      <c r="J69" s="195"/>
+      <c r="I69" s="196"/>
+      <c r="J69" s="197"/>
       <c r="K69" s="64">
         <v>6569.18</v>
       </c>
@@ -14487,10 +14525,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="197"/>
+      <c r="B70" s="180"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -14511,10 +14549,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="196" t="s">
+      <c r="I70" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="197"/>
+      <c r="J70" s="180"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -14537,10 +14575,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="177" t="s">
+      <c r="A71" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="178"/>
+      <c r="B71" s="182"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -14561,10 +14599,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="177" t="s">
+      <c r="I71" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="178"/>
+      <c r="J71" s="182"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -14587,66 +14625,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="181" t="s">
+      <c r="A72" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="182"/>
-      <c r="C72" s="183" t="s">
+      <c r="B72" s="184"/>
+      <c r="C72" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="184"/>
-      <c r="E72" s="184"/>
-      <c r="F72" s="184"/>
-      <c r="G72" s="185"/>
-      <c r="I72" s="181" t="s">
+      <c r="D72" s="186"/>
+      <c r="E72" s="186"/>
+      <c r="F72" s="186"/>
+      <c r="G72" s="187"/>
+      <c r="I72" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="182"/>
-      <c r="K72" s="183" t="s">
+      <c r="J72" s="184"/>
+      <c r="K72" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="184"/>
-      <c r="M72" s="184"/>
-      <c r="N72" s="184"/>
-      <c r="O72" s="185"/>
+      <c r="L72" s="186"/>
+      <c r="M72" s="186"/>
+      <c r="N72" s="186"/>
+      <c r="O72" s="187"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="181"/>
-      <c r="B73" s="182"/>
-      <c r="C73" s="186"/>
-      <c r="D73" s="187"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="187"/>
-      <c r="G73" s="188"/>
-      <c r="I73" s="181"/>
-      <c r="J73" s="182"/>
-      <c r="K73" s="186"/>
-      <c r="L73" s="187"/>
-      <c r="M73" s="187"/>
-      <c r="N73" s="187"/>
-      <c r="O73" s="188"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="188"/>
+      <c r="D73" s="189"/>
+      <c r="E73" s="189"/>
+      <c r="F73" s="189"/>
+      <c r="G73" s="190"/>
+      <c r="I73" s="183"/>
+      <c r="J73" s="184"/>
+      <c r="K73" s="188"/>
+      <c r="L73" s="189"/>
+      <c r="M73" s="189"/>
+      <c r="N73" s="189"/>
+      <c r="O73" s="190"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="181"/>
-      <c r="B74" s="182"/>
-      <c r="C74" s="189"/>
-      <c r="D74" s="190"/>
-      <c r="E74" s="190"/>
-      <c r="F74" s="190"/>
-      <c r="G74" s="191"/>
-      <c r="I74" s="181"/>
-      <c r="J74" s="182"/>
-      <c r="K74" s="189"/>
-      <c r="L74" s="190"/>
-      <c r="M74" s="190"/>
-      <c r="N74" s="190"/>
-      <c r="O74" s="191"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="191"/>
+      <c r="D74" s="192"/>
+      <c r="E74" s="192"/>
+      <c r="F74" s="192"/>
+      <c r="G74" s="193"/>
+      <c r="I74" s="183"/>
+      <c r="J74" s="184"/>
+      <c r="K74" s="191"/>
+      <c r="L74" s="192"/>
+      <c r="M74" s="192"/>
+      <c r="N74" s="192"/>
+      <c r="O74" s="193"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="177" t="s">
+      <c r="A75" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="178"/>
+      <c r="B75" s="182"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -14667,10 +14705,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="177" t="s">
+      <c r="I75" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="178"/>
+      <c r="J75" s="182"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -14693,15 +14731,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="179"/>
-      <c r="B76" s="180"/>
+      <c r="A76" s="198"/>
+      <c r="B76" s="199"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="179"/>
-      <c r="J76" s="180"/>
+      <c r="I76" s="198"/>
+      <c r="J76" s="199"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -14795,10 +14833,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="192" t="s">
+      <c r="I86" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="193"/>
+      <c r="J86" s="195"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -14806,10 +14844,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="194" t="s">
+      <c r="A87" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="195"/>
+      <c r="B87" s="197"/>
       <c r="C87" s="64">
         <v>1514.7</v>
       </c>
@@ -14825,10 +14863,10 @@
       <c r="G87" s="69">
         <v>1356.97</v>
       </c>
-      <c r="I87" s="194" t="s">
+      <c r="I87" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="195"/>
+      <c r="J87" s="197"/>
       <c r="K87" s="64">
         <v>9831.2999999999993</v>
       </c>
@@ -14846,8 +14884,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="194"/>
-      <c r="B88" s="195"/>
+      <c r="A88" s="196"/>
+      <c r="B88" s="197"/>
       <c r="C88" s="64">
         <v>1499.89</v>
       </c>
@@ -14863,8 +14901,8 @@
       <c r="G88" s="69">
         <v>1345.56</v>
       </c>
-      <c r="I88" s="194"/>
-      <c r="J88" s="195"/>
+      <c r="I88" s="196"/>
+      <c r="J88" s="197"/>
       <c r="K88" s="64">
         <v>10540.3</v>
       </c>
@@ -14882,8 +14920,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="194"/>
-      <c r="B89" s="195"/>
+      <c r="A89" s="196"/>
+      <c r="B89" s="197"/>
       <c r="C89" s="64">
         <v>1426.87</v>
       </c>
@@ -14899,8 +14937,8 @@
       <c r="G89" s="69">
         <v>1322.16</v>
       </c>
-      <c r="I89" s="194"/>
-      <c r="J89" s="195"/>
+      <c r="I89" s="196"/>
+      <c r="J89" s="197"/>
       <c r="K89" s="64">
         <v>10526.8</v>
       </c>
@@ -14918,10 +14956,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="196" t="s">
+      <c r="A90" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="197"/>
+      <c r="B90" s="180"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -14942,10 +14980,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="196" t="s">
+      <c r="I90" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="197"/>
+      <c r="J90" s="180"/>
       <c r="K90" s="95">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -14968,10 +15006,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="177" t="s">
+      <c r="A91" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="178"/>
+      <c r="B91" s="182"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -14992,10 +15030,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="177" t="s">
+      <c r="I91" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="178"/>
+      <c r="J91" s="182"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -15018,66 +15056,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="181" t="s">
+      <c r="A92" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="182"/>
-      <c r="C92" s="183" t="s">
+      <c r="B92" s="184"/>
+      <c r="C92" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="184"/>
-      <c r="E92" s="184"/>
-      <c r="F92" s="184"/>
-      <c r="G92" s="185"/>
-      <c r="I92" s="181" t="s">
+      <c r="D92" s="186"/>
+      <c r="E92" s="186"/>
+      <c r="F92" s="186"/>
+      <c r="G92" s="187"/>
+      <c r="I92" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="182"/>
-      <c r="K92" s="183" t="s">
+      <c r="J92" s="184"/>
+      <c r="K92" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="184"/>
-      <c r="M92" s="184"/>
-      <c r="N92" s="184"/>
-      <c r="O92" s="185"/>
+      <c r="L92" s="186"/>
+      <c r="M92" s="186"/>
+      <c r="N92" s="186"/>
+      <c r="O92" s="187"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="181"/>
-      <c r="B93" s="182"/>
-      <c r="C93" s="186"/>
-      <c r="D93" s="187"/>
-      <c r="E93" s="187"/>
-      <c r="F93" s="187"/>
-      <c r="G93" s="188"/>
-      <c r="I93" s="181"/>
-      <c r="J93" s="182"/>
-      <c r="K93" s="186"/>
-      <c r="L93" s="187"/>
-      <c r="M93" s="187"/>
-      <c r="N93" s="187"/>
-      <c r="O93" s="188"/>
+      <c r="A93" s="183"/>
+      <c r="B93" s="184"/>
+      <c r="C93" s="188"/>
+      <c r="D93" s="189"/>
+      <c r="E93" s="189"/>
+      <c r="F93" s="189"/>
+      <c r="G93" s="190"/>
+      <c r="I93" s="183"/>
+      <c r="J93" s="184"/>
+      <c r="K93" s="188"/>
+      <c r="L93" s="189"/>
+      <c r="M93" s="189"/>
+      <c r="N93" s="189"/>
+      <c r="O93" s="190"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="181"/>
-      <c r="B94" s="182"/>
-      <c r="C94" s="189"/>
-      <c r="D94" s="190"/>
-      <c r="E94" s="190"/>
-      <c r="F94" s="190"/>
-      <c r="G94" s="191"/>
-      <c r="I94" s="181"/>
-      <c r="J94" s="182"/>
-      <c r="K94" s="189"/>
-      <c r="L94" s="190"/>
-      <c r="M94" s="190"/>
-      <c r="N94" s="190"/>
-      <c r="O94" s="191"/>
+      <c r="A94" s="183"/>
+      <c r="B94" s="184"/>
+      <c r="C94" s="191"/>
+      <c r="D94" s="192"/>
+      <c r="E94" s="192"/>
+      <c r="F94" s="192"/>
+      <c r="G94" s="193"/>
+      <c r="I94" s="183"/>
+      <c r="J94" s="184"/>
+      <c r="K94" s="191"/>
+      <c r="L94" s="192"/>
+      <c r="M94" s="192"/>
+      <c r="N94" s="192"/>
+      <c r="O94" s="193"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="177" t="s">
+      <c r="A95" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="178"/>
+      <c r="B95" s="182"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -15098,10 +15136,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="177" t="s">
+      <c r="I95" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="178"/>
+      <c r="J95" s="182"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -15124,15 +15162,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="179"/>
-      <c r="B96" s="180"/>
+      <c r="A96" s="198"/>
+      <c r="B96" s="199"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="179"/>
-      <c r="J96" s="180"/>
+      <c r="I96" s="198"/>
+      <c r="J96" s="199"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -15143,27 +15181,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -15176,48 +15235,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15337,10 +15375,10 @@
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="67"/>
-      <c r="I6" s="192" t="s">
+      <c r="I6" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="193"/>
+      <c r="J6" s="195"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -15348,10 +15386,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="195"/>
+      <c r="B7" s="197"/>
       <c r="C7" s="79">
         <v>604.44000000000005</v>
       </c>
@@ -15367,10 +15405,10 @@
       <c r="G7" s="80">
         <v>701.48</v>
       </c>
-      <c r="I7" s="194" t="s">
+      <c r="I7" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="195"/>
+      <c r="J7" s="197"/>
       <c r="K7" s="64">
         <v>6985.72</v>
       </c>
@@ -15388,8 +15426,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="195"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="76">
         <v>590.54999999999995</v>
       </c>
@@ -15405,8 +15443,8 @@
       <c r="G8" s="78">
         <v>701.51</v>
       </c>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
       <c r="K8" s="64">
         <v>7269.43</v>
       </c>
@@ -15424,8 +15462,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="64">
         <v>591.9</v>
       </c>
@@ -15441,8 +15479,8 @@
       <c r="G9" s="69">
         <v>703.45</v>
       </c>
-      <c r="I9" s="194"/>
-      <c r="J9" s="195"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
       <c r="K9" s="64">
         <v>7263.19</v>
       </c>
@@ -15460,10 +15498,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -15484,10 +15522,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="196" t="s">
+      <c r="I10" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="197"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -15510,10 +15548,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="178"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -15534,10 +15572,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="177" t="s">
+      <c r="I11" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="178"/>
+      <c r="J11" s="182"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -15560,66 +15598,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="183" t="s">
+      <c r="B12" s="184"/>
+      <c r="C12" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="185"/>
-      <c r="I12" s="181" t="s">
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="187"/>
+      <c r="I12" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183" t="s">
+      <c r="J12" s="184"/>
+      <c r="K12" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="185"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="187"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="188"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="188"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="190"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="190"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="191"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="191"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="193"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="178"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -15640,10 +15678,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="177" t="s">
+      <c r="I15" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="178"/>
+      <c r="J15" s="182"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -15666,15 +15704,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="180"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="180"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -15768,10 +15806,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="192" t="s">
+      <c r="I26" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="193"/>
+      <c r="J26" s="195"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -15779,10 +15817,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="195"/>
+      <c r="B27" s="197"/>
       <c r="C27" s="64">
         <v>567.65</v>
       </c>
@@ -15798,10 +15836,10 @@
       <c r="G27" s="69">
         <v>652.16999999999996</v>
       </c>
-      <c r="I27" s="194" t="s">
+      <c r="I27" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="195"/>
+      <c r="J27" s="197"/>
       <c r="K27" s="64">
         <v>6682.46</v>
       </c>
@@ -15819,8 +15857,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="194"/>
-      <c r="B28" s="195"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="197"/>
       <c r="C28" s="64">
         <v>566.14</v>
       </c>
@@ -15836,8 +15874,8 @@
       <c r="G28" s="69">
         <v>655.39</v>
       </c>
-      <c r="I28" s="194"/>
-      <c r="J28" s="195"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
       <c r="K28" s="64">
         <v>7080.63</v>
       </c>
@@ -15855,8 +15893,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="194"/>
-      <c r="B29" s="195"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="197"/>
       <c r="C29" s="64">
         <v>568.79999999999995</v>
       </c>
@@ -15872,8 +15910,8 @@
       <c r="G29" s="69">
         <v>652.82000000000005</v>
       </c>
-      <c r="I29" s="194"/>
-      <c r="J29" s="195"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
       <c r="K29" s="64">
         <v>6682.73</v>
       </c>
@@ -15891,10 +15929,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="196" t="s">
+      <c r="A30" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="197"/>
+      <c r="B30" s="180"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -15915,10 +15953,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="196" t="s">
+      <c r="I30" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="197"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -15941,10 +15979,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -15965,10 +16003,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="177" t="s">
+      <c r="I31" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="178"/>
+      <c r="J31" s="182"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -15991,66 +16029,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="182"/>
-      <c r="C32" s="183" t="s">
+      <c r="B32" s="184"/>
+      <c r="C32" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="185"/>
-      <c r="I32" s="181" t="s">
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="187"/>
+      <c r="I32" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="182"/>
-      <c r="K32" s="183" t="s">
+      <c r="J32" s="184"/>
+      <c r="K32" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="185"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="187"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="188"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="188"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="190"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="190"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="189"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="191"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="190"/>
-      <c r="O34" s="191"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="192"/>
+      <c r="G34" s="193"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="192"/>
+      <c r="N34" s="192"/>
+      <c r="O34" s="193"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="177" t="s">
+      <c r="A35" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="178"/>
+      <c r="B35" s="182"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -16071,10 +16109,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="177" t="s">
+      <c r="I35" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="178"/>
+      <c r="J35" s="182"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -16097,15 +16135,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
-      <c r="B36" s="180"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="199"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="180"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="199"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -16199,10 +16237,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="192" t="s">
+      <c r="I46" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="193"/>
+      <c r="J46" s="195"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -16210,10 +16248,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="194" t="s">
+      <c r="A47" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="195"/>
+      <c r="B47" s="197"/>
       <c r="C47" s="68">
         <v>656.57</v>
       </c>
@@ -16229,10 +16267,10 @@
       <c r="G47" s="69">
         <v>656.423</v>
       </c>
-      <c r="I47" s="194" t="s">
+      <c r="I47" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="195"/>
+      <c r="J47" s="197"/>
       <c r="K47" s="64">
         <v>6162.07</v>
       </c>
@@ -16250,8 +16288,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="194"/>
-      <c r="B48" s="195"/>
+      <c r="A48" s="196"/>
+      <c r="B48" s="197"/>
       <c r="C48" s="68">
         <v>621.61</v>
       </c>
@@ -16267,8 +16305,8 @@
       <c r="G48" s="69">
         <v>648.48</v>
       </c>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="197"/>
       <c r="K48" s="64">
         <v>6162.92</v>
       </c>
@@ -16286,8 +16324,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="194"/>
-      <c r="B49" s="195"/>
+      <c r="A49" s="196"/>
+      <c r="B49" s="197"/>
       <c r="C49" s="68">
         <v>622.58000000000004</v>
       </c>
@@ -16303,8 +16341,8 @@
       <c r="G49" s="69">
         <v>632.22</v>
       </c>
-      <c r="I49" s="194"/>
-      <c r="J49" s="195"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
       <c r="K49" s="64">
         <v>6153.56</v>
       </c>
@@ -16322,10 +16360,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="196" t="s">
+      <c r="A50" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="197"/>
+      <c r="B50" s="180"/>
       <c r="C50" s="68">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -16346,10 +16384,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="196" t="s">
+      <c r="I50" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="197"/>
+      <c r="J50" s="180"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -16372,10 +16410,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="177" t="s">
+      <c r="A51" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="178"/>
+      <c r="B51" s="182"/>
       <c r="C51" s="70">
         <v>0.63</v>
       </c>
@@ -16391,10 +16429,10 @@
       <c r="G51" s="72">
         <v>0.65</v>
       </c>
-      <c r="I51" s="177" t="s">
+      <c r="I51" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="178"/>
+      <c r="J51" s="182"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -16417,66 +16455,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="181" t="s">
+      <c r="A52" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="182"/>
-      <c r="C52" s="183" t="s">
+      <c r="B52" s="184"/>
+      <c r="C52" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="184"/>
-      <c r="E52" s="184"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
-      <c r="I52" s="181" t="s">
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="187"/>
+      <c r="I52" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="182"/>
-      <c r="K52" s="183" t="s">
+      <c r="J52" s="184"/>
+      <c r="K52" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="184"/>
-      <c r="M52" s="184"/>
-      <c r="N52" s="184"/>
-      <c r="O52" s="185"/>
+      <c r="L52" s="186"/>
+      <c r="M52" s="186"/>
+      <c r="N52" s="186"/>
+      <c r="O52" s="187"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="181"/>
-      <c r="B53" s="182"/>
-      <c r="C53" s="186"/>
-      <c r="D53" s="187"/>
-      <c r="E53" s="187"/>
-      <c r="F53" s="187"/>
-      <c r="G53" s="188"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="182"/>
-      <c r="K53" s="186"/>
-      <c r="L53" s="187"/>
-      <c r="M53" s="187"/>
-      <c r="N53" s="187"/>
-      <c r="O53" s="188"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="184"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="189"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="190"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="184"/>
+      <c r="K53" s="188"/>
+      <c r="L53" s="189"/>
+      <c r="M53" s="189"/>
+      <c r="N53" s="189"/>
+      <c r="O53" s="190"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="181"/>
-      <c r="B54" s="182"/>
-      <c r="C54" s="189"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="191"/>
-      <c r="I54" s="181"/>
-      <c r="J54" s="182"/>
-      <c r="K54" s="189"/>
-      <c r="L54" s="190"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="190"/>
-      <c r="O54" s="191"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="192"/>
+      <c r="E54" s="192"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="193"/>
+      <c r="I54" s="183"/>
+      <c r="J54" s="184"/>
+      <c r="K54" s="191"/>
+      <c r="L54" s="192"/>
+      <c r="M54" s="192"/>
+      <c r="N54" s="192"/>
+      <c r="O54" s="193"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="177" t="s">
+      <c r="A55" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="178"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -16497,10 +16535,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="177" t="s">
+      <c r="I55" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="178"/>
+      <c r="J55" s="182"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -16523,15 +16561,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="179"/>
-      <c r="B56" s="180"/>
+      <c r="A56" s="198"/>
+      <c r="B56" s="199"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="179"/>
-      <c r="J56" s="180"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="199"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -16625,10 +16663,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="192" t="s">
+      <c r="I66" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="193"/>
+      <c r="J66" s="195"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -16636,10 +16674,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="194" t="s">
+      <c r="A67" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="195"/>
+      <c r="B67" s="197"/>
       <c r="C67" s="64">
         <v>751.18100000000004</v>
       </c>
@@ -16655,10 +16693,10 @@
       <c r="G67" s="69">
         <v>800.94</v>
       </c>
-      <c r="I67" s="194" t="s">
+      <c r="I67" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="195"/>
+      <c r="J67" s="197"/>
       <c r="K67" s="64">
         <v>6835.64</v>
       </c>
@@ -16676,8 +16714,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="194"/>
-      <c r="B68" s="195"/>
+      <c r="A68" s="196"/>
+      <c r="B68" s="197"/>
       <c r="C68" s="64">
         <v>750.57799999999997</v>
       </c>
@@ -16693,8 +16731,8 @@
       <c r="G68" s="69">
         <v>803.08600000000001</v>
       </c>
-      <c r="I68" s="194"/>
-      <c r="J68" s="195"/>
+      <c r="I68" s="196"/>
+      <c r="J68" s="197"/>
       <c r="K68" s="64">
         <v>6567.81</v>
       </c>
@@ -16712,8 +16750,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="194"/>
-      <c r="B69" s="195"/>
+      <c r="A69" s="196"/>
+      <c r="B69" s="197"/>
       <c r="C69" s="64">
         <v>736.66700000000003</v>
       </c>
@@ -16729,8 +16767,8 @@
       <c r="G69" s="69">
         <v>772.69399999999996</v>
       </c>
-      <c r="I69" s="194"/>
-      <c r="J69" s="195"/>
+      <c r="I69" s="196"/>
+      <c r="J69" s="197"/>
       <c r="K69" s="64">
         <v>6728.4</v>
       </c>
@@ -16748,10 +16786,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="197"/>
+      <c r="B70" s="180"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -16772,10 +16810,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="196" t="s">
+      <c r="I70" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="197"/>
+      <c r="J70" s="180"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -16798,10 +16836,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="177" t="s">
+      <c r="A71" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="178"/>
+      <c r="B71" s="182"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -16822,10 +16860,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="177" t="s">
+      <c r="I71" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="178"/>
+      <c r="J71" s="182"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -16848,66 +16886,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="181" t="s">
+      <c r="A72" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="182"/>
-      <c r="C72" s="183" t="s">
+      <c r="B72" s="184"/>
+      <c r="C72" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="184"/>
-      <c r="E72" s="184"/>
-      <c r="F72" s="184"/>
-      <c r="G72" s="185"/>
-      <c r="I72" s="181" t="s">
+      <c r="D72" s="186"/>
+      <c r="E72" s="186"/>
+      <c r="F72" s="186"/>
+      <c r="G72" s="187"/>
+      <c r="I72" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="182"/>
-      <c r="K72" s="183" t="s">
+      <c r="J72" s="184"/>
+      <c r="K72" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="184"/>
-      <c r="M72" s="184"/>
-      <c r="N72" s="184"/>
-      <c r="O72" s="185"/>
+      <c r="L72" s="186"/>
+      <c r="M72" s="186"/>
+      <c r="N72" s="186"/>
+      <c r="O72" s="187"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="181"/>
-      <c r="B73" s="182"/>
-      <c r="C73" s="186"/>
-      <c r="D73" s="187"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="187"/>
-      <c r="G73" s="188"/>
-      <c r="I73" s="181"/>
-      <c r="J73" s="182"/>
-      <c r="K73" s="186"/>
-      <c r="L73" s="187"/>
-      <c r="M73" s="187"/>
-      <c r="N73" s="187"/>
-      <c r="O73" s="188"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="188"/>
+      <c r="D73" s="189"/>
+      <c r="E73" s="189"/>
+      <c r="F73" s="189"/>
+      <c r="G73" s="190"/>
+      <c r="I73" s="183"/>
+      <c r="J73" s="184"/>
+      <c r="K73" s="188"/>
+      <c r="L73" s="189"/>
+      <c r="M73" s="189"/>
+      <c r="N73" s="189"/>
+      <c r="O73" s="190"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="181"/>
-      <c r="B74" s="182"/>
-      <c r="C74" s="189"/>
-      <c r="D74" s="190"/>
-      <c r="E74" s="190"/>
-      <c r="F74" s="190"/>
-      <c r="G74" s="191"/>
-      <c r="I74" s="181"/>
-      <c r="J74" s="182"/>
-      <c r="K74" s="189"/>
-      <c r="L74" s="190"/>
-      <c r="M74" s="190"/>
-      <c r="N74" s="190"/>
-      <c r="O74" s="191"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="191"/>
+      <c r="D74" s="192"/>
+      <c r="E74" s="192"/>
+      <c r="F74" s="192"/>
+      <c r="G74" s="193"/>
+      <c r="I74" s="183"/>
+      <c r="J74" s="184"/>
+      <c r="K74" s="191"/>
+      <c r="L74" s="192"/>
+      <c r="M74" s="192"/>
+      <c r="N74" s="192"/>
+      <c r="O74" s="193"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="177" t="s">
+      <c r="A75" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="178"/>
+      <c r="B75" s="182"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -16928,10 +16966,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="177" t="s">
+      <c r="I75" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="178"/>
+      <c r="J75" s="182"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -16954,15 +16992,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="179"/>
-      <c r="B76" s="180"/>
+      <c r="A76" s="198"/>
+      <c r="B76" s="199"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="179"/>
-      <c r="J76" s="180"/>
+      <c r="I76" s="198"/>
+      <c r="J76" s="199"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -17056,10 +17094,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="192" t="s">
+      <c r="I86" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="193"/>
+      <c r="J86" s="195"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -17067,10 +17105,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="194" t="s">
+      <c r="A87" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="195"/>
+      <c r="B87" s="197"/>
       <c r="C87" s="64">
         <v>1492.18</v>
       </c>
@@ -17086,10 +17124,10 @@
       <c r="G87" s="69">
         <v>1294.4000000000001</v>
       </c>
-      <c r="I87" s="194" t="s">
+      <c r="I87" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="195"/>
+      <c r="J87" s="197"/>
       <c r="K87" s="64">
         <v>10439.799999999999</v>
       </c>
@@ -17107,8 +17145,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="194"/>
-      <c r="B88" s="195"/>
+      <c r="A88" s="196"/>
+      <c r="B88" s="197"/>
       <c r="C88" s="64">
         <v>1553.43</v>
       </c>
@@ -17124,8 +17162,8 @@
       <c r="G88" s="69">
         <v>1294.48</v>
       </c>
-      <c r="I88" s="194"/>
-      <c r="J88" s="195"/>
+      <c r="I88" s="196"/>
+      <c r="J88" s="197"/>
       <c r="K88" s="64">
         <v>10799.3</v>
       </c>
@@ -17143,8 +17181,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="194"/>
-      <c r="B89" s="195"/>
+      <c r="A89" s="196"/>
+      <c r="B89" s="197"/>
       <c r="C89" s="64">
         <v>1558.89</v>
       </c>
@@ -17160,8 +17198,8 @@
       <c r="G89" s="69">
         <v>1335.85</v>
       </c>
-      <c r="I89" s="194"/>
-      <c r="J89" s="195"/>
+      <c r="I89" s="196"/>
+      <c r="J89" s="197"/>
       <c r="K89" s="64">
         <v>10768.4</v>
       </c>
@@ -17179,10 +17217,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="196" t="s">
+      <c r="A90" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="197"/>
+      <c r="B90" s="180"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -17203,10 +17241,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="196" t="s">
+      <c r="I90" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="197"/>
+      <c r="J90" s="180"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -17229,10 +17267,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="177" t="s">
+      <c r="A91" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="178"/>
+      <c r="B91" s="182"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -17253,10 +17291,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="177" t="s">
+      <c r="I91" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="178"/>
+      <c r="J91" s="182"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -17279,66 +17317,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="181" t="s">
+      <c r="A92" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="182"/>
-      <c r="C92" s="183" t="s">
+      <c r="B92" s="184"/>
+      <c r="C92" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="184"/>
-      <c r="E92" s="184"/>
-      <c r="F92" s="184"/>
-      <c r="G92" s="185"/>
-      <c r="I92" s="181" t="s">
+      <c r="D92" s="186"/>
+      <c r="E92" s="186"/>
+      <c r="F92" s="186"/>
+      <c r="G92" s="187"/>
+      <c r="I92" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="182"/>
-      <c r="K92" s="183" t="s">
+      <c r="J92" s="184"/>
+      <c r="K92" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="184"/>
-      <c r="M92" s="184"/>
-      <c r="N92" s="184"/>
-      <c r="O92" s="185"/>
+      <c r="L92" s="186"/>
+      <c r="M92" s="186"/>
+      <c r="N92" s="186"/>
+      <c r="O92" s="187"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="181"/>
-      <c r="B93" s="182"/>
-      <c r="C93" s="186"/>
-      <c r="D93" s="187"/>
-      <c r="E93" s="187"/>
-      <c r="F93" s="187"/>
-      <c r="G93" s="188"/>
-      <c r="I93" s="181"/>
-      <c r="J93" s="182"/>
-      <c r="K93" s="186"/>
-      <c r="L93" s="187"/>
-      <c r="M93" s="187"/>
-      <c r="N93" s="187"/>
-      <c r="O93" s="188"/>
+      <c r="A93" s="183"/>
+      <c r="B93" s="184"/>
+      <c r="C93" s="188"/>
+      <c r="D93" s="189"/>
+      <c r="E93" s="189"/>
+      <c r="F93" s="189"/>
+      <c r="G93" s="190"/>
+      <c r="I93" s="183"/>
+      <c r="J93" s="184"/>
+      <c r="K93" s="188"/>
+      <c r="L93" s="189"/>
+      <c r="M93" s="189"/>
+      <c r="N93" s="189"/>
+      <c r="O93" s="190"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="181"/>
-      <c r="B94" s="182"/>
-      <c r="C94" s="189"/>
-      <c r="D94" s="190"/>
-      <c r="E94" s="190"/>
-      <c r="F94" s="190"/>
-      <c r="G94" s="191"/>
-      <c r="I94" s="181"/>
-      <c r="J94" s="182"/>
-      <c r="K94" s="189"/>
-      <c r="L94" s="190"/>
-      <c r="M94" s="190"/>
-      <c r="N94" s="190"/>
-      <c r="O94" s="191"/>
+      <c r="A94" s="183"/>
+      <c r="B94" s="184"/>
+      <c r="C94" s="191"/>
+      <c r="D94" s="192"/>
+      <c r="E94" s="192"/>
+      <c r="F94" s="192"/>
+      <c r="G94" s="193"/>
+      <c r="I94" s="183"/>
+      <c r="J94" s="184"/>
+      <c r="K94" s="191"/>
+      <c r="L94" s="192"/>
+      <c r="M94" s="192"/>
+      <c r="N94" s="192"/>
+      <c r="O94" s="193"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="177" t="s">
+      <c r="A95" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="178"/>
+      <c r="B95" s="182"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -17359,10 +17397,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="177" t="s">
+      <c r="I95" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="178"/>
+      <c r="J95" s="182"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -17385,15 +17423,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="179"/>
-      <c r="B96" s="180"/>
+      <c r="A96" s="198"/>
+      <c r="B96" s="199"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="179"/>
-      <c r="J96" s="180"/>
+      <c r="I96" s="198"/>
+      <c r="J96" s="199"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -17404,27 +17442,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -17437,48 +17496,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17598,10 +17636,10 @@
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="67"/>
-      <c r="I6" s="192" t="s">
+      <c r="I6" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="193"/>
+      <c r="J6" s="195"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -17609,10 +17647,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="195"/>
+      <c r="B7" s="197"/>
       <c r="C7" s="64">
         <v>582.29</v>
       </c>
@@ -17628,10 +17666,10 @@
       <c r="G7" s="69">
         <v>697.94399999999996</v>
       </c>
-      <c r="I7" s="194" t="s">
+      <c r="I7" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="195"/>
+      <c r="J7" s="197"/>
       <c r="K7" s="64">
         <v>7174.12</v>
       </c>
@@ -17649,8 +17687,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="195"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="64">
         <v>580.86699999999996</v>
       </c>
@@ -17666,8 +17704,8 @@
       <c r="G8" s="69">
         <v>712.18100000000004</v>
       </c>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
       <c r="K8" s="64">
         <v>6883.99</v>
       </c>
@@ -17685,8 +17723,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="64">
         <v>580.44200000000001</v>
       </c>
@@ -17702,8 +17740,8 @@
       <c r="G9" s="69">
         <v>707.85199999999998</v>
       </c>
-      <c r="I9" s="194"/>
-      <c r="J9" s="195"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
       <c r="K9" s="64">
         <v>6875.02</v>
       </c>
@@ -17721,10 +17759,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -17745,10 +17783,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="196" t="s">
+      <c r="I10" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="197"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -17771,10 +17809,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="178"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -17795,10 +17833,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="177" t="s">
+      <c r="I11" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="178"/>
+      <c r="J11" s="182"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -17821,66 +17859,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="183" t="s">
+      <c r="B12" s="184"/>
+      <c r="C12" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="185"/>
-      <c r="I12" s="181" t="s">
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="187"/>
+      <c r="I12" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183" t="s">
+      <c r="J12" s="184"/>
+      <c r="K12" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="185"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="187"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="188"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="188"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="190"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="190"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="191"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="191"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="193"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="178"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -17901,10 +17939,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="177" t="s">
+      <c r="I15" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="178"/>
+      <c r="J15" s="182"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -17927,15 +17965,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="180"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="180"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -18029,10 +18067,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="192" t="s">
+      <c r="I26" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="193"/>
+      <c r="J26" s="195"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -18040,10 +18078,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="195"/>
+      <c r="B27" s="197"/>
       <c r="C27" s="64">
         <v>539.41</v>
       </c>
@@ -18059,10 +18097,10 @@
       <c r="G27" s="69">
         <v>666.495</v>
       </c>
-      <c r="I27" s="194" t="s">
+      <c r="I27" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="195"/>
+      <c r="J27" s="197"/>
       <c r="K27" s="64">
         <v>6627.48</v>
       </c>
@@ -18080,8 +18118,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="194"/>
-      <c r="B28" s="195"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="197"/>
       <c r="C28" s="64">
         <v>545.24800000000005</v>
       </c>
@@ -18097,8 +18135,8 @@
       <c r="G28" s="69">
         <v>659.37800000000004</v>
       </c>
-      <c r="I28" s="194"/>
-      <c r="J28" s="195"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
       <c r="K28" s="64">
         <v>6664.87</v>
       </c>
@@ -18116,8 +18154,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="194"/>
-      <c r="B29" s="195"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="197"/>
       <c r="C29" s="64">
         <v>547.53399999999999</v>
       </c>
@@ -18133,8 +18171,8 @@
       <c r="G29" s="69">
         <v>666.62099999999998</v>
       </c>
-      <c r="I29" s="194"/>
-      <c r="J29" s="195"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
       <c r="K29" s="64">
         <v>6635.9</v>
       </c>
@@ -18152,10 +18190,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="196" t="s">
+      <c r="A30" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="197"/>
+      <c r="B30" s="180"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -18176,10 +18214,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="196" t="s">
+      <c r="I30" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="197"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -18202,10 +18240,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="178"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -18226,10 +18264,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="177" t="s">
+      <c r="I31" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="178"/>
+      <c r="J31" s="182"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -18252,66 +18290,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="182"/>
-      <c r="C32" s="183" t="s">
+      <c r="B32" s="184"/>
+      <c r="C32" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="185"/>
-      <c r="I32" s="181" t="s">
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="187"/>
+      <c r="I32" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="182"/>
-      <c r="K32" s="183" t="s">
+      <c r="J32" s="184"/>
+      <c r="K32" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="185"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="187"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="188"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="188"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="190"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="190"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="189"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="191"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="190"/>
-      <c r="O34" s="191"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="192"/>
+      <c r="G34" s="193"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="192"/>
+      <c r="N34" s="192"/>
+      <c r="O34" s="193"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="177" t="s">
+      <c r="A35" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="178"/>
+      <c r="B35" s="182"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -18332,10 +18370,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="177" t="s">
+      <c r="I35" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="178"/>
+      <c r="J35" s="182"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -18358,15 +18396,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
-      <c r="B36" s="180"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="199"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="180"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="199"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -18460,10 +18498,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="192" t="s">
+      <c r="I46" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="193"/>
+      <c r="J46" s="195"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -18471,10 +18509,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="194" t="s">
+      <c r="A47" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="195"/>
+      <c r="B47" s="197"/>
       <c r="C47" s="64">
         <v>637.39400000000001</v>
       </c>
@@ -18490,10 +18528,10 @@
       <c r="G47" s="69">
         <v>584.47400000000005</v>
       </c>
-      <c r="I47" s="194" t="s">
+      <c r="I47" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="195"/>
+      <c r="J47" s="197"/>
       <c r="K47" s="64">
         <v>6106.13</v>
       </c>
@@ -18511,8 +18549,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="194"/>
-      <c r="B48" s="195"/>
+      <c r="A48" s="196"/>
+      <c r="B48" s="197"/>
       <c r="C48" s="64">
         <v>645.43299999999999</v>
       </c>
@@ -18528,8 +18566,8 @@
       <c r="G48" s="69">
         <v>583.87900000000002</v>
       </c>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="197"/>
       <c r="K48" s="64">
         <v>6146.53</v>
       </c>
@@ -18547,8 +18585,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="194"/>
-      <c r="B49" s="195"/>
+      <c r="A49" s="196"/>
+      <c r="B49" s="197"/>
       <c r="C49" s="64">
         <v>631.678</v>
       </c>
@@ -18564,8 +18602,8 @@
       <c r="G49" s="69">
         <v>593.36300000000006</v>
       </c>
-      <c r="I49" s="194"/>
-      <c r="J49" s="195"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
       <c r="K49" s="64">
         <v>6143.9</v>
       </c>
@@ -18583,10 +18621,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="196" t="s">
+      <c r="A50" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="197"/>
+      <c r="B50" s="180"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -18607,10 +18645,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="196" t="s">
+      <c r="I50" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="197"/>
+      <c r="J50" s="180"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -18633,10 +18671,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="177" t="s">
+      <c r="A51" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="178"/>
+      <c r="B51" s="182"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -18657,10 +18695,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="177" t="s">
+      <c r="I51" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="178"/>
+      <c r="J51" s="182"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -18683,66 +18721,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="181" t="s">
+      <c r="A52" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="182"/>
-      <c r="C52" s="183" t="s">
+      <c r="B52" s="184"/>
+      <c r="C52" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="184"/>
-      <c r="E52" s="184"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
-      <c r="I52" s="181" t="s">
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="187"/>
+      <c r="I52" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="182"/>
-      <c r="K52" s="183" t="s">
+      <c r="J52" s="184"/>
+      <c r="K52" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="184"/>
-      <c r="M52" s="184"/>
-      <c r="N52" s="184"/>
-      <c r="O52" s="185"/>
+      <c r="L52" s="186"/>
+      <c r="M52" s="186"/>
+      <c r="N52" s="186"/>
+      <c r="O52" s="187"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="181"/>
-      <c r="B53" s="182"/>
-      <c r="C53" s="186"/>
-      <c r="D53" s="187"/>
-      <c r="E53" s="187"/>
-      <c r="F53" s="187"/>
-      <c r="G53" s="188"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="182"/>
-      <c r="K53" s="186"/>
-      <c r="L53" s="187"/>
-      <c r="M53" s="187"/>
-      <c r="N53" s="187"/>
-      <c r="O53" s="188"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="184"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="189"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="190"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="184"/>
+      <c r="K53" s="188"/>
+      <c r="L53" s="189"/>
+      <c r="M53" s="189"/>
+      <c r="N53" s="189"/>
+      <c r="O53" s="190"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="181"/>
-      <c r="B54" s="182"/>
-      <c r="C54" s="189"/>
-      <c r="D54" s="190"/>
-      <c r="E54" s="190"/>
-      <c r="F54" s="190"/>
-      <c r="G54" s="191"/>
-      <c r="I54" s="181"/>
-      <c r="J54" s="182"/>
-      <c r="K54" s="189"/>
-      <c r="L54" s="190"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="190"/>
-      <c r="O54" s="191"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="192"/>
+      <c r="E54" s="192"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="193"/>
+      <c r="I54" s="183"/>
+      <c r="J54" s="184"/>
+      <c r="K54" s="191"/>
+      <c r="L54" s="192"/>
+      <c r="M54" s="192"/>
+      <c r="N54" s="192"/>
+      <c r="O54" s="193"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="177" t="s">
+      <c r="A55" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="178"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -18763,10 +18801,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="177" t="s">
+      <c r="I55" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="178"/>
+      <c r="J55" s="182"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -18789,15 +18827,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="179"/>
-      <c r="B56" s="180"/>
+      <c r="A56" s="198"/>
+      <c r="B56" s="199"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="179"/>
-      <c r="J56" s="180"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="199"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -18891,10 +18929,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="192" t="s">
+      <c r="I66" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="193"/>
+      <c r="J66" s="195"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -18902,10 +18940,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="194" t="s">
+      <c r="A67" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="195"/>
+      <c r="B67" s="197"/>
       <c r="C67" s="99">
         <v>744.72299999999996</v>
       </c>
@@ -18921,10 +18959,10 @@
       <c r="G67" s="100">
         <v>757.41099999999994</v>
       </c>
-      <c r="I67" s="194" t="s">
+      <c r="I67" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="195"/>
+      <c r="J67" s="197"/>
       <c r="K67" s="64">
         <v>6119.24</v>
       </c>
@@ -18942,8 +18980,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="194"/>
-      <c r="B68" s="195"/>
+      <c r="A68" s="196"/>
+      <c r="B68" s="197"/>
       <c r="C68" s="99">
         <v>744.39499999999998</v>
       </c>
@@ -18959,8 +18997,8 @@
       <c r="G68" s="100">
         <v>754.50900000000001</v>
       </c>
-      <c r="I68" s="194"/>
-      <c r="J68" s="195"/>
+      <c r="I68" s="196"/>
+      <c r="J68" s="197"/>
       <c r="K68" s="64">
         <v>6137.4</v>
       </c>
@@ -18978,8 +19016,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="194"/>
-      <c r="B69" s="195"/>
+      <c r="A69" s="196"/>
+      <c r="B69" s="197"/>
       <c r="C69" s="99">
         <v>746.53800000000001</v>
       </c>
@@ -18995,8 +19033,8 @@
       <c r="G69" s="100">
         <v>749.27</v>
       </c>
-      <c r="I69" s="194"/>
-      <c r="J69" s="195"/>
+      <c r="I69" s="196"/>
+      <c r="J69" s="197"/>
       <c r="K69" s="64">
         <v>6116.48</v>
       </c>
@@ -19014,10 +19052,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="197"/>
+      <c r="B70" s="180"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -19038,10 +19076,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="196" t="s">
+      <c r="I70" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="197"/>
+      <c r="J70" s="180"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -19064,10 +19102,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="177" t="s">
+      <c r="A71" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="178"/>
+      <c r="B71" s="182"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -19088,10 +19126,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="177" t="s">
+      <c r="I71" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="178"/>
+      <c r="J71" s="182"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -19114,66 +19152,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="181" t="s">
+      <c r="A72" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="182"/>
-      <c r="C72" s="183" t="s">
+      <c r="B72" s="184"/>
+      <c r="C72" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="184"/>
-      <c r="E72" s="184"/>
-      <c r="F72" s="184"/>
-      <c r="G72" s="185"/>
-      <c r="I72" s="181" t="s">
+      <c r="D72" s="186"/>
+      <c r="E72" s="186"/>
+      <c r="F72" s="186"/>
+      <c r="G72" s="187"/>
+      <c r="I72" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="182"/>
-      <c r="K72" s="183" t="s">
+      <c r="J72" s="184"/>
+      <c r="K72" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="184"/>
-      <c r="M72" s="184"/>
-      <c r="N72" s="184"/>
-      <c r="O72" s="185"/>
+      <c r="L72" s="186"/>
+      <c r="M72" s="186"/>
+      <c r="N72" s="186"/>
+      <c r="O72" s="187"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="181"/>
-      <c r="B73" s="182"/>
-      <c r="C73" s="186"/>
-      <c r="D73" s="187"/>
-      <c r="E73" s="187"/>
-      <c r="F73" s="187"/>
-      <c r="G73" s="188"/>
-      <c r="I73" s="181"/>
-      <c r="J73" s="182"/>
-      <c r="K73" s="186"/>
-      <c r="L73" s="187"/>
-      <c r="M73" s="187"/>
-      <c r="N73" s="187"/>
-      <c r="O73" s="188"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="188"/>
+      <c r="D73" s="189"/>
+      <c r="E73" s="189"/>
+      <c r="F73" s="189"/>
+      <c r="G73" s="190"/>
+      <c r="I73" s="183"/>
+      <c r="J73" s="184"/>
+      <c r="K73" s="188"/>
+      <c r="L73" s="189"/>
+      <c r="M73" s="189"/>
+      <c r="N73" s="189"/>
+      <c r="O73" s="190"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="181"/>
-      <c r="B74" s="182"/>
-      <c r="C74" s="189"/>
-      <c r="D74" s="190"/>
-      <c r="E74" s="190"/>
-      <c r="F74" s="190"/>
-      <c r="G74" s="191"/>
-      <c r="I74" s="181"/>
-      <c r="J74" s="182"/>
-      <c r="K74" s="189"/>
-      <c r="L74" s="190"/>
-      <c r="M74" s="190"/>
-      <c r="N74" s="190"/>
-      <c r="O74" s="191"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="191"/>
+      <c r="D74" s="192"/>
+      <c r="E74" s="192"/>
+      <c r="F74" s="192"/>
+      <c r="G74" s="193"/>
+      <c r="I74" s="183"/>
+      <c r="J74" s="184"/>
+      <c r="K74" s="191"/>
+      <c r="L74" s="192"/>
+      <c r="M74" s="192"/>
+      <c r="N74" s="192"/>
+      <c r="O74" s="193"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="177" t="s">
+      <c r="A75" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="178"/>
+      <c r="B75" s="182"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -19194,10 +19232,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="177" t="s">
+      <c r="I75" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="178"/>
+      <c r="J75" s="182"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -19220,15 +19258,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="179"/>
-      <c r="B76" s="180"/>
+      <c r="A76" s="198"/>
+      <c r="B76" s="199"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="179"/>
-      <c r="J76" s="180"/>
+      <c r="I76" s="198"/>
+      <c r="J76" s="199"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -19322,10 +19360,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="192" t="s">
+      <c r="I86" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="193"/>
+      <c r="J86" s="195"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -19333,10 +19371,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="194" t="s">
+      <c r="A87" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="195"/>
+      <c r="B87" s="197"/>
       <c r="C87" s="64">
         <v>1539.08</v>
       </c>
@@ -19352,10 +19390,10 @@
       <c r="G87" s="69">
         <v>1261.68</v>
       </c>
-      <c r="I87" s="194" t="s">
+      <c r="I87" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="195"/>
+      <c r="J87" s="197"/>
       <c r="K87" s="64">
         <v>10604.7</v>
       </c>
@@ -19373,8 +19411,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="194"/>
-      <c r="B88" s="195"/>
+      <c r="A88" s="196"/>
+      <c r="B88" s="197"/>
       <c r="C88" s="64">
         <v>1630.5</v>
       </c>
@@ -19390,8 +19428,8 @@
       <c r="G88" s="69">
         <v>1334.83</v>
       </c>
-      <c r="I88" s="194"/>
-      <c r="J88" s="195"/>
+      <c r="I88" s="196"/>
+      <c r="J88" s="197"/>
       <c r="K88" s="64">
         <v>10929.6</v>
       </c>
@@ -19409,8 +19447,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="194"/>
-      <c r="B89" s="195"/>
+      <c r="A89" s="196"/>
+      <c r="B89" s="197"/>
       <c r="C89" s="64">
         <v>1596.17</v>
       </c>
@@ -19426,8 +19464,8 @@
       <c r="G89" s="69">
         <v>1249.71</v>
       </c>
-      <c r="I89" s="194"/>
-      <c r="J89" s="195"/>
+      <c r="I89" s="196"/>
+      <c r="J89" s="197"/>
       <c r="K89" s="64">
         <v>10662.1</v>
       </c>
@@ -19445,10 +19483,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="196" t="s">
+      <c r="A90" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="197"/>
+      <c r="B90" s="180"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -19469,10 +19507,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="196" t="s">
+      <c r="I90" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="197"/>
+      <c r="J90" s="180"/>
       <c r="K90" s="64">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -19495,10 +19533,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="177" t="s">
+      <c r="A91" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="178"/>
+      <c r="B91" s="182"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -19519,10 +19557,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="177" t="s">
+      <c r="I91" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="178"/>
+      <c r="J91" s="182"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -19545,66 +19583,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="181" t="s">
+      <c r="A92" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="182"/>
-      <c r="C92" s="183" t="s">
+      <c r="B92" s="184"/>
+      <c r="C92" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="184"/>
-      <c r="E92" s="184"/>
-      <c r="F92" s="184"/>
-      <c r="G92" s="185"/>
-      <c r="I92" s="181" t="s">
+      <c r="D92" s="186"/>
+      <c r="E92" s="186"/>
+      <c r="F92" s="186"/>
+      <c r="G92" s="187"/>
+      <c r="I92" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="182"/>
-      <c r="K92" s="183" t="s">
+      <c r="J92" s="184"/>
+      <c r="K92" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="184"/>
-      <c r="M92" s="184"/>
-      <c r="N92" s="184"/>
-      <c r="O92" s="185"/>
+      <c r="L92" s="186"/>
+      <c r="M92" s="186"/>
+      <c r="N92" s="186"/>
+      <c r="O92" s="187"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="181"/>
-      <c r="B93" s="182"/>
-      <c r="C93" s="186"/>
-      <c r="D93" s="187"/>
-      <c r="E93" s="187"/>
-      <c r="F93" s="187"/>
-      <c r="G93" s="188"/>
-      <c r="I93" s="181"/>
-      <c r="J93" s="182"/>
-      <c r="K93" s="186"/>
-      <c r="L93" s="187"/>
-      <c r="M93" s="187"/>
-      <c r="N93" s="187"/>
-      <c r="O93" s="188"/>
+      <c r="A93" s="183"/>
+      <c r="B93" s="184"/>
+      <c r="C93" s="188"/>
+      <c r="D93" s="189"/>
+      <c r="E93" s="189"/>
+      <c r="F93" s="189"/>
+      <c r="G93" s="190"/>
+      <c r="I93" s="183"/>
+      <c r="J93" s="184"/>
+      <c r="K93" s="188"/>
+      <c r="L93" s="189"/>
+      <c r="M93" s="189"/>
+      <c r="N93" s="189"/>
+      <c r="O93" s="190"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="181"/>
-      <c r="B94" s="182"/>
-      <c r="C94" s="189"/>
-      <c r="D94" s="190"/>
-      <c r="E94" s="190"/>
-      <c r="F94" s="190"/>
-      <c r="G94" s="191"/>
-      <c r="I94" s="181"/>
-      <c r="J94" s="182"/>
-      <c r="K94" s="189"/>
-      <c r="L94" s="190"/>
-      <c r="M94" s="190"/>
-      <c r="N94" s="190"/>
-      <c r="O94" s="191"/>
+      <c r="A94" s="183"/>
+      <c r="B94" s="184"/>
+      <c r="C94" s="191"/>
+      <c r="D94" s="192"/>
+      <c r="E94" s="192"/>
+      <c r="F94" s="192"/>
+      <c r="G94" s="193"/>
+      <c r="I94" s="183"/>
+      <c r="J94" s="184"/>
+      <c r="K94" s="191"/>
+      <c r="L94" s="192"/>
+      <c r="M94" s="192"/>
+      <c r="N94" s="192"/>
+      <c r="O94" s="193"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="177" t="s">
+      <c r="A95" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="178"/>
+      <c r="B95" s="182"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -19625,10 +19663,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="177" t="s">
+      <c r="I95" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="178"/>
+      <c r="J95" s="182"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -19651,15 +19689,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="179"/>
-      <c r="B96" s="180"/>
+      <c r="A96" s="198"/>
+      <c r="B96" s="199"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="179"/>
-      <c r="J96" s="180"/>
+      <c r="I96" s="198"/>
+      <c r="J96" s="199"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -19670,27 +19708,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -19703,48 +19762,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DD299F-2CF1-4C7D-8E7F-143B6B519412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01CF05E-330E-4237-BD75-2E16F4E77407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="730" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="730" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="MESSWERTE EVALUATION" sheetId="29" r:id="rId1"/>
@@ -724,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1031,57 +1031,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1100,17 +1049,62 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1157,13 +1151,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1480,9 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81A5C4-0DEF-4D93-A6BF-5419A031E380}">
   <dimension ref="A1:AZ318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW5" sqref="AW5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU16" sqref="AU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,60 +1528,60 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="170" t="s">
+      <c r="F1" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="170" t="s">
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="173" t="s">
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="175"/>
-      <c r="AH1" s="173" t="s">
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="157"/>
+      <c r="AG1" s="158"/>
+      <c r="AH1" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="174"/>
-      <c r="AL1" s="174"/>
-      <c r="AM1" s="174"/>
-      <c r="AN1" s="174"/>
-      <c r="AO1" s="174"/>
-      <c r="AP1" s="174"/>
-      <c r="AQ1" s="174"/>
-      <c r="AR1" s="174"/>
-      <c r="AS1" s="174"/>
-      <c r="AT1" s="174"/>
-      <c r="AU1" s="174"/>
-      <c r="AV1" s="174"/>
-      <c r="AW1" s="174"/>
-      <c r="AX1" s="174"/>
-      <c r="AY1" s="175"/>
+      <c r="AI1" s="157"/>
+      <c r="AJ1" s="157"/>
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="157"/>
+      <c r="AM1" s="157"/>
+      <c r="AN1" s="157"/>
+      <c r="AO1" s="157"/>
+      <c r="AP1" s="157"/>
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="157"/>
+      <c r="AS1" s="157"/>
+      <c r="AT1" s="157"/>
+      <c r="AU1" s="157"/>
+      <c r="AV1" s="157"/>
+      <c r="AW1" s="157"/>
+      <c r="AX1" s="157"/>
+      <c r="AY1" s="158"/>
       <c r="AZ1" s="50"/>
     </row>
     <row r="2" spans="1:52" s="84" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1588,80 +1590,80 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="158" t="s">
+      <c r="F2" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="163" t="s">
+      <c r="G2" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="163" t="s">
+      <c r="I2" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="176" t="s">
+      <c r="K2" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="176" t="s">
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="170" t="s">
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="170" t="s">
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="170" t="s">
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="172"/>
-      <c r="AH2" s="176" t="s">
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="164"/>
+      <c r="AH2" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="177"/>
-      <c r="AJ2" s="177"/>
-      <c r="AK2" s="177"/>
-      <c r="AL2" s="178"/>
-      <c r="AM2" s="170" t="s">
+      <c r="AI2" s="160"/>
+      <c r="AJ2" s="160"/>
+      <c r="AK2" s="160"/>
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="AN2" s="171"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="172"/>
-      <c r="AR2" s="170" t="s">
+      <c r="AN2" s="163"/>
+      <c r="AO2" s="163"/>
+      <c r="AP2" s="163"/>
+      <c r="AQ2" s="164"/>
+      <c r="AR2" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="AS2" s="171"/>
-      <c r="AT2" s="171"/>
-      <c r="AU2" s="172"/>
-      <c r="AV2" s="170" t="s">
+      <c r="AS2" s="163"/>
+      <c r="AT2" s="163"/>
+      <c r="AU2" s="164"/>
+      <c r="AV2" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="171"/>
-      <c r="AX2" s="171"/>
-      <c r="AY2" s="172"/>
+      <c r="AW2" s="163"/>
+      <c r="AX2" s="163"/>
+      <c r="AY2" s="164"/>
       <c r="AZ2" s="13"/>
     </row>
     <row r="3" spans="1:52" s="20" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1678,11 +1680,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="166"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="176"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3062,20 +3064,20 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="160" t="s">
+      <c r="F14" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="160" t="s">
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="162"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="170"/>
       <c r="P14" s="104"/>
       <c r="Q14" s="105"/>
       <c r="R14" s="105"/>
@@ -3097,27 +3099,49 @@
       <c r="AH14" s="134">
         <v>30164.7</v>
       </c>
-      <c r="AI14" s="135"/>
-      <c r="AJ14" s="135"/>
-      <c r="AK14" s="147"/>
-      <c r="AL14" s="156" t="s">
+      <c r="AI14" s="135">
+        <v>1083.76</v>
+      </c>
+      <c r="AJ14" s="135">
+        <v>1027.1400000000001</v>
+      </c>
+      <c r="AK14" s="147">
+        <v>1445.87</v>
+      </c>
+      <c r="AL14" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="AM14" s="200"/>
-      <c r="AN14" s="150"/>
-      <c r="AO14" s="150"/>
-      <c r="AP14" s="150"/>
-      <c r="AQ14" s="156" t="s">
+      <c r="AM14" s="149">
+        <v>29656.9</v>
+      </c>
+      <c r="AN14" s="147">
+        <v>928.32799999999997</v>
+      </c>
+      <c r="AO14" s="147">
+        <v>928.33</v>
+      </c>
+      <c r="AP14" s="147">
+        <v>1273.53</v>
+      </c>
+      <c r="AQ14" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="AR14" s="200"/>
-      <c r="AS14" s="150"/>
-      <c r="AT14" s="150"/>
-      <c r="AU14" s="150"/>
-      <c r="AV14" s="128"/>
-      <c r="AW14" s="120"/>
-      <c r="AX14" s="120"/>
-      <c r="AY14" s="119"/>
+      <c r="AR14" s="149">
+        <v>200462</v>
+      </c>
+      <c r="AS14" s="147">
+        <v>1138.8599999999999</v>
+      </c>
+      <c r="AT14" s="147">
+        <v>1118.68</v>
+      </c>
+      <c r="AU14" s="147">
+        <v>1533.46</v>
+      </c>
+      <c r="AV14" s="126"/>
+      <c r="AW14" s="118"/>
+      <c r="AX14" s="118"/>
+      <c r="AY14" s="199"/>
       <c r="AZ14" s="34"/>
     </row>
     <row r="15" spans="1:52" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3157,23 +3181,45 @@
       <c r="AH15" s="101">
         <v>21.725999999999999</v>
       </c>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="102"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="157"/>
-      <c r="AM15" s="111"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="157"/>
-      <c r="AR15" s="111"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="129"/>
-      <c r="AW15" s="125"/>
-      <c r="AX15" s="125"/>
-      <c r="AY15" s="124"/>
+      <c r="AI15" s="102">
+        <v>604.71199999999999</v>
+      </c>
+      <c r="AJ15" s="102">
+        <v>638.04300000000001</v>
+      </c>
+      <c r="AK15" s="52">
+        <v>453.262</v>
+      </c>
+      <c r="AL15" s="200"/>
+      <c r="AM15" s="54">
+        <v>22.098099999999999</v>
+      </c>
+      <c r="AN15" s="52">
+        <v>705.95699999999999</v>
+      </c>
+      <c r="AO15" s="52">
+        <v>705.97699999999998</v>
+      </c>
+      <c r="AP15" s="52">
+        <v>514.59900000000005</v>
+      </c>
+      <c r="AQ15" s="200"/>
+      <c r="AR15" s="54">
+        <v>3.26925</v>
+      </c>
+      <c r="AS15" s="52">
+        <v>575.45500000000004</v>
+      </c>
+      <c r="AT15" s="52">
+        <v>585.83399999999995</v>
+      </c>
+      <c r="AU15" s="52">
+        <v>427.37299999999999</v>
+      </c>
+      <c r="AV15" s="201"/>
+      <c r="AW15" s="123"/>
+      <c r="AX15" s="123"/>
+      <c r="AY15" s="202"/>
       <c r="AZ15" s="27"/>
     </row>
     <row r="16" spans="1:52" s="138" customFormat="1" x14ac:dyDescent="0.25">
@@ -4136,20 +4182,20 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="160" t="s">
+      <c r="F26" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="160" t="s">
+      <c r="G26" s="169"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="162"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="169"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="170"/>
       <c r="P26" s="104"/>
       <c r="Q26" s="105"/>
       <c r="R26" s="105"/>
@@ -5202,20 +5248,20 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="160" t="s">
+      <c r="F38" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="162"/>
-      <c r="K38" s="160" t="s">
+      <c r="G38" s="169"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="161"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="162"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="169"/>
+      <c r="N38" s="169"/>
+      <c r="O38" s="170"/>
       <c r="P38" s="104"/>
       <c r="Q38" s="105"/>
       <c r="R38" s="105"/>
@@ -6242,20 +6288,20 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="160" t="s">
+      <c r="F50" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="161"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="161"/>
-      <c r="J50" s="162"/>
-      <c r="K50" s="160" t="s">
+      <c r="G50" s="169"/>
+      <c r="H50" s="169"/>
+      <c r="I50" s="169"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="161"/>
-      <c r="M50" s="161"/>
-      <c r="N50" s="161"/>
-      <c r="O50" s="162"/>
+      <c r="L50" s="169"/>
+      <c r="M50" s="169"/>
+      <c r="N50" s="169"/>
+      <c r="O50" s="170"/>
       <c r="P50" s="57"/>
       <c r="Q50" s="55"/>
       <c r="R50" s="55"/>
@@ -7604,21 +7650,21 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="167"/>
-      <c r="G82" s="168"/>
-      <c r="H82" s="168"/>
-      <c r="I82" s="168"/>
-      <c r="J82" s="169"/>
+      <c r="F82" s="165"/>
+      <c r="G82" s="166"/>
+      <c r="H82" s="166"/>
+      <c r="I82" s="166"/>
+      <c r="J82" s="167"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
       <c r="N82" s="81"/>
       <c r="O82" s="61"/>
-      <c r="P82" s="167"/>
-      <c r="Q82" s="168"/>
-      <c r="R82" s="168"/>
-      <c r="S82" s="168"/>
-      <c r="T82" s="169"/>
+      <c r="P82" s="165"/>
+      <c r="Q82" s="166"/>
+      <c r="R82" s="166"/>
+      <c r="S82" s="166"/>
+      <c r="T82" s="167"/>
       <c r="U82" s="62"/>
       <c r="V82" s="81"/>
       <c r="W82" s="81"/>
@@ -10694,11 +10740,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AH1:AY1"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="P82:T82"/>
@@ -10715,15 +10765,11 @@
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="F38:J38"/>
     <mergeCell ref="K2:O2"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="AH1:AY1"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10843,10 +10889,10 @@
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="67"/>
-      <c r="I6" s="194" t="s">
+      <c r="I6" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="195"/>
+      <c r="J6" s="193"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -10854,10 +10900,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="197"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="64">
         <v>635.53</v>
       </c>
@@ -10873,10 +10919,10 @@
       <c r="G7" s="69">
         <v>1491.74</v>
       </c>
-      <c r="I7" s="196" t="s">
+      <c r="I7" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="197"/>
+      <c r="J7" s="195"/>
       <c r="K7" s="64">
         <v>7089.11</v>
       </c>
@@ -10894,8 +10940,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="64">
         <v>629.29</v>
       </c>
@@ -10911,8 +10957,8 @@
       <c r="G8" s="69">
         <v>1494.82</v>
       </c>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
       <c r="K8" s="64">
         <v>7358.56</v>
       </c>
@@ -10930,8 +10976,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
-      <c r="B9" s="197"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="64">
         <v>628.95500000000004</v>
       </c>
@@ -10947,8 +10993,8 @@
       <c r="G9" s="69">
         <v>1494.92</v>
       </c>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
       <c r="K9" s="64">
         <v>7082.39</v>
       </c>
@@ -10966,10 +11012,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="180"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -10990,10 +11036,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="179" t="s">
+      <c r="I10" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="180"/>
+      <c r="J10" s="197"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -11016,10 +11062,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="182"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -11040,10 +11086,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="181" t="s">
+      <c r="I11" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="182"/>
+      <c r="J11" s="178"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -11066,66 +11112,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="183" t="s">
+      <c r="A12" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="184"/>
-      <c r="C12" s="185" t="s">
+      <c r="B12" s="182"/>
+      <c r="C12" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="187"/>
-      <c r="I12" s="183" t="s">
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="185"/>
+      <c r="I12" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="184"/>
-      <c r="K12" s="185" t="s">
+      <c r="J12" s="182"/>
+      <c r="K12" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="186"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="187"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="185"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="183"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="190"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="190"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="188"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="188"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="183"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="193"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="193"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="191"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="191"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="182"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -11146,10 +11192,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="181" t="s">
+      <c r="I15" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="182"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -11172,15 +11218,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="198"/>
-      <c r="B16" s="199"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -11274,10 +11320,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="194" t="s">
+      <c r="I26" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="195"/>
+      <c r="J26" s="193"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -11285,10 +11331,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="196" t="s">
+      <c r="A27" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="197"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="64">
         <v>580.4</v>
       </c>
@@ -11304,10 +11350,10 @@
       <c r="G27" s="69">
         <v>1038.54</v>
       </c>
-      <c r="I27" s="196" t="s">
+      <c r="I27" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="197"/>
+      <c r="J27" s="195"/>
       <c r="K27" s="64">
         <v>6864.08</v>
       </c>
@@ -11325,8 +11371,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="196"/>
-      <c r="B28" s="197"/>
+      <c r="A28" s="194"/>
+      <c r="B28" s="195"/>
       <c r="C28" s="64">
         <v>621.89099999999996</v>
       </c>
@@ -11342,8 +11388,8 @@
       <c r="G28" s="69">
         <v>1099.28</v>
       </c>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="195"/>
       <c r="K28" s="64">
         <v>7156.32</v>
       </c>
@@ -11361,8 +11407,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="196"/>
-      <c r="B29" s="197"/>
+      <c r="A29" s="194"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="64">
         <v>580.40200000000004</v>
       </c>
@@ -11378,8 +11424,8 @@
       <c r="G29" s="69">
         <v>1049.24</v>
       </c>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="195"/>
       <c r="K29" s="64">
         <v>7146.28</v>
       </c>
@@ -11397,10 +11443,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="180"/>
+      <c r="B30" s="197"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -11421,10 +11467,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="179" t="s">
+      <c r="I30" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="180"/>
+      <c r="J30" s="197"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -11447,10 +11493,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="182"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -11471,10 +11517,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="181" t="s">
+      <c r="I31" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="182"/>
+      <c r="J31" s="178"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -11497,66 +11543,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="183" t="s">
+      <c r="A32" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="184"/>
-      <c r="C32" s="185" t="s">
+      <c r="B32" s="182"/>
+      <c r="C32" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="187"/>
-      <c r="I32" s="183" t="s">
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="185"/>
+      <c r="I32" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="184"/>
-      <c r="K32" s="185" t="s">
+      <c r="J32" s="182"/>
+      <c r="K32" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="187"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="185"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="190"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="189"/>
-      <c r="M33" s="189"/>
-      <c r="N33" s="189"/>
-      <c r="O33" s="190"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="188"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="183"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="193"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="193"/>
+      <c r="A34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="191"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="191"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="181" t="s">
+      <c r="A35" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="182"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -11577,10 +11623,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="181" t="s">
+      <c r="I35" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="182"/>
+      <c r="J35" s="178"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -11603,15 +11649,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="198"/>
-      <c r="B36" s="199"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -11705,10 +11751,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="194" t="s">
+      <c r="I46" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="195"/>
+      <c r="J46" s="193"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -11716,10 +11762,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="196" t="s">
+      <c r="A47" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="197"/>
+      <c r="B47" s="195"/>
       <c r="C47" s="64">
         <v>745.63</v>
       </c>
@@ -11735,10 +11781,10 @@
       <c r="G47" s="69">
         <v>2824.25</v>
       </c>
-      <c r="I47" s="196" t="s">
+      <c r="I47" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="197"/>
+      <c r="J47" s="195"/>
       <c r="K47" s="64">
         <v>7380.65</v>
       </c>
@@ -11756,8 +11802,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="196"/>
-      <c r="B48" s="197"/>
+      <c r="A48" s="194"/>
+      <c r="B48" s="195"/>
       <c r="C48" s="64">
         <v>747.9</v>
       </c>
@@ -11773,8 +11819,8 @@
       <c r="G48" s="69">
         <v>2802.62</v>
       </c>
-      <c r="I48" s="196"/>
-      <c r="J48" s="197"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="195"/>
       <c r="K48" s="64">
         <v>7272.22</v>
       </c>
@@ -11792,8 +11838,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="196"/>
-      <c r="B49" s="197"/>
+      <c r="A49" s="194"/>
+      <c r="B49" s="195"/>
       <c r="C49" s="64">
         <v>758.29</v>
       </c>
@@ -11809,8 +11855,8 @@
       <c r="G49" s="69">
         <v>3130.42</v>
       </c>
-      <c r="I49" s="196"/>
-      <c r="J49" s="197"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="195"/>
       <c r="K49" s="64">
         <v>7382.71</v>
       </c>
@@ -11828,10 +11874,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="180"/>
+      <c r="B50" s="197"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -11852,10 +11898,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="179" t="s">
+      <c r="I50" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="180"/>
+      <c r="J50" s="197"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -11878,10 +11924,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="181" t="s">
+      <c r="A51" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="182"/>
+      <c r="B51" s="178"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -11902,10 +11948,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="181" t="s">
+      <c r="I51" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="182"/>
+      <c r="J51" s="178"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -11928,66 +11974,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="183" t="s">
+      <c r="A52" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="184"/>
-      <c r="C52" s="185" t="s">
+      <c r="B52" s="182"/>
+      <c r="C52" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="187"/>
-      <c r="I52" s="183" t="s">
+      <c r="D52" s="184"/>
+      <c r="E52" s="184"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="185"/>
+      <c r="I52" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="184"/>
-      <c r="K52" s="185" t="s">
+      <c r="J52" s="182"/>
+      <c r="K52" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="186"/>
-      <c r="M52" s="186"/>
-      <c r="N52" s="186"/>
-      <c r="O52" s="187"/>
+      <c r="L52" s="184"/>
+      <c r="M52" s="184"/>
+      <c r="N52" s="184"/>
+      <c r="O52" s="185"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="183"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="189"/>
-      <c r="E53" s="189"/>
-      <c r="F53" s="189"/>
-      <c r="G53" s="190"/>
-      <c r="I53" s="183"/>
-      <c r="J53" s="184"/>
-      <c r="K53" s="188"/>
-      <c r="L53" s="189"/>
-      <c r="M53" s="189"/>
-      <c r="N53" s="189"/>
-      <c r="O53" s="190"/>
+      <c r="A53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="188"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="186"/>
+      <c r="L53" s="187"/>
+      <c r="M53" s="187"/>
+      <c r="N53" s="187"/>
+      <c r="O53" s="188"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="183"/>
-      <c r="B54" s="184"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="192"/>
-      <c r="E54" s="192"/>
-      <c r="F54" s="192"/>
-      <c r="G54" s="193"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="184"/>
-      <c r="K54" s="191"/>
-      <c r="L54" s="192"/>
-      <c r="M54" s="192"/>
-      <c r="N54" s="192"/>
-      <c r="O54" s="193"/>
+      <c r="A54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="189"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="191"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="189"/>
+      <c r="L54" s="190"/>
+      <c r="M54" s="190"/>
+      <c r="N54" s="190"/>
+      <c r="O54" s="191"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="181" t="s">
+      <c r="A55" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="182"/>
+      <c r="B55" s="178"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -12008,10 +12054,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="181" t="s">
+      <c r="I55" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="182"/>
+      <c r="J55" s="178"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -12034,15 +12080,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="198"/>
-      <c r="B56" s="199"/>
+      <c r="A56" s="179"/>
+      <c r="B56" s="180"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="198"/>
-      <c r="J56" s="199"/>
+      <c r="I56" s="179"/>
+      <c r="J56" s="180"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -12136,10 +12182,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="194" t="s">
+      <c r="I66" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="195"/>
+      <c r="J66" s="193"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -12147,10 +12193,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="196" t="s">
+      <c r="A67" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="197"/>
+      <c r="B67" s="195"/>
       <c r="C67" s="64">
         <v>851.19100000000003</v>
       </c>
@@ -12166,10 +12212,10 @@
       <c r="G67" s="69">
         <v>2880.17</v>
       </c>
-      <c r="I67" s="196" t="s">
+      <c r="I67" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="197"/>
+      <c r="J67" s="195"/>
       <c r="K67" s="64">
         <v>7455.63</v>
       </c>
@@ -12187,8 +12233,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="196"/>
-      <c r="B68" s="197"/>
+      <c r="A68" s="194"/>
+      <c r="B68" s="195"/>
       <c r="C68" s="64">
         <v>850.14499999999998</v>
       </c>
@@ -12204,8 +12250,8 @@
       <c r="G68" s="69">
         <v>2829.59</v>
       </c>
-      <c r="I68" s="196"/>
-      <c r="J68" s="197"/>
+      <c r="I68" s="194"/>
+      <c r="J68" s="195"/>
       <c r="K68" s="64">
         <v>7455.62</v>
       </c>
@@ -12223,8 +12269,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="196"/>
-      <c r="B69" s="197"/>
+      <c r="A69" s="194"/>
+      <c r="B69" s="195"/>
       <c r="C69" s="64">
         <v>834.03200000000004</v>
       </c>
@@ -12240,8 +12286,8 @@
       <c r="G69" s="69">
         <v>2836.45</v>
       </c>
-      <c r="I69" s="196"/>
-      <c r="J69" s="197"/>
+      <c r="I69" s="194"/>
+      <c r="J69" s="195"/>
       <c r="K69" s="64">
         <v>7460.2</v>
       </c>
@@ -12259,10 +12305,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="179" t="s">
+      <c r="A70" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="180"/>
+      <c r="B70" s="197"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -12283,10 +12329,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="179" t="s">
+      <c r="I70" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="180"/>
+      <c r="J70" s="197"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -12309,10 +12355,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="181" t="s">
+      <c r="A71" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="182"/>
+      <c r="B71" s="178"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -12333,10 +12379,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="181" t="s">
+      <c r="I71" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="182"/>
+      <c r="J71" s="178"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -12359,66 +12405,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="183" t="s">
+      <c r="A72" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="184"/>
-      <c r="C72" s="185" t="s">
+      <c r="B72" s="182"/>
+      <c r="C72" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="186"/>
-      <c r="E72" s="186"/>
-      <c r="F72" s="186"/>
-      <c r="G72" s="187"/>
-      <c r="I72" s="183" t="s">
+      <c r="D72" s="184"/>
+      <c r="E72" s="184"/>
+      <c r="F72" s="184"/>
+      <c r="G72" s="185"/>
+      <c r="I72" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="184"/>
-      <c r="K72" s="185" t="s">
+      <c r="J72" s="182"/>
+      <c r="K72" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="186"/>
-      <c r="M72" s="186"/>
-      <c r="N72" s="186"/>
-      <c r="O72" s="187"/>
+      <c r="L72" s="184"/>
+      <c r="M72" s="184"/>
+      <c r="N72" s="184"/>
+      <c r="O72" s="185"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="183"/>
-      <c r="B73" s="184"/>
-      <c r="C73" s="188"/>
-      <c r="D73" s="189"/>
-      <c r="E73" s="189"/>
-      <c r="F73" s="189"/>
-      <c r="G73" s="190"/>
-      <c r="I73" s="183"/>
-      <c r="J73" s="184"/>
-      <c r="K73" s="188"/>
-      <c r="L73" s="189"/>
-      <c r="M73" s="189"/>
-      <c r="N73" s="189"/>
-      <c r="O73" s="190"/>
+      <c r="A73" s="181"/>
+      <c r="B73" s="182"/>
+      <c r="C73" s="186"/>
+      <c r="D73" s="187"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="187"/>
+      <c r="G73" s="188"/>
+      <c r="I73" s="181"/>
+      <c r="J73" s="182"/>
+      <c r="K73" s="186"/>
+      <c r="L73" s="187"/>
+      <c r="M73" s="187"/>
+      <c r="N73" s="187"/>
+      <c r="O73" s="188"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="183"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="191"/>
-      <c r="D74" s="192"/>
-      <c r="E74" s="192"/>
-      <c r="F74" s="192"/>
-      <c r="G74" s="193"/>
-      <c r="I74" s="183"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="191"/>
-      <c r="L74" s="192"/>
-      <c r="M74" s="192"/>
-      <c r="N74" s="192"/>
-      <c r="O74" s="193"/>
+      <c r="A74" s="181"/>
+      <c r="B74" s="182"/>
+      <c r="C74" s="189"/>
+      <c r="D74" s="190"/>
+      <c r="E74" s="190"/>
+      <c r="F74" s="190"/>
+      <c r="G74" s="191"/>
+      <c r="I74" s="181"/>
+      <c r="J74" s="182"/>
+      <c r="K74" s="189"/>
+      <c r="L74" s="190"/>
+      <c r="M74" s="190"/>
+      <c r="N74" s="190"/>
+      <c r="O74" s="191"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="181" t="s">
+      <c r="A75" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="182"/>
+      <c r="B75" s="178"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -12439,10 +12485,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="181" t="s">
+      <c r="I75" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="182"/>
+      <c r="J75" s="178"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -12465,15 +12511,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="198"/>
-      <c r="B76" s="199"/>
+      <c r="A76" s="179"/>
+      <c r="B76" s="180"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="198"/>
-      <c r="J76" s="199"/>
+      <c r="I76" s="179"/>
+      <c r="J76" s="180"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -12567,10 +12613,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="194" t="s">
+      <c r="I86" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="195"/>
+      <c r="J86" s="193"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -12578,10 +12624,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="196" t="s">
+      <c r="A87" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="197"/>
+      <c r="B87" s="195"/>
       <c r="C87" s="64">
         <v>1489.28</v>
       </c>
@@ -12597,10 +12643,10 @@
       <c r="G87" s="69">
         <v>3642.82</v>
       </c>
-      <c r="I87" s="196" t="s">
+      <c r="I87" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="197"/>
+      <c r="J87" s="195"/>
       <c r="K87" s="64">
         <v>10457.9</v>
       </c>
@@ -12618,8 +12664,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="196"/>
-      <c r="B88" s="197"/>
+      <c r="A88" s="194"/>
+      <c r="B88" s="195"/>
       <c r="C88" s="64">
         <v>1485.23</v>
       </c>
@@ -12635,8 +12681,8 @@
       <c r="G88" s="69">
         <v>3664.44</v>
       </c>
-      <c r="I88" s="196"/>
-      <c r="J88" s="197"/>
+      <c r="I88" s="194"/>
+      <c r="J88" s="195"/>
       <c r="K88" s="64">
         <v>10466</v>
       </c>
@@ -12654,8 +12700,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="196"/>
-      <c r="B89" s="197"/>
+      <c r="A89" s="194"/>
+      <c r="B89" s="195"/>
       <c r="C89" s="64">
         <v>1560.48</v>
       </c>
@@ -12671,8 +12717,8 @@
       <c r="G89" s="69">
         <v>3678.27</v>
       </c>
-      <c r="I89" s="196"/>
-      <c r="J89" s="197"/>
+      <c r="I89" s="194"/>
+      <c r="J89" s="195"/>
       <c r="K89" s="64">
         <v>10649.4</v>
       </c>
@@ -12690,10 +12736,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="179" t="s">
+      <c r="A90" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="180"/>
+      <c r="B90" s="197"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -12714,10 +12760,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="179" t="s">
+      <c r="I90" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="180"/>
+      <c r="J90" s="197"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -12740,10 +12786,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="181" t="s">
+      <c r="A91" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="182"/>
+      <c r="B91" s="178"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -12764,10 +12810,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="181" t="s">
+      <c r="I91" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="182"/>
+      <c r="J91" s="178"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -12790,66 +12836,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="183" t="s">
+      <c r="A92" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="184"/>
-      <c r="C92" s="185" t="s">
+      <c r="B92" s="182"/>
+      <c r="C92" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="186"/>
-      <c r="E92" s="186"/>
-      <c r="F92" s="186"/>
-      <c r="G92" s="187"/>
-      <c r="I92" s="183" t="s">
+      <c r="D92" s="184"/>
+      <c r="E92" s="184"/>
+      <c r="F92" s="184"/>
+      <c r="G92" s="185"/>
+      <c r="I92" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="184"/>
-      <c r="K92" s="185" t="s">
+      <c r="J92" s="182"/>
+      <c r="K92" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="186"/>
-      <c r="M92" s="186"/>
-      <c r="N92" s="186"/>
-      <c r="O92" s="187"/>
+      <c r="L92" s="184"/>
+      <c r="M92" s="184"/>
+      <c r="N92" s="184"/>
+      <c r="O92" s="185"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="183"/>
-      <c r="B93" s="184"/>
-      <c r="C93" s="188"/>
-      <c r="D93" s="189"/>
-      <c r="E93" s="189"/>
-      <c r="F93" s="189"/>
-      <c r="G93" s="190"/>
-      <c r="I93" s="183"/>
-      <c r="J93" s="184"/>
-      <c r="K93" s="188"/>
-      <c r="L93" s="189"/>
-      <c r="M93" s="189"/>
-      <c r="N93" s="189"/>
-      <c r="O93" s="190"/>
+      <c r="A93" s="181"/>
+      <c r="B93" s="182"/>
+      <c r="C93" s="186"/>
+      <c r="D93" s="187"/>
+      <c r="E93" s="187"/>
+      <c r="F93" s="187"/>
+      <c r="G93" s="188"/>
+      <c r="I93" s="181"/>
+      <c r="J93" s="182"/>
+      <c r="K93" s="186"/>
+      <c r="L93" s="187"/>
+      <c r="M93" s="187"/>
+      <c r="N93" s="187"/>
+      <c r="O93" s="188"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="183"/>
-      <c r="B94" s="184"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="192"/>
-      <c r="E94" s="192"/>
-      <c r="F94" s="192"/>
-      <c r="G94" s="193"/>
-      <c r="I94" s="183"/>
-      <c r="J94" s="184"/>
-      <c r="K94" s="191"/>
-      <c r="L94" s="192"/>
-      <c r="M94" s="192"/>
-      <c r="N94" s="192"/>
-      <c r="O94" s="193"/>
+      <c r="A94" s="181"/>
+      <c r="B94" s="182"/>
+      <c r="C94" s="189"/>
+      <c r="D94" s="190"/>
+      <c r="E94" s="190"/>
+      <c r="F94" s="190"/>
+      <c r="G94" s="191"/>
+      <c r="I94" s="181"/>
+      <c r="J94" s="182"/>
+      <c r="K94" s="189"/>
+      <c r="L94" s="190"/>
+      <c r="M94" s="190"/>
+      <c r="N94" s="190"/>
+      <c r="O94" s="191"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="181" t="s">
+      <c r="A95" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="182"/>
+      <c r="B95" s="178"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -12870,10 +12916,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="181" t="s">
+      <c r="I95" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="182"/>
+      <c r="J95" s="178"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -12896,15 +12942,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="198"/>
-      <c r="B96" s="199"/>
+      <c r="A96" s="179"/>
+      <c r="B96" s="180"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="198"/>
-      <c r="J96" s="199"/>
+      <c r="I96" s="179"/>
+      <c r="J96" s="180"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -12915,60 +12961,11 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -12985,11 +12982,60 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13109,10 +13155,10 @@
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="67"/>
-      <c r="I6" s="194" t="s">
+      <c r="I6" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="195"/>
+      <c r="J6" s="193"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -13120,10 +13166,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="197"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="64">
         <v>612.423</v>
       </c>
@@ -13139,10 +13185,10 @@
       <c r="G7" s="69">
         <v>844.05100000000004</v>
       </c>
-      <c r="I7" s="196" t="s">
+      <c r="I7" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="197"/>
+      <c r="J7" s="195"/>
       <c r="K7" s="64">
         <v>7187.79</v>
       </c>
@@ -13160,8 +13206,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="64">
         <v>605.51700000000005</v>
       </c>
@@ -13177,8 +13223,8 @@
       <c r="G8" s="69">
         <v>842.09500000000003</v>
       </c>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
       <c r="K8" s="64">
         <v>7585.26</v>
       </c>
@@ -13196,8 +13242,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
-      <c r="B9" s="197"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="64">
         <v>614.81899999999996</v>
       </c>
@@ -13213,8 +13259,8 @@
       <c r="G9" s="69">
         <v>842.58900000000006</v>
       </c>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
       <c r="K9" s="64">
         <v>7483.74</v>
       </c>
@@ -13232,10 +13278,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="180"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -13256,10 +13302,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="179" t="s">
+      <c r="I10" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="180"/>
+      <c r="J10" s="197"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -13282,10 +13328,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="182"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -13306,10 +13352,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="181" t="s">
+      <c r="I11" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="182"/>
+      <c r="J11" s="178"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -13332,66 +13378,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="183" t="s">
+      <c r="A12" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="184"/>
-      <c r="C12" s="185" t="s">
+      <c r="B12" s="182"/>
+      <c r="C12" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="187"/>
-      <c r="I12" s="183" t="s">
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="185"/>
+      <c r="I12" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="184"/>
-      <c r="K12" s="185" t="s">
+      <c r="J12" s="182"/>
+      <c r="K12" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="186"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="187"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="185"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="183"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="190"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="190"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="188"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="188"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="183"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="193"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="193"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="191"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="191"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="182"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -13412,10 +13458,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="181" t="s">
+      <c r="I15" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="182"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -13438,15 +13484,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="198"/>
-      <c r="B16" s="199"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -13540,10 +13586,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="194" t="s">
+      <c r="I26" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="195"/>
+      <c r="J26" s="193"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -13551,10 +13597,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="196" t="s">
+      <c r="A27" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="197"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="64">
         <v>566.81399999999996</v>
       </c>
@@ -13570,10 +13616,10 @@
       <c r="G27" s="69">
         <v>653.01499999999999</v>
       </c>
-      <c r="I27" s="196" t="s">
+      <c r="I27" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="197"/>
+      <c r="J27" s="195"/>
       <c r="K27" s="64">
         <v>6804.88</v>
       </c>
@@ -13591,8 +13637,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="196"/>
-      <c r="B28" s="197"/>
+      <c r="A28" s="194"/>
+      <c r="B28" s="195"/>
       <c r="C28" s="64">
         <v>565.11699999999996</v>
       </c>
@@ -13608,8 +13654,8 @@
       <c r="G28" s="69">
         <v>652.77</v>
       </c>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="195"/>
       <c r="K28" s="64">
         <v>7083.24</v>
       </c>
@@ -13627,8 +13673,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="196"/>
-      <c r="B29" s="197"/>
+      <c r="A29" s="194"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="64">
         <v>650.37800000000004</v>
       </c>
@@ -13644,8 +13690,8 @@
       <c r="G29" s="69">
         <v>653.59400000000005</v>
       </c>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="195"/>
       <c r="K29" s="64">
         <v>7092.87</v>
       </c>
@@ -13663,10 +13709,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="180"/>
+      <c r="B30" s="197"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -13687,10 +13733,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="179" t="s">
+      <c r="I30" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="180"/>
+      <c r="J30" s="197"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -13713,10 +13759,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="182"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -13737,10 +13783,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="181" t="s">
+      <c r="I31" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="182"/>
+      <c r="J31" s="178"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -13763,66 +13809,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="183" t="s">
+      <c r="A32" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="184"/>
-      <c r="C32" s="185" t="s">
+      <c r="B32" s="182"/>
+      <c r="C32" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="187"/>
-      <c r="I32" s="183" t="s">
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="185"/>
+      <c r="I32" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="184"/>
-      <c r="K32" s="185" t="s">
+      <c r="J32" s="182"/>
+      <c r="K32" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="187"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="185"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="190"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="189"/>
-      <c r="M33" s="189"/>
-      <c r="N33" s="189"/>
-      <c r="O33" s="190"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="188"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="183"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="193"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="193"/>
+      <c r="A34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="191"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="191"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="181" t="s">
+      <c r="A35" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="182"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -13843,10 +13889,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="181" t="s">
+      <c r="I35" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="182"/>
+      <c r="J35" s="178"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -13869,15 +13915,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="198"/>
-      <c r="B36" s="199"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -13971,10 +14017,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="194" t="s">
+      <c r="I46" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="195"/>
+      <c r="J46" s="193"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -13982,10 +14028,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="196" t="s">
+      <c r="A47" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="197"/>
+      <c r="B47" s="195"/>
       <c r="C47" s="64">
         <v>640.30799999999999</v>
       </c>
@@ -14001,10 +14047,10 @@
       <c r="G47" s="69">
         <v>729.649</v>
       </c>
-      <c r="I47" s="196" t="s">
+      <c r="I47" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="197"/>
+      <c r="J47" s="195"/>
       <c r="K47" s="64">
         <v>6392.16</v>
       </c>
@@ -14022,8 +14068,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="196"/>
-      <c r="B48" s="197"/>
+      <c r="A48" s="194"/>
+      <c r="B48" s="195"/>
       <c r="C48" s="64">
         <v>625.80700000000002</v>
       </c>
@@ -14039,8 +14085,8 @@
       <c r="G48" s="69">
         <v>713.64700000000005</v>
       </c>
-      <c r="I48" s="196"/>
-      <c r="J48" s="197"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="195"/>
       <c r="K48" s="64">
         <v>6820</v>
       </c>
@@ -14058,8 +14104,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="196"/>
-      <c r="B49" s="197"/>
+      <c r="A49" s="194"/>
+      <c r="B49" s="195"/>
       <c r="C49" s="64">
         <v>616.697</v>
       </c>
@@ -14075,8 +14121,8 @@
       <c r="G49" s="69">
         <v>695.51499999999999</v>
       </c>
-      <c r="I49" s="196"/>
-      <c r="J49" s="197"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="195"/>
       <c r="K49" s="64">
         <v>6522.44</v>
       </c>
@@ -14094,10 +14140,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="180"/>
+      <c r="B50" s="197"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -14118,10 +14164,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="179" t="s">
+      <c r="I50" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="180"/>
+      <c r="J50" s="197"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -14144,10 +14190,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="181" t="s">
+      <c r="A51" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="182"/>
+      <c r="B51" s="178"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -14168,10 +14214,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="181" t="s">
+      <c r="I51" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="182"/>
+      <c r="J51" s="178"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -14194,66 +14240,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="183" t="s">
+      <c r="A52" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="184"/>
-      <c r="C52" s="185" t="s">
+      <c r="B52" s="182"/>
+      <c r="C52" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="187"/>
-      <c r="I52" s="183" t="s">
+      <c r="D52" s="184"/>
+      <c r="E52" s="184"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="185"/>
+      <c r="I52" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="184"/>
-      <c r="K52" s="185" t="s">
+      <c r="J52" s="182"/>
+      <c r="K52" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="186"/>
-      <c r="M52" s="186"/>
-      <c r="N52" s="186"/>
-      <c r="O52" s="187"/>
+      <c r="L52" s="184"/>
+      <c r="M52" s="184"/>
+      <c r="N52" s="184"/>
+      <c r="O52" s="185"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="183"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="189"/>
-      <c r="E53" s="189"/>
-      <c r="F53" s="189"/>
-      <c r="G53" s="190"/>
-      <c r="I53" s="183"/>
-      <c r="J53" s="184"/>
-      <c r="K53" s="188"/>
-      <c r="L53" s="189"/>
-      <c r="M53" s="189"/>
-      <c r="N53" s="189"/>
-      <c r="O53" s="190"/>
+      <c r="A53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="188"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="186"/>
+      <c r="L53" s="187"/>
+      <c r="M53" s="187"/>
+      <c r="N53" s="187"/>
+      <c r="O53" s="188"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="183"/>
-      <c r="B54" s="184"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="192"/>
-      <c r="E54" s="192"/>
-      <c r="F54" s="192"/>
-      <c r="G54" s="193"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="184"/>
-      <c r="K54" s="191"/>
-      <c r="L54" s="192"/>
-      <c r="M54" s="192"/>
-      <c r="N54" s="192"/>
-      <c r="O54" s="193"/>
+      <c r="A54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="189"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="191"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="189"/>
+      <c r="L54" s="190"/>
+      <c r="M54" s="190"/>
+      <c r="N54" s="190"/>
+      <c r="O54" s="191"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="181" t="s">
+      <c r="A55" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="182"/>
+      <c r="B55" s="178"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -14274,10 +14320,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="181" t="s">
+      <c r="I55" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="182"/>
+      <c r="J55" s="178"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -14300,15 +14346,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="198"/>
-      <c r="B56" s="199"/>
+      <c r="A56" s="179"/>
+      <c r="B56" s="180"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="198"/>
-      <c r="J56" s="199"/>
+      <c r="I56" s="179"/>
+      <c r="J56" s="180"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -14402,10 +14448,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="194" t="s">
+      <c r="I66" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="195"/>
+      <c r="J66" s="193"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -14413,10 +14459,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="196" t="s">
+      <c r="A67" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="197"/>
+      <c r="B67" s="195"/>
       <c r="C67" s="64">
         <v>728.58100000000002</v>
       </c>
@@ -14432,10 +14478,10 @@
       <c r="G67" s="69">
         <v>832.13300000000004</v>
       </c>
-      <c r="I67" s="196" t="s">
+      <c r="I67" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="197"/>
+      <c r="J67" s="195"/>
       <c r="K67" s="64">
         <v>6829.4</v>
       </c>
@@ -14453,8 +14499,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="196"/>
-      <c r="B68" s="197"/>
+      <c r="A68" s="194"/>
+      <c r="B68" s="195"/>
       <c r="C68" s="64">
         <v>736.02800000000002</v>
       </c>
@@ -14470,8 +14516,8 @@
       <c r="G68" s="69">
         <v>848.15899999999999</v>
       </c>
-      <c r="I68" s="196"/>
-      <c r="J68" s="197"/>
+      <c r="I68" s="194"/>
+      <c r="J68" s="195"/>
       <c r="K68" s="64">
         <v>6525.61</v>
       </c>
@@ -14489,8 +14535,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="196"/>
-      <c r="B69" s="197"/>
+      <c r="A69" s="194"/>
+      <c r="B69" s="195"/>
       <c r="C69" s="64">
         <v>728.84299999999996</v>
       </c>
@@ -14506,8 +14552,8 @@
       <c r="G69" s="69">
         <v>831.49300000000005</v>
       </c>
-      <c r="I69" s="196"/>
-      <c r="J69" s="197"/>
+      <c r="I69" s="194"/>
+      <c r="J69" s="195"/>
       <c r="K69" s="64">
         <v>6569.18</v>
       </c>
@@ -14525,10 +14571,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="179" t="s">
+      <c r="A70" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="180"/>
+      <c r="B70" s="197"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -14549,10 +14595,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="179" t="s">
+      <c r="I70" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="180"/>
+      <c r="J70" s="197"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -14575,10 +14621,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="181" t="s">
+      <c r="A71" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="182"/>
+      <c r="B71" s="178"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -14599,10 +14645,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="181" t="s">
+      <c r="I71" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="182"/>
+      <c r="J71" s="178"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -14625,66 +14671,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="183" t="s">
+      <c r="A72" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="184"/>
-      <c r="C72" s="185" t="s">
+      <c r="B72" s="182"/>
+      <c r="C72" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="186"/>
-      <c r="E72" s="186"/>
-      <c r="F72" s="186"/>
-      <c r="G72" s="187"/>
-      <c r="I72" s="183" t="s">
+      <c r="D72" s="184"/>
+      <c r="E72" s="184"/>
+      <c r="F72" s="184"/>
+      <c r="G72" s="185"/>
+      <c r="I72" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="184"/>
-      <c r="K72" s="185" t="s">
+      <c r="J72" s="182"/>
+      <c r="K72" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="186"/>
-      <c r="M72" s="186"/>
-      <c r="N72" s="186"/>
-      <c r="O72" s="187"/>
+      <c r="L72" s="184"/>
+      <c r="M72" s="184"/>
+      <c r="N72" s="184"/>
+      <c r="O72" s="185"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="183"/>
-      <c r="B73" s="184"/>
-      <c r="C73" s="188"/>
-      <c r="D73" s="189"/>
-      <c r="E73" s="189"/>
-      <c r="F73" s="189"/>
-      <c r="G73" s="190"/>
-      <c r="I73" s="183"/>
-      <c r="J73" s="184"/>
-      <c r="K73" s="188"/>
-      <c r="L73" s="189"/>
-      <c r="M73" s="189"/>
-      <c r="N73" s="189"/>
-      <c r="O73" s="190"/>
+      <c r="A73" s="181"/>
+      <c r="B73" s="182"/>
+      <c r="C73" s="186"/>
+      <c r="D73" s="187"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="187"/>
+      <c r="G73" s="188"/>
+      <c r="I73" s="181"/>
+      <c r="J73" s="182"/>
+      <c r="K73" s="186"/>
+      <c r="L73" s="187"/>
+      <c r="M73" s="187"/>
+      <c r="N73" s="187"/>
+      <c r="O73" s="188"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="183"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="191"/>
-      <c r="D74" s="192"/>
-      <c r="E74" s="192"/>
-      <c r="F74" s="192"/>
-      <c r="G74" s="193"/>
-      <c r="I74" s="183"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="191"/>
-      <c r="L74" s="192"/>
-      <c r="M74" s="192"/>
-      <c r="N74" s="192"/>
-      <c r="O74" s="193"/>
+      <c r="A74" s="181"/>
+      <c r="B74" s="182"/>
+      <c r="C74" s="189"/>
+      <c r="D74" s="190"/>
+      <c r="E74" s="190"/>
+      <c r="F74" s="190"/>
+      <c r="G74" s="191"/>
+      <c r="I74" s="181"/>
+      <c r="J74" s="182"/>
+      <c r="K74" s="189"/>
+      <c r="L74" s="190"/>
+      <c r="M74" s="190"/>
+      <c r="N74" s="190"/>
+      <c r="O74" s="191"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="181" t="s">
+      <c r="A75" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="182"/>
+      <c r="B75" s="178"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -14705,10 +14751,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="181" t="s">
+      <c r="I75" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="182"/>
+      <c r="J75" s="178"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -14731,15 +14777,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="198"/>
-      <c r="B76" s="199"/>
+      <c r="A76" s="179"/>
+      <c r="B76" s="180"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="198"/>
-      <c r="J76" s="199"/>
+      <c r="I76" s="179"/>
+      <c r="J76" s="180"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -14833,10 +14879,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="194" t="s">
+      <c r="I86" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="195"/>
+      <c r="J86" s="193"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -14844,10 +14890,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="196" t="s">
+      <c r="A87" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="197"/>
+      <c r="B87" s="195"/>
       <c r="C87" s="64">
         <v>1514.7</v>
       </c>
@@ -14863,10 +14909,10 @@
       <c r="G87" s="69">
         <v>1356.97</v>
       </c>
-      <c r="I87" s="196" t="s">
+      <c r="I87" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="197"/>
+      <c r="J87" s="195"/>
       <c r="K87" s="64">
         <v>9831.2999999999993</v>
       </c>
@@ -14884,8 +14930,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="196"/>
-      <c r="B88" s="197"/>
+      <c r="A88" s="194"/>
+      <c r="B88" s="195"/>
       <c r="C88" s="64">
         <v>1499.89</v>
       </c>
@@ -14901,8 +14947,8 @@
       <c r="G88" s="69">
         <v>1345.56</v>
       </c>
-      <c r="I88" s="196"/>
-      <c r="J88" s="197"/>
+      <c r="I88" s="194"/>
+      <c r="J88" s="195"/>
       <c r="K88" s="64">
         <v>10540.3</v>
       </c>
@@ -14920,8 +14966,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="196"/>
-      <c r="B89" s="197"/>
+      <c r="A89" s="194"/>
+      <c r="B89" s="195"/>
       <c r="C89" s="64">
         <v>1426.87</v>
       </c>
@@ -14937,8 +14983,8 @@
       <c r="G89" s="69">
         <v>1322.16</v>
       </c>
-      <c r="I89" s="196"/>
-      <c r="J89" s="197"/>
+      <c r="I89" s="194"/>
+      <c r="J89" s="195"/>
       <c r="K89" s="64">
         <v>10526.8</v>
       </c>
@@ -14956,10 +15002,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="179" t="s">
+      <c r="A90" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="180"/>
+      <c r="B90" s="197"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -14980,10 +15026,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="179" t="s">
+      <c r="I90" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="180"/>
+      <c r="J90" s="197"/>
       <c r="K90" s="95">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -15006,10 +15052,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="181" t="s">
+      <c r="A91" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="182"/>
+      <c r="B91" s="178"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -15030,10 +15076,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="181" t="s">
+      <c r="I91" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="182"/>
+      <c r="J91" s="178"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -15056,66 +15102,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="183" t="s">
+      <c r="A92" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="184"/>
-      <c r="C92" s="185" t="s">
+      <c r="B92" s="182"/>
+      <c r="C92" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="186"/>
-      <c r="E92" s="186"/>
-      <c r="F92" s="186"/>
-      <c r="G92" s="187"/>
-      <c r="I92" s="183" t="s">
+      <c r="D92" s="184"/>
+      <c r="E92" s="184"/>
+      <c r="F92" s="184"/>
+      <c r="G92" s="185"/>
+      <c r="I92" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="184"/>
-      <c r="K92" s="185" t="s">
+      <c r="J92" s="182"/>
+      <c r="K92" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="186"/>
-      <c r="M92" s="186"/>
-      <c r="N92" s="186"/>
-      <c r="O92" s="187"/>
+      <c r="L92" s="184"/>
+      <c r="M92" s="184"/>
+      <c r="N92" s="184"/>
+      <c r="O92" s="185"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="183"/>
-      <c r="B93" s="184"/>
-      <c r="C93" s="188"/>
-      <c r="D93" s="189"/>
-      <c r="E93" s="189"/>
-      <c r="F93" s="189"/>
-      <c r="G93" s="190"/>
-      <c r="I93" s="183"/>
-      <c r="J93" s="184"/>
-      <c r="K93" s="188"/>
-      <c r="L93" s="189"/>
-      <c r="M93" s="189"/>
-      <c r="N93" s="189"/>
-      <c r="O93" s="190"/>
+      <c r="A93" s="181"/>
+      <c r="B93" s="182"/>
+      <c r="C93" s="186"/>
+      <c r="D93" s="187"/>
+      <c r="E93" s="187"/>
+      <c r="F93" s="187"/>
+      <c r="G93" s="188"/>
+      <c r="I93" s="181"/>
+      <c r="J93" s="182"/>
+      <c r="K93" s="186"/>
+      <c r="L93" s="187"/>
+      <c r="M93" s="187"/>
+      <c r="N93" s="187"/>
+      <c r="O93" s="188"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="183"/>
-      <c r="B94" s="184"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="192"/>
-      <c r="E94" s="192"/>
-      <c r="F94" s="192"/>
-      <c r="G94" s="193"/>
-      <c r="I94" s="183"/>
-      <c r="J94" s="184"/>
-      <c r="K94" s="191"/>
-      <c r="L94" s="192"/>
-      <c r="M94" s="192"/>
-      <c r="N94" s="192"/>
-      <c r="O94" s="193"/>
+      <c r="A94" s="181"/>
+      <c r="B94" s="182"/>
+      <c r="C94" s="189"/>
+      <c r="D94" s="190"/>
+      <c r="E94" s="190"/>
+      <c r="F94" s="190"/>
+      <c r="G94" s="191"/>
+      <c r="I94" s="181"/>
+      <c r="J94" s="182"/>
+      <c r="K94" s="189"/>
+      <c r="L94" s="190"/>
+      <c r="M94" s="190"/>
+      <c r="N94" s="190"/>
+      <c r="O94" s="191"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="181" t="s">
+      <c r="A95" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="182"/>
+      <c r="B95" s="178"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -15136,10 +15182,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="181" t="s">
+      <c r="I95" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="182"/>
+      <c r="J95" s="178"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -15162,15 +15208,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="198"/>
-      <c r="B96" s="199"/>
+      <c r="A96" s="179"/>
+      <c r="B96" s="180"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="198"/>
-      <c r="J96" s="199"/>
+      <c r="I96" s="179"/>
+      <c r="J96" s="180"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -15181,48 +15227,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -15235,27 +15260,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15375,10 +15421,10 @@
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="67"/>
-      <c r="I6" s="194" t="s">
+      <c r="I6" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="195"/>
+      <c r="J6" s="193"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -15386,10 +15432,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="197"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="79">
         <v>604.44000000000005</v>
       </c>
@@ -15405,10 +15451,10 @@
       <c r="G7" s="80">
         <v>701.48</v>
       </c>
-      <c r="I7" s="196" t="s">
+      <c r="I7" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="197"/>
+      <c r="J7" s="195"/>
       <c r="K7" s="64">
         <v>6985.72</v>
       </c>
@@ -15426,8 +15472,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="76">
         <v>590.54999999999995</v>
       </c>
@@ -15443,8 +15489,8 @@
       <c r="G8" s="78">
         <v>701.51</v>
       </c>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
       <c r="K8" s="64">
         <v>7269.43</v>
       </c>
@@ -15462,8 +15508,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
-      <c r="B9" s="197"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="64">
         <v>591.9</v>
       </c>
@@ -15479,8 +15525,8 @@
       <c r="G9" s="69">
         <v>703.45</v>
       </c>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
       <c r="K9" s="64">
         <v>7263.19</v>
       </c>
@@ -15498,10 +15544,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="180"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -15522,10 +15568,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="179" t="s">
+      <c r="I10" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="180"/>
+      <c r="J10" s="197"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -15548,10 +15594,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="182"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -15572,10 +15618,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="181" t="s">
+      <c r="I11" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="182"/>
+      <c r="J11" s="178"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -15598,66 +15644,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="183" t="s">
+      <c r="A12" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="184"/>
-      <c r="C12" s="185" t="s">
+      <c r="B12" s="182"/>
+      <c r="C12" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="187"/>
-      <c r="I12" s="183" t="s">
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="185"/>
+      <c r="I12" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="184"/>
-      <c r="K12" s="185" t="s">
+      <c r="J12" s="182"/>
+      <c r="K12" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="186"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="187"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="185"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="183"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="190"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="190"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="188"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="188"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="183"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="193"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="193"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="191"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="191"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="182"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -15678,10 +15724,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="181" t="s">
+      <c r="I15" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="182"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -15704,15 +15750,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="198"/>
-      <c r="B16" s="199"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -15806,10 +15852,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="194" t="s">
+      <c r="I26" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="195"/>
+      <c r="J26" s="193"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -15817,10 +15863,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="196" t="s">
+      <c r="A27" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="197"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="64">
         <v>567.65</v>
       </c>
@@ -15836,10 +15882,10 @@
       <c r="G27" s="69">
         <v>652.16999999999996</v>
       </c>
-      <c r="I27" s="196" t="s">
+      <c r="I27" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="197"/>
+      <c r="J27" s="195"/>
       <c r="K27" s="64">
         <v>6682.46</v>
       </c>
@@ -15857,8 +15903,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="196"/>
-      <c r="B28" s="197"/>
+      <c r="A28" s="194"/>
+      <c r="B28" s="195"/>
       <c r="C28" s="64">
         <v>566.14</v>
       </c>
@@ -15874,8 +15920,8 @@
       <c r="G28" s="69">
         <v>655.39</v>
       </c>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="195"/>
       <c r="K28" s="64">
         <v>7080.63</v>
       </c>
@@ -15893,8 +15939,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="196"/>
-      <c r="B29" s="197"/>
+      <c r="A29" s="194"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="64">
         <v>568.79999999999995</v>
       </c>
@@ -15910,8 +15956,8 @@
       <c r="G29" s="69">
         <v>652.82000000000005</v>
       </c>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="195"/>
       <c r="K29" s="64">
         <v>6682.73</v>
       </c>
@@ -15929,10 +15975,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="180"/>
+      <c r="B30" s="197"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -15953,10 +15999,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="179" t="s">
+      <c r="I30" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="180"/>
+      <c r="J30" s="197"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -15979,10 +16025,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="182"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -16003,10 +16049,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="181" t="s">
+      <c r="I31" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="182"/>
+      <c r="J31" s="178"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -16029,66 +16075,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="183" t="s">
+      <c r="A32" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="184"/>
-      <c r="C32" s="185" t="s">
+      <c r="B32" s="182"/>
+      <c r="C32" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="187"/>
-      <c r="I32" s="183" t="s">
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="185"/>
+      <c r="I32" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="184"/>
-      <c r="K32" s="185" t="s">
+      <c r="J32" s="182"/>
+      <c r="K32" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="187"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="185"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="190"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="189"/>
-      <c r="M33" s="189"/>
-      <c r="N33" s="189"/>
-      <c r="O33" s="190"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="188"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="183"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="193"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="193"/>
+      <c r="A34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="191"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="191"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="181" t="s">
+      <c r="A35" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="182"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -16109,10 +16155,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="181" t="s">
+      <c r="I35" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="182"/>
+      <c r="J35" s="178"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -16135,15 +16181,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="198"/>
-      <c r="B36" s="199"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -16237,10 +16283,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="194" t="s">
+      <c r="I46" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="195"/>
+      <c r="J46" s="193"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -16248,10 +16294,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="196" t="s">
+      <c r="A47" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="197"/>
+      <c r="B47" s="195"/>
       <c r="C47" s="68">
         <v>656.57</v>
       </c>
@@ -16267,10 +16313,10 @@
       <c r="G47" s="69">
         <v>656.423</v>
       </c>
-      <c r="I47" s="196" t="s">
+      <c r="I47" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="197"/>
+      <c r="J47" s="195"/>
       <c r="K47" s="64">
         <v>6162.07</v>
       </c>
@@ -16288,8 +16334,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="196"/>
-      <c r="B48" s="197"/>
+      <c r="A48" s="194"/>
+      <c r="B48" s="195"/>
       <c r="C48" s="68">
         <v>621.61</v>
       </c>
@@ -16305,8 +16351,8 @@
       <c r="G48" s="69">
         <v>648.48</v>
       </c>
-      <c r="I48" s="196"/>
-      <c r="J48" s="197"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="195"/>
       <c r="K48" s="64">
         <v>6162.92</v>
       </c>
@@ -16324,8 +16370,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="196"/>
-      <c r="B49" s="197"/>
+      <c r="A49" s="194"/>
+      <c r="B49" s="195"/>
       <c r="C49" s="68">
         <v>622.58000000000004</v>
       </c>
@@ -16341,8 +16387,8 @@
       <c r="G49" s="69">
         <v>632.22</v>
       </c>
-      <c r="I49" s="196"/>
-      <c r="J49" s="197"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="195"/>
       <c r="K49" s="64">
         <v>6153.56</v>
       </c>
@@ -16360,10 +16406,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="180"/>
+      <c r="B50" s="197"/>
       <c r="C50" s="68">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -16384,10 +16430,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="179" t="s">
+      <c r="I50" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="180"/>
+      <c r="J50" s="197"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -16410,10 +16456,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="181" t="s">
+      <c r="A51" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="182"/>
+      <c r="B51" s="178"/>
       <c r="C51" s="70">
         <v>0.63</v>
       </c>
@@ -16429,10 +16475,10 @@
       <c r="G51" s="72">
         <v>0.65</v>
       </c>
-      <c r="I51" s="181" t="s">
+      <c r="I51" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="182"/>
+      <c r="J51" s="178"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -16455,66 +16501,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="183" t="s">
+      <c r="A52" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="184"/>
-      <c r="C52" s="185" t="s">
+      <c r="B52" s="182"/>
+      <c r="C52" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="187"/>
-      <c r="I52" s="183" t="s">
+      <c r="D52" s="184"/>
+      <c r="E52" s="184"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="185"/>
+      <c r="I52" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="184"/>
-      <c r="K52" s="185" t="s">
+      <c r="J52" s="182"/>
+      <c r="K52" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="186"/>
-      <c r="M52" s="186"/>
-      <c r="N52" s="186"/>
-      <c r="O52" s="187"/>
+      <c r="L52" s="184"/>
+      <c r="M52" s="184"/>
+      <c r="N52" s="184"/>
+      <c r="O52" s="185"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="183"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="189"/>
-      <c r="E53" s="189"/>
-      <c r="F53" s="189"/>
-      <c r="G53" s="190"/>
-      <c r="I53" s="183"/>
-      <c r="J53" s="184"/>
-      <c r="K53" s="188"/>
-      <c r="L53" s="189"/>
-      <c r="M53" s="189"/>
-      <c r="N53" s="189"/>
-      <c r="O53" s="190"/>
+      <c r="A53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="188"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="186"/>
+      <c r="L53" s="187"/>
+      <c r="M53" s="187"/>
+      <c r="N53" s="187"/>
+      <c r="O53" s="188"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="183"/>
-      <c r="B54" s="184"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="192"/>
-      <c r="E54" s="192"/>
-      <c r="F54" s="192"/>
-      <c r="G54" s="193"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="184"/>
-      <c r="K54" s="191"/>
-      <c r="L54" s="192"/>
-      <c r="M54" s="192"/>
-      <c r="N54" s="192"/>
-      <c r="O54" s="193"/>
+      <c r="A54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="189"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="191"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="189"/>
+      <c r="L54" s="190"/>
+      <c r="M54" s="190"/>
+      <c r="N54" s="190"/>
+      <c r="O54" s="191"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="181" t="s">
+      <c r="A55" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="182"/>
+      <c r="B55" s="178"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -16535,10 +16581,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="181" t="s">
+      <c r="I55" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="182"/>
+      <c r="J55" s="178"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -16561,15 +16607,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="198"/>
-      <c r="B56" s="199"/>
+      <c r="A56" s="179"/>
+      <c r="B56" s="180"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="198"/>
-      <c r="J56" s="199"/>
+      <c r="I56" s="179"/>
+      <c r="J56" s="180"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -16663,10 +16709,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="194" t="s">
+      <c r="I66" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="195"/>
+      <c r="J66" s="193"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -16674,10 +16720,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="196" t="s">
+      <c r="A67" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="197"/>
+      <c r="B67" s="195"/>
       <c r="C67" s="64">
         <v>751.18100000000004</v>
       </c>
@@ -16693,10 +16739,10 @@
       <c r="G67" s="69">
         <v>800.94</v>
       </c>
-      <c r="I67" s="196" t="s">
+      <c r="I67" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="197"/>
+      <c r="J67" s="195"/>
       <c r="K67" s="64">
         <v>6835.64</v>
       </c>
@@ -16714,8 +16760,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="196"/>
-      <c r="B68" s="197"/>
+      <c r="A68" s="194"/>
+      <c r="B68" s="195"/>
       <c r="C68" s="64">
         <v>750.57799999999997</v>
       </c>
@@ -16731,8 +16777,8 @@
       <c r="G68" s="69">
         <v>803.08600000000001</v>
       </c>
-      <c r="I68" s="196"/>
-      <c r="J68" s="197"/>
+      <c r="I68" s="194"/>
+      <c r="J68" s="195"/>
       <c r="K68" s="64">
         <v>6567.81</v>
       </c>
@@ -16750,8 +16796,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="196"/>
-      <c r="B69" s="197"/>
+      <c r="A69" s="194"/>
+      <c r="B69" s="195"/>
       <c r="C69" s="64">
         <v>736.66700000000003</v>
       </c>
@@ -16767,8 +16813,8 @@
       <c r="G69" s="69">
         <v>772.69399999999996</v>
       </c>
-      <c r="I69" s="196"/>
-      <c r="J69" s="197"/>
+      <c r="I69" s="194"/>
+      <c r="J69" s="195"/>
       <c r="K69" s="64">
         <v>6728.4</v>
       </c>
@@ -16786,10 +16832,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="179" t="s">
+      <c r="A70" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="180"/>
+      <c r="B70" s="197"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -16810,10 +16856,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="179" t="s">
+      <c r="I70" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="180"/>
+      <c r="J70" s="197"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -16836,10 +16882,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="181" t="s">
+      <c r="A71" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="182"/>
+      <c r="B71" s="178"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -16860,10 +16906,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="181" t="s">
+      <c r="I71" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="182"/>
+      <c r="J71" s="178"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -16886,66 +16932,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="183" t="s">
+      <c r="A72" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="184"/>
-      <c r="C72" s="185" t="s">
+      <c r="B72" s="182"/>
+      <c r="C72" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="186"/>
-      <c r="E72" s="186"/>
-      <c r="F72" s="186"/>
-      <c r="G72" s="187"/>
-      <c r="I72" s="183" t="s">
+      <c r="D72" s="184"/>
+      <c r="E72" s="184"/>
+      <c r="F72" s="184"/>
+      <c r="G72" s="185"/>
+      <c r="I72" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="184"/>
-      <c r="K72" s="185" t="s">
+      <c r="J72" s="182"/>
+      <c r="K72" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="186"/>
-      <c r="M72" s="186"/>
-      <c r="N72" s="186"/>
-      <c r="O72" s="187"/>
+      <c r="L72" s="184"/>
+      <c r="M72" s="184"/>
+      <c r="N72" s="184"/>
+      <c r="O72" s="185"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="183"/>
-      <c r="B73" s="184"/>
-      <c r="C73" s="188"/>
-      <c r="D73" s="189"/>
-      <c r="E73" s="189"/>
-      <c r="F73" s="189"/>
-      <c r="G73" s="190"/>
-      <c r="I73" s="183"/>
-      <c r="J73" s="184"/>
-      <c r="K73" s="188"/>
-      <c r="L73" s="189"/>
-      <c r="M73" s="189"/>
-      <c r="N73" s="189"/>
-      <c r="O73" s="190"/>
+      <c r="A73" s="181"/>
+      <c r="B73" s="182"/>
+      <c r="C73" s="186"/>
+      <c r="D73" s="187"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="187"/>
+      <c r="G73" s="188"/>
+      <c r="I73" s="181"/>
+      <c r="J73" s="182"/>
+      <c r="K73" s="186"/>
+      <c r="L73" s="187"/>
+      <c r="M73" s="187"/>
+      <c r="N73" s="187"/>
+      <c r="O73" s="188"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="183"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="191"/>
-      <c r="D74" s="192"/>
-      <c r="E74" s="192"/>
-      <c r="F74" s="192"/>
-      <c r="G74" s="193"/>
-      <c r="I74" s="183"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="191"/>
-      <c r="L74" s="192"/>
-      <c r="M74" s="192"/>
-      <c r="N74" s="192"/>
-      <c r="O74" s="193"/>
+      <c r="A74" s="181"/>
+      <c r="B74" s="182"/>
+      <c r="C74" s="189"/>
+      <c r="D74" s="190"/>
+      <c r="E74" s="190"/>
+      <c r="F74" s="190"/>
+      <c r="G74" s="191"/>
+      <c r="I74" s="181"/>
+      <c r="J74" s="182"/>
+      <c r="K74" s="189"/>
+      <c r="L74" s="190"/>
+      <c r="M74" s="190"/>
+      <c r="N74" s="190"/>
+      <c r="O74" s="191"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="181" t="s">
+      <c r="A75" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="182"/>
+      <c r="B75" s="178"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -16966,10 +17012,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="181" t="s">
+      <c r="I75" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="182"/>
+      <c r="J75" s="178"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -16992,15 +17038,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="198"/>
-      <c r="B76" s="199"/>
+      <c r="A76" s="179"/>
+      <c r="B76" s="180"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="198"/>
-      <c r="J76" s="199"/>
+      <c r="I76" s="179"/>
+      <c r="J76" s="180"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -17094,10 +17140,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="194" t="s">
+      <c r="I86" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="195"/>
+      <c r="J86" s="193"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -17105,10 +17151,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="196" t="s">
+      <c r="A87" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="197"/>
+      <c r="B87" s="195"/>
       <c r="C87" s="64">
         <v>1492.18</v>
       </c>
@@ -17124,10 +17170,10 @@
       <c r="G87" s="69">
         <v>1294.4000000000001</v>
       </c>
-      <c r="I87" s="196" t="s">
+      <c r="I87" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="197"/>
+      <c r="J87" s="195"/>
       <c r="K87" s="64">
         <v>10439.799999999999</v>
       </c>
@@ -17145,8 +17191,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="196"/>
-      <c r="B88" s="197"/>
+      <c r="A88" s="194"/>
+      <c r="B88" s="195"/>
       <c r="C88" s="64">
         <v>1553.43</v>
       </c>
@@ -17162,8 +17208,8 @@
       <c r="G88" s="69">
         <v>1294.48</v>
       </c>
-      <c r="I88" s="196"/>
-      <c r="J88" s="197"/>
+      <c r="I88" s="194"/>
+      <c r="J88" s="195"/>
       <c r="K88" s="64">
         <v>10799.3</v>
       </c>
@@ -17181,8 +17227,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="196"/>
-      <c r="B89" s="197"/>
+      <c r="A89" s="194"/>
+      <c r="B89" s="195"/>
       <c r="C89" s="64">
         <v>1558.89</v>
       </c>
@@ -17198,8 +17244,8 @@
       <c r="G89" s="69">
         <v>1335.85</v>
       </c>
-      <c r="I89" s="196"/>
-      <c r="J89" s="197"/>
+      <c r="I89" s="194"/>
+      <c r="J89" s="195"/>
       <c r="K89" s="64">
         <v>10768.4</v>
       </c>
@@ -17217,10 +17263,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="179" t="s">
+      <c r="A90" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="180"/>
+      <c r="B90" s="197"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -17241,10 +17287,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="179" t="s">
+      <c r="I90" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="180"/>
+      <c r="J90" s="197"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -17267,10 +17313,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="181" t="s">
+      <c r="A91" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="182"/>
+      <c r="B91" s="178"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -17291,10 +17337,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="181" t="s">
+      <c r="I91" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="182"/>
+      <c r="J91" s="178"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -17317,66 +17363,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="183" t="s">
+      <c r="A92" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="184"/>
-      <c r="C92" s="185" t="s">
+      <c r="B92" s="182"/>
+      <c r="C92" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="186"/>
-      <c r="E92" s="186"/>
-      <c r="F92" s="186"/>
-      <c r="G92" s="187"/>
-      <c r="I92" s="183" t="s">
+      <c r="D92" s="184"/>
+      <c r="E92" s="184"/>
+      <c r="F92" s="184"/>
+      <c r="G92" s="185"/>
+      <c r="I92" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="184"/>
-      <c r="K92" s="185" t="s">
+      <c r="J92" s="182"/>
+      <c r="K92" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="186"/>
-      <c r="M92" s="186"/>
-      <c r="N92" s="186"/>
-      <c r="O92" s="187"/>
+      <c r="L92" s="184"/>
+      <c r="M92" s="184"/>
+      <c r="N92" s="184"/>
+      <c r="O92" s="185"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="183"/>
-      <c r="B93" s="184"/>
-      <c r="C93" s="188"/>
-      <c r="D93" s="189"/>
-      <c r="E93" s="189"/>
-      <c r="F93" s="189"/>
-      <c r="G93" s="190"/>
-      <c r="I93" s="183"/>
-      <c r="J93" s="184"/>
-      <c r="K93" s="188"/>
-      <c r="L93" s="189"/>
-      <c r="M93" s="189"/>
-      <c r="N93" s="189"/>
-      <c r="O93" s="190"/>
+      <c r="A93" s="181"/>
+      <c r="B93" s="182"/>
+      <c r="C93" s="186"/>
+      <c r="D93" s="187"/>
+      <c r="E93" s="187"/>
+      <c r="F93" s="187"/>
+      <c r="G93" s="188"/>
+      <c r="I93" s="181"/>
+      <c r="J93" s="182"/>
+      <c r="K93" s="186"/>
+      <c r="L93" s="187"/>
+      <c r="M93" s="187"/>
+      <c r="N93" s="187"/>
+      <c r="O93" s="188"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="183"/>
-      <c r="B94" s="184"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="192"/>
-      <c r="E94" s="192"/>
-      <c r="F94" s="192"/>
-      <c r="G94" s="193"/>
-      <c r="I94" s="183"/>
-      <c r="J94" s="184"/>
-      <c r="K94" s="191"/>
-      <c r="L94" s="192"/>
-      <c r="M94" s="192"/>
-      <c r="N94" s="192"/>
-      <c r="O94" s="193"/>
+      <c r="A94" s="181"/>
+      <c r="B94" s="182"/>
+      <c r="C94" s="189"/>
+      <c r="D94" s="190"/>
+      <c r="E94" s="190"/>
+      <c r="F94" s="190"/>
+      <c r="G94" s="191"/>
+      <c r="I94" s="181"/>
+      <c r="J94" s="182"/>
+      <c r="K94" s="189"/>
+      <c r="L94" s="190"/>
+      <c r="M94" s="190"/>
+      <c r="N94" s="190"/>
+      <c r="O94" s="191"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="181" t="s">
+      <c r="A95" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="182"/>
+      <c r="B95" s="178"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -17397,10 +17443,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="181" t="s">
+      <c r="I95" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="182"/>
+      <c r="J95" s="178"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -17423,15 +17469,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="198"/>
-      <c r="B96" s="199"/>
+      <c r="A96" s="179"/>
+      <c r="B96" s="180"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="198"/>
-      <c r="J96" s="199"/>
+      <c r="I96" s="179"/>
+      <c r="J96" s="180"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -17442,48 +17488,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -17496,27 +17521,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17636,10 +17682,10 @@
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="67"/>
-      <c r="I6" s="194" t="s">
+      <c r="I6" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="195"/>
+      <c r="J6" s="193"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -17647,10 +17693,10 @@
       <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="197"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="64">
         <v>582.29</v>
       </c>
@@ -17666,10 +17712,10 @@
       <c r="G7" s="69">
         <v>697.94399999999996</v>
       </c>
-      <c r="I7" s="196" t="s">
+      <c r="I7" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="197"/>
+      <c r="J7" s="195"/>
       <c r="K7" s="64">
         <v>7174.12</v>
       </c>
@@ -17687,8 +17733,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="64">
         <v>580.86699999999996</v>
       </c>
@@ -17704,8 +17750,8 @@
       <c r="G8" s="69">
         <v>712.18100000000004</v>
       </c>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="195"/>
       <c r="K8" s="64">
         <v>6883.99</v>
       </c>
@@ -17723,8 +17769,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
-      <c r="B9" s="197"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="64">
         <v>580.44200000000001</v>
       </c>
@@ -17740,8 +17786,8 @@
       <c r="G9" s="69">
         <v>707.85199999999998</v>
       </c>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="195"/>
       <c r="K9" s="64">
         <v>6875.02</v>
       </c>
@@ -17759,10 +17805,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="180"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -17783,10 +17829,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="179" t="s">
+      <c r="I10" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="180"/>
+      <c r="J10" s="197"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -17809,10 +17855,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="182"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -17833,10 +17879,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="181" t="s">
+      <c r="I11" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="182"/>
+      <c r="J11" s="178"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -17859,66 +17905,66 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="183" t="s">
+      <c r="A12" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="184"/>
-      <c r="C12" s="185" t="s">
+      <c r="B12" s="182"/>
+      <c r="C12" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="187"/>
-      <c r="I12" s="183" t="s">
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="185"/>
+      <c r="I12" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="184"/>
-      <c r="K12" s="185" t="s">
+      <c r="J12" s="182"/>
+      <c r="K12" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="186"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="187"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="185"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="183"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="190"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="190"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="188"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="188"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="183"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="193"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="192"/>
-      <c r="O14" s="193"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="191"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="191"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="182"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -17939,10 +17985,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="181" t="s">
+      <c r="I15" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="182"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -17965,15 +18011,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="198"/>
-      <c r="B16" s="199"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -18067,10 +18113,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="45"/>
-      <c r="I26" s="194" t="s">
+      <c r="I26" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="195"/>
+      <c r="J26" s="193"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -18078,10 +18124,10 @@
       <c r="O26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="196" t="s">
+      <c r="A27" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="197"/>
+      <c r="B27" s="195"/>
       <c r="C27" s="64">
         <v>539.41</v>
       </c>
@@ -18097,10 +18143,10 @@
       <c r="G27" s="69">
         <v>666.495</v>
       </c>
-      <c r="I27" s="196" t="s">
+      <c r="I27" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="197"/>
+      <c r="J27" s="195"/>
       <c r="K27" s="64">
         <v>6627.48</v>
       </c>
@@ -18118,8 +18164,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="196"/>
-      <c r="B28" s="197"/>
+      <c r="A28" s="194"/>
+      <c r="B28" s="195"/>
       <c r="C28" s="64">
         <v>545.24800000000005</v>
       </c>
@@ -18135,8 +18181,8 @@
       <c r="G28" s="69">
         <v>659.37800000000004</v>
       </c>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="195"/>
       <c r="K28" s="64">
         <v>6664.87</v>
       </c>
@@ -18154,8 +18200,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="196"/>
-      <c r="B29" s="197"/>
+      <c r="A29" s="194"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="64">
         <v>547.53399999999999</v>
       </c>
@@ -18171,8 +18217,8 @@
       <c r="G29" s="69">
         <v>666.62099999999998</v>
       </c>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="195"/>
       <c r="K29" s="64">
         <v>6635.9</v>
       </c>
@@ -18190,10 +18236,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="180"/>
+      <c r="B30" s="197"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -18214,10 +18260,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="179" t="s">
+      <c r="I30" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="180"/>
+      <c r="J30" s="197"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -18240,10 +18286,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="182"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -18264,10 +18310,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="181" t="s">
+      <c r="I31" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="182"/>
+      <c r="J31" s="178"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -18290,66 +18336,66 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="183" t="s">
+      <c r="A32" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="184"/>
-      <c r="C32" s="185" t="s">
+      <c r="B32" s="182"/>
+      <c r="C32" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="187"/>
-      <c r="I32" s="183" t="s">
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="185"/>
+      <c r="I32" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="184"/>
-      <c r="K32" s="185" t="s">
+      <c r="J32" s="182"/>
+      <c r="K32" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="187"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="185"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="190"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="189"/>
-      <c r="M33" s="189"/>
-      <c r="N33" s="189"/>
-      <c r="O33" s="190"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="188"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="183"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="193"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="193"/>
+      <c r="A34" s="181"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="191"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="191"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="181" t="s">
+      <c r="A35" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="182"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -18370,10 +18416,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="181" t="s">
+      <c r="I35" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="182"/>
+      <c r="J35" s="178"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -18396,15 +18442,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="198"/>
-      <c r="B36" s="199"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -18498,10 +18544,10 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="45"/>
-      <c r="I46" s="194" t="s">
+      <c r="I46" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="195"/>
+      <c r="J46" s="193"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -18509,10 +18555,10 @@
       <c r="O46" s="45"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="196" t="s">
+      <c r="A47" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="197"/>
+      <c r="B47" s="195"/>
       <c r="C47" s="64">
         <v>637.39400000000001</v>
       </c>
@@ -18528,10 +18574,10 @@
       <c r="G47" s="69">
         <v>584.47400000000005</v>
       </c>
-      <c r="I47" s="196" t="s">
+      <c r="I47" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="197"/>
+      <c r="J47" s="195"/>
       <c r="K47" s="64">
         <v>6106.13</v>
       </c>
@@ -18549,8 +18595,8 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="196"/>
-      <c r="B48" s="197"/>
+      <c r="A48" s="194"/>
+      <c r="B48" s="195"/>
       <c r="C48" s="64">
         <v>645.43299999999999</v>
       </c>
@@ -18566,8 +18612,8 @@
       <c r="G48" s="69">
         <v>583.87900000000002</v>
       </c>
-      <c r="I48" s="196"/>
-      <c r="J48" s="197"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="195"/>
       <c r="K48" s="64">
         <v>6146.53</v>
       </c>
@@ -18585,8 +18631,8 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="196"/>
-      <c r="B49" s="197"/>
+      <c r="A49" s="194"/>
+      <c r="B49" s="195"/>
       <c r="C49" s="64">
         <v>631.678</v>
       </c>
@@ -18602,8 +18648,8 @@
       <c r="G49" s="69">
         <v>593.36300000000006</v>
       </c>
-      <c r="I49" s="196"/>
-      <c r="J49" s="197"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="195"/>
       <c r="K49" s="64">
         <v>6143.9</v>
       </c>
@@ -18621,10 +18667,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="180"/>
+      <c r="B50" s="197"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -18645,10 +18691,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="179" t="s">
+      <c r="I50" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="180"/>
+      <c r="J50" s="197"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -18671,10 +18717,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="181" t="s">
+      <c r="A51" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="182"/>
+      <c r="B51" s="178"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -18695,10 +18741,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="181" t="s">
+      <c r="I51" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="182"/>
+      <c r="J51" s="178"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -18721,66 +18767,66 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="183" t="s">
+      <c r="A52" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="184"/>
-      <c r="C52" s="185" t="s">
+      <c r="B52" s="182"/>
+      <c r="C52" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="187"/>
-      <c r="I52" s="183" t="s">
+      <c r="D52" s="184"/>
+      <c r="E52" s="184"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="185"/>
+      <c r="I52" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="184"/>
-      <c r="K52" s="185" t="s">
+      <c r="J52" s="182"/>
+      <c r="K52" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="186"/>
-      <c r="M52" s="186"/>
-      <c r="N52" s="186"/>
-      <c r="O52" s="187"/>
+      <c r="L52" s="184"/>
+      <c r="M52" s="184"/>
+      <c r="N52" s="184"/>
+      <c r="O52" s="185"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="183"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="189"/>
-      <c r="E53" s="189"/>
-      <c r="F53" s="189"/>
-      <c r="G53" s="190"/>
-      <c r="I53" s="183"/>
-      <c r="J53" s="184"/>
-      <c r="K53" s="188"/>
-      <c r="L53" s="189"/>
-      <c r="M53" s="189"/>
-      <c r="N53" s="189"/>
-      <c r="O53" s="190"/>
+      <c r="A53" s="181"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="188"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="186"/>
+      <c r="L53" s="187"/>
+      <c r="M53" s="187"/>
+      <c r="N53" s="187"/>
+      <c r="O53" s="188"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="183"/>
-      <c r="B54" s="184"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="192"/>
-      <c r="E54" s="192"/>
-      <c r="F54" s="192"/>
-      <c r="G54" s="193"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="184"/>
-      <c r="K54" s="191"/>
-      <c r="L54" s="192"/>
-      <c r="M54" s="192"/>
-      <c r="N54" s="192"/>
-      <c r="O54" s="193"/>
+      <c r="A54" s="181"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="189"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="191"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="189"/>
+      <c r="L54" s="190"/>
+      <c r="M54" s="190"/>
+      <c r="N54" s="190"/>
+      <c r="O54" s="191"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="181" t="s">
+      <c r="A55" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="182"/>
+      <c r="B55" s="178"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -18801,10 +18847,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="181" t="s">
+      <c r="I55" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="182"/>
+      <c r="J55" s="178"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -18827,15 +18873,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="198"/>
-      <c r="B56" s="199"/>
+      <c r="A56" s="179"/>
+      <c r="B56" s="180"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="198"/>
-      <c r="J56" s="199"/>
+      <c r="I56" s="179"/>
+      <c r="J56" s="180"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -18929,10 +18975,10 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="45"/>
-      <c r="I66" s="194" t="s">
+      <c r="I66" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J66" s="195"/>
+      <c r="J66" s="193"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -18940,10 +18986,10 @@
       <c r="O66" s="45"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="196" t="s">
+      <c r="A67" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="197"/>
+      <c r="B67" s="195"/>
       <c r="C67" s="99">
         <v>744.72299999999996</v>
       </c>
@@ -18959,10 +19005,10 @@
       <c r="G67" s="100">
         <v>757.41099999999994</v>
       </c>
-      <c r="I67" s="196" t="s">
+      <c r="I67" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="197"/>
+      <c r="J67" s="195"/>
       <c r="K67" s="64">
         <v>6119.24</v>
       </c>
@@ -18980,8 +19026,8 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="196"/>
-      <c r="B68" s="197"/>
+      <c r="A68" s="194"/>
+      <c r="B68" s="195"/>
       <c r="C68" s="99">
         <v>744.39499999999998</v>
       </c>
@@ -18997,8 +19043,8 @@
       <c r="G68" s="100">
         <v>754.50900000000001</v>
       </c>
-      <c r="I68" s="196"/>
-      <c r="J68" s="197"/>
+      <c r="I68" s="194"/>
+      <c r="J68" s="195"/>
       <c r="K68" s="64">
         <v>6137.4</v>
       </c>
@@ -19016,8 +19062,8 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="196"/>
-      <c r="B69" s="197"/>
+      <c r="A69" s="194"/>
+      <c r="B69" s="195"/>
       <c r="C69" s="99">
         <v>746.53800000000001</v>
       </c>
@@ -19033,8 +19079,8 @@
       <c r="G69" s="100">
         <v>749.27</v>
       </c>
-      <c r="I69" s="196"/>
-      <c r="J69" s="197"/>
+      <c r="I69" s="194"/>
+      <c r="J69" s="195"/>
       <c r="K69" s="64">
         <v>6116.48</v>
       </c>
@@ -19052,10 +19098,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="179" t="s">
+      <c r="A70" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="180"/>
+      <c r="B70" s="197"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -19076,10 +19122,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="179" t="s">
+      <c r="I70" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="180"/>
+      <c r="J70" s="197"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -19102,10 +19148,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="181" t="s">
+      <c r="A71" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="182"/>
+      <c r="B71" s="178"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -19126,10 +19172,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="181" t="s">
+      <c r="I71" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="182"/>
+      <c r="J71" s="178"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -19152,66 +19198,66 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="183" t="s">
+      <c r="A72" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="184"/>
-      <c r="C72" s="185" t="s">
+      <c r="B72" s="182"/>
+      <c r="C72" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="186"/>
-      <c r="E72" s="186"/>
-      <c r="F72" s="186"/>
-      <c r="G72" s="187"/>
-      <c r="I72" s="183" t="s">
+      <c r="D72" s="184"/>
+      <c r="E72" s="184"/>
+      <c r="F72" s="184"/>
+      <c r="G72" s="185"/>
+      <c r="I72" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="184"/>
-      <c r="K72" s="185" t="s">
+      <c r="J72" s="182"/>
+      <c r="K72" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="186"/>
-      <c r="M72" s="186"/>
-      <c r="N72" s="186"/>
-      <c r="O72" s="187"/>
+      <c r="L72" s="184"/>
+      <c r="M72" s="184"/>
+      <c r="N72" s="184"/>
+      <c r="O72" s="185"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="183"/>
-      <c r="B73" s="184"/>
-      <c r="C73" s="188"/>
-      <c r="D73" s="189"/>
-      <c r="E73" s="189"/>
-      <c r="F73" s="189"/>
-      <c r="G73" s="190"/>
-      <c r="I73" s="183"/>
-      <c r="J73" s="184"/>
-      <c r="K73" s="188"/>
-      <c r="L73" s="189"/>
-      <c r="M73" s="189"/>
-      <c r="N73" s="189"/>
-      <c r="O73" s="190"/>
+      <c r="A73" s="181"/>
+      <c r="B73" s="182"/>
+      <c r="C73" s="186"/>
+      <c r="D73" s="187"/>
+      <c r="E73" s="187"/>
+      <c r="F73" s="187"/>
+      <c r="G73" s="188"/>
+      <c r="I73" s="181"/>
+      <c r="J73" s="182"/>
+      <c r="K73" s="186"/>
+      <c r="L73" s="187"/>
+      <c r="M73" s="187"/>
+      <c r="N73" s="187"/>
+      <c r="O73" s="188"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="183"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="191"/>
-      <c r="D74" s="192"/>
-      <c r="E74" s="192"/>
-      <c r="F74" s="192"/>
-      <c r="G74" s="193"/>
-      <c r="I74" s="183"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="191"/>
-      <c r="L74" s="192"/>
-      <c r="M74" s="192"/>
-      <c r="N74" s="192"/>
-      <c r="O74" s="193"/>
+      <c r="A74" s="181"/>
+      <c r="B74" s="182"/>
+      <c r="C74" s="189"/>
+      <c r="D74" s="190"/>
+      <c r="E74" s="190"/>
+      <c r="F74" s="190"/>
+      <c r="G74" s="191"/>
+      <c r="I74" s="181"/>
+      <c r="J74" s="182"/>
+      <c r="K74" s="189"/>
+      <c r="L74" s="190"/>
+      <c r="M74" s="190"/>
+      <c r="N74" s="190"/>
+      <c r="O74" s="191"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="181" t="s">
+      <c r="A75" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="182"/>
+      <c r="B75" s="178"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -19232,10 +19278,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="181" t="s">
+      <c r="I75" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="182"/>
+      <c r="J75" s="178"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -19258,15 +19304,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="198"/>
-      <c r="B76" s="199"/>
+      <c r="A76" s="179"/>
+      <c r="B76" s="180"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="198"/>
-      <c r="J76" s="199"/>
+      <c r="I76" s="179"/>
+      <c r="J76" s="180"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -19360,10 +19406,10 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="45"/>
-      <c r="I86" s="194" t="s">
+      <c r="I86" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="J86" s="195"/>
+      <c r="J86" s="193"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -19371,10 +19417,10 @@
       <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="196" t="s">
+      <c r="A87" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="197"/>
+      <c r="B87" s="195"/>
       <c r="C87" s="64">
         <v>1539.08</v>
       </c>
@@ -19390,10 +19436,10 @@
       <c r="G87" s="69">
         <v>1261.68</v>
       </c>
-      <c r="I87" s="196" t="s">
+      <c r="I87" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J87" s="197"/>
+      <c r="J87" s="195"/>
       <c r="K87" s="64">
         <v>10604.7</v>
       </c>
@@ -19411,8 +19457,8 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="196"/>
-      <c r="B88" s="197"/>
+      <c r="A88" s="194"/>
+      <c r="B88" s="195"/>
       <c r="C88" s="64">
         <v>1630.5</v>
       </c>
@@ -19428,8 +19474,8 @@
       <c r="G88" s="69">
         <v>1334.83</v>
       </c>
-      <c r="I88" s="196"/>
-      <c r="J88" s="197"/>
+      <c r="I88" s="194"/>
+      <c r="J88" s="195"/>
       <c r="K88" s="64">
         <v>10929.6</v>
       </c>
@@ -19447,8 +19493,8 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="196"/>
-      <c r="B89" s="197"/>
+      <c r="A89" s="194"/>
+      <c r="B89" s="195"/>
       <c r="C89" s="64">
         <v>1596.17</v>
       </c>
@@ -19464,8 +19510,8 @@
       <c r="G89" s="69">
         <v>1249.71</v>
       </c>
-      <c r="I89" s="196"/>
-      <c r="J89" s="197"/>
+      <c r="I89" s="194"/>
+      <c r="J89" s="195"/>
       <c r="K89" s="64">
         <v>10662.1</v>
       </c>
@@ -19483,10 +19529,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="179" t="s">
+      <c r="A90" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="180"/>
+      <c r="B90" s="197"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -19507,10 +19553,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="179" t="s">
+      <c r="I90" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="180"/>
+      <c r="J90" s="197"/>
       <c r="K90" s="64">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -19533,10 +19579,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="181" t="s">
+      <c r="A91" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="182"/>
+      <c r="B91" s="178"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -19557,10 +19603,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="181" t="s">
+      <c r="I91" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="182"/>
+      <c r="J91" s="178"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -19583,66 +19629,66 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="183" t="s">
+      <c r="A92" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="184"/>
-      <c r="C92" s="185" t="s">
+      <c r="B92" s="182"/>
+      <c r="C92" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="186"/>
-      <c r="E92" s="186"/>
-      <c r="F92" s="186"/>
-      <c r="G92" s="187"/>
-      <c r="I92" s="183" t="s">
+      <c r="D92" s="184"/>
+      <c r="E92" s="184"/>
+      <c r="F92" s="184"/>
+      <c r="G92" s="185"/>
+      <c r="I92" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="184"/>
-      <c r="K92" s="185" t="s">
+      <c r="J92" s="182"/>
+      <c r="K92" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="L92" s="186"/>
-      <c r="M92" s="186"/>
-      <c r="N92" s="186"/>
-      <c r="O92" s="187"/>
+      <c r="L92" s="184"/>
+      <c r="M92" s="184"/>
+      <c r="N92" s="184"/>
+      <c r="O92" s="185"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="183"/>
-      <c r="B93" s="184"/>
-      <c r="C93" s="188"/>
-      <c r="D93" s="189"/>
-      <c r="E93" s="189"/>
-      <c r="F93" s="189"/>
-      <c r="G93" s="190"/>
-      <c r="I93" s="183"/>
-      <c r="J93" s="184"/>
-      <c r="K93" s="188"/>
-      <c r="L93" s="189"/>
-      <c r="M93" s="189"/>
-      <c r="N93" s="189"/>
-      <c r="O93" s="190"/>
+      <c r="A93" s="181"/>
+      <c r="B93" s="182"/>
+      <c r="C93" s="186"/>
+      <c r="D93" s="187"/>
+      <c r="E93" s="187"/>
+      <c r="F93" s="187"/>
+      <c r="G93" s="188"/>
+      <c r="I93" s="181"/>
+      <c r="J93" s="182"/>
+      <c r="K93" s="186"/>
+      <c r="L93" s="187"/>
+      <c r="M93" s="187"/>
+      <c r="N93" s="187"/>
+      <c r="O93" s="188"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="183"/>
-      <c r="B94" s="184"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="192"/>
-      <c r="E94" s="192"/>
-      <c r="F94" s="192"/>
-      <c r="G94" s="193"/>
-      <c r="I94" s="183"/>
-      <c r="J94" s="184"/>
-      <c r="K94" s="191"/>
-      <c r="L94" s="192"/>
-      <c r="M94" s="192"/>
-      <c r="N94" s="192"/>
-      <c r="O94" s="193"/>
+      <c r="A94" s="181"/>
+      <c r="B94" s="182"/>
+      <c r="C94" s="189"/>
+      <c r="D94" s="190"/>
+      <c r="E94" s="190"/>
+      <c r="F94" s="190"/>
+      <c r="G94" s="191"/>
+      <c r="I94" s="181"/>
+      <c r="J94" s="182"/>
+      <c r="K94" s="189"/>
+      <c r="L94" s="190"/>
+      <c r="M94" s="190"/>
+      <c r="N94" s="190"/>
+      <c r="O94" s="191"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="181" t="s">
+      <c r="A95" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="182"/>
+      <c r="B95" s="178"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -19663,10 +19709,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="181" t="s">
+      <c r="I95" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="182"/>
+      <c r="J95" s="178"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -19689,15 +19735,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="198"/>
-      <c r="B96" s="199"/>
+      <c r="A96" s="179"/>
+      <c r="B96" s="180"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="198"/>
-      <c r="J96" s="199"/>
+      <c r="I96" s="179"/>
+      <c r="J96" s="180"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -19708,48 +19754,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -19762,27 +19787,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E317E-43D3-4FB2-A0AD-6949391033C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CD9A72-55ED-49A6-AEC2-CB399584D54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="730" activeTab="1" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -1156,6 +1156,33 @@
     <xf numFmtId="4" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1192,32 +1219,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1231,26 +1240,17 @@
     <xf numFmtId="4" fontId="7" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,14 +1297,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1314,6 +1311,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,35 +1672,35 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="189" t="s">
+      <c r="F1" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="189" t="s">
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="191"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="200"/>
       <c r="P1" s="50"/>
-      <c r="Q1" s="189" t="s">
+      <c r="Q1" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="189" t="s">
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="200"/>
       <c r="AA1" s="169"/>
       <c r="AB1" s="169"/>
       <c r="AC1" s="169"/>
@@ -1725,51 +1725,51 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="192" t="s">
+      <c r="F2" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="194" t="s">
+      <c r="G2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="194" t="s">
+      <c r="H2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="194" t="s">
+      <c r="I2" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="196" t="s">
+      <c r="J2" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="198" t="s">
+      <c r="K2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="200"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="192" t="s">
+      <c r="Q2" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="194" t="s">
+      <c r="R2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="194" t="s">
+      <c r="S2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="194" t="s">
+      <c r="T2" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="196" t="s">
+      <c r="U2" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="198" t="s">
+      <c r="V2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
       <c r="AA2" s="170"/>
       <c r="AB2" s="170"/>
       <c r="AC2" s="170"/>
@@ -1802,11 +1802,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="197"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="206"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1823,11 +1823,11 @@
         <v>19</v>
       </c>
       <c r="P3" s="17"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="197"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="206"/>
       <c r="V3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2730,34 +2730,34 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="204" t="s">
+      <c r="F14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="205"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="204" t="s">
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="205"/>
-      <c r="M14" s="205"/>
-      <c r="N14" s="205"/>
-      <c r="O14" s="206"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="191"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="204" t="s">
+      <c r="Q14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="205"/>
-      <c r="S14" s="205"/>
-      <c r="T14" s="205"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="190"/>
       <c r="U14" s="172"/>
-      <c r="V14" s="204" t="s">
+      <c r="V14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="W14" s="205"/>
-      <c r="X14" s="205"/>
-      <c r="Y14" s="205"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="190"/>
       <c r="Z14" s="172"/>
       <c r="AA14" s="51"/>
       <c r="AB14" s="51"/>
@@ -3531,31 +3531,31 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="204" t="s">
+      <c r="F26" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="204" t="s">
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="206"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="191"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="207"/>
-      <c r="R26" s="208"/>
-      <c r="S26" s="208"/>
-      <c r="T26" s="208"/>
-      <c r="U26" s="209"/>
-      <c r="V26" s="207"/>
-      <c r="W26" s="208"/>
-      <c r="X26" s="208"/>
-      <c r="Y26" s="208"/>
-      <c r="Z26" s="209"/>
+      <c r="Q26" s="195"/>
+      <c r="R26" s="196"/>
+      <c r="S26" s="196"/>
+      <c r="T26" s="196"/>
+      <c r="U26" s="197"/>
+      <c r="V26" s="195"/>
+      <c r="W26" s="196"/>
+      <c r="X26" s="196"/>
+      <c r="Y26" s="196"/>
+      <c r="Z26" s="197"/>
       <c r="AA26" s="51"/>
       <c r="AB26" s="51"/>
       <c r="AC26" s="51"/>
@@ -4328,31 +4328,31 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="204" t="s">
+      <c r="F38" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="206"/>
-      <c r="K38" s="204" t="s">
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="205"/>
-      <c r="M38" s="205"/>
-      <c r="N38" s="205"/>
-      <c r="O38" s="206"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="190"/>
+      <c r="O38" s="191"/>
       <c r="P38" s="34"/>
-      <c r="Q38" s="207"/>
-      <c r="R38" s="208"/>
-      <c r="S38" s="208"/>
-      <c r="T38" s="208"/>
-      <c r="U38" s="209"/>
-      <c r="V38" s="207"/>
-      <c r="W38" s="208"/>
-      <c r="X38" s="208"/>
-      <c r="Y38" s="208"/>
-      <c r="Z38" s="209"/>
+      <c r="Q38" s="195"/>
+      <c r="R38" s="196"/>
+      <c r="S38" s="196"/>
+      <c r="T38" s="196"/>
+      <c r="U38" s="197"/>
+      <c r="V38" s="195"/>
+      <c r="W38" s="196"/>
+      <c r="X38" s="196"/>
+      <c r="Y38" s="196"/>
+      <c r="Z38" s="197"/>
       <c r="AA38" s="51"/>
       <c r="AB38" s="51"/>
       <c r="AC38" s="51"/>
@@ -5125,31 +5125,31 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="204" t="s">
+      <c r="F50" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="205"/>
-      <c r="H50" s="205"/>
-      <c r="I50" s="205"/>
-      <c r="J50" s="206"/>
-      <c r="K50" s="204" t="s">
+      <c r="G50" s="190"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="205"/>
-      <c r="M50" s="205"/>
-      <c r="N50" s="205"/>
-      <c r="O50" s="206"/>
+      <c r="L50" s="190"/>
+      <c r="M50" s="190"/>
+      <c r="N50" s="190"/>
+      <c r="O50" s="191"/>
       <c r="P50" s="34"/>
-      <c r="Q50" s="207"/>
-      <c r="R50" s="208"/>
-      <c r="S50" s="208"/>
-      <c r="T50" s="208"/>
-      <c r="U50" s="209"/>
-      <c r="V50" s="207"/>
-      <c r="W50" s="208"/>
-      <c r="X50" s="208"/>
-      <c r="Y50" s="208"/>
-      <c r="Z50" s="209"/>
+      <c r="Q50" s="195"/>
+      <c r="R50" s="196"/>
+      <c r="S50" s="196"/>
+      <c r="T50" s="196"/>
+      <c r="U50" s="197"/>
+      <c r="V50" s="195"/>
+      <c r="W50" s="196"/>
+      <c r="X50" s="196"/>
+      <c r="Y50" s="196"/>
+      <c r="Z50" s="197"/>
       <c r="AA50" s="51"/>
       <c r="AB50" s="51"/>
       <c r="AC50" s="51"/>
@@ -6059,22 +6059,22 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="201"/>
-      <c r="G82" s="202"/>
-      <c r="H82" s="202"/>
-      <c r="I82" s="202"/>
-      <c r="J82" s="203"/>
+      <c r="F82" s="192"/>
+      <c r="G82" s="193"/>
+      <c r="H82" s="193"/>
+      <c r="I82" s="193"/>
+      <c r="J82" s="194"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
       <c r="N82" s="81"/>
       <c r="O82" s="61"/>
       <c r="P82" s="88"/>
-      <c r="Q82" s="201"/>
-      <c r="R82" s="202"/>
-      <c r="S82" s="202"/>
-      <c r="T82" s="202"/>
-      <c r="U82" s="203"/>
+      <c r="Q82" s="192"/>
+      <c r="R82" s="193"/>
+      <c r="S82" s="193"/>
+      <c r="T82" s="193"/>
+      <c r="U82" s="194"/>
       <c r="V82" s="62"/>
       <c r="W82" s="81"/>
       <c r="X82" s="81"/>
@@ -7823,16 +7823,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="Q82:U82"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="V38:Z38"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:O2"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
@@ -7849,14 +7847,16 @@
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="K50:O50"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="Q82:U82"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:Z50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7868,8 +7868,8 @@
   <dimension ref="A1:BS318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS7" sqref="AS7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7909,63 +7909,63 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="215"/>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="214" t="s">
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="212"/>
+      <c r="X1" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="215"/>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="215"/>
-      <c r="AD1" s="215"/>
-      <c r="AE1" s="215"/>
-      <c r="AF1" s="215"/>
-      <c r="AG1" s="215"/>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="215"/>
-      <c r="AJ1" s="215"/>
-      <c r="AK1" s="215"/>
-      <c r="AL1" s="215"/>
-      <c r="AM1" s="215"/>
-      <c r="AN1" s="215"/>
-      <c r="AO1" s="216"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="211"/>
+      <c r="AH1" s="211"/>
+      <c r="AI1" s="211"/>
+      <c r="AJ1" s="211"/>
+      <c r="AK1" s="211"/>
+      <c r="AL1" s="211"/>
+      <c r="AM1" s="211"/>
+      <c r="AN1" s="211"/>
+      <c r="AO1" s="212"/>
       <c r="AP1" s="50"/>
-      <c r="AQ1" s="214" t="s">
+      <c r="AQ1" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="215"/>
-      <c r="AS1" s="215"/>
-      <c r="AT1" s="215"/>
-      <c r="AU1" s="215"/>
-      <c r="AV1" s="215"/>
-      <c r="AW1" s="215"/>
-      <c r="AX1" s="215"/>
-      <c r="AY1" s="215"/>
-      <c r="AZ1" s="215"/>
-      <c r="BA1" s="215"/>
-      <c r="BB1" s="215"/>
-      <c r="BC1" s="215"/>
-      <c r="BD1" s="216"/>
+      <c r="AR1" s="211"/>
+      <c r="AS1" s="211"/>
+      <c r="AT1" s="211"/>
+      <c r="AU1" s="211"/>
+      <c r="AV1" s="211"/>
+      <c r="AW1" s="211"/>
+      <c r="AX1" s="211"/>
+      <c r="AY1" s="211"/>
+      <c r="AZ1" s="211"/>
+      <c r="BA1" s="211"/>
+      <c r="BB1" s="211"/>
+      <c r="BC1" s="211"/>
+      <c r="BD1" s="212"/>
       <c r="BE1" s="176"/>
       <c r="BF1" s="176"/>
       <c r="BG1" s="176"/>
@@ -7988,79 +7988,79 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="189" t="s">
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="189" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="189" t="s">
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="198" t="s">
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="189" t="s">
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="191"/>
-      <c r="AH2" s="189" t="s">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="190"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="191"/>
-      <c r="AL2" s="189" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="190"/>
-      <c r="AN2" s="190"/>
-      <c r="AO2" s="191"/>
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
       <c r="AP2" s="13"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AQ2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="199"/>
-      <c r="AU2" s="200"/>
-      <c r="AV2" s="189" t="s">
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="208"/>
+      <c r="AT2" s="208"/>
+      <c r="AU2" s="209"/>
+      <c r="AV2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="190"/>
-      <c r="AX2" s="190"/>
-      <c r="AY2" s="190"/>
-      <c r="AZ2" s="191"/>
-      <c r="BA2" s="189" t="s">
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="199"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="200"/>
+      <c r="BA2" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="BB2" s="190"/>
-      <c r="BC2" s="190"/>
-      <c r="BD2" s="191"/>
+      <c r="BB2" s="199"/>
+      <c r="BC2" s="199"/>
+      <c r="BD2" s="200"/>
       <c r="BE2" s="170"/>
       <c r="BF2" s="170"/>
       <c r="BG2" s="170"/>
@@ -8721,20 +8721,44 @@
         <v>3400.52</v>
       </c>
       <c r="AP6" s="63"/>
-      <c r="AQ6" s="136"/>
-      <c r="AR6" s="137"/>
-      <c r="AS6" s="137"/>
-      <c r="AT6" s="138"/>
+      <c r="AQ6" s="136">
+        <v>26530.400000000001</v>
+      </c>
+      <c r="AR6" s="137">
+        <v>1027.0999999999999</v>
+      </c>
+      <c r="AS6" s="137">
+        <v>1027.0999999999999</v>
+      </c>
+      <c r="AT6" s="138">
+        <v>1459.25</v>
+      </c>
       <c r="AU6" s="139"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="138"/>
-      <c r="AX6" s="138"/>
-      <c r="AY6" s="138"/>
+      <c r="AV6" s="140">
+        <v>26076.6</v>
+      </c>
+      <c r="AW6" s="138">
+        <v>971.18600000000004</v>
+      </c>
+      <c r="AX6" s="138">
+        <v>971.19299999999998</v>
+      </c>
+      <c r="AY6" s="138">
+        <v>1306.79</v>
+      </c>
       <c r="AZ6" s="139"/>
-      <c r="BA6" s="140"/>
-      <c r="BB6" s="138"/>
-      <c r="BC6" s="138"/>
-      <c r="BD6" s="141"/>
+      <c r="BA6" s="140">
+        <v>190012</v>
+      </c>
+      <c r="BB6" s="138">
+        <v>1161.97</v>
+      </c>
+      <c r="BC6" s="138">
+        <v>1228.8399999999999</v>
+      </c>
+      <c r="BD6" s="141">
+        <v>1622.05</v>
+      </c>
       <c r="BE6" s="146"/>
       <c r="BF6" s="146"/>
       <c r="BG6" s="146"/>
@@ -8868,20 +8892,44 @@
       <c r="AP7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="102"/>
-      <c r="AS7" s="102"/>
-      <c r="AT7" s="52"/>
+      <c r="AQ7" s="101">
+        <v>24.702200000000001</v>
+      </c>
+      <c r="AR7" s="102">
+        <v>638.07000000000005</v>
+      </c>
+      <c r="AS7" s="102">
+        <v>638.06799999999998</v>
+      </c>
+      <c r="AT7" s="52">
+        <v>449.10599999999999</v>
+      </c>
       <c r="AU7" s="121"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="52"/>
-      <c r="AX7" s="52"/>
-      <c r="AY7" s="52"/>
+      <c r="AV7" s="54">
+        <v>25.132100000000001</v>
+      </c>
+      <c r="AW7" s="52">
+        <v>674.80399999999997</v>
+      </c>
+      <c r="AX7" s="52">
+        <v>674.79899999999998</v>
+      </c>
+      <c r="AY7" s="52">
+        <v>501.50400000000002</v>
+      </c>
       <c r="AZ7" s="121"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="52"/>
-      <c r="BC7" s="52"/>
-      <c r="BD7" s="53"/>
+      <c r="BA7" s="54">
+        <v>3.4490400000000001</v>
+      </c>
+      <c r="BB7" s="52">
+        <v>564.01</v>
+      </c>
+      <c r="BC7" s="52">
+        <v>533.31399999999996</v>
+      </c>
+      <c r="BD7" s="53">
+        <v>404.03</v>
+      </c>
       <c r="BE7" s="89"/>
       <c r="BF7" s="89"/>
       <c r="BG7" s="89"/>
@@ -8912,24 +8960,60 @@
         <v>163840000</v>
       </c>
       <c r="E8" s="63"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="142"/>
+      <c r="F8" s="136">
+        <v>43440.5</v>
+      </c>
+      <c r="G8" s="137">
+        <v>31351.8</v>
+      </c>
+      <c r="H8" s="137">
+        <v>31351.8</v>
+      </c>
+      <c r="I8" s="137">
+        <v>12819.2</v>
+      </c>
+      <c r="J8" s="137">
+        <v>220782</v>
+      </c>
+      <c r="K8" s="136">
+        <v>42182.8</v>
+      </c>
+      <c r="L8" s="137">
+        <v>31788.9</v>
+      </c>
+      <c r="M8" s="137">
+        <v>30919.7</v>
+      </c>
+      <c r="N8" s="137">
+        <v>12731.9</v>
+      </c>
+      <c r="O8" s="137">
+        <v>168544</v>
+      </c>
+      <c r="P8" s="136">
+        <v>213536</v>
+      </c>
+      <c r="Q8" s="137">
+        <v>49577.9</v>
+      </c>
+      <c r="R8" s="137">
+        <v>49974.5</v>
+      </c>
+      <c r="S8" s="137">
+        <v>11753.2</v>
+      </c>
+      <c r="T8" s="136">
+        <v>252364</v>
+      </c>
+      <c r="U8" s="137">
+        <v>51440</v>
+      </c>
+      <c r="V8" s="137">
+        <v>53969.8</v>
+      </c>
+      <c r="W8" s="142">
+        <v>12162.9</v>
+      </c>
       <c r="X8" s="136">
         <v>31235.3</v>
       </c>
@@ -9021,24 +9105,60 @@
       <c r="E9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="103"/>
+      <c r="F9" s="101">
+        <v>15.086399999999999</v>
+      </c>
+      <c r="G9" s="102">
+        <v>20.903400000000001</v>
+      </c>
+      <c r="H9" s="102">
+        <v>20.903400000000001</v>
+      </c>
+      <c r="I9" s="102">
+        <v>51.1233</v>
+      </c>
+      <c r="J9" s="102">
+        <v>2.96835</v>
+      </c>
+      <c r="K9" s="101">
+        <v>15.536199999999999</v>
+      </c>
+      <c r="L9" s="102">
+        <v>20.616</v>
+      </c>
+      <c r="M9" s="102">
+        <v>21.195599999999999</v>
+      </c>
+      <c r="N9" s="102">
+        <v>51.4739</v>
+      </c>
+      <c r="O9" s="102">
+        <v>3.88836</v>
+      </c>
+      <c r="P9" s="101">
+        <v>3.06908</v>
+      </c>
+      <c r="Q9" s="102">
+        <v>13.2188</v>
+      </c>
+      <c r="R9" s="102">
+        <v>13.113899999999999</v>
+      </c>
+      <c r="S9" s="102">
+        <v>55.760199999999998</v>
+      </c>
+      <c r="T9" s="101">
+        <v>2.5968800000000001</v>
+      </c>
+      <c r="U9" s="102">
+        <v>12.7403</v>
+      </c>
+      <c r="V9" s="102">
+        <v>12.1431</v>
+      </c>
+      <c r="W9" s="103">
+        <v>53.881900000000002</v>
+      </c>
       <c r="X9" s="101">
         <v>20.981400000000001</v>
       </c>
@@ -9703,12 +9823,12 @@
       <c r="Y14" s="148"/>
       <c r="Z14" s="148"/>
       <c r="AA14" s="139"/>
-      <c r="AB14" s="210"/>
+      <c r="AB14" s="213"/>
       <c r="AC14" s="183"/>
       <c r="AD14" s="139"/>
       <c r="AE14" s="139"/>
       <c r="AF14" s="139"/>
-      <c r="AG14" s="210"/>
+      <c r="AG14" s="213"/>
       <c r="AH14" s="183"/>
       <c r="AI14" s="139"/>
       <c r="AJ14" s="139"/>
@@ -9718,9 +9838,9 @@
       <c r="AN14" s="116"/>
       <c r="AO14" s="152"/>
       <c r="AP14" s="181"/>
-      <c r="AU14" s="212"/>
+      <c r="AU14" s="215"/>
       <c r="AV14" s="126"/>
-      <c r="AZ14" s="212"/>
+      <c r="AZ14" s="215"/>
       <c r="BA14" s="126"/>
       <c r="BD14" s="117"/>
     </row>
@@ -9752,12 +9872,12 @@
       <c r="Y15" s="120"/>
       <c r="Z15" s="120"/>
       <c r="AA15" s="121"/>
-      <c r="AB15" s="211"/>
+      <c r="AB15" s="214"/>
       <c r="AC15" s="153"/>
       <c r="AD15" s="121"/>
       <c r="AE15" s="121"/>
       <c r="AF15" s="121"/>
-      <c r="AG15" s="211"/>
+      <c r="AG15" s="214"/>
       <c r="AH15" s="153"/>
       <c r="AI15" s="121"/>
       <c r="AJ15" s="121"/>
@@ -9767,9 +9887,9 @@
       <c r="AN15" s="121"/>
       <c r="AO15" s="154"/>
       <c r="AP15" s="187"/>
-      <c r="AU15" s="213"/>
+      <c r="AU15" s="216"/>
       <c r="AV15" s="127"/>
-      <c r="AZ15" s="213"/>
+      <c r="AZ15" s="216"/>
       <c r="BA15" s="127"/>
       <c r="BD15" s="122"/>
     </row>
@@ -14074,11 +14194,11 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="201"/>
-      <c r="G82" s="202"/>
-      <c r="H82" s="202"/>
-      <c r="I82" s="202"/>
-      <c r="J82" s="203"/>
+      <c r="F82" s="192"/>
+      <c r="G82" s="193"/>
+      <c r="H82" s="193"/>
+      <c r="I82" s="193"/>
+      <c r="J82" s="194"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
@@ -17032,6 +17152,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AZ14:AZ15"/>
     <mergeCell ref="AQ1:BD1"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="F1:W1"/>
@@ -17048,9 +17171,6 @@
     <mergeCell ref="AB14:AB15"/>
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AZ14:AZ15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17293,10 +17413,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -17317,10 +17437,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -17343,10 +17463,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -17367,10 +17487,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -17449,10 +17569,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -17473,10 +17593,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -17499,15 +17619,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -17724,10 +17844,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -17748,10 +17868,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -17774,10 +17894,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -17798,10 +17918,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -17880,10 +18000,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -17904,10 +18024,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -17930,15 +18050,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -18155,10 +18275,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -18179,10 +18299,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -18205,10 +18325,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -18229,10 +18349,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -18311,10 +18431,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -18335,10 +18455,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -18361,15 +18481,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -18586,10 +18706,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -18610,10 +18730,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -18636,10 +18756,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -18660,10 +18780,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -18742,10 +18862,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -18766,10 +18886,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -18792,15 +18912,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -19017,10 +19137,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -19041,10 +19161,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -19067,10 +19187,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -19091,10 +19211,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -19173,10 +19293,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -19197,10 +19317,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -19223,15 +19343,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -19242,60 +19362,11 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -19312,11 +19383,60 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19355,15 +19475,15 @@
       <c r="D1" s="48">
         <v>128</v>
       </c>
-      <c r="G1" s="238" t="s">
+      <c r="G1" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="49" t="s">
@@ -19414,7 +19534,7 @@
       <c r="F5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="239" t="s">
+      <c r="G5" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="21"/>
@@ -19431,7 +19551,7 @@
       <c r="N5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="239" t="s">
+      <c r="O5" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19444,7 +19564,7 @@
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
-      <c r="G6" s="240"/>
+      <c r="G6" s="239"/>
       <c r="I6" s="232" t="s">
         <v>30</v>
       </c>
@@ -19453,7 +19573,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="240"/>
+      <c r="O6" s="239"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="234" t="s">
@@ -19472,7 +19592,7 @@
       <c r="F7" s="68">
         <v>327.29599999999999</v>
       </c>
-      <c r="G7" s="240"/>
+      <c r="G7" s="239"/>
       <c r="I7" s="234" t="s">
         <v>9</v>
       </c>
@@ -19489,7 +19609,7 @@
       <c r="N7" s="68">
         <v>966.87400000000002</v>
       </c>
-      <c r="O7" s="240"/>
+      <c r="O7" s="239"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="234"/>
@@ -19506,7 +19626,7 @@
       <c r="F8" s="68">
         <v>417.601</v>
       </c>
-      <c r="G8" s="240"/>
+      <c r="G8" s="239"/>
       <c r="I8" s="234"/>
       <c r="J8" s="235"/>
       <c r="K8" s="64">
@@ -19521,7 +19641,7 @@
       <c r="N8" s="68">
         <v>963.16</v>
       </c>
-      <c r="O8" s="240"/>
+      <c r="O8" s="239"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="234"/>
@@ -19538,7 +19658,7 @@
       <c r="F9" s="68">
         <v>413.22800000000001</v>
       </c>
-      <c r="G9" s="240"/>
+      <c r="G9" s="239"/>
       <c r="I9" s="234"/>
       <c r="J9" s="235"/>
       <c r="K9" s="64">
@@ -19553,13 +19673,13 @@
       <c r="N9" s="68">
         <v>968.12</v>
       </c>
-      <c r="O9" s="240"/>
+      <c r="O9" s="239"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>586.58100000000002</v>
@@ -19576,11 +19696,11 @@
         <f t="shared" si="0"/>
         <v>386.04166666666669</v>
       </c>
-      <c r="G10" s="240"/>
-      <c r="I10" s="217" t="s">
+      <c r="G10" s="239"/>
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6275.6866666666674</v>
@@ -19597,13 +19717,13 @@
         <f t="shared" si="1"/>
         <v>966.05133333333333</v>
       </c>
-      <c r="O10" s="240"/>
+      <c r="O10" s="239"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58658100000000002</v>
@@ -19620,11 +19740,11 @@
         <f t="shared" si="2"/>
         <v>0.38604166666666667</v>
       </c>
-      <c r="G11" s="241"/>
-      <c r="I11" s="219" t="s">
+      <c r="G11" s="240"/>
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.2756866666666671</v>
@@ -19641,7 +19761,7 @@
         <f t="shared" si="3"/>
         <v>0.96605133333333337</v>
       </c>
-      <c r="O11" s="241"/>
+      <c r="O11" s="240"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="221" t="s">
@@ -19700,10 +19820,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1117.2540535748685</v>
@@ -19721,10 +19841,10 @@
         <v>1697.6405828386401</v>
       </c>
       <c r="G15" s="174"/>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>104.42841314575935</v>
@@ -19744,15 +19864,15 @@
       <c r="O15" s="174"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="175"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -19815,7 +19935,7 @@
       <c r="F25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="239" t="s">
+      <c r="G25" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="21"/>
@@ -19832,7 +19952,7 @@
       <c r="N25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O25" s="239" t="s">
+      <c r="O25" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19845,7 +19965,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="240"/>
+      <c r="G26" s="239"/>
       <c r="I26" s="232" t="s">
         <v>30</v>
       </c>
@@ -19854,7 +19974,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="240"/>
+      <c r="O26" s="239"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="234" t="s">
@@ -19873,7 +19993,7 @@
       <c r="F27" s="68">
         <v>437.14299999999997</v>
       </c>
-      <c r="G27" s="240"/>
+      <c r="G27" s="239"/>
       <c r="I27" s="234" t="s">
         <v>9</v>
       </c>
@@ -19890,7 +20010,7 @@
       <c r="N27" s="68">
         <v>1041.47</v>
       </c>
-      <c r="O27" s="240"/>
+      <c r="O27" s="239"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="234"/>
@@ -19907,7 +20027,7 @@
       <c r="F28" s="68">
         <v>397.48099999999999</v>
       </c>
-      <c r="G28" s="240"/>
+      <c r="G28" s="239"/>
       <c r="I28" s="234"/>
       <c r="J28" s="235"/>
       <c r="K28" s="64">
@@ -19922,7 +20042,7 @@
       <c r="N28" s="68">
         <v>1030.71</v>
       </c>
-      <c r="O28" s="240"/>
+      <c r="O28" s="239"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="234"/>
@@ -19939,7 +20059,7 @@
       <c r="F29" s="68">
         <v>398.31400000000002</v>
       </c>
-      <c r="G29" s="240"/>
+      <c r="G29" s="239"/>
       <c r="I29" s="234"/>
       <c r="J29" s="235"/>
       <c r="K29" s="64">
@@ -19954,13 +20074,13 @@
       <c r="N29" s="68">
         <v>1035.75</v>
       </c>
-      <c r="O29" s="240"/>
+      <c r="O29" s="239"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>533.87399999999991</v>
@@ -19977,11 +20097,11 @@
         <f t="shared" si="6"/>
         <v>410.97933333333339</v>
       </c>
-      <c r="G30" s="240"/>
-      <c r="I30" s="217" t="s">
+      <c r="G30" s="239"/>
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6165.626666666667</v>
@@ -19998,13 +20118,13 @@
         <f t="shared" si="7"/>
         <v>1035.9766666666667</v>
       </c>
-      <c r="O30" s="240"/>
+      <c r="O30" s="239"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.53387399999999996</v>
@@ -20021,11 +20141,11 @@
         <f t="shared" si="8"/>
         <v>0.41097933333333336</v>
       </c>
-      <c r="G31" s="241"/>
-      <c r="I31" s="219" t="s">
+      <c r="G31" s="240"/>
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.1656266666666673</v>
@@ -20042,7 +20162,7 @@
         <f t="shared" si="9"/>
         <v>1.0359766666666668</v>
       </c>
-      <c r="O31" s="241"/>
+      <c r="O31" s="240"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="221" t="s">
@@ -20101,10 +20221,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1227.5555655454284</v>
@@ -20122,10 +20242,10 @@
         <v>1594.6300625011152</v>
       </c>
       <c r="G35" s="174"/>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>106.2925206845695</v>
@@ -20145,15 +20265,15 @@
       <c r="O35" s="174"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="175"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -20216,7 +20336,7 @@
       <c r="F45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="239" t="s">
+      <c r="G45" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I45" s="21"/>
@@ -20233,7 +20353,7 @@
       <c r="N45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="239" t="s">
+      <c r="O45" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20246,7 +20366,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="240"/>
+      <c r="G46" s="239"/>
       <c r="I46" s="232" t="s">
         <v>30</v>
       </c>
@@ -20255,7 +20375,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="240"/>
+      <c r="O46" s="239"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="234" t="s">
@@ -20274,7 +20394,7 @@
       <c r="F47" s="68">
         <v>437.28500000000003</v>
       </c>
-      <c r="G47" s="240"/>
+      <c r="G47" s="239"/>
       <c r="I47" s="234" t="s">
         <v>9</v>
       </c>
@@ -20291,7 +20411,7 @@
       <c r="N47" s="68">
         <v>1183.42</v>
       </c>
-      <c r="O47" s="240"/>
+      <c r="O47" s="239"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="234"/>
@@ -20308,7 +20428,7 @@
       <c r="F48" s="68">
         <v>417.85300000000001</v>
       </c>
-      <c r="G48" s="240"/>
+      <c r="G48" s="239"/>
       <c r="I48" s="234"/>
       <c r="J48" s="235"/>
       <c r="K48" s="64">
@@ -20323,7 +20443,7 @@
       <c r="N48" s="68">
         <v>1259.21</v>
       </c>
-      <c r="O48" s="240"/>
+      <c r="O48" s="239"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="234"/>
@@ -20340,7 +20460,7 @@
       <c r="F49" s="68">
         <v>412.06599999999997</v>
       </c>
-      <c r="G49" s="240"/>
+      <c r="G49" s="239"/>
       <c r="I49" s="234"/>
       <c r="J49" s="235"/>
       <c r="K49" s="64">
@@ -20355,13 +20475,13 @@
       <c r="N49" s="68">
         <v>1149.72</v>
       </c>
-      <c r="O49" s="240"/>
+      <c r="O49" s="239"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>563.93933333333337</v>
@@ -20378,11 +20498,11 @@
         <f t="shared" si="12"/>
         <v>422.4013333333333</v>
       </c>
-      <c r="G50" s="240"/>
-      <c r="I50" s="217" t="s">
+      <c r="G50" s="239"/>
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6146.0533333333333</v>
@@ -20399,13 +20519,13 @@
         <f t="shared" si="13"/>
         <v>1197.45</v>
       </c>
-      <c r="O50" s="240"/>
+      <c r="O50" s="239"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.56393933333333335</v>
@@ -20422,11 +20542,11 @@
         <f t="shared" si="14"/>
         <v>0.4224013333333333</v>
       </c>
-      <c r="G51" s="241"/>
-      <c r="I51" s="219" t="s">
+      <c r="G51" s="240"/>
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1460533333333336</v>
@@ -20443,7 +20563,7 @@
         <f t="shared" si="15"/>
         <v>1.1974500000000001</v>
       </c>
-      <c r="O51" s="241"/>
+      <c r="O51" s="240"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="221" t="s">
@@ -20502,10 +20622,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1162.1108180667188</v>
@@ -20523,10 +20643,10 @@
         <v>1551.5102540711678</v>
       </c>
       <c r="G55" s="174"/>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.63103042819891</v>
@@ -20546,15 +20666,15 @@
       <c r="O55" s="174"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="175"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -20617,7 +20737,7 @@
       <c r="F65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="239" t="s">
+      <c r="G65" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I65" s="21"/>
@@ -20634,7 +20754,7 @@
       <c r="N65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="239" t="s">
+      <c r="O65" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20647,7 +20767,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="240"/>
+      <c r="G66" s="239"/>
       <c r="I66" s="232" t="s">
         <v>30</v>
       </c>
@@ -20656,7 +20776,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="240"/>
+      <c r="O66" s="239"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="234" t="s">
@@ -20675,7 +20795,7 @@
       <c r="F67" s="68">
         <v>440.95</v>
       </c>
-      <c r="G67" s="240"/>
+      <c r="G67" s="239"/>
       <c r="I67" s="234" t="s">
         <v>9</v>
       </c>
@@ -20692,7 +20812,7 @@
       <c r="N67" s="68">
         <v>1420.55</v>
       </c>
-      <c r="O67" s="240"/>
+      <c r="O67" s="239"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="234"/>
@@ -20709,7 +20829,7 @@
       <c r="F68" s="68">
         <v>420.99700000000001</v>
       </c>
-      <c r="G68" s="240"/>
+      <c r="G68" s="239"/>
       <c r="I68" s="234"/>
       <c r="J68" s="235"/>
       <c r="K68" s="64">
@@ -20724,7 +20844,7 @@
       <c r="N68" s="68">
         <v>1422.21</v>
       </c>
-      <c r="O68" s="240"/>
+      <c r="O68" s="239"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="234"/>
@@ -20741,7 +20861,7 @@
       <c r="F69" s="68">
         <v>443.94799999999998</v>
       </c>
-      <c r="G69" s="240"/>
+      <c r="G69" s="239"/>
       <c r="I69" s="234"/>
       <c r="J69" s="235"/>
       <c r="K69" s="64">
@@ -20756,13 +20876,13 @@
       <c r="N69" s="68">
         <v>1410.78</v>
       </c>
-      <c r="O69" s="240"/>
+      <c r="O69" s="239"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>651.27133333333336</v>
@@ -20779,11 +20899,11 @@
         <f t="shared" si="18"/>
         <v>435.29833333333335</v>
       </c>
-      <c r="G70" s="240"/>
-      <c r="I70" s="217" t="s">
+      <c r="G70" s="239"/>
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6132.8466666666673</v>
@@ -20800,13 +20920,13 @@
         <f t="shared" si="19"/>
         <v>1417.8466666666666</v>
       </c>
-      <c r="O70" s="240"/>
+      <c r="O70" s="239"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.65127133333333331</v>
@@ -20823,11 +20943,11 @@
         <f t="shared" si="20"/>
         <v>0.43529833333333334</v>
       </c>
-      <c r="G71" s="241"/>
-      <c r="I71" s="219" t="s">
+      <c r="G71" s="240"/>
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1328466666666674</v>
@@ -20844,7 +20964,7 @@
         <f t="shared" si="21"/>
         <v>1.4178466666666665</v>
       </c>
-      <c r="O71" s="241"/>
+      <c r="O71" s="240"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="221" t="s">
@@ -20903,10 +21023,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>1006.2779773304932</v>
@@ -20924,10 +21044,10 @@
         <v>1505.5421760555021</v>
       </c>
       <c r="G75" s="174"/>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>106.86065307355909</v>
@@ -20947,15 +21067,15 @@
       <c r="O75" s="174"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="175"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -21018,7 +21138,7 @@
       <c r="F85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="239" t="s">
+      <c r="G85" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I85" s="21"/>
@@ -21035,7 +21155,7 @@
       <c r="N85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O85" s="239" t="s">
+      <c r="O85" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -21048,7 +21168,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="240"/>
+      <c r="G86" s="239"/>
       <c r="I86" s="232" t="s">
         <v>30</v>
       </c>
@@ -21057,7 +21177,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
-      <c r="O86" s="240"/>
+      <c r="O86" s="239"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="234" t="s">
@@ -21076,7 +21196,7 @@
       <c r="F87" s="68">
         <v>918.81200000000001</v>
       </c>
-      <c r="G87" s="240"/>
+      <c r="G87" s="239"/>
       <c r="I87" s="234" t="s">
         <v>9</v>
       </c>
@@ -21093,7 +21213,7 @@
       <c r="N87" s="68">
         <v>2538.4899999999998</v>
       </c>
-      <c r="O87" s="240"/>
+      <c r="O87" s="239"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="234"/>
@@ -21110,7 +21230,7 @@
       <c r="F88" s="68">
         <v>919.29399999999998</v>
       </c>
-      <c r="G88" s="240"/>
+      <c r="G88" s="239"/>
       <c r="I88" s="234"/>
       <c r="J88" s="235"/>
       <c r="K88" s="64">
@@ -21125,7 +21245,7 @@
       <c r="N88" s="68">
         <v>2575.33</v>
       </c>
-      <c r="O88" s="240"/>
+      <c r="O88" s="239"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="234"/>
@@ -21142,7 +21262,7 @@
       <c r="F89" s="68">
         <v>916.76499999999999</v>
       </c>
-      <c r="G89" s="240"/>
+      <c r="G89" s="239"/>
       <c r="I89" s="234"/>
       <c r="J89" s="235"/>
       <c r="K89" s="64">
@@ -21157,13 +21277,13 @@
       <c r="N89" s="68">
         <v>2523.56</v>
       </c>
-      <c r="O89" s="240"/>
+      <c r="O89" s="239"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1342.7166666666665</v>
@@ -21180,11 +21300,11 @@
         <f t="shared" si="24"/>
         <v>918.29033333333336</v>
       </c>
-      <c r="G90" s="240"/>
-      <c r="I90" s="217" t="s">
+      <c r="G90" s="239"/>
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>7889.706666666666</v>
@@ -21201,13 +21321,13 @@
         <f t="shared" si="25"/>
         <v>2545.7933333333331</v>
       </c>
-      <c r="O90" s="240"/>
+      <c r="O90" s="239"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.3427166666666666</v>
@@ -21224,11 +21344,11 @@
         <f t="shared" si="26"/>
         <v>0.91829033333333332</v>
       </c>
-      <c r="G91" s="241"/>
-      <c r="I91" s="219" t="s">
+      <c r="G91" s="240"/>
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>7.8897066666666662</v>
@@ -21245,7 +21365,7 @@
         <f t="shared" si="27"/>
         <v>2.5457933333333331</v>
       </c>
-      <c r="O91" s="241"/>
+      <c r="O91" s="240"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="221" t="s">
@@ -21304,10 +21424,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>488.08510110100173</v>
@@ -21325,10 +21445,10 @@
         <v>713.67407040111857</v>
       </c>
       <c r="G95" s="174"/>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>83.065192115296227</v>
@@ -21348,15 +21468,15 @@
       <c r="O95" s="174"/>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="175"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -21367,17 +21487,65 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="O5:O11"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="G45:G51"/>
-    <mergeCell ref="O45:O51"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="O65:O71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="O25:O31"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="I95:J95"/>
     <mergeCell ref="A96:B96"/>
@@ -21394,65 +21562,17 @@
     <mergeCell ref="O85:O91"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O5:O11"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="G45:G51"/>
+    <mergeCell ref="O45:O51"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="O65:O71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="O25:O31"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21695,10 +21815,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -21719,10 +21839,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -21745,10 +21865,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -21769,10 +21889,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -21851,10 +21971,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -21875,10 +21995,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -21901,15 +22021,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -22126,10 +22246,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -22150,10 +22270,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -22176,10 +22296,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -22200,10 +22320,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -22282,10 +22402,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -22306,10 +22426,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -22332,15 +22452,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -22557,10 +22677,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -22581,10 +22701,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -22607,10 +22727,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -22631,10 +22751,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -22713,10 +22833,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -22737,10 +22857,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -22763,15 +22883,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -22988,10 +23108,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -23012,10 +23132,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -23038,10 +23158,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -23062,10 +23182,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -23144,10 +23264,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -23168,10 +23288,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -23194,15 +23314,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -23419,10 +23539,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -23443,10 +23563,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="95">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -23469,10 +23589,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -23493,10 +23613,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -23575,10 +23695,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -23599,10 +23719,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -23625,15 +23745,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -23644,48 +23764,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -23698,27 +23797,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23961,10 +24081,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -23985,10 +24105,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -24011,10 +24131,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -24035,10 +24155,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -24117,10 +24237,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -24141,10 +24261,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -24167,15 +24287,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -24392,10 +24512,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -24416,10 +24536,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -24442,10 +24562,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -24466,10 +24586,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -24548,10 +24668,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -24572,10 +24692,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -24598,15 +24718,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -24823,10 +24943,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="68">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -24847,10 +24967,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -24873,10 +24993,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="70">
         <v>0.63</v>
       </c>
@@ -24892,10 +25012,10 @@
       <c r="G51" s="72">
         <v>0.65</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -24974,10 +25094,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -24998,10 +25118,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -25024,15 +25144,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -25249,10 +25369,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -25273,10 +25393,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -25299,10 +25419,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -25323,10 +25443,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -25405,10 +25525,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -25429,10 +25549,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -25455,15 +25575,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -25680,10 +25800,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -25704,10 +25824,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -25730,10 +25850,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -25754,10 +25874,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -25836,10 +25956,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -25860,10 +25980,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -25886,15 +26006,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -25905,48 +26025,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -25959,27 +26058,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26222,10 +26342,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -26246,10 +26366,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -26272,10 +26392,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -26296,10 +26416,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -26378,10 +26498,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -26402,10 +26522,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -26428,15 +26548,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -26653,10 +26773,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -26677,10 +26797,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -26703,10 +26823,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -26727,10 +26847,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -26809,10 +26929,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -26833,10 +26953,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -26859,15 +26979,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -27084,10 +27204,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -27108,10 +27228,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -27134,10 +27254,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -27158,10 +27278,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -27240,10 +27360,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -27264,10 +27384,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -27290,15 +27410,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -27515,10 +27635,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -27539,10 +27659,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -27565,10 +27685,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -27589,10 +27709,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -27671,10 +27791,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -27695,10 +27815,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -27721,15 +27841,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -27946,10 +28066,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -27970,10 +28090,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -27996,10 +28116,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -28020,10 +28140,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -28102,10 +28222,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -28126,10 +28246,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -28152,15 +28272,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -28171,48 +28291,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -28225,27 +28324,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CD9A72-55ED-49A6-AEC2-CB399584D54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7DC13D-2BC8-4C22-B969-A8F02E3EBC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="730" activeTab="1" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -1156,33 +1156,6 @@
     <xf numFmtId="4" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1219,6 +1192,39 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1234,23 +1240,17 @@
     <xf numFmtId="4" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,11 +1297,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1311,9 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,35 +1672,35 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="198" t="s">
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="200"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="191"/>
       <c r="P1" s="50"/>
-      <c r="Q1" s="198" t="s">
+      <c r="Q1" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="198" t="s">
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="200"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
       <c r="AA1" s="169"/>
       <c r="AB1" s="169"/>
       <c r="AC1" s="169"/>
@@ -1725,51 +1725,51 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="203" t="s">
+      <c r="G2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="203" t="s">
+      <c r="I2" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="205" t="s">
+      <c r="J2" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="209"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="201" t="s">
+      <c r="Q2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="203" t="s">
+      <c r="R2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="203" t="s">
+      <c r="S2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="203" t="s">
+      <c r="T2" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="205" t="s">
+      <c r="U2" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="207" t="s">
+      <c r="V2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="209"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
       <c r="AA2" s="170"/>
       <c r="AB2" s="170"/>
       <c r="AC2" s="170"/>
@@ -1802,11 +1802,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="206"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="197"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1823,11 +1823,11 @@
         <v>19</v>
       </c>
       <c r="P3" s="17"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="206"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="197"/>
       <c r="V3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2730,34 +2730,34 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="189" t="s">
+      <c r="F14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="189" t="s">
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="191"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="205"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="206"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="189" t="s">
+      <c r="Q14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="190"/>
-      <c r="S14" s="190"/>
-      <c r="T14" s="190"/>
+      <c r="R14" s="205"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="205"/>
       <c r="U14" s="172"/>
-      <c r="V14" s="189" t="s">
+      <c r="V14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="W14" s="190"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="190"/>
+      <c r="W14" s="205"/>
+      <c r="X14" s="205"/>
+      <c r="Y14" s="205"/>
       <c r="Z14" s="172"/>
       <c r="AA14" s="51"/>
       <c r="AB14" s="51"/>
@@ -3531,31 +3531,31 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="189" t="s">
+      <c r="F26" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="190"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="189" t="s">
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="190"/>
-      <c r="O26" s="191"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="206"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="195"/>
-      <c r="R26" s="196"/>
-      <c r="S26" s="196"/>
-      <c r="T26" s="196"/>
-      <c r="U26" s="197"/>
-      <c r="V26" s="195"/>
-      <c r="W26" s="196"/>
-      <c r="X26" s="196"/>
-      <c r="Y26" s="196"/>
-      <c r="Z26" s="197"/>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="208"/>
+      <c r="S26" s="208"/>
+      <c r="T26" s="208"/>
+      <c r="U26" s="209"/>
+      <c r="V26" s="207"/>
+      <c r="W26" s="208"/>
+      <c r="X26" s="208"/>
+      <c r="Y26" s="208"/>
+      <c r="Z26" s="209"/>
       <c r="AA26" s="51"/>
       <c r="AB26" s="51"/>
       <c r="AC26" s="51"/>
@@ -4328,31 +4328,31 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="189" t="s">
+      <c r="F38" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="189" t="s">
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="206"/>
+      <c r="K38" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="191"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="205"/>
+      <c r="O38" s="206"/>
       <c r="P38" s="34"/>
-      <c r="Q38" s="195"/>
-      <c r="R38" s="196"/>
-      <c r="S38" s="196"/>
-      <c r="T38" s="196"/>
-      <c r="U38" s="197"/>
-      <c r="V38" s="195"/>
-      <c r="W38" s="196"/>
-      <c r="X38" s="196"/>
-      <c r="Y38" s="196"/>
-      <c r="Z38" s="197"/>
+      <c r="Q38" s="207"/>
+      <c r="R38" s="208"/>
+      <c r="S38" s="208"/>
+      <c r="T38" s="208"/>
+      <c r="U38" s="209"/>
+      <c r="V38" s="207"/>
+      <c r="W38" s="208"/>
+      <c r="X38" s="208"/>
+      <c r="Y38" s="208"/>
+      <c r="Z38" s="209"/>
       <c r="AA38" s="51"/>
       <c r="AB38" s="51"/>
       <c r="AC38" s="51"/>
@@ -5125,31 +5125,31 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="189" t="s">
+      <c r="F50" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="190"/>
-      <c r="H50" s="190"/>
-      <c r="I50" s="190"/>
-      <c r="J50" s="191"/>
-      <c r="K50" s="189" t="s">
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
+      <c r="I50" s="205"/>
+      <c r="J50" s="206"/>
+      <c r="K50" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="190"/>
-      <c r="M50" s="190"/>
-      <c r="N50" s="190"/>
-      <c r="O50" s="191"/>
+      <c r="L50" s="205"/>
+      <c r="M50" s="205"/>
+      <c r="N50" s="205"/>
+      <c r="O50" s="206"/>
       <c r="P50" s="34"/>
-      <c r="Q50" s="195"/>
-      <c r="R50" s="196"/>
-      <c r="S50" s="196"/>
-      <c r="T50" s="196"/>
-      <c r="U50" s="197"/>
-      <c r="V50" s="195"/>
-      <c r="W50" s="196"/>
-      <c r="X50" s="196"/>
-      <c r="Y50" s="196"/>
-      <c r="Z50" s="197"/>
+      <c r="Q50" s="207"/>
+      <c r="R50" s="208"/>
+      <c r="S50" s="208"/>
+      <c r="T50" s="208"/>
+      <c r="U50" s="209"/>
+      <c r="V50" s="207"/>
+      <c r="W50" s="208"/>
+      <c r="X50" s="208"/>
+      <c r="Y50" s="208"/>
+      <c r="Z50" s="209"/>
       <c r="AA50" s="51"/>
       <c r="AB50" s="51"/>
       <c r="AC50" s="51"/>
@@ -6059,22 +6059,22 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="192"/>
-      <c r="G82" s="193"/>
-      <c r="H82" s="193"/>
-      <c r="I82" s="193"/>
-      <c r="J82" s="194"/>
+      <c r="F82" s="201"/>
+      <c r="G82" s="202"/>
+      <c r="H82" s="202"/>
+      <c r="I82" s="202"/>
+      <c r="J82" s="203"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
       <c r="N82" s="81"/>
       <c r="O82" s="61"/>
       <c r="P82" s="88"/>
-      <c r="Q82" s="192"/>
-      <c r="R82" s="193"/>
-      <c r="S82" s="193"/>
-      <c r="T82" s="193"/>
-      <c r="U82" s="194"/>
+      <c r="Q82" s="201"/>
+      <c r="R82" s="202"/>
+      <c r="S82" s="202"/>
+      <c r="T82" s="202"/>
+      <c r="U82" s="203"/>
       <c r="V82" s="62"/>
       <c r="W82" s="81"/>
       <c r="X82" s="81"/>
@@ -7823,14 +7823,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="Q82:U82"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:Z50"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
@@ -7847,16 +7849,14 @@
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="K50:O50"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="Q82:U82"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="V38:Z38"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7869,7 +7869,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <selection pane="topRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7909,63 +7909,63 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="210" t="s">
+      <c r="F1" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="212"/>
-      <c r="X1" s="210" t="s">
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="213"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
-      <c r="AH1" s="211"/>
-      <c r="AI1" s="211"/>
-      <c r="AJ1" s="211"/>
-      <c r="AK1" s="211"/>
-      <c r="AL1" s="211"/>
-      <c r="AM1" s="211"/>
-      <c r="AN1" s="211"/>
-      <c r="AO1" s="212"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="213"/>
+      <c r="AA1" s="213"/>
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="213"/>
+      <c r="AE1" s="213"/>
+      <c r="AF1" s="213"/>
+      <c r="AG1" s="213"/>
+      <c r="AH1" s="213"/>
+      <c r="AI1" s="213"/>
+      <c r="AJ1" s="213"/>
+      <c r="AK1" s="213"/>
+      <c r="AL1" s="213"/>
+      <c r="AM1" s="213"/>
+      <c r="AN1" s="213"/>
+      <c r="AO1" s="214"/>
       <c r="AP1" s="50"/>
-      <c r="AQ1" s="210" t="s">
+      <c r="AQ1" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="211"/>
-      <c r="AS1" s="211"/>
-      <c r="AT1" s="211"/>
-      <c r="AU1" s="211"/>
-      <c r="AV1" s="211"/>
-      <c r="AW1" s="211"/>
-      <c r="AX1" s="211"/>
-      <c r="AY1" s="211"/>
-      <c r="AZ1" s="211"/>
-      <c r="BA1" s="211"/>
-      <c r="BB1" s="211"/>
-      <c r="BC1" s="211"/>
-      <c r="BD1" s="212"/>
+      <c r="AR1" s="213"/>
+      <c r="AS1" s="213"/>
+      <c r="AT1" s="213"/>
+      <c r="AU1" s="213"/>
+      <c r="AV1" s="213"/>
+      <c r="AW1" s="213"/>
+      <c r="AX1" s="213"/>
+      <c r="AY1" s="213"/>
+      <c r="AZ1" s="213"/>
+      <c r="BA1" s="213"/>
+      <c r="BB1" s="213"/>
+      <c r="BC1" s="213"/>
+      <c r="BD1" s="214"/>
       <c r="BE1" s="176"/>
       <c r="BF1" s="176"/>
       <c r="BG1" s="176"/>
@@ -7988,79 +7988,79 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="198" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="198" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="198" t="s">
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="207" t="s">
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="198" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AD2" s="190"/>
+      <c r="AE2" s="190"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="191"/>
+      <c r="AH2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="190"/>
+      <c r="AJ2" s="190"/>
+      <c r="AK2" s="191"/>
+      <c r="AL2" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
+      <c r="AM2" s="190"/>
+      <c r="AN2" s="190"/>
+      <c r="AO2" s="191"/>
       <c r="AP2" s="13"/>
-      <c r="AQ2" s="207" t="s">
+      <c r="AQ2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="208"/>
-      <c r="AT2" s="208"/>
-      <c r="AU2" s="209"/>
-      <c r="AV2" s="198" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
+      <c r="AV2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="199"/>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="200"/>
-      <c r="BA2" s="198" t="s">
+      <c r="AW2" s="190"/>
+      <c r="AX2" s="190"/>
+      <c r="AY2" s="190"/>
+      <c r="AZ2" s="191"/>
+      <c r="BA2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="BB2" s="199"/>
-      <c r="BC2" s="199"/>
-      <c r="BD2" s="200"/>
+      <c r="BB2" s="190"/>
+      <c r="BC2" s="190"/>
+      <c r="BD2" s="191"/>
       <c r="BE2" s="170"/>
       <c r="BF2" s="170"/>
       <c r="BG2" s="170"/>
@@ -9065,7 +9065,9 @@
         <v>4005.04</v>
       </c>
       <c r="AP8" s="63"/>
-      <c r="AQ8" s="136"/>
+      <c r="AQ8" s="136">
+        <v>29801.8</v>
+      </c>
       <c r="AR8" s="137"/>
       <c r="AS8" s="137"/>
       <c r="AT8" s="138"/>
@@ -9212,7 +9214,9 @@
       <c r="AP9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AQ9" s="101"/>
+      <c r="AQ9" s="101">
+        <v>21.990600000000001</v>
+      </c>
       <c r="AR9" s="102"/>
       <c r="AS9" s="102"/>
       <c r="AT9" s="52"/>
@@ -9256,24 +9260,60 @@
         <v>163840000</v>
       </c>
       <c r="E10" s="63"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="136"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="136"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="142"/>
+      <c r="F10" s="136">
+        <v>44359.4</v>
+      </c>
+      <c r="G10" s="137">
+        <v>41312.199999999997</v>
+      </c>
+      <c r="H10" s="137">
+        <v>41312.199999999997</v>
+      </c>
+      <c r="I10" s="137">
+        <v>11081.3</v>
+      </c>
+      <c r="J10" s="137">
+        <v>186736</v>
+      </c>
+      <c r="K10" s="136">
+        <v>45206.1</v>
+      </c>
+      <c r="L10" s="137">
+        <v>42584.2</v>
+      </c>
+      <c r="M10" s="137">
+        <v>41095.300000000003</v>
+      </c>
+      <c r="N10" s="137">
+        <v>12466.5</v>
+      </c>
+      <c r="O10" s="137">
+        <v>176890</v>
+      </c>
+      <c r="P10" s="136">
+        <v>212921</v>
+      </c>
+      <c r="Q10" s="137">
+        <v>49960.6</v>
+      </c>
+      <c r="R10" s="137">
+        <v>50772.800000000003</v>
+      </c>
+      <c r="S10" s="137">
+        <v>11173.8</v>
+      </c>
+      <c r="T10" s="136">
+        <v>259549</v>
+      </c>
+      <c r="U10" s="137">
+        <v>53083.9</v>
+      </c>
+      <c r="V10" s="137">
+        <v>55314.3</v>
+      </c>
+      <c r="W10" s="142">
+        <v>10785.2</v>
+      </c>
       <c r="X10" s="136">
         <v>30328</v>
       </c>
@@ -9365,24 +9405,60 @@
       <c r="E11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="103"/>
+      <c r="F11" s="101">
+        <v>14.773899999999999</v>
+      </c>
+      <c r="G11" s="102">
+        <v>15.8636</v>
+      </c>
+      <c r="H11" s="102">
+        <v>15.8636</v>
+      </c>
+      <c r="I11" s="102">
+        <v>59.141100000000002</v>
+      </c>
+      <c r="J11" s="102">
+        <v>3.5095499999999999</v>
+      </c>
+      <c r="K11" s="101">
+        <v>14.4971</v>
+      </c>
+      <c r="L11" s="102">
+        <v>15.389699999999999</v>
+      </c>
+      <c r="M11" s="102">
+        <v>15.9473</v>
+      </c>
+      <c r="N11" s="102">
+        <v>52.569800000000001</v>
+      </c>
+      <c r="O11" s="102">
+        <v>3.7048899999999998</v>
+      </c>
+      <c r="P11" s="101">
+        <v>3.07795</v>
+      </c>
+      <c r="Q11" s="102">
+        <v>13.1175</v>
+      </c>
+      <c r="R11" s="102">
+        <v>12.9077</v>
+      </c>
+      <c r="S11" s="102">
+        <v>58.651499999999999</v>
+      </c>
+      <c r="T11" s="101">
+        <v>2.5249899999999998</v>
+      </c>
+      <c r="U11" s="102">
+        <v>12.345700000000001</v>
+      </c>
+      <c r="V11" s="102">
+        <v>11.847899999999999</v>
+      </c>
+      <c r="W11" s="103">
+        <v>60.764899999999997</v>
+      </c>
       <c r="X11" s="101">
         <v>21.609100000000002</v>
       </c>
@@ -9823,12 +9899,12 @@
       <c r="Y14" s="148"/>
       <c r="Z14" s="148"/>
       <c r="AA14" s="139"/>
-      <c r="AB14" s="213"/>
+      <c r="AB14" s="215"/>
       <c r="AC14" s="183"/>
       <c r="AD14" s="139"/>
       <c r="AE14" s="139"/>
       <c r="AF14" s="139"/>
-      <c r="AG14" s="213"/>
+      <c r="AG14" s="215"/>
       <c r="AH14" s="183"/>
       <c r="AI14" s="139"/>
       <c r="AJ14" s="139"/>
@@ -9838,9 +9914,9 @@
       <c r="AN14" s="116"/>
       <c r="AO14" s="152"/>
       <c r="AP14" s="181"/>
-      <c r="AU14" s="215"/>
+      <c r="AU14" s="210"/>
       <c r="AV14" s="126"/>
-      <c r="AZ14" s="215"/>
+      <c r="AZ14" s="210"/>
       <c r="BA14" s="126"/>
       <c r="BD14" s="117"/>
     </row>
@@ -9872,12 +9948,12 @@
       <c r="Y15" s="120"/>
       <c r="Z15" s="120"/>
       <c r="AA15" s="121"/>
-      <c r="AB15" s="214"/>
+      <c r="AB15" s="216"/>
       <c r="AC15" s="153"/>
       <c r="AD15" s="121"/>
       <c r="AE15" s="121"/>
       <c r="AF15" s="121"/>
-      <c r="AG15" s="214"/>
+      <c r="AG15" s="216"/>
       <c r="AH15" s="153"/>
       <c r="AI15" s="121"/>
       <c r="AJ15" s="121"/>
@@ -9887,9 +9963,9 @@
       <c r="AN15" s="121"/>
       <c r="AO15" s="154"/>
       <c r="AP15" s="187"/>
-      <c r="AU15" s="216"/>
+      <c r="AU15" s="211"/>
       <c r="AV15" s="127"/>
-      <c r="AZ15" s="216"/>
+      <c r="AZ15" s="211"/>
       <c r="BA15" s="127"/>
       <c r="BD15" s="122"/>
     </row>
@@ -14194,11 +14270,11 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="192"/>
-      <c r="G82" s="193"/>
-      <c r="H82" s="193"/>
-      <c r="I82" s="193"/>
-      <c r="J82" s="194"/>
+      <c r="F82" s="201"/>
+      <c r="G82" s="202"/>
+      <c r="H82" s="202"/>
+      <c r="I82" s="202"/>
+      <c r="J82" s="203"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
@@ -17152,6 +17228,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BD2"/>
     <mergeCell ref="AU14:AU15"/>
     <mergeCell ref="AZ14:AZ15"/>
@@ -17168,9 +17247,6 @@
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AQ2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17413,10 +17489,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -17437,10 +17513,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -17463,10 +17539,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -17487,10 +17563,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -17569,10 +17645,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -17593,10 +17669,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -17619,15 +17695,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -17844,10 +17920,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -17868,10 +17944,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -17894,10 +17970,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -17918,10 +17994,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -18000,10 +18076,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -18024,10 +18100,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -18050,15 +18126,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -18275,10 +18351,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -18299,10 +18375,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -18325,10 +18401,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -18349,10 +18425,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -18431,10 +18507,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -18455,10 +18531,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -18481,15 +18557,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -18706,10 +18782,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -18730,10 +18806,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -18756,10 +18832,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -18780,10 +18856,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -18862,10 +18938,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -18886,10 +18962,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -18912,15 +18988,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -19137,10 +19213,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -19161,10 +19237,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -19187,10 +19263,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -19211,10 +19287,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -19293,10 +19369,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -19317,10 +19393,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -19343,15 +19419,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -19362,11 +19438,60 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -19383,60 +19508,11 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19475,15 +19551,15 @@
       <c r="D1" s="48">
         <v>128</v>
       </c>
-      <c r="G1" s="241" t="s">
+      <c r="G1" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="49" t="s">
@@ -19534,7 +19610,7 @@
       <c r="F5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="238" t="s">
+      <c r="G5" s="239" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="21"/>
@@ -19551,7 +19627,7 @@
       <c r="N5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="238" t="s">
+      <c r="O5" s="239" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19564,7 +19640,7 @@
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
-      <c r="G6" s="239"/>
+      <c r="G6" s="240"/>
       <c r="I6" s="232" t="s">
         <v>30</v>
       </c>
@@ -19573,7 +19649,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="239"/>
+      <c r="O6" s="240"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="234" t="s">
@@ -19592,7 +19668,7 @@
       <c r="F7" s="68">
         <v>327.29599999999999</v>
       </c>
-      <c r="G7" s="239"/>
+      <c r="G7" s="240"/>
       <c r="I7" s="234" t="s">
         <v>9</v>
       </c>
@@ -19609,7 +19685,7 @@
       <c r="N7" s="68">
         <v>966.87400000000002</v>
       </c>
-      <c r="O7" s="239"/>
+      <c r="O7" s="240"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="234"/>
@@ -19626,7 +19702,7 @@
       <c r="F8" s="68">
         <v>417.601</v>
       </c>
-      <c r="G8" s="239"/>
+      <c r="G8" s="240"/>
       <c r="I8" s="234"/>
       <c r="J8" s="235"/>
       <c r="K8" s="64">
@@ -19641,7 +19717,7 @@
       <c r="N8" s="68">
         <v>963.16</v>
       </c>
-      <c r="O8" s="239"/>
+      <c r="O8" s="240"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="234"/>
@@ -19658,7 +19734,7 @@
       <c r="F9" s="68">
         <v>413.22800000000001</v>
       </c>
-      <c r="G9" s="239"/>
+      <c r="G9" s="240"/>
       <c r="I9" s="234"/>
       <c r="J9" s="235"/>
       <c r="K9" s="64">
@@ -19673,13 +19749,13 @@
       <c r="N9" s="68">
         <v>968.12</v>
       </c>
-      <c r="O9" s="239"/>
+      <c r="O9" s="240"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>586.58100000000002</v>
@@ -19696,11 +19772,11 @@
         <f t="shared" si="0"/>
         <v>386.04166666666669</v>
       </c>
-      <c r="G10" s="239"/>
-      <c r="I10" s="236" t="s">
+      <c r="G10" s="240"/>
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6275.6866666666674</v>
@@ -19717,13 +19793,13 @@
         <f t="shared" si="1"/>
         <v>966.05133333333333</v>
       </c>
-      <c r="O10" s="239"/>
+      <c r="O10" s="240"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58658100000000002</v>
@@ -19740,11 +19816,11 @@
         <f t="shared" si="2"/>
         <v>0.38604166666666667</v>
       </c>
-      <c r="G11" s="240"/>
-      <c r="I11" s="217" t="s">
+      <c r="G11" s="241"/>
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.2756866666666671</v>
@@ -19761,7 +19837,7 @@
         <f t="shared" si="3"/>
         <v>0.96605133333333337</v>
       </c>
-      <c r="O11" s="240"/>
+      <c r="O11" s="241"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="221" t="s">
@@ -19820,10 +19896,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1117.2540535748685</v>
@@ -19841,10 +19917,10 @@
         <v>1697.6405828386401</v>
       </c>
       <c r="G15" s="174"/>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>104.42841314575935</v>
@@ -19864,15 +19940,15 @@
       <c r="O15" s="174"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="175"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -19935,7 +20011,7 @@
       <c r="F25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="238" t="s">
+      <c r="G25" s="239" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="21"/>
@@ -19952,7 +20028,7 @@
       <c r="N25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O25" s="238" t="s">
+      <c r="O25" s="239" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19965,7 +20041,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="239"/>
+      <c r="G26" s="240"/>
       <c r="I26" s="232" t="s">
         <v>30</v>
       </c>
@@ -19974,7 +20050,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="239"/>
+      <c r="O26" s="240"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="234" t="s">
@@ -19993,7 +20069,7 @@
       <c r="F27" s="68">
         <v>437.14299999999997</v>
       </c>
-      <c r="G27" s="239"/>
+      <c r="G27" s="240"/>
       <c r="I27" s="234" t="s">
         <v>9</v>
       </c>
@@ -20010,7 +20086,7 @@
       <c r="N27" s="68">
         <v>1041.47</v>
       </c>
-      <c r="O27" s="239"/>
+      <c r="O27" s="240"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="234"/>
@@ -20027,7 +20103,7 @@
       <c r="F28" s="68">
         <v>397.48099999999999</v>
       </c>
-      <c r="G28" s="239"/>
+      <c r="G28" s="240"/>
       <c r="I28" s="234"/>
       <c r="J28" s="235"/>
       <c r="K28" s="64">
@@ -20042,7 +20118,7 @@
       <c r="N28" s="68">
         <v>1030.71</v>
       </c>
-      <c r="O28" s="239"/>
+      <c r="O28" s="240"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="234"/>
@@ -20059,7 +20135,7 @@
       <c r="F29" s="68">
         <v>398.31400000000002</v>
       </c>
-      <c r="G29" s="239"/>
+      <c r="G29" s="240"/>
       <c r="I29" s="234"/>
       <c r="J29" s="235"/>
       <c r="K29" s="64">
@@ -20074,13 +20150,13 @@
       <c r="N29" s="68">
         <v>1035.75</v>
       </c>
-      <c r="O29" s="239"/>
+      <c r="O29" s="240"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>533.87399999999991</v>
@@ -20097,11 +20173,11 @@
         <f t="shared" si="6"/>
         <v>410.97933333333339</v>
       </c>
-      <c r="G30" s="239"/>
-      <c r="I30" s="236" t="s">
+      <c r="G30" s="240"/>
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6165.626666666667</v>
@@ -20118,13 +20194,13 @@
         <f t="shared" si="7"/>
         <v>1035.9766666666667</v>
       </c>
-      <c r="O30" s="239"/>
+      <c r="O30" s="240"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.53387399999999996</v>
@@ -20141,11 +20217,11 @@
         <f t="shared" si="8"/>
         <v>0.41097933333333336</v>
       </c>
-      <c r="G31" s="240"/>
-      <c r="I31" s="217" t="s">
+      <c r="G31" s="241"/>
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.1656266666666673</v>
@@ -20162,7 +20238,7 @@
         <f t="shared" si="9"/>
         <v>1.0359766666666668</v>
       </c>
-      <c r="O31" s="240"/>
+      <c r="O31" s="241"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="221" t="s">
@@ -20221,10 +20297,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1227.5555655454284</v>
@@ -20242,10 +20318,10 @@
         <v>1594.6300625011152</v>
       </c>
       <c r="G35" s="174"/>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>106.2925206845695</v>
@@ -20265,15 +20341,15 @@
       <c r="O35" s="174"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="175"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -20336,7 +20412,7 @@
       <c r="F45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="238" t="s">
+      <c r="G45" s="239" t="s">
         <v>42</v>
       </c>
       <c r="I45" s="21"/>
@@ -20353,7 +20429,7 @@
       <c r="N45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="238" t="s">
+      <c r="O45" s="239" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20366,7 +20442,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="239"/>
+      <c r="G46" s="240"/>
       <c r="I46" s="232" t="s">
         <v>30</v>
       </c>
@@ -20375,7 +20451,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="239"/>
+      <c r="O46" s="240"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="234" t="s">
@@ -20394,7 +20470,7 @@
       <c r="F47" s="68">
         <v>437.28500000000003</v>
       </c>
-      <c r="G47" s="239"/>
+      <c r="G47" s="240"/>
       <c r="I47" s="234" t="s">
         <v>9</v>
       </c>
@@ -20411,7 +20487,7 @@
       <c r="N47" s="68">
         <v>1183.42</v>
       </c>
-      <c r="O47" s="239"/>
+      <c r="O47" s="240"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="234"/>
@@ -20428,7 +20504,7 @@
       <c r="F48" s="68">
         <v>417.85300000000001</v>
       </c>
-      <c r="G48" s="239"/>
+      <c r="G48" s="240"/>
       <c r="I48" s="234"/>
       <c r="J48" s="235"/>
       <c r="K48" s="64">
@@ -20443,7 +20519,7 @@
       <c r="N48" s="68">
         <v>1259.21</v>
       </c>
-      <c r="O48" s="239"/>
+      <c r="O48" s="240"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="234"/>
@@ -20460,7 +20536,7 @@
       <c r="F49" s="68">
         <v>412.06599999999997</v>
       </c>
-      <c r="G49" s="239"/>
+      <c r="G49" s="240"/>
       <c r="I49" s="234"/>
       <c r="J49" s="235"/>
       <c r="K49" s="64">
@@ -20475,13 +20551,13 @@
       <c r="N49" s="68">
         <v>1149.72</v>
       </c>
-      <c r="O49" s="239"/>
+      <c r="O49" s="240"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>563.93933333333337</v>
@@ -20498,11 +20574,11 @@
         <f t="shared" si="12"/>
         <v>422.4013333333333</v>
       </c>
-      <c r="G50" s="239"/>
-      <c r="I50" s="236" t="s">
+      <c r="G50" s="240"/>
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6146.0533333333333</v>
@@ -20519,13 +20595,13 @@
         <f t="shared" si="13"/>
         <v>1197.45</v>
       </c>
-      <c r="O50" s="239"/>
+      <c r="O50" s="240"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.56393933333333335</v>
@@ -20542,11 +20618,11 @@
         <f t="shared" si="14"/>
         <v>0.4224013333333333</v>
       </c>
-      <c r="G51" s="240"/>
-      <c r="I51" s="217" t="s">
+      <c r="G51" s="241"/>
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1460533333333336</v>
@@ -20563,7 +20639,7 @@
         <f t="shared" si="15"/>
         <v>1.1974500000000001</v>
       </c>
-      <c r="O51" s="240"/>
+      <c r="O51" s="241"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="221" t="s">
@@ -20622,10 +20698,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1162.1108180667188</v>
@@ -20643,10 +20719,10 @@
         <v>1551.5102540711678</v>
       </c>
       <c r="G55" s="174"/>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.63103042819891</v>
@@ -20666,15 +20742,15 @@
       <c r="O55" s="174"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="175"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -20737,7 +20813,7 @@
       <c r="F65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="238" t="s">
+      <c r="G65" s="239" t="s">
         <v>42</v>
       </c>
       <c r="I65" s="21"/>
@@ -20754,7 +20830,7 @@
       <c r="N65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="238" t="s">
+      <c r="O65" s="239" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20767,7 +20843,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="239"/>
+      <c r="G66" s="240"/>
       <c r="I66" s="232" t="s">
         <v>30</v>
       </c>
@@ -20776,7 +20852,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="239"/>
+      <c r="O66" s="240"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="234" t="s">
@@ -20795,7 +20871,7 @@
       <c r="F67" s="68">
         <v>440.95</v>
       </c>
-      <c r="G67" s="239"/>
+      <c r="G67" s="240"/>
       <c r="I67" s="234" t="s">
         <v>9</v>
       </c>
@@ -20812,7 +20888,7 @@
       <c r="N67" s="68">
         <v>1420.55</v>
       </c>
-      <c r="O67" s="239"/>
+      <c r="O67" s="240"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="234"/>
@@ -20829,7 +20905,7 @@
       <c r="F68" s="68">
         <v>420.99700000000001</v>
       </c>
-      <c r="G68" s="239"/>
+      <c r="G68" s="240"/>
       <c r="I68" s="234"/>
       <c r="J68" s="235"/>
       <c r="K68" s="64">
@@ -20844,7 +20920,7 @@
       <c r="N68" s="68">
         <v>1422.21</v>
       </c>
-      <c r="O68" s="239"/>
+      <c r="O68" s="240"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="234"/>
@@ -20861,7 +20937,7 @@
       <c r="F69" s="68">
         <v>443.94799999999998</v>
       </c>
-      <c r="G69" s="239"/>
+      <c r="G69" s="240"/>
       <c r="I69" s="234"/>
       <c r="J69" s="235"/>
       <c r="K69" s="64">
@@ -20876,13 +20952,13 @@
       <c r="N69" s="68">
         <v>1410.78</v>
       </c>
-      <c r="O69" s="239"/>
+      <c r="O69" s="240"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>651.27133333333336</v>
@@ -20899,11 +20975,11 @@
         <f t="shared" si="18"/>
         <v>435.29833333333335</v>
       </c>
-      <c r="G70" s="239"/>
-      <c r="I70" s="236" t="s">
+      <c r="G70" s="240"/>
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6132.8466666666673</v>
@@ -20920,13 +20996,13 @@
         <f t="shared" si="19"/>
         <v>1417.8466666666666</v>
       </c>
-      <c r="O70" s="239"/>
+      <c r="O70" s="240"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.65127133333333331</v>
@@ -20943,11 +21019,11 @@
         <f t="shared" si="20"/>
         <v>0.43529833333333334</v>
       </c>
-      <c r="G71" s="240"/>
-      <c r="I71" s="217" t="s">
+      <c r="G71" s="241"/>
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1328466666666674</v>
@@ -20964,7 +21040,7 @@
         <f t="shared" si="21"/>
         <v>1.4178466666666665</v>
       </c>
-      <c r="O71" s="240"/>
+      <c r="O71" s="241"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="221" t="s">
@@ -21023,10 +21099,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>1006.2779773304932</v>
@@ -21044,10 +21120,10 @@
         <v>1505.5421760555021</v>
       </c>
       <c r="G75" s="174"/>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>106.86065307355909</v>
@@ -21067,15 +21143,15 @@
       <c r="O75" s="174"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="175"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -21138,7 +21214,7 @@
       <c r="F85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="238" t="s">
+      <c r="G85" s="239" t="s">
         <v>42</v>
       </c>
       <c r="I85" s="21"/>
@@ -21155,7 +21231,7 @@
       <c r="N85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O85" s="238" t="s">
+      <c r="O85" s="239" t="s">
         <v>42</v>
       </c>
     </row>
@@ -21168,7 +21244,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="239"/>
+      <c r="G86" s="240"/>
       <c r="I86" s="232" t="s">
         <v>30</v>
       </c>
@@ -21177,7 +21253,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
-      <c r="O86" s="239"/>
+      <c r="O86" s="240"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="234" t="s">
@@ -21196,7 +21272,7 @@
       <c r="F87" s="68">
         <v>918.81200000000001</v>
       </c>
-      <c r="G87" s="239"/>
+      <c r="G87" s="240"/>
       <c r="I87" s="234" t="s">
         <v>9</v>
       </c>
@@ -21213,7 +21289,7 @@
       <c r="N87" s="68">
         <v>2538.4899999999998</v>
       </c>
-      <c r="O87" s="239"/>
+      <c r="O87" s="240"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="234"/>
@@ -21230,7 +21306,7 @@
       <c r="F88" s="68">
         <v>919.29399999999998</v>
       </c>
-      <c r="G88" s="239"/>
+      <c r="G88" s="240"/>
       <c r="I88" s="234"/>
       <c r="J88" s="235"/>
       <c r="K88" s="64">
@@ -21245,7 +21321,7 @@
       <c r="N88" s="68">
         <v>2575.33</v>
       </c>
-      <c r="O88" s="239"/>
+      <c r="O88" s="240"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="234"/>
@@ -21262,7 +21338,7 @@
       <c r="F89" s="68">
         <v>916.76499999999999</v>
       </c>
-      <c r="G89" s="239"/>
+      <c r="G89" s="240"/>
       <c r="I89" s="234"/>
       <c r="J89" s="235"/>
       <c r="K89" s="64">
@@ -21277,13 +21353,13 @@
       <c r="N89" s="68">
         <v>2523.56</v>
       </c>
-      <c r="O89" s="239"/>
+      <c r="O89" s="240"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1342.7166666666665</v>
@@ -21300,11 +21376,11 @@
         <f t="shared" si="24"/>
         <v>918.29033333333336</v>
       </c>
-      <c r="G90" s="239"/>
-      <c r="I90" s="236" t="s">
+      <c r="G90" s="240"/>
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>7889.706666666666</v>
@@ -21321,13 +21397,13 @@
         <f t="shared" si="25"/>
         <v>2545.7933333333331</v>
       </c>
-      <c r="O90" s="239"/>
+      <c r="O90" s="240"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.3427166666666666</v>
@@ -21344,11 +21420,11 @@
         <f t="shared" si="26"/>
         <v>0.91829033333333332</v>
       </c>
-      <c r="G91" s="240"/>
-      <c r="I91" s="217" t="s">
+      <c r="G91" s="241"/>
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>7.8897066666666662</v>
@@ -21365,7 +21441,7 @@
         <f t="shared" si="27"/>
         <v>2.5457933333333331</v>
       </c>
-      <c r="O91" s="240"/>
+      <c r="O91" s="241"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="221" t="s">
@@ -21424,10 +21500,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>488.08510110100173</v>
@@ -21445,10 +21521,10 @@
         <v>713.67407040111857</v>
       </c>
       <c r="G95" s="174"/>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>83.065192115296227</v>
@@ -21468,15 +21544,15 @@
       <c r="O95" s="174"/>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="175"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -21487,65 +21563,17 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="O5:O11"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="G45:G51"/>
+    <mergeCell ref="O45:O51"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="O65:O71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="O25:O31"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="I95:J95"/>
     <mergeCell ref="A96:B96"/>
@@ -21562,17 +21590,65 @@
     <mergeCell ref="O85:O91"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="I76:J76"/>
-    <mergeCell ref="O5:O11"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="G45:G51"/>
-    <mergeCell ref="O45:O51"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="O65:O71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="O25:O31"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21815,10 +21891,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -21839,10 +21915,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -21865,10 +21941,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -21889,10 +21965,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -21971,10 +22047,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -21995,10 +22071,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -22021,15 +22097,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -22246,10 +22322,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -22270,10 +22346,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -22296,10 +22372,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -22320,10 +22396,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -22402,10 +22478,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -22426,10 +22502,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -22452,15 +22528,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -22677,10 +22753,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -22701,10 +22777,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -22727,10 +22803,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -22751,10 +22827,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -22833,10 +22909,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -22857,10 +22933,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -22883,15 +22959,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -23108,10 +23184,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -23132,10 +23208,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -23158,10 +23234,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -23182,10 +23258,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -23264,10 +23340,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -23288,10 +23364,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -23314,15 +23390,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -23539,10 +23615,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -23563,10 +23639,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="95">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -23589,10 +23665,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -23613,10 +23689,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -23695,10 +23771,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -23719,10 +23795,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -23745,15 +23821,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -23764,27 +23840,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -23797,48 +23894,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24081,10 +24157,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -24105,10 +24181,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -24131,10 +24207,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -24155,10 +24231,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -24237,10 +24313,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -24261,10 +24337,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -24287,15 +24363,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -24512,10 +24588,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -24536,10 +24612,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -24562,10 +24638,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -24586,10 +24662,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -24668,10 +24744,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -24692,10 +24768,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -24718,15 +24794,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -24943,10 +25019,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="68">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -24967,10 +25043,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -24993,10 +25069,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="70">
         <v>0.63</v>
       </c>
@@ -25012,10 +25088,10 @@
       <c r="G51" s="72">
         <v>0.65</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -25094,10 +25170,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -25118,10 +25194,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -25144,15 +25220,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -25369,10 +25445,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -25393,10 +25469,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -25419,10 +25495,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -25443,10 +25519,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -25525,10 +25601,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -25549,10 +25625,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -25575,15 +25651,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -25800,10 +25876,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -25824,10 +25900,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -25850,10 +25926,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -25874,10 +25950,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -25956,10 +26032,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -25980,10 +26056,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -26006,15 +26082,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -26025,27 +26101,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -26058,48 +26155,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26342,10 +26418,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -26366,10 +26442,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -26392,10 +26468,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -26416,10 +26492,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -26498,10 +26574,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -26522,10 +26598,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -26548,15 +26624,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -26773,10 +26849,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -26797,10 +26873,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -26823,10 +26899,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -26847,10 +26923,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -26929,10 +27005,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -26953,10 +27029,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -26979,15 +27055,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -27204,10 +27280,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -27228,10 +27304,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -27254,10 +27330,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -27278,10 +27354,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -27360,10 +27436,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -27384,10 +27460,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -27410,15 +27486,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -27635,10 +27711,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -27659,10 +27735,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -27685,10 +27761,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -27709,10 +27785,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -27791,10 +27867,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -27815,10 +27891,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -27841,15 +27917,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -28066,10 +28142,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -28090,10 +28166,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -28116,10 +28192,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -28140,10 +28216,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -28222,10 +28298,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -28246,10 +28322,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -28272,15 +28348,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -28291,27 +28367,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -28324,48 +28421,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7DC13D-2BC8-4C22-B969-A8F02E3EBC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D45575-8582-419F-BF27-72A809FB2162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="730" activeTab="1" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -1156,6 +1156,33 @@
     <xf numFmtId="4" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1192,33 +1219,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1240,17 +1240,17 @@
     <xf numFmtId="4" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,14 +1297,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1314,6 +1311,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1631,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D252EDCE-817D-4333-A1CE-221CAD0DBF58}">
   <dimension ref="A1:AQ175"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T16" sqref="T16"/>
     </sheetView>
@@ -1672,35 +1672,35 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="189" t="s">
+      <c r="F1" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="189" t="s">
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="191"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="200"/>
       <c r="P1" s="50"/>
-      <c r="Q1" s="189" t="s">
+      <c r="Q1" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="189" t="s">
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="200"/>
       <c r="AA1" s="169"/>
       <c r="AB1" s="169"/>
       <c r="AC1" s="169"/>
@@ -1725,51 +1725,51 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="192" t="s">
+      <c r="F2" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="194" t="s">
+      <c r="G2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="194" t="s">
+      <c r="H2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="194" t="s">
+      <c r="I2" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="196" t="s">
+      <c r="J2" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="198" t="s">
+      <c r="K2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="200"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="192" t="s">
+      <c r="Q2" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="194" t="s">
+      <c r="R2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="194" t="s">
+      <c r="S2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="194" t="s">
+      <c r="T2" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="196" t="s">
+      <c r="U2" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="198" t="s">
+      <c r="V2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
       <c r="AA2" s="170"/>
       <c r="AB2" s="170"/>
       <c r="AC2" s="170"/>
@@ -1802,11 +1802,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="197"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="206"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1823,11 +1823,11 @@
         <v>19</v>
       </c>
       <c r="P3" s="17"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="197"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="206"/>
       <c r="V3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2730,34 +2730,34 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="204" t="s">
+      <c r="F14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="205"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="204" t="s">
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="205"/>
-      <c r="M14" s="205"/>
-      <c r="N14" s="205"/>
-      <c r="O14" s="206"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="191"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="204" t="s">
+      <c r="Q14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="205"/>
-      <c r="S14" s="205"/>
-      <c r="T14" s="205"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="190"/>
       <c r="U14" s="172"/>
-      <c r="V14" s="204" t="s">
+      <c r="V14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="W14" s="205"/>
-      <c r="X14" s="205"/>
-      <c r="Y14" s="205"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="190"/>
       <c r="Z14" s="172"/>
       <c r="AA14" s="51"/>
       <c r="AB14" s="51"/>
@@ -3531,31 +3531,31 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="204" t="s">
+      <c r="F26" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="204" t="s">
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="206"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="191"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="207"/>
-      <c r="R26" s="208"/>
-      <c r="S26" s="208"/>
-      <c r="T26" s="208"/>
-      <c r="U26" s="209"/>
-      <c r="V26" s="207"/>
-      <c r="W26" s="208"/>
-      <c r="X26" s="208"/>
-      <c r="Y26" s="208"/>
-      <c r="Z26" s="209"/>
+      <c r="Q26" s="195"/>
+      <c r="R26" s="196"/>
+      <c r="S26" s="196"/>
+      <c r="T26" s="196"/>
+      <c r="U26" s="197"/>
+      <c r="V26" s="195"/>
+      <c r="W26" s="196"/>
+      <c r="X26" s="196"/>
+      <c r="Y26" s="196"/>
+      <c r="Z26" s="197"/>
       <c r="AA26" s="51"/>
       <c r="AB26" s="51"/>
       <c r="AC26" s="51"/>
@@ -4328,31 +4328,31 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="204" t="s">
+      <c r="F38" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="206"/>
-      <c r="K38" s="204" t="s">
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="205"/>
-      <c r="M38" s="205"/>
-      <c r="N38" s="205"/>
-      <c r="O38" s="206"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="190"/>
+      <c r="O38" s="191"/>
       <c r="P38" s="34"/>
-      <c r="Q38" s="207"/>
-      <c r="R38" s="208"/>
-      <c r="S38" s="208"/>
-      <c r="T38" s="208"/>
-      <c r="U38" s="209"/>
-      <c r="V38" s="207"/>
-      <c r="W38" s="208"/>
-      <c r="X38" s="208"/>
-      <c r="Y38" s="208"/>
-      <c r="Z38" s="209"/>
+      <c r="Q38" s="195"/>
+      <c r="R38" s="196"/>
+      <c r="S38" s="196"/>
+      <c r="T38" s="196"/>
+      <c r="U38" s="197"/>
+      <c r="V38" s="195"/>
+      <c r="W38" s="196"/>
+      <c r="X38" s="196"/>
+      <c r="Y38" s="196"/>
+      <c r="Z38" s="197"/>
       <c r="AA38" s="51"/>
       <c r="AB38" s="51"/>
       <c r="AC38" s="51"/>
@@ -5125,31 +5125,31 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="204" t="s">
+      <c r="F50" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="205"/>
-      <c r="H50" s="205"/>
-      <c r="I50" s="205"/>
-      <c r="J50" s="206"/>
-      <c r="K50" s="204" t="s">
+      <c r="G50" s="190"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="205"/>
-      <c r="M50" s="205"/>
-      <c r="N50" s="205"/>
-      <c r="O50" s="206"/>
+      <c r="L50" s="190"/>
+      <c r="M50" s="190"/>
+      <c r="N50" s="190"/>
+      <c r="O50" s="191"/>
       <c r="P50" s="34"/>
-      <c r="Q50" s="207"/>
-      <c r="R50" s="208"/>
-      <c r="S50" s="208"/>
-      <c r="T50" s="208"/>
-      <c r="U50" s="209"/>
-      <c r="V50" s="207"/>
-      <c r="W50" s="208"/>
-      <c r="X50" s="208"/>
-      <c r="Y50" s="208"/>
-      <c r="Z50" s="209"/>
+      <c r="Q50" s="195"/>
+      <c r="R50" s="196"/>
+      <c r="S50" s="196"/>
+      <c r="T50" s="196"/>
+      <c r="U50" s="197"/>
+      <c r="V50" s="195"/>
+      <c r="W50" s="196"/>
+      <c r="X50" s="196"/>
+      <c r="Y50" s="196"/>
+      <c r="Z50" s="197"/>
       <c r="AA50" s="51"/>
       <c r="AB50" s="51"/>
       <c r="AC50" s="51"/>
@@ -6059,22 +6059,22 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="201"/>
-      <c r="G82" s="202"/>
-      <c r="H82" s="202"/>
-      <c r="I82" s="202"/>
-      <c r="J82" s="203"/>
+      <c r="F82" s="192"/>
+      <c r="G82" s="193"/>
+      <c r="H82" s="193"/>
+      <c r="I82" s="193"/>
+      <c r="J82" s="194"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
       <c r="N82" s="81"/>
       <c r="O82" s="61"/>
       <c r="P82" s="88"/>
-      <c r="Q82" s="201"/>
-      <c r="R82" s="202"/>
-      <c r="S82" s="202"/>
-      <c r="T82" s="202"/>
-      <c r="U82" s="203"/>
+      <c r="Q82" s="192"/>
+      <c r="R82" s="193"/>
+      <c r="S82" s="193"/>
+      <c r="T82" s="193"/>
+      <c r="U82" s="194"/>
       <c r="V82" s="62"/>
       <c r="W82" s="81"/>
       <c r="X82" s="81"/>
@@ -7823,16 +7823,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="Q82:U82"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="V38:Z38"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:O2"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
@@ -7849,14 +7847,16 @@
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="K50:O50"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="Q82:U82"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:Z50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7869,7 +7869,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U11" sqref="U11"/>
+      <selection pane="topRight" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7988,79 +7988,79 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="189" t="s">
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="189" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="189" t="s">
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="198" t="s">
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="189" t="s">
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="191"/>
-      <c r="AH2" s="189" t="s">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="190"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="191"/>
-      <c r="AL2" s="189" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="190"/>
-      <c r="AN2" s="190"/>
-      <c r="AO2" s="191"/>
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
       <c r="AP2" s="13"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AQ2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="199"/>
-      <c r="AU2" s="200"/>
-      <c r="AV2" s="189" t="s">
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="208"/>
+      <c r="AT2" s="208"/>
+      <c r="AU2" s="209"/>
+      <c r="AV2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="190"/>
-      <c r="AX2" s="190"/>
-      <c r="AY2" s="190"/>
-      <c r="AZ2" s="191"/>
-      <c r="BA2" s="189" t="s">
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="199"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="200"/>
+      <c r="BA2" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="BB2" s="190"/>
-      <c r="BC2" s="190"/>
-      <c r="BD2" s="191"/>
+      <c r="BB2" s="199"/>
+      <c r="BC2" s="199"/>
+      <c r="BD2" s="200"/>
       <c r="BE2" s="170"/>
       <c r="BF2" s="170"/>
       <c r="BG2" s="170"/>
@@ -9068,19 +9068,41 @@
       <c r="AQ8" s="136">
         <v>29801.8</v>
       </c>
-      <c r="AR8" s="137"/>
-      <c r="AS8" s="137"/>
-      <c r="AT8" s="138"/>
+      <c r="AR8" s="137">
+        <v>1088.8599999999999</v>
+      </c>
+      <c r="AS8" s="137">
+        <v>1075.25</v>
+      </c>
+      <c r="AT8" s="138">
+        <v>1513.29</v>
+      </c>
       <c r="AU8" s="139"/>
-      <c r="AV8" s="140"/>
-      <c r="AW8" s="138"/>
-      <c r="AX8" s="138"/>
-      <c r="AY8" s="138"/>
+      <c r="AV8" s="140">
+        <v>28816</v>
+      </c>
+      <c r="AW8" s="138">
+        <v>912.33100000000002</v>
+      </c>
+      <c r="AX8" s="138">
+        <v>912.327</v>
+      </c>
+      <c r="AY8" s="138">
+        <v>1321.58</v>
+      </c>
       <c r="AZ8" s="139"/>
-      <c r="BA8" s="140"/>
-      <c r="BB8" s="138"/>
-      <c r="BC8" s="138"/>
-      <c r="BD8" s="141"/>
+      <c r="BA8" s="140">
+        <v>193618</v>
+      </c>
+      <c r="BB8" s="138">
+        <v>1159.6099999999999</v>
+      </c>
+      <c r="BC8" s="138">
+        <v>1159.6300000000001</v>
+      </c>
+      <c r="BD8" s="141">
+        <v>1526.13</v>
+      </c>
       <c r="BE8" s="146"/>
       <c r="BF8" s="146"/>
       <c r="BG8" s="146"/>
@@ -9217,19 +9239,41 @@
       <c r="AQ9" s="101">
         <v>21.990600000000001</v>
       </c>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="52"/>
+      <c r="AR9" s="102">
+        <v>601.875</v>
+      </c>
+      <c r="AS9" s="102">
+        <v>609.495</v>
+      </c>
+      <c r="AT9" s="52">
+        <v>433.06799999999998</v>
+      </c>
       <c r="AU9" s="121"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="52"/>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="52"/>
+      <c r="AV9" s="54">
+        <v>22.742999999999999</v>
+      </c>
+      <c r="AW9" s="52">
+        <v>718.33600000000001</v>
+      </c>
+      <c r="AX9" s="52">
+        <v>718.33900000000006</v>
+      </c>
+      <c r="AY9" s="52">
+        <v>495.892</v>
+      </c>
       <c r="AZ9" s="121"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="52"/>
-      <c r="BC9" s="52"/>
-      <c r="BD9" s="53"/>
+      <c r="BA9" s="54">
+        <v>3.3848199999999999</v>
+      </c>
+      <c r="BB9" s="52">
+        <v>565.15599999999995</v>
+      </c>
+      <c r="BC9" s="52">
+        <v>565.14800000000002</v>
+      </c>
+      <c r="BD9" s="53">
+        <v>429.42599999999999</v>
+      </c>
       <c r="BE9" s="89"/>
       <c r="BF9" s="89"/>
       <c r="BG9" s="89"/>
@@ -9365,20 +9409,44 @@
         <v>3653.27</v>
       </c>
       <c r="AP10" s="63"/>
-      <c r="AQ10" s="136"/>
-      <c r="AR10" s="137"/>
-      <c r="AS10" s="137"/>
-      <c r="AT10" s="138"/>
+      <c r="AQ10" s="136">
+        <v>29959.5</v>
+      </c>
+      <c r="AR10" s="137">
+        <v>1166.3800000000001</v>
+      </c>
+      <c r="AS10" s="137">
+        <v>1003.57</v>
+      </c>
+      <c r="AT10" s="138">
+        <v>1474.6</v>
+      </c>
       <c r="AU10" s="139"/>
-      <c r="AV10" s="140"/>
-      <c r="AW10" s="138"/>
-      <c r="AX10" s="138"/>
-      <c r="AY10" s="138"/>
+      <c r="AV10" s="140">
+        <v>29801.8</v>
+      </c>
+      <c r="AW10" s="138">
+        <v>882.3</v>
+      </c>
+      <c r="AX10" s="138">
+        <v>882.26700000000005</v>
+      </c>
+      <c r="AY10" s="138">
+        <v>1287.58</v>
+      </c>
       <c r="AZ10" s="139"/>
-      <c r="BA10" s="140"/>
-      <c r="BB10" s="138"/>
-      <c r="BC10" s="138"/>
-      <c r="BD10" s="141"/>
+      <c r="BA10" s="140">
+        <v>184771</v>
+      </c>
+      <c r="BB10" s="138">
+        <v>1130.95</v>
+      </c>
+      <c r="BC10" s="138">
+        <v>1222.77</v>
+      </c>
+      <c r="BD10" s="141">
+        <v>1544.83</v>
+      </c>
       <c r="BE10" s="146"/>
       <c r="BF10" s="146"/>
       <c r="BG10" s="146"/>
@@ -9512,20 +9580,44 @@
       <c r="AP11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AQ11" s="101"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="102"/>
-      <c r="AT11" s="52"/>
+      <c r="AQ11" s="101">
+        <v>21.8749</v>
+      </c>
+      <c r="AR11" s="102">
+        <v>561.87599999999998</v>
+      </c>
+      <c r="AS11" s="102">
+        <v>653.02599999999995</v>
+      </c>
+      <c r="AT11" s="52">
+        <v>444.43200000000002</v>
+      </c>
       <c r="AU11" s="121"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
+      <c r="AV11" s="54">
+        <v>21.990600000000001</v>
+      </c>
+      <c r="AW11" s="52">
+        <v>742.78599999999994</v>
+      </c>
+      <c r="AX11" s="52">
+        <v>742.81399999999996</v>
+      </c>
+      <c r="AY11" s="52">
+        <v>508.988</v>
+      </c>
       <c r="AZ11" s="121"/>
-      <c r="BA11" s="54"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="53"/>
+      <c r="BA11" s="54">
+        <v>3.5468799999999998</v>
+      </c>
+      <c r="BB11" s="52">
+        <v>579.476</v>
+      </c>
+      <c r="BC11" s="52">
+        <v>535.96299999999997</v>
+      </c>
+      <c r="BD11" s="53">
+        <v>424.22800000000001</v>
+      </c>
       <c r="BE11" s="89"/>
       <c r="BF11" s="89"/>
       <c r="BG11" s="89"/>
@@ -9983,24 +10075,60 @@
         <v>163840000</v>
       </c>
       <c r="E16" s="63"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="142"/>
+      <c r="F16" s="136">
+        <v>38833</v>
+      </c>
+      <c r="G16" s="137">
+        <v>28861.3</v>
+      </c>
+      <c r="H16" s="137">
+        <v>28861.3</v>
+      </c>
+      <c r="I16" s="137">
+        <v>10965.6</v>
+      </c>
+      <c r="J16" s="137">
+        <v>51923.1</v>
+      </c>
+      <c r="K16" s="136">
+        <v>39321.800000000003</v>
+      </c>
+      <c r="L16" s="137">
+        <v>27734.5</v>
+      </c>
+      <c r="M16" s="137">
+        <v>29413.3</v>
+      </c>
+      <c r="N16" s="137">
+        <v>11302.7</v>
+      </c>
+      <c r="O16" s="137">
+        <v>32503.4</v>
+      </c>
+      <c r="P16" s="136">
+        <v>222596</v>
+      </c>
+      <c r="Q16" s="137">
+        <v>50673.2</v>
+      </c>
+      <c r="R16" s="137">
+        <v>47481.2</v>
+      </c>
+      <c r="S16" s="137">
+        <v>9340.9</v>
+      </c>
+      <c r="T16" s="136">
+        <v>269684</v>
+      </c>
+      <c r="U16" s="137">
+        <v>52092.1</v>
+      </c>
+      <c r="V16" s="137">
+        <v>50438.400000000001</v>
+      </c>
+      <c r="W16" s="142">
+        <v>9489.19</v>
+      </c>
       <c r="X16" s="147"/>
       <c r="Y16" s="148"/>
       <c r="Z16" s="148"/>
@@ -10060,24 +10188,60 @@
       <c r="E17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="103"/>
+      <c r="F17" s="101">
+        <v>16.8764</v>
+      </c>
+      <c r="G17" s="102">
+        <v>22.7072</v>
+      </c>
+      <c r="H17" s="102">
+        <v>22.7072</v>
+      </c>
+      <c r="I17" s="102">
+        <v>59.765000000000001</v>
+      </c>
+      <c r="J17" s="102">
+        <v>12.621700000000001</v>
+      </c>
+      <c r="K17" s="101">
+        <v>16.666599999999999</v>
+      </c>
+      <c r="L17" s="102">
+        <v>23.629799999999999</v>
+      </c>
+      <c r="M17" s="102">
+        <v>22.281099999999999</v>
+      </c>
+      <c r="N17" s="102">
+        <v>57.982500000000002</v>
+      </c>
+      <c r="O17" s="102">
+        <v>20.162800000000001</v>
+      </c>
+      <c r="P17" s="101">
+        <v>2.9441600000000001</v>
+      </c>
+      <c r="Q17" s="102">
+        <v>12.9331</v>
+      </c>
+      <c r="R17" s="102">
+        <v>13.8025</v>
+      </c>
+      <c r="S17" s="102">
+        <v>70.160200000000003</v>
+      </c>
+      <c r="T17" s="101">
+        <v>2.4300999999999999</v>
+      </c>
+      <c r="U17" s="102">
+        <v>12.5808</v>
+      </c>
+      <c r="V17" s="102">
+        <v>12.9933</v>
+      </c>
+      <c r="W17" s="103">
+        <v>69.063900000000004</v>
+      </c>
       <c r="X17" s="119"/>
       <c r="Y17" s="120"/>
       <c r="Z17" s="120"/>
@@ -10375,24 +10539,60 @@
         <v>163840000</v>
       </c>
       <c r="E20" s="63"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="136"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="142"/>
+      <c r="F20" s="136">
+        <v>37971.300000000003</v>
+      </c>
+      <c r="G20" s="137">
+        <v>27289.1</v>
+      </c>
+      <c r="H20" s="137">
+        <v>27289</v>
+      </c>
+      <c r="I20" s="137">
+        <v>11618.5</v>
+      </c>
+      <c r="J20" s="137">
+        <v>15105.1</v>
+      </c>
+      <c r="K20" s="136">
+        <v>37702.1</v>
+      </c>
+      <c r="L20" s="137">
+        <v>28317.8</v>
+      </c>
+      <c r="M20" s="137">
+        <v>28168</v>
+      </c>
+      <c r="N20" s="137">
+        <v>12083.3</v>
+      </c>
+      <c r="O20" s="137">
+        <v>14475.9</v>
+      </c>
+      <c r="P20" s="136">
+        <v>204760</v>
+      </c>
+      <c r="Q20" s="137">
+        <v>47583.7</v>
+      </c>
+      <c r="R20" s="137">
+        <v>48744.3</v>
+      </c>
+      <c r="S20" s="137">
+        <v>13385.7</v>
+      </c>
+      <c r="T20" s="136">
+        <v>295811</v>
+      </c>
+      <c r="U20" s="137">
+        <v>50549.5</v>
+      </c>
+      <c r="V20" s="137">
+        <v>52655.8</v>
+      </c>
+      <c r="W20" s="142">
+        <v>12880.6</v>
+      </c>
       <c r="X20" s="147"/>
       <c r="Y20" s="148"/>
       <c r="Z20" s="148"/>
@@ -10452,24 +10652,60 @@
       <c r="E21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="103"/>
+      <c r="F21" s="101">
+        <v>17.259399999999999</v>
+      </c>
+      <c r="G21" s="102">
+        <v>24.015499999999999</v>
+      </c>
+      <c r="H21" s="102">
+        <v>24.015499999999999</v>
+      </c>
+      <c r="I21" s="102">
+        <v>56.406399999999998</v>
+      </c>
+      <c r="J21" s="102">
+        <v>43.386600000000001</v>
+      </c>
+      <c r="K21" s="101">
+        <v>17.3826</v>
+      </c>
+      <c r="L21" s="102">
+        <v>23.1431</v>
+      </c>
+      <c r="M21" s="102">
+        <v>23.266200000000001</v>
+      </c>
+      <c r="N21" s="102">
+        <v>54.236800000000002</v>
+      </c>
+      <c r="O21" s="102">
+        <v>45.272500000000001</v>
+      </c>
+      <c r="P21" s="101">
+        <v>3.2006299999999999</v>
+      </c>
+      <c r="Q21" s="102">
+        <v>13.7728</v>
+      </c>
+      <c r="R21" s="102">
+        <v>13.444800000000001</v>
+      </c>
+      <c r="S21" s="102">
+        <v>48.959600000000002</v>
+      </c>
+      <c r="T21" s="101">
+        <v>2.2154600000000002</v>
+      </c>
+      <c r="U21" s="102">
+        <v>12.964700000000001</v>
+      </c>
+      <c r="V21" s="102">
+        <v>12.446099999999999</v>
+      </c>
+      <c r="W21" s="103">
+        <v>50.879600000000003</v>
+      </c>
       <c r="X21" s="119"/>
       <c r="Y21" s="120"/>
       <c r="Z21" s="120"/>
@@ -10535,24 +10771,60 @@
         <v>163840000</v>
       </c>
       <c r="E22" s="63"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="136"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="137"/>
-      <c r="T22" s="136"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="142"/>
+      <c r="F22" s="136">
+        <v>38008.6</v>
+      </c>
+      <c r="G22" s="137">
+        <v>42622.3</v>
+      </c>
+      <c r="H22" s="137">
+        <v>42622.3</v>
+      </c>
+      <c r="I22" s="137">
+        <v>10875</v>
+      </c>
+      <c r="J22" s="137">
+        <v>14874.3</v>
+      </c>
+      <c r="K22" s="136">
+        <v>39352.300000000003</v>
+      </c>
+      <c r="L22" s="137">
+        <v>39705.300000000003</v>
+      </c>
+      <c r="M22" s="137">
+        <v>39705.300000000003</v>
+      </c>
+      <c r="N22" s="137">
+        <v>11693.6</v>
+      </c>
+      <c r="O22" s="137">
+        <v>14375.9</v>
+      </c>
+      <c r="P22" s="136">
+        <v>213852</v>
+      </c>
+      <c r="Q22" s="137">
+        <v>50827.199999999997</v>
+      </c>
+      <c r="R22" s="137">
+        <v>50827.199999999997</v>
+      </c>
+      <c r="S22" s="137">
+        <v>11070.4</v>
+      </c>
+      <c r="T22" s="136">
+        <v>247712</v>
+      </c>
+      <c r="U22" s="137">
+        <v>53565.9</v>
+      </c>
+      <c r="V22" s="137">
+        <v>51809.7</v>
+      </c>
+      <c r="W22" s="142">
+        <v>10619.4</v>
+      </c>
       <c r="X22" s="147"/>
       <c r="Y22" s="148"/>
       <c r="Z22" s="148"/>
@@ -10612,24 +10884,60 @@
       <c r="E23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="103"/>
+      <c r="F23" s="101">
+        <v>17.2424</v>
+      </c>
+      <c r="G23" s="102">
+        <v>15.375999999999999</v>
+      </c>
+      <c r="H23" s="102">
+        <v>15.375999999999999</v>
+      </c>
+      <c r="I23" s="102">
+        <v>60.262900000000002</v>
+      </c>
+      <c r="J23" s="102">
+        <v>44.059899999999999</v>
+      </c>
+      <c r="K23" s="101">
+        <v>16.653600000000001</v>
+      </c>
+      <c r="L23" s="102">
+        <v>16.505600000000001</v>
+      </c>
+      <c r="M23" s="102">
+        <v>16.505600000000001</v>
+      </c>
+      <c r="N23" s="102">
+        <v>56.044600000000003</v>
+      </c>
+      <c r="O23" s="102">
+        <v>45.587400000000002</v>
+      </c>
+      <c r="P23" s="101">
+        <v>3.06454</v>
+      </c>
+      <c r="Q23" s="102">
+        <v>12.8939</v>
+      </c>
+      <c r="R23" s="102">
+        <v>12.8939</v>
+      </c>
+      <c r="S23" s="102">
+        <v>59.199300000000001</v>
+      </c>
+      <c r="T23" s="101">
+        <v>2.6456499999999998</v>
+      </c>
+      <c r="U23" s="102">
+        <v>12.2346</v>
+      </c>
+      <c r="V23" s="102">
+        <v>12.6494</v>
+      </c>
+      <c r="W23" s="103">
+        <v>61.7136</v>
+      </c>
       <c r="X23" s="119"/>
       <c r="Y23" s="120"/>
       <c r="Z23" s="120"/>
@@ -11058,24 +11366,60 @@
         <v>163840000</v>
       </c>
       <c r="E28" s="63"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="142"/>
+      <c r="F28" s="136">
+        <v>38895.9</v>
+      </c>
+      <c r="G28" s="137">
+        <v>28369</v>
+      </c>
+      <c r="H28" s="137">
+        <v>28369.1</v>
+      </c>
+      <c r="I28" s="137">
+        <v>11618.6</v>
+      </c>
+      <c r="J28" s="137">
+        <v>53906.5</v>
+      </c>
+      <c r="K28" s="136">
+        <v>39616.199999999997</v>
+      </c>
+      <c r="L28" s="137">
+        <v>29272.5</v>
+      </c>
+      <c r="M28" s="137">
+        <v>27912.3</v>
+      </c>
+      <c r="N28" s="137">
+        <v>11544.6</v>
+      </c>
+      <c r="O28" s="137">
+        <v>30711.9</v>
+      </c>
+      <c r="P28" s="136">
+        <v>229738</v>
+      </c>
+      <c r="Q28" s="137">
+        <v>46417.599999999999</v>
+      </c>
+      <c r="R28" s="137">
+        <v>46060.5</v>
+      </c>
+      <c r="S28" s="137">
+        <v>8573.11</v>
+      </c>
+      <c r="T28" s="136">
+        <v>249708</v>
+      </c>
+      <c r="U28" s="137">
+        <v>50082.8</v>
+      </c>
+      <c r="V28" s="137">
+        <v>50082.8</v>
+      </c>
+      <c r="W28" s="142">
+        <v>8688.59</v>
+      </c>
       <c r="X28" s="147"/>
       <c r="Y28" s="148"/>
       <c r="Z28" s="148"/>
@@ -11135,24 +11479,60 @@
       <c r="E29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="103"/>
+      <c r="F29" s="101">
+        <v>16.8491</v>
+      </c>
+      <c r="G29" s="102">
+        <v>23.101199999999999</v>
+      </c>
+      <c r="H29" s="102">
+        <v>23.101199999999999</v>
+      </c>
+      <c r="I29" s="102">
+        <v>56.406300000000002</v>
+      </c>
+      <c r="J29" s="102">
+        <v>12.157299999999999</v>
+      </c>
+      <c r="K29" s="101">
+        <v>16.5427</v>
+      </c>
+      <c r="L29" s="102">
+        <v>22.388300000000001</v>
+      </c>
+      <c r="M29" s="102">
+        <v>23.479199999999999</v>
+      </c>
+      <c r="N29" s="102">
+        <v>56.767899999999997</v>
+      </c>
+      <c r="O29" s="102">
+        <v>21.338999999999999</v>
+      </c>
+      <c r="P29" s="101">
+        <v>2.8526400000000001</v>
+      </c>
+      <c r="Q29" s="102">
+        <v>14.1188</v>
+      </c>
+      <c r="R29" s="102">
+        <v>14.228199999999999</v>
+      </c>
+      <c r="S29" s="102">
+        <v>76.443700000000007</v>
+      </c>
+      <c r="T29" s="101">
+        <v>2.6245099999999999</v>
+      </c>
+      <c r="U29" s="102">
+        <v>13.0855</v>
+      </c>
+      <c r="V29" s="102">
+        <v>13.0855</v>
+      </c>
+      <c r="W29" s="103">
+        <v>75.427599999999998</v>
+      </c>
       <c r="X29" s="119"/>
       <c r="Y29" s="120"/>
       <c r="Z29" s="120"/>
@@ -14270,11 +14650,11 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="201"/>
-      <c r="G82" s="202"/>
-      <c r="H82" s="202"/>
-      <c r="I82" s="202"/>
-      <c r="J82" s="203"/>
+      <c r="F82" s="192"/>
+      <c r="G82" s="193"/>
+      <c r="H82" s="193"/>
+      <c r="I82" s="193"/>
+      <c r="J82" s="194"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
@@ -17489,10 +17869,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -17513,10 +17893,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -17539,10 +17919,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -17563,10 +17943,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -17645,10 +18025,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -17669,10 +18049,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -17695,15 +18075,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -17920,10 +18300,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -17944,10 +18324,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -17970,10 +18350,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -17994,10 +18374,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -18076,10 +18456,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -18100,10 +18480,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -18126,15 +18506,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -18351,10 +18731,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -18375,10 +18755,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -18401,10 +18781,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -18425,10 +18805,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -18507,10 +18887,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -18531,10 +18911,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -18557,15 +18937,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -18782,10 +19162,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -18806,10 +19186,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -18832,10 +19212,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -18856,10 +19236,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -18938,10 +19318,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -18962,10 +19342,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -18988,15 +19368,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -19213,10 +19593,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -19237,10 +19617,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -19263,10 +19643,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -19287,10 +19667,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -19369,10 +19749,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -19393,10 +19773,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -19419,15 +19799,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -19438,60 +19818,11 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -19508,11 +19839,60 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19551,15 +19931,15 @@
       <c r="D1" s="48">
         <v>128</v>
       </c>
-      <c r="G1" s="238" t="s">
+      <c r="G1" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="49" t="s">
@@ -19610,7 +19990,7 @@
       <c r="F5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="239" t="s">
+      <c r="G5" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="21"/>
@@ -19627,7 +20007,7 @@
       <c r="N5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="239" t="s">
+      <c r="O5" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19640,7 +20020,7 @@
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
-      <c r="G6" s="240"/>
+      <c r="G6" s="239"/>
       <c r="I6" s="232" t="s">
         <v>30</v>
       </c>
@@ -19649,7 +20029,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="240"/>
+      <c r="O6" s="239"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="234" t="s">
@@ -19668,7 +20048,7 @@
       <c r="F7" s="68">
         <v>327.29599999999999</v>
       </c>
-      <c r="G7" s="240"/>
+      <c r="G7" s="239"/>
       <c r="I7" s="234" t="s">
         <v>9</v>
       </c>
@@ -19685,7 +20065,7 @@
       <c r="N7" s="68">
         <v>966.87400000000002</v>
       </c>
-      <c r="O7" s="240"/>
+      <c r="O7" s="239"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="234"/>
@@ -19702,7 +20082,7 @@
       <c r="F8" s="68">
         <v>417.601</v>
       </c>
-      <c r="G8" s="240"/>
+      <c r="G8" s="239"/>
       <c r="I8" s="234"/>
       <c r="J8" s="235"/>
       <c r="K8" s="64">
@@ -19717,7 +20097,7 @@
       <c r="N8" s="68">
         <v>963.16</v>
       </c>
-      <c r="O8" s="240"/>
+      <c r="O8" s="239"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="234"/>
@@ -19734,7 +20114,7 @@
       <c r="F9" s="68">
         <v>413.22800000000001</v>
       </c>
-      <c r="G9" s="240"/>
+      <c r="G9" s="239"/>
       <c r="I9" s="234"/>
       <c r="J9" s="235"/>
       <c r="K9" s="64">
@@ -19749,13 +20129,13 @@
       <c r="N9" s="68">
         <v>968.12</v>
       </c>
-      <c r="O9" s="240"/>
+      <c r="O9" s="239"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>586.58100000000002</v>
@@ -19772,11 +20152,11 @@
         <f t="shared" si="0"/>
         <v>386.04166666666669</v>
       </c>
-      <c r="G10" s="240"/>
-      <c r="I10" s="217" t="s">
+      <c r="G10" s="239"/>
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6275.6866666666674</v>
@@ -19793,13 +20173,13 @@
         <f t="shared" si="1"/>
         <v>966.05133333333333</v>
       </c>
-      <c r="O10" s="240"/>
+      <c r="O10" s="239"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58658100000000002</v>
@@ -19816,11 +20196,11 @@
         <f t="shared" si="2"/>
         <v>0.38604166666666667</v>
       </c>
-      <c r="G11" s="241"/>
-      <c r="I11" s="219" t="s">
+      <c r="G11" s="240"/>
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.2756866666666671</v>
@@ -19837,7 +20217,7 @@
         <f t="shared" si="3"/>
         <v>0.96605133333333337</v>
       </c>
-      <c r="O11" s="241"/>
+      <c r="O11" s="240"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="221" t="s">
@@ -19896,10 +20276,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1117.2540535748685</v>
@@ -19917,10 +20297,10 @@
         <v>1697.6405828386401</v>
       </c>
       <c r="G15" s="174"/>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>104.42841314575935</v>
@@ -19940,15 +20320,15 @@
       <c r="O15" s="174"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="175"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -20011,7 +20391,7 @@
       <c r="F25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="239" t="s">
+      <c r="G25" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="21"/>
@@ -20028,7 +20408,7 @@
       <c r="N25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O25" s="239" t="s">
+      <c r="O25" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20041,7 +20421,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="240"/>
+      <c r="G26" s="239"/>
       <c r="I26" s="232" t="s">
         <v>30</v>
       </c>
@@ -20050,7 +20430,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="240"/>
+      <c r="O26" s="239"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="234" t="s">
@@ -20069,7 +20449,7 @@
       <c r="F27" s="68">
         <v>437.14299999999997</v>
       </c>
-      <c r="G27" s="240"/>
+      <c r="G27" s="239"/>
       <c r="I27" s="234" t="s">
         <v>9</v>
       </c>
@@ -20086,7 +20466,7 @@
       <c r="N27" s="68">
         <v>1041.47</v>
       </c>
-      <c r="O27" s="240"/>
+      <c r="O27" s="239"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="234"/>
@@ -20103,7 +20483,7 @@
       <c r="F28" s="68">
         <v>397.48099999999999</v>
       </c>
-      <c r="G28" s="240"/>
+      <c r="G28" s="239"/>
       <c r="I28" s="234"/>
       <c r="J28" s="235"/>
       <c r="K28" s="64">
@@ -20118,7 +20498,7 @@
       <c r="N28" s="68">
         <v>1030.71</v>
       </c>
-      <c r="O28" s="240"/>
+      <c r="O28" s="239"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="234"/>
@@ -20135,7 +20515,7 @@
       <c r="F29" s="68">
         <v>398.31400000000002</v>
       </c>
-      <c r="G29" s="240"/>
+      <c r="G29" s="239"/>
       <c r="I29" s="234"/>
       <c r="J29" s="235"/>
       <c r="K29" s="64">
@@ -20150,13 +20530,13 @@
       <c r="N29" s="68">
         <v>1035.75</v>
       </c>
-      <c r="O29" s="240"/>
+      <c r="O29" s="239"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>533.87399999999991</v>
@@ -20173,11 +20553,11 @@
         <f t="shared" si="6"/>
         <v>410.97933333333339</v>
       </c>
-      <c r="G30" s="240"/>
-      <c r="I30" s="217" t="s">
+      <c r="G30" s="239"/>
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6165.626666666667</v>
@@ -20194,13 +20574,13 @@
         <f t="shared" si="7"/>
         <v>1035.9766666666667</v>
       </c>
-      <c r="O30" s="240"/>
+      <c r="O30" s="239"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.53387399999999996</v>
@@ -20217,11 +20597,11 @@
         <f t="shared" si="8"/>
         <v>0.41097933333333336</v>
       </c>
-      <c r="G31" s="241"/>
-      <c r="I31" s="219" t="s">
+      <c r="G31" s="240"/>
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.1656266666666673</v>
@@ -20238,7 +20618,7 @@
         <f t="shared" si="9"/>
         <v>1.0359766666666668</v>
       </c>
-      <c r="O31" s="241"/>
+      <c r="O31" s="240"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="221" t="s">
@@ -20297,10 +20677,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1227.5555655454284</v>
@@ -20318,10 +20698,10 @@
         <v>1594.6300625011152</v>
       </c>
       <c r="G35" s="174"/>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>106.2925206845695</v>
@@ -20341,15 +20721,15 @@
       <c r="O35" s="174"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="175"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -20412,7 +20792,7 @@
       <c r="F45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="239" t="s">
+      <c r="G45" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I45" s="21"/>
@@ -20429,7 +20809,7 @@
       <c r="N45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="239" t="s">
+      <c r="O45" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20442,7 +20822,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="240"/>
+      <c r="G46" s="239"/>
       <c r="I46" s="232" t="s">
         <v>30</v>
       </c>
@@ -20451,7 +20831,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="240"/>
+      <c r="O46" s="239"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="234" t="s">
@@ -20470,7 +20850,7 @@
       <c r="F47" s="68">
         <v>437.28500000000003</v>
       </c>
-      <c r="G47" s="240"/>
+      <c r="G47" s="239"/>
       <c r="I47" s="234" t="s">
         <v>9</v>
       </c>
@@ -20487,7 +20867,7 @@
       <c r="N47" s="68">
         <v>1183.42</v>
       </c>
-      <c r="O47" s="240"/>
+      <c r="O47" s="239"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="234"/>
@@ -20504,7 +20884,7 @@
       <c r="F48" s="68">
         <v>417.85300000000001</v>
       </c>
-      <c r="G48" s="240"/>
+      <c r="G48" s="239"/>
       <c r="I48" s="234"/>
       <c r="J48" s="235"/>
       <c r="K48" s="64">
@@ -20519,7 +20899,7 @@
       <c r="N48" s="68">
         <v>1259.21</v>
       </c>
-      <c r="O48" s="240"/>
+      <c r="O48" s="239"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="234"/>
@@ -20536,7 +20916,7 @@
       <c r="F49" s="68">
         <v>412.06599999999997</v>
       </c>
-      <c r="G49" s="240"/>
+      <c r="G49" s="239"/>
       <c r="I49" s="234"/>
       <c r="J49" s="235"/>
       <c r="K49" s="64">
@@ -20551,13 +20931,13 @@
       <c r="N49" s="68">
         <v>1149.72</v>
       </c>
-      <c r="O49" s="240"/>
+      <c r="O49" s="239"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>563.93933333333337</v>
@@ -20574,11 +20954,11 @@
         <f t="shared" si="12"/>
         <v>422.4013333333333</v>
       </c>
-      <c r="G50" s="240"/>
-      <c r="I50" s="217" t="s">
+      <c r="G50" s="239"/>
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6146.0533333333333</v>
@@ -20595,13 +20975,13 @@
         <f t="shared" si="13"/>
         <v>1197.45</v>
       </c>
-      <c r="O50" s="240"/>
+      <c r="O50" s="239"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.56393933333333335</v>
@@ -20618,11 +20998,11 @@
         <f t="shared" si="14"/>
         <v>0.4224013333333333</v>
       </c>
-      <c r="G51" s="241"/>
-      <c r="I51" s="219" t="s">
+      <c r="G51" s="240"/>
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1460533333333336</v>
@@ -20639,7 +21019,7 @@
         <f t="shared" si="15"/>
         <v>1.1974500000000001</v>
       </c>
-      <c r="O51" s="241"/>
+      <c r="O51" s="240"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="221" t="s">
@@ -20698,10 +21078,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1162.1108180667188</v>
@@ -20719,10 +21099,10 @@
         <v>1551.5102540711678</v>
       </c>
       <c r="G55" s="174"/>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.63103042819891</v>
@@ -20742,15 +21122,15 @@
       <c r="O55" s="174"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="175"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -20813,7 +21193,7 @@
       <c r="F65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="239" t="s">
+      <c r="G65" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I65" s="21"/>
@@ -20830,7 +21210,7 @@
       <c r="N65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="239" t="s">
+      <c r="O65" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20843,7 +21223,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="240"/>
+      <c r="G66" s="239"/>
       <c r="I66" s="232" t="s">
         <v>30</v>
       </c>
@@ -20852,7 +21232,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="240"/>
+      <c r="O66" s="239"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="234" t="s">
@@ -20871,7 +21251,7 @@
       <c r="F67" s="68">
         <v>440.95</v>
       </c>
-      <c r="G67" s="240"/>
+      <c r="G67" s="239"/>
       <c r="I67" s="234" t="s">
         <v>9</v>
       </c>
@@ -20888,7 +21268,7 @@
       <c r="N67" s="68">
         <v>1420.55</v>
       </c>
-      <c r="O67" s="240"/>
+      <c r="O67" s="239"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="234"/>
@@ -20905,7 +21285,7 @@
       <c r="F68" s="68">
         <v>420.99700000000001</v>
       </c>
-      <c r="G68" s="240"/>
+      <c r="G68" s="239"/>
       <c r="I68" s="234"/>
       <c r="J68" s="235"/>
       <c r="K68" s="64">
@@ -20920,7 +21300,7 @@
       <c r="N68" s="68">
         <v>1422.21</v>
       </c>
-      <c r="O68" s="240"/>
+      <c r="O68" s="239"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="234"/>
@@ -20937,7 +21317,7 @@
       <c r="F69" s="68">
         <v>443.94799999999998</v>
       </c>
-      <c r="G69" s="240"/>
+      <c r="G69" s="239"/>
       <c r="I69" s="234"/>
       <c r="J69" s="235"/>
       <c r="K69" s="64">
@@ -20952,13 +21332,13 @@
       <c r="N69" s="68">
         <v>1410.78</v>
       </c>
-      <c r="O69" s="240"/>
+      <c r="O69" s="239"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>651.27133333333336</v>
@@ -20975,11 +21355,11 @@
         <f t="shared" si="18"/>
         <v>435.29833333333335</v>
       </c>
-      <c r="G70" s="240"/>
-      <c r="I70" s="217" t="s">
+      <c r="G70" s="239"/>
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6132.8466666666673</v>
@@ -20996,13 +21376,13 @@
         <f t="shared" si="19"/>
         <v>1417.8466666666666</v>
       </c>
-      <c r="O70" s="240"/>
+      <c r="O70" s="239"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.65127133333333331</v>
@@ -21019,11 +21399,11 @@
         <f t="shared" si="20"/>
         <v>0.43529833333333334</v>
       </c>
-      <c r="G71" s="241"/>
-      <c r="I71" s="219" t="s">
+      <c r="G71" s="240"/>
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1328466666666674</v>
@@ -21040,7 +21420,7 @@
         <f t="shared" si="21"/>
         <v>1.4178466666666665</v>
       </c>
-      <c r="O71" s="241"/>
+      <c r="O71" s="240"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="221" t="s">
@@ -21099,10 +21479,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>1006.2779773304932</v>
@@ -21120,10 +21500,10 @@
         <v>1505.5421760555021</v>
       </c>
       <c r="G75" s="174"/>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>106.86065307355909</v>
@@ -21143,15 +21523,15 @@
       <c r="O75" s="174"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="175"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -21214,7 +21594,7 @@
       <c r="F85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="239" t="s">
+      <c r="G85" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I85" s="21"/>
@@ -21231,7 +21611,7 @@
       <c r="N85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O85" s="239" t="s">
+      <c r="O85" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -21244,7 +21624,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="240"/>
+      <c r="G86" s="239"/>
       <c r="I86" s="232" t="s">
         <v>30</v>
       </c>
@@ -21253,7 +21633,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
-      <c r="O86" s="240"/>
+      <c r="O86" s="239"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="234" t="s">
@@ -21272,7 +21652,7 @@
       <c r="F87" s="68">
         <v>918.81200000000001</v>
       </c>
-      <c r="G87" s="240"/>
+      <c r="G87" s="239"/>
       <c r="I87" s="234" t="s">
         <v>9</v>
       </c>
@@ -21289,7 +21669,7 @@
       <c r="N87" s="68">
         <v>2538.4899999999998</v>
       </c>
-      <c r="O87" s="240"/>
+      <c r="O87" s="239"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="234"/>
@@ -21306,7 +21686,7 @@
       <c r="F88" s="68">
         <v>919.29399999999998</v>
       </c>
-      <c r="G88" s="240"/>
+      <c r="G88" s="239"/>
       <c r="I88" s="234"/>
       <c r="J88" s="235"/>
       <c r="K88" s="64">
@@ -21321,7 +21701,7 @@
       <c r="N88" s="68">
         <v>2575.33</v>
       </c>
-      <c r="O88" s="240"/>
+      <c r="O88" s="239"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="234"/>
@@ -21338,7 +21718,7 @@
       <c r="F89" s="68">
         <v>916.76499999999999</v>
       </c>
-      <c r="G89" s="240"/>
+      <c r="G89" s="239"/>
       <c r="I89" s="234"/>
       <c r="J89" s="235"/>
       <c r="K89" s="64">
@@ -21353,13 +21733,13 @@
       <c r="N89" s="68">
         <v>2523.56</v>
       </c>
-      <c r="O89" s="240"/>
+      <c r="O89" s="239"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1342.7166666666665</v>
@@ -21376,11 +21756,11 @@
         <f t="shared" si="24"/>
         <v>918.29033333333336</v>
       </c>
-      <c r="G90" s="240"/>
-      <c r="I90" s="217" t="s">
+      <c r="G90" s="239"/>
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>7889.706666666666</v>
@@ -21397,13 +21777,13 @@
         <f t="shared" si="25"/>
         <v>2545.7933333333331</v>
       </c>
-      <c r="O90" s="240"/>
+      <c r="O90" s="239"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.3427166666666666</v>
@@ -21420,11 +21800,11 @@
         <f t="shared" si="26"/>
         <v>0.91829033333333332</v>
       </c>
-      <c r="G91" s="241"/>
-      <c r="I91" s="219" t="s">
+      <c r="G91" s="240"/>
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>7.8897066666666662</v>
@@ -21441,7 +21821,7 @@
         <f t="shared" si="27"/>
         <v>2.5457933333333331</v>
       </c>
-      <c r="O91" s="241"/>
+      <c r="O91" s="240"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="221" t="s">
@@ -21500,10 +21880,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>488.08510110100173</v>
@@ -21521,10 +21901,10 @@
         <v>713.67407040111857</v>
       </c>
       <c r="G95" s="174"/>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>83.065192115296227</v>
@@ -21544,15 +21924,15 @@
       <c r="O95" s="174"/>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="175"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -21563,17 +21943,65 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="O5:O11"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="G45:G51"/>
-    <mergeCell ref="O45:O51"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="O65:O71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="O25:O31"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="I95:J95"/>
     <mergeCell ref="A96:B96"/>
@@ -21590,65 +22018,17 @@
     <mergeCell ref="O85:O91"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O5:O11"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="G45:G51"/>
+    <mergeCell ref="O45:O51"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="O65:O71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="O25:O31"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21891,10 +22271,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -21915,10 +22295,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -21941,10 +22321,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -21965,10 +22345,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -22047,10 +22427,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -22071,10 +22451,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -22097,15 +22477,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -22322,10 +22702,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -22346,10 +22726,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -22372,10 +22752,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -22396,10 +22776,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -22478,10 +22858,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -22502,10 +22882,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -22528,15 +22908,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -22753,10 +23133,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -22777,10 +23157,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -22803,10 +23183,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -22827,10 +23207,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -22909,10 +23289,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -22933,10 +23313,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -22959,15 +23339,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -23184,10 +23564,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -23208,10 +23588,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -23234,10 +23614,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -23258,10 +23638,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -23340,10 +23720,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -23364,10 +23744,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -23390,15 +23770,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -23615,10 +23995,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -23639,10 +24019,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="95">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -23665,10 +24045,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -23689,10 +24069,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -23771,10 +24151,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -23795,10 +24175,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -23821,15 +24201,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -23840,48 +24220,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -23894,27 +24253,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24157,10 +24537,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -24181,10 +24561,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -24207,10 +24587,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -24231,10 +24611,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -24313,10 +24693,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -24337,10 +24717,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -24363,15 +24743,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -24588,10 +24968,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -24612,10 +24992,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -24638,10 +25018,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -24662,10 +25042,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -24744,10 +25124,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -24768,10 +25148,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -24794,15 +25174,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -25019,10 +25399,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="68">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -25043,10 +25423,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -25069,10 +25449,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="70">
         <v>0.63</v>
       </c>
@@ -25088,10 +25468,10 @@
       <c r="G51" s="72">
         <v>0.65</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -25170,10 +25550,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -25194,10 +25574,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -25220,15 +25600,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -25445,10 +25825,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -25469,10 +25849,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -25495,10 +25875,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -25519,10 +25899,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -25601,10 +25981,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -25625,10 +26005,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -25651,15 +26031,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -25876,10 +26256,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -25900,10 +26280,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -25926,10 +26306,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -25950,10 +26330,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -26032,10 +26412,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -26056,10 +26436,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -26082,15 +26462,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -26101,48 +26481,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -26155,27 +26514,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26418,10 +26798,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -26442,10 +26822,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -26468,10 +26848,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -26492,10 +26872,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -26574,10 +26954,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -26598,10 +26978,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -26624,15 +27004,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -26849,10 +27229,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -26873,10 +27253,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -26899,10 +27279,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -26923,10 +27303,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -27005,10 +27385,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -27029,10 +27409,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -27055,15 +27435,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -27280,10 +27660,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -27304,10 +27684,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -27330,10 +27710,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -27354,10 +27734,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -27436,10 +27816,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -27460,10 +27840,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -27486,15 +27866,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -27711,10 +28091,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -27735,10 +28115,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -27761,10 +28141,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -27785,10 +28165,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -27867,10 +28247,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -27891,10 +28271,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -27917,15 +28297,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -28142,10 +28522,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -28166,10 +28546,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -28192,10 +28572,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -28216,10 +28596,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -28298,10 +28678,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -28322,10 +28702,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -28348,15 +28728,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -28367,48 +28747,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -28421,27 +28780,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D45575-8582-419F-BF27-72A809FB2162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D2662D-76F1-4CE7-83DE-504D31FD5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="730" activeTab="1" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -1156,33 +1156,6 @@
     <xf numFmtId="4" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1219,6 +1192,39 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1234,23 +1240,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,11 +1297,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1311,9 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,35 +1672,35 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="198" t="s">
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="200"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="191"/>
       <c r="P1" s="50"/>
-      <c r="Q1" s="198" t="s">
+      <c r="Q1" s="189" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="198" t="s">
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="200"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
       <c r="AA1" s="169"/>
       <c r="AB1" s="169"/>
       <c r="AC1" s="169"/>
@@ -1725,51 +1725,51 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="203" t="s">
+      <c r="G2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="203" t="s">
+      <c r="I2" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="205" t="s">
+      <c r="J2" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="209"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="201" t="s">
+      <c r="Q2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="203" t="s">
+      <c r="R2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="203" t="s">
+      <c r="S2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="203" t="s">
+      <c r="T2" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="205" t="s">
+      <c r="U2" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="207" t="s">
+      <c r="V2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="209"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
       <c r="AA2" s="170"/>
       <c r="AB2" s="170"/>
       <c r="AC2" s="170"/>
@@ -1802,11 +1802,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="206"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="197"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1823,11 +1823,11 @@
         <v>19</v>
       </c>
       <c r="P3" s="17"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="206"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="197"/>
       <c r="V3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2730,34 +2730,34 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="189" t="s">
+      <c r="F14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="189" t="s">
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="191"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="205"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="206"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="189" t="s">
+      <c r="Q14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="190"/>
-      <c r="S14" s="190"/>
-      <c r="T14" s="190"/>
+      <c r="R14" s="205"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="205"/>
       <c r="U14" s="172"/>
-      <c r="V14" s="189" t="s">
+      <c r="V14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="W14" s="190"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="190"/>
+      <c r="W14" s="205"/>
+      <c r="X14" s="205"/>
+      <c r="Y14" s="205"/>
       <c r="Z14" s="172"/>
       <c r="AA14" s="51"/>
       <c r="AB14" s="51"/>
@@ -3531,31 +3531,31 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="189" t="s">
+      <c r="F26" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="190"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="189" t="s">
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="190"/>
-      <c r="O26" s="191"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="206"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="195"/>
-      <c r="R26" s="196"/>
-      <c r="S26" s="196"/>
-      <c r="T26" s="196"/>
-      <c r="U26" s="197"/>
-      <c r="V26" s="195"/>
-      <c r="W26" s="196"/>
-      <c r="X26" s="196"/>
-      <c r="Y26" s="196"/>
-      <c r="Z26" s="197"/>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="208"/>
+      <c r="S26" s="208"/>
+      <c r="T26" s="208"/>
+      <c r="U26" s="209"/>
+      <c r="V26" s="207"/>
+      <c r="W26" s="208"/>
+      <c r="X26" s="208"/>
+      <c r="Y26" s="208"/>
+      <c r="Z26" s="209"/>
       <c r="AA26" s="51"/>
       <c r="AB26" s="51"/>
       <c r="AC26" s="51"/>
@@ -4328,31 +4328,31 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="189" t="s">
+      <c r="F38" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="189" t="s">
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="206"/>
+      <c r="K38" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="191"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="205"/>
+      <c r="O38" s="206"/>
       <c r="P38" s="34"/>
-      <c r="Q38" s="195"/>
-      <c r="R38" s="196"/>
-      <c r="S38" s="196"/>
-      <c r="T38" s="196"/>
-      <c r="U38" s="197"/>
-      <c r="V38" s="195"/>
-      <c r="W38" s="196"/>
-      <c r="X38" s="196"/>
-      <c r="Y38" s="196"/>
-      <c r="Z38" s="197"/>
+      <c r="Q38" s="207"/>
+      <c r="R38" s="208"/>
+      <c r="S38" s="208"/>
+      <c r="T38" s="208"/>
+      <c r="U38" s="209"/>
+      <c r="V38" s="207"/>
+      <c r="W38" s="208"/>
+      <c r="X38" s="208"/>
+      <c r="Y38" s="208"/>
+      <c r="Z38" s="209"/>
       <c r="AA38" s="51"/>
       <c r="AB38" s="51"/>
       <c r="AC38" s="51"/>
@@ -5125,31 +5125,31 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="189" t="s">
+      <c r="F50" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="190"/>
-      <c r="H50" s="190"/>
-      <c r="I50" s="190"/>
-      <c r="J50" s="191"/>
-      <c r="K50" s="189" t="s">
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
+      <c r="I50" s="205"/>
+      <c r="J50" s="206"/>
+      <c r="K50" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="190"/>
-      <c r="M50" s="190"/>
-      <c r="N50" s="190"/>
-      <c r="O50" s="191"/>
+      <c r="L50" s="205"/>
+      <c r="M50" s="205"/>
+      <c r="N50" s="205"/>
+      <c r="O50" s="206"/>
       <c r="P50" s="34"/>
-      <c r="Q50" s="195"/>
-      <c r="R50" s="196"/>
-      <c r="S50" s="196"/>
-      <c r="T50" s="196"/>
-      <c r="U50" s="197"/>
-      <c r="V50" s="195"/>
-      <c r="W50" s="196"/>
-      <c r="X50" s="196"/>
-      <c r="Y50" s="196"/>
-      <c r="Z50" s="197"/>
+      <c r="Q50" s="207"/>
+      <c r="R50" s="208"/>
+      <c r="S50" s="208"/>
+      <c r="T50" s="208"/>
+      <c r="U50" s="209"/>
+      <c r="V50" s="207"/>
+      <c r="W50" s="208"/>
+      <c r="X50" s="208"/>
+      <c r="Y50" s="208"/>
+      <c r="Z50" s="209"/>
       <c r="AA50" s="51"/>
       <c r="AB50" s="51"/>
       <c r="AC50" s="51"/>
@@ -6059,22 +6059,22 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="192"/>
-      <c r="G82" s="193"/>
-      <c r="H82" s="193"/>
-      <c r="I82" s="193"/>
-      <c r="J82" s="194"/>
+      <c r="F82" s="201"/>
+      <c r="G82" s="202"/>
+      <c r="H82" s="202"/>
+      <c r="I82" s="202"/>
+      <c r="J82" s="203"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
       <c r="N82" s="81"/>
       <c r="O82" s="61"/>
       <c r="P82" s="88"/>
-      <c r="Q82" s="192"/>
-      <c r="R82" s="193"/>
-      <c r="S82" s="193"/>
-      <c r="T82" s="193"/>
-      <c r="U82" s="194"/>
+      <c r="Q82" s="201"/>
+      <c r="R82" s="202"/>
+      <c r="S82" s="202"/>
+      <c r="T82" s="202"/>
+      <c r="U82" s="203"/>
       <c r="V82" s="62"/>
       <c r="W82" s="81"/>
       <c r="X82" s="81"/>
@@ -7823,14 +7823,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="Q82:U82"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:Z50"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
@@ -7847,16 +7849,14 @@
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="K50:O50"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="Q82:U82"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="V38:Z38"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7869,7 +7869,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q33" sqref="Q33"/>
+      <selection pane="topRight" activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7909,63 +7909,63 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="212" t="s">
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="215"/>
+      <c r="T1" s="215"/>
+      <c r="U1" s="215"/>
+      <c r="V1" s="215"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="213"/>
-      <c r="AG1" s="213"/>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="213"/>
-      <c r="AJ1" s="213"/>
-      <c r="AK1" s="213"/>
-      <c r="AL1" s="213"/>
-      <c r="AM1" s="213"/>
-      <c r="AN1" s="213"/>
-      <c r="AO1" s="214"/>
+      <c r="Y1" s="215"/>
+      <c r="Z1" s="215"/>
+      <c r="AA1" s="215"/>
+      <c r="AB1" s="215"/>
+      <c r="AC1" s="215"/>
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="215"/>
+      <c r="AH1" s="215"/>
+      <c r="AI1" s="215"/>
+      <c r="AJ1" s="215"/>
+      <c r="AK1" s="215"/>
+      <c r="AL1" s="215"/>
+      <c r="AM1" s="215"/>
+      <c r="AN1" s="215"/>
+      <c r="AO1" s="216"/>
       <c r="AP1" s="50"/>
-      <c r="AQ1" s="212" t="s">
+      <c r="AQ1" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="213"/>
-      <c r="AS1" s="213"/>
-      <c r="AT1" s="213"/>
-      <c r="AU1" s="213"/>
-      <c r="AV1" s="213"/>
-      <c r="AW1" s="213"/>
-      <c r="AX1" s="213"/>
-      <c r="AY1" s="213"/>
-      <c r="AZ1" s="213"/>
-      <c r="BA1" s="213"/>
-      <c r="BB1" s="213"/>
-      <c r="BC1" s="213"/>
-      <c r="BD1" s="214"/>
+      <c r="AR1" s="215"/>
+      <c r="AS1" s="215"/>
+      <c r="AT1" s="215"/>
+      <c r="AU1" s="215"/>
+      <c r="AV1" s="215"/>
+      <c r="AW1" s="215"/>
+      <c r="AX1" s="215"/>
+      <c r="AY1" s="215"/>
+      <c r="AZ1" s="215"/>
+      <c r="BA1" s="215"/>
+      <c r="BB1" s="215"/>
+      <c r="BC1" s="215"/>
+      <c r="BD1" s="216"/>
       <c r="BE1" s="176"/>
       <c r="BF1" s="176"/>
       <c r="BG1" s="176"/>
@@ -7988,79 +7988,79 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="198" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="198" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="198" t="s">
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="207" t="s">
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="198" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AD2" s="190"/>
+      <c r="AE2" s="190"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="191"/>
+      <c r="AH2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="190"/>
+      <c r="AJ2" s="190"/>
+      <c r="AK2" s="191"/>
+      <c r="AL2" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
+      <c r="AM2" s="190"/>
+      <c r="AN2" s="190"/>
+      <c r="AO2" s="191"/>
       <c r="AP2" s="13"/>
-      <c r="AQ2" s="207" t="s">
+      <c r="AQ2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="208"/>
-      <c r="AT2" s="208"/>
-      <c r="AU2" s="209"/>
-      <c r="AV2" s="198" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
+      <c r="AV2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="199"/>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="200"/>
-      <c r="BA2" s="198" t="s">
+      <c r="AW2" s="190"/>
+      <c r="AX2" s="190"/>
+      <c r="AY2" s="190"/>
+      <c r="AZ2" s="191"/>
+      <c r="BA2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="BB2" s="199"/>
-      <c r="BC2" s="199"/>
-      <c r="BD2" s="200"/>
+      <c r="BB2" s="190"/>
+      <c r="BC2" s="190"/>
+      <c r="BD2" s="191"/>
       <c r="BE2" s="170"/>
       <c r="BF2" s="170"/>
       <c r="BG2" s="170"/>
@@ -9991,12 +9991,12 @@
       <c r="Y14" s="148"/>
       <c r="Z14" s="148"/>
       <c r="AA14" s="139"/>
-      <c r="AB14" s="215"/>
+      <c r="AB14" s="210"/>
       <c r="AC14" s="183"/>
       <c r="AD14" s="139"/>
       <c r="AE14" s="139"/>
       <c r="AF14" s="139"/>
-      <c r="AG14" s="215"/>
+      <c r="AG14" s="210"/>
       <c r="AH14" s="183"/>
       <c r="AI14" s="139"/>
       <c r="AJ14" s="139"/>
@@ -10006,9 +10006,9 @@
       <c r="AN14" s="116"/>
       <c r="AO14" s="152"/>
       <c r="AP14" s="181"/>
-      <c r="AU14" s="210"/>
+      <c r="AU14" s="212"/>
       <c r="AV14" s="126"/>
-      <c r="AZ14" s="210"/>
+      <c r="AZ14" s="212"/>
       <c r="BA14" s="126"/>
       <c r="BD14" s="117"/>
     </row>
@@ -10040,12 +10040,12 @@
       <c r="Y15" s="120"/>
       <c r="Z15" s="120"/>
       <c r="AA15" s="121"/>
-      <c r="AB15" s="216"/>
+      <c r="AB15" s="211"/>
       <c r="AC15" s="153"/>
       <c r="AD15" s="121"/>
       <c r="AE15" s="121"/>
       <c r="AF15" s="121"/>
-      <c r="AG15" s="216"/>
+      <c r="AG15" s="211"/>
       <c r="AH15" s="153"/>
       <c r="AI15" s="121"/>
       <c r="AJ15" s="121"/>
@@ -10055,9 +10055,9 @@
       <c r="AN15" s="121"/>
       <c r="AO15" s="154"/>
       <c r="AP15" s="187"/>
-      <c r="AU15" s="211"/>
+      <c r="AU15" s="213"/>
       <c r="AV15" s="127"/>
-      <c r="AZ15" s="211"/>
+      <c r="AZ15" s="213"/>
       <c r="BA15" s="127"/>
       <c r="BD15" s="122"/>
     </row>
@@ -11830,20 +11830,48 @@
         <v>163840000</v>
       </c>
       <c r="E32" s="63"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="137"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="136"/>
-      <c r="Q32" s="137"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="137"/>
+      <c r="F32" s="136">
+        <v>38210.300000000003</v>
+      </c>
+      <c r="G32" s="137">
+        <v>27466.2</v>
+      </c>
+      <c r="H32" s="137">
+        <v>27466.2</v>
+      </c>
+      <c r="I32" s="137">
+        <v>12854.6</v>
+      </c>
+      <c r="J32" s="137">
+        <v>11701.1</v>
+      </c>
+      <c r="K32" s="136">
+        <v>39088.300000000003</v>
+      </c>
+      <c r="L32" s="137">
+        <v>29396.5</v>
+      </c>
+      <c r="M32" s="137">
+        <v>27525.8</v>
+      </c>
+      <c r="N32" s="137">
+        <v>12586.8</v>
+      </c>
+      <c r="O32" s="137">
+        <v>11863.7</v>
+      </c>
+      <c r="P32" s="136">
+        <v>211022</v>
+      </c>
+      <c r="Q32" s="137">
+        <v>46795.6</v>
+      </c>
+      <c r="R32" s="137">
+        <v>49097</v>
+      </c>
+      <c r="S32" s="137">
+        <v>11988.4</v>
+      </c>
       <c r="T32" s="136"/>
       <c r="U32" s="137"/>
       <c r="V32" s="137"/>
@@ -11907,20 +11935,48 @@
       <c r="E33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
+      <c r="F33" s="101">
+        <v>17.151399999999999</v>
+      </c>
+      <c r="G33" s="102">
+        <v>23.860600000000002</v>
+      </c>
+      <c r="H33" s="102">
+        <v>23.860600000000002</v>
+      </c>
+      <c r="I33" s="102">
+        <v>50.982700000000001</v>
+      </c>
+      <c r="J33" s="102">
+        <v>56.008499999999998</v>
+      </c>
+      <c r="K33" s="101">
+        <v>16.766200000000001</v>
+      </c>
+      <c r="L33" s="102">
+        <v>22.293800000000001</v>
+      </c>
+      <c r="M33" s="102">
+        <v>23.808900000000001</v>
+      </c>
+      <c r="N33" s="102">
+        <v>52.067399999999999</v>
+      </c>
+      <c r="O33" s="102">
+        <v>55.240900000000003</v>
+      </c>
+      <c r="P33" s="101">
+        <v>3.1056499999999998</v>
+      </c>
+      <c r="Q33" s="102">
+        <v>14.0047</v>
+      </c>
+      <c r="R33" s="102">
+        <v>13.3483</v>
+      </c>
+      <c r="S33" s="102">
+        <v>54.666200000000003</v>
+      </c>
       <c r="T33" s="101"/>
       <c r="U33" s="102"/>
       <c r="V33" s="102"/>
@@ -14650,11 +14706,11 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="192"/>
-      <c r="G82" s="193"/>
-      <c r="H82" s="193"/>
-      <c r="I82" s="193"/>
-      <c r="J82" s="194"/>
+      <c r="F82" s="201"/>
+      <c r="G82" s="202"/>
+      <c r="H82" s="202"/>
+      <c r="I82" s="202"/>
+      <c r="J82" s="203"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
@@ -17608,12 +17664,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AQ2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AZ14:AZ15"/>
     <mergeCell ref="AQ1:BD1"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="F1:W1"/>
@@ -17627,6 +17677,12 @@
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AZ14:AZ15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17869,10 +17925,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -17893,10 +17949,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -17919,10 +17975,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -17943,10 +17999,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -18025,10 +18081,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -18049,10 +18105,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -18075,15 +18131,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -18300,10 +18356,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -18324,10 +18380,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -18350,10 +18406,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -18374,10 +18430,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -18456,10 +18512,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -18480,10 +18536,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -18506,15 +18562,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -18731,10 +18787,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -18755,10 +18811,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -18781,10 +18837,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -18805,10 +18861,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -18887,10 +18943,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -18911,10 +18967,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -18937,15 +18993,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -19162,10 +19218,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -19186,10 +19242,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -19212,10 +19268,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -19236,10 +19292,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -19318,10 +19374,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -19342,10 +19398,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -19368,15 +19424,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -19593,10 +19649,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -19617,10 +19673,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -19643,10 +19699,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -19667,10 +19723,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -19749,10 +19805,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -19773,10 +19829,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -19799,15 +19855,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -19818,11 +19874,60 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -19839,60 +19944,11 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19931,15 +19987,15 @@
       <c r="D1" s="48">
         <v>128</v>
       </c>
-      <c r="G1" s="241" t="s">
+      <c r="G1" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="49" t="s">
@@ -19990,7 +20046,7 @@
       <c r="F5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="238" t="s">
+      <c r="G5" s="239" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="21"/>
@@ -20007,7 +20063,7 @@
       <c r="N5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="238" t="s">
+      <c r="O5" s="239" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20020,7 +20076,7 @@
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
-      <c r="G6" s="239"/>
+      <c r="G6" s="240"/>
       <c r="I6" s="232" t="s">
         <v>30</v>
       </c>
@@ -20029,7 +20085,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="239"/>
+      <c r="O6" s="240"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="234" t="s">
@@ -20048,7 +20104,7 @@
       <c r="F7" s="68">
         <v>327.29599999999999</v>
       </c>
-      <c r="G7" s="239"/>
+      <c r="G7" s="240"/>
       <c r="I7" s="234" t="s">
         <v>9</v>
       </c>
@@ -20065,7 +20121,7 @@
       <c r="N7" s="68">
         <v>966.87400000000002</v>
       </c>
-      <c r="O7" s="239"/>
+      <c r="O7" s="240"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="234"/>
@@ -20082,7 +20138,7 @@
       <c r="F8" s="68">
         <v>417.601</v>
       </c>
-      <c r="G8" s="239"/>
+      <c r="G8" s="240"/>
       <c r="I8" s="234"/>
       <c r="J8" s="235"/>
       <c r="K8" s="64">
@@ -20097,7 +20153,7 @@
       <c r="N8" s="68">
         <v>963.16</v>
       </c>
-      <c r="O8" s="239"/>
+      <c r="O8" s="240"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="234"/>
@@ -20114,7 +20170,7 @@
       <c r="F9" s="68">
         <v>413.22800000000001</v>
       </c>
-      <c r="G9" s="239"/>
+      <c r="G9" s="240"/>
       <c r="I9" s="234"/>
       <c r="J9" s="235"/>
       <c r="K9" s="64">
@@ -20129,13 +20185,13 @@
       <c r="N9" s="68">
         <v>968.12</v>
       </c>
-      <c r="O9" s="239"/>
+      <c r="O9" s="240"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>586.58100000000002</v>
@@ -20152,11 +20208,11 @@
         <f t="shared" si="0"/>
         <v>386.04166666666669</v>
       </c>
-      <c r="G10" s="239"/>
-      <c r="I10" s="236" t="s">
+      <c r="G10" s="240"/>
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6275.6866666666674</v>
@@ -20173,13 +20229,13 @@
         <f t="shared" si="1"/>
         <v>966.05133333333333</v>
       </c>
-      <c r="O10" s="239"/>
+      <c r="O10" s="240"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58658100000000002</v>
@@ -20196,11 +20252,11 @@
         <f t="shared" si="2"/>
         <v>0.38604166666666667</v>
       </c>
-      <c r="G11" s="240"/>
-      <c r="I11" s="217" t="s">
+      <c r="G11" s="241"/>
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.2756866666666671</v>
@@ -20217,7 +20273,7 @@
         <f t="shared" si="3"/>
         <v>0.96605133333333337</v>
       </c>
-      <c r="O11" s="240"/>
+      <c r="O11" s="241"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="221" t="s">
@@ -20276,10 +20332,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1117.2540535748685</v>
@@ -20297,10 +20353,10 @@
         <v>1697.6405828386401</v>
       </c>
       <c r="G15" s="174"/>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>104.42841314575935</v>
@@ -20320,15 +20376,15 @@
       <c r="O15" s="174"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="175"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -20391,7 +20447,7 @@
       <c r="F25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="238" t="s">
+      <c r="G25" s="239" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="21"/>
@@ -20408,7 +20464,7 @@
       <c r="N25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O25" s="238" t="s">
+      <c r="O25" s="239" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20421,7 +20477,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="239"/>
+      <c r="G26" s="240"/>
       <c r="I26" s="232" t="s">
         <v>30</v>
       </c>
@@ -20430,7 +20486,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="239"/>
+      <c r="O26" s="240"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="234" t="s">
@@ -20449,7 +20505,7 @@
       <c r="F27" s="68">
         <v>437.14299999999997</v>
       </c>
-      <c r="G27" s="239"/>
+      <c r="G27" s="240"/>
       <c r="I27" s="234" t="s">
         <v>9</v>
       </c>
@@ -20466,7 +20522,7 @@
       <c r="N27" s="68">
         <v>1041.47</v>
       </c>
-      <c r="O27" s="239"/>
+      <c r="O27" s="240"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="234"/>
@@ -20483,7 +20539,7 @@
       <c r="F28" s="68">
         <v>397.48099999999999</v>
       </c>
-      <c r="G28" s="239"/>
+      <c r="G28" s="240"/>
       <c r="I28" s="234"/>
       <c r="J28" s="235"/>
       <c r="K28" s="64">
@@ -20498,7 +20554,7 @@
       <c r="N28" s="68">
         <v>1030.71</v>
       </c>
-      <c r="O28" s="239"/>
+      <c r="O28" s="240"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="234"/>
@@ -20515,7 +20571,7 @@
       <c r="F29" s="68">
         <v>398.31400000000002</v>
       </c>
-      <c r="G29" s="239"/>
+      <c r="G29" s="240"/>
       <c r="I29" s="234"/>
       <c r="J29" s="235"/>
       <c r="K29" s="64">
@@ -20530,13 +20586,13 @@
       <c r="N29" s="68">
         <v>1035.75</v>
       </c>
-      <c r="O29" s="239"/>
+      <c r="O29" s="240"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>533.87399999999991</v>
@@ -20553,11 +20609,11 @@
         <f t="shared" si="6"/>
         <v>410.97933333333339</v>
       </c>
-      <c r="G30" s="239"/>
-      <c r="I30" s="236" t="s">
+      <c r="G30" s="240"/>
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6165.626666666667</v>
@@ -20574,13 +20630,13 @@
         <f t="shared" si="7"/>
         <v>1035.9766666666667</v>
       </c>
-      <c r="O30" s="239"/>
+      <c r="O30" s="240"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.53387399999999996</v>
@@ -20597,11 +20653,11 @@
         <f t="shared" si="8"/>
         <v>0.41097933333333336</v>
       </c>
-      <c r="G31" s="240"/>
-      <c r="I31" s="217" t="s">
+      <c r="G31" s="241"/>
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.1656266666666673</v>
@@ -20618,7 +20674,7 @@
         <f t="shared" si="9"/>
         <v>1.0359766666666668</v>
       </c>
-      <c r="O31" s="240"/>
+      <c r="O31" s="241"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="221" t="s">
@@ -20677,10 +20733,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1227.5555655454284</v>
@@ -20698,10 +20754,10 @@
         <v>1594.6300625011152</v>
       </c>
       <c r="G35" s="174"/>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>106.2925206845695</v>
@@ -20721,15 +20777,15 @@
       <c r="O35" s="174"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="175"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -20792,7 +20848,7 @@
       <c r="F45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="238" t="s">
+      <c r="G45" s="239" t="s">
         <v>42</v>
       </c>
       <c r="I45" s="21"/>
@@ -20809,7 +20865,7 @@
       <c r="N45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="238" t="s">
+      <c r="O45" s="239" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20822,7 +20878,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="239"/>
+      <c r="G46" s="240"/>
       <c r="I46" s="232" t="s">
         <v>30</v>
       </c>
@@ -20831,7 +20887,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="239"/>
+      <c r="O46" s="240"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="234" t="s">
@@ -20850,7 +20906,7 @@
       <c r="F47" s="68">
         <v>437.28500000000003</v>
       </c>
-      <c r="G47" s="239"/>
+      <c r="G47" s="240"/>
       <c r="I47" s="234" t="s">
         <v>9</v>
       </c>
@@ -20867,7 +20923,7 @@
       <c r="N47" s="68">
         <v>1183.42</v>
       </c>
-      <c r="O47" s="239"/>
+      <c r="O47" s="240"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="234"/>
@@ -20884,7 +20940,7 @@
       <c r="F48" s="68">
         <v>417.85300000000001</v>
       </c>
-      <c r="G48" s="239"/>
+      <c r="G48" s="240"/>
       <c r="I48" s="234"/>
       <c r="J48" s="235"/>
       <c r="K48" s="64">
@@ -20899,7 +20955,7 @@
       <c r="N48" s="68">
         <v>1259.21</v>
       </c>
-      <c r="O48" s="239"/>
+      <c r="O48" s="240"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="234"/>
@@ -20916,7 +20972,7 @@
       <c r="F49" s="68">
         <v>412.06599999999997</v>
       </c>
-      <c r="G49" s="239"/>
+      <c r="G49" s="240"/>
       <c r="I49" s="234"/>
       <c r="J49" s="235"/>
       <c r="K49" s="64">
@@ -20931,13 +20987,13 @@
       <c r="N49" s="68">
         <v>1149.72</v>
       </c>
-      <c r="O49" s="239"/>
+      <c r="O49" s="240"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>563.93933333333337</v>
@@ -20954,11 +21010,11 @@
         <f t="shared" si="12"/>
         <v>422.4013333333333</v>
       </c>
-      <c r="G50" s="239"/>
-      <c r="I50" s="236" t="s">
+      <c r="G50" s="240"/>
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6146.0533333333333</v>
@@ -20975,13 +21031,13 @@
         <f t="shared" si="13"/>
         <v>1197.45</v>
       </c>
-      <c r="O50" s="239"/>
+      <c r="O50" s="240"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.56393933333333335</v>
@@ -20998,11 +21054,11 @@
         <f t="shared" si="14"/>
         <v>0.4224013333333333</v>
       </c>
-      <c r="G51" s="240"/>
-      <c r="I51" s="217" t="s">
+      <c r="G51" s="241"/>
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1460533333333336</v>
@@ -21019,7 +21075,7 @@
         <f t="shared" si="15"/>
         <v>1.1974500000000001</v>
       </c>
-      <c r="O51" s="240"/>
+      <c r="O51" s="241"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="221" t="s">
@@ -21078,10 +21134,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1162.1108180667188</v>
@@ -21099,10 +21155,10 @@
         <v>1551.5102540711678</v>
       </c>
       <c r="G55" s="174"/>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.63103042819891</v>
@@ -21122,15 +21178,15 @@
       <c r="O55" s="174"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="175"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -21193,7 +21249,7 @@
       <c r="F65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="238" t="s">
+      <c r="G65" s="239" t="s">
         <v>42</v>
       </c>
       <c r="I65" s="21"/>
@@ -21210,7 +21266,7 @@
       <c r="N65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="238" t="s">
+      <c r="O65" s="239" t="s">
         <v>42</v>
       </c>
     </row>
@@ -21223,7 +21279,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="239"/>
+      <c r="G66" s="240"/>
       <c r="I66" s="232" t="s">
         <v>30</v>
       </c>
@@ -21232,7 +21288,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="239"/>
+      <c r="O66" s="240"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="234" t="s">
@@ -21251,7 +21307,7 @@
       <c r="F67" s="68">
         <v>440.95</v>
       </c>
-      <c r="G67" s="239"/>
+      <c r="G67" s="240"/>
       <c r="I67" s="234" t="s">
         <v>9</v>
       </c>
@@ -21268,7 +21324,7 @@
       <c r="N67" s="68">
         <v>1420.55</v>
       </c>
-      <c r="O67" s="239"/>
+      <c r="O67" s="240"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="234"/>
@@ -21285,7 +21341,7 @@
       <c r="F68" s="68">
         <v>420.99700000000001</v>
       </c>
-      <c r="G68" s="239"/>
+      <c r="G68" s="240"/>
       <c r="I68" s="234"/>
       <c r="J68" s="235"/>
       <c r="K68" s="64">
@@ -21300,7 +21356,7 @@
       <c r="N68" s="68">
         <v>1422.21</v>
       </c>
-      <c r="O68" s="239"/>
+      <c r="O68" s="240"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="234"/>
@@ -21317,7 +21373,7 @@
       <c r="F69" s="68">
         <v>443.94799999999998</v>
       </c>
-      <c r="G69" s="239"/>
+      <c r="G69" s="240"/>
       <c r="I69" s="234"/>
       <c r="J69" s="235"/>
       <c r="K69" s="64">
@@ -21332,13 +21388,13 @@
       <c r="N69" s="68">
         <v>1410.78</v>
       </c>
-      <c r="O69" s="239"/>
+      <c r="O69" s="240"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>651.27133333333336</v>
@@ -21355,11 +21411,11 @@
         <f t="shared" si="18"/>
         <v>435.29833333333335</v>
       </c>
-      <c r="G70" s="239"/>
-      <c r="I70" s="236" t="s">
+      <c r="G70" s="240"/>
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6132.8466666666673</v>
@@ -21376,13 +21432,13 @@
         <f t="shared" si="19"/>
         <v>1417.8466666666666</v>
       </c>
-      <c r="O70" s="239"/>
+      <c r="O70" s="240"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.65127133333333331</v>
@@ -21399,11 +21455,11 @@
         <f t="shared" si="20"/>
         <v>0.43529833333333334</v>
       </c>
-      <c r="G71" s="240"/>
-      <c r="I71" s="217" t="s">
+      <c r="G71" s="241"/>
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1328466666666674</v>
@@ -21420,7 +21476,7 @@
         <f t="shared" si="21"/>
         <v>1.4178466666666665</v>
       </c>
-      <c r="O71" s="240"/>
+      <c r="O71" s="241"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="221" t="s">
@@ -21479,10 +21535,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>1006.2779773304932</v>
@@ -21500,10 +21556,10 @@
         <v>1505.5421760555021</v>
       </c>
       <c r="G75" s="174"/>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>106.86065307355909</v>
@@ -21523,15 +21579,15 @@
       <c r="O75" s="174"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="175"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -21594,7 +21650,7 @@
       <c r="F85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="238" t="s">
+      <c r="G85" s="239" t="s">
         <v>42</v>
       </c>
       <c r="I85" s="21"/>
@@ -21611,7 +21667,7 @@
       <c r="N85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O85" s="238" t="s">
+      <c r="O85" s="239" t="s">
         <v>42</v>
       </c>
     </row>
@@ -21624,7 +21680,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="239"/>
+      <c r="G86" s="240"/>
       <c r="I86" s="232" t="s">
         <v>30</v>
       </c>
@@ -21633,7 +21689,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
-      <c r="O86" s="239"/>
+      <c r="O86" s="240"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="234" t="s">
@@ -21652,7 +21708,7 @@
       <c r="F87" s="68">
         <v>918.81200000000001</v>
       </c>
-      <c r="G87" s="239"/>
+      <c r="G87" s="240"/>
       <c r="I87" s="234" t="s">
         <v>9</v>
       </c>
@@ -21669,7 +21725,7 @@
       <c r="N87" s="68">
         <v>2538.4899999999998</v>
       </c>
-      <c r="O87" s="239"/>
+      <c r="O87" s="240"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="234"/>
@@ -21686,7 +21742,7 @@
       <c r="F88" s="68">
         <v>919.29399999999998</v>
       </c>
-      <c r="G88" s="239"/>
+      <c r="G88" s="240"/>
       <c r="I88" s="234"/>
       <c r="J88" s="235"/>
       <c r="K88" s="64">
@@ -21701,7 +21757,7 @@
       <c r="N88" s="68">
         <v>2575.33</v>
       </c>
-      <c r="O88" s="239"/>
+      <c r="O88" s="240"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="234"/>
@@ -21718,7 +21774,7 @@
       <c r="F89" s="68">
         <v>916.76499999999999</v>
       </c>
-      <c r="G89" s="239"/>
+      <c r="G89" s="240"/>
       <c r="I89" s="234"/>
       <c r="J89" s="235"/>
       <c r="K89" s="64">
@@ -21733,13 +21789,13 @@
       <c r="N89" s="68">
         <v>2523.56</v>
       </c>
-      <c r="O89" s="239"/>
+      <c r="O89" s="240"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1342.7166666666665</v>
@@ -21756,11 +21812,11 @@
         <f t="shared" si="24"/>
         <v>918.29033333333336</v>
       </c>
-      <c r="G90" s="239"/>
-      <c r="I90" s="236" t="s">
+      <c r="G90" s="240"/>
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>7889.706666666666</v>
@@ -21777,13 +21833,13 @@
         <f t="shared" si="25"/>
         <v>2545.7933333333331</v>
       </c>
-      <c r="O90" s="239"/>
+      <c r="O90" s="240"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.3427166666666666</v>
@@ -21800,11 +21856,11 @@
         <f t="shared" si="26"/>
         <v>0.91829033333333332</v>
       </c>
-      <c r="G91" s="240"/>
-      <c r="I91" s="217" t="s">
+      <c r="G91" s="241"/>
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>7.8897066666666662</v>
@@ -21821,7 +21877,7 @@
         <f t="shared" si="27"/>
         <v>2.5457933333333331</v>
       </c>
-      <c r="O91" s="240"/>
+      <c r="O91" s="241"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="221" t="s">
@@ -21880,10 +21936,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>488.08510110100173</v>
@@ -21901,10 +21957,10 @@
         <v>713.67407040111857</v>
       </c>
       <c r="G95" s="174"/>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>83.065192115296227</v>
@@ -21924,15 +21980,15 @@
       <c r="O95" s="174"/>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="175"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -21943,65 +21999,17 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="O5:O11"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="G45:G51"/>
+    <mergeCell ref="O45:O51"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="O65:O71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="O25:O31"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="I95:J95"/>
     <mergeCell ref="A96:B96"/>
@@ -22018,17 +22026,65 @@
     <mergeCell ref="O85:O91"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="I76:J76"/>
-    <mergeCell ref="O5:O11"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="G45:G51"/>
-    <mergeCell ref="O45:O51"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="O65:O71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="O25:O31"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22271,10 +22327,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -22295,10 +22351,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -22321,10 +22377,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -22345,10 +22401,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -22427,10 +22483,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -22451,10 +22507,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -22477,15 +22533,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -22702,10 +22758,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -22726,10 +22782,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -22752,10 +22808,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -22776,10 +22832,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -22858,10 +22914,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -22882,10 +22938,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -22908,15 +22964,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -23133,10 +23189,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -23157,10 +23213,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -23183,10 +23239,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -23207,10 +23263,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -23289,10 +23345,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -23313,10 +23369,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -23339,15 +23395,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -23564,10 +23620,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -23588,10 +23644,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -23614,10 +23670,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -23638,10 +23694,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -23720,10 +23776,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -23744,10 +23800,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -23770,15 +23826,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -23995,10 +24051,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -24019,10 +24075,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="95">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -24045,10 +24101,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -24069,10 +24125,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -24151,10 +24207,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -24175,10 +24231,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -24201,15 +24257,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -24220,27 +24276,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -24253,48 +24330,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24537,10 +24593,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -24561,10 +24617,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -24587,10 +24643,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -24611,10 +24667,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -24693,10 +24749,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -24717,10 +24773,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -24743,15 +24799,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -24968,10 +25024,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -24992,10 +25048,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -25018,10 +25074,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -25042,10 +25098,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -25124,10 +25180,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -25148,10 +25204,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -25174,15 +25230,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -25399,10 +25455,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="68">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -25423,10 +25479,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -25449,10 +25505,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="70">
         <v>0.63</v>
       </c>
@@ -25468,10 +25524,10 @@
       <c r="G51" s="72">
         <v>0.65</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -25550,10 +25606,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -25574,10 +25630,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -25600,15 +25656,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -25825,10 +25881,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -25849,10 +25905,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -25875,10 +25931,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -25899,10 +25955,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -25981,10 +26037,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -26005,10 +26061,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -26031,15 +26087,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -26256,10 +26312,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -26280,10 +26336,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -26306,10 +26362,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -26330,10 +26386,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -26412,10 +26468,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -26436,10 +26492,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -26462,15 +26518,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -26481,27 +26537,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -26514,48 +26591,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26798,10 +26854,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -26822,10 +26878,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -26848,10 +26904,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -26872,10 +26928,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -26954,10 +27010,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -26978,10 +27034,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -27004,15 +27060,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -27229,10 +27285,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -27253,10 +27309,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -27279,10 +27335,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -27303,10 +27359,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -27385,10 +27441,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -27409,10 +27465,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -27435,15 +27491,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -27660,10 +27716,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -27684,10 +27740,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -27710,10 +27766,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -27734,10 +27790,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -27816,10 +27872,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -27840,10 +27896,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -27866,15 +27922,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -28091,10 +28147,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -28115,10 +28171,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -28141,10 +28197,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -28165,10 +28221,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -28247,10 +28303,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -28271,10 +28327,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -28297,15 +28353,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -28522,10 +28578,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -28546,10 +28602,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -28572,10 +28628,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -28596,10 +28652,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -28678,10 +28734,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -28702,10 +28758,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -28728,15 +28784,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -28747,27 +28803,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -28780,48 +28857,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D2662D-76F1-4CE7-83DE-504D31FD5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E21CBB2-9AC0-4FC7-B037-2E6ED3E536BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="730" activeTab="1" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -1156,6 +1156,33 @@
     <xf numFmtId="4" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1192,39 +1219,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1240,17 +1234,23 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,14 +1297,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1314,6 +1311,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,35 +1672,35 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="189" t="s">
+      <c r="F1" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="189" t="s">
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="191"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="200"/>
       <c r="P1" s="50"/>
-      <c r="Q1" s="189" t="s">
+      <c r="Q1" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="189" t="s">
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="200"/>
       <c r="AA1" s="169"/>
       <c r="AB1" s="169"/>
       <c r="AC1" s="169"/>
@@ -1725,51 +1725,51 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="192" t="s">
+      <c r="F2" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="194" t="s">
+      <c r="G2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="194" t="s">
+      <c r="H2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="194" t="s">
+      <c r="I2" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="196" t="s">
+      <c r="J2" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="198" t="s">
+      <c r="K2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="200"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="192" t="s">
+      <c r="Q2" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="194" t="s">
+      <c r="R2" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="194" t="s">
+      <c r="S2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="194" t="s">
+      <c r="T2" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="196" t="s">
+      <c r="U2" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="198" t="s">
+      <c r="V2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
       <c r="AA2" s="170"/>
       <c r="AB2" s="170"/>
       <c r="AC2" s="170"/>
@@ -1802,11 +1802,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="197"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="206"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1823,11 +1823,11 @@
         <v>19</v>
       </c>
       <c r="P3" s="17"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="197"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="206"/>
       <c r="V3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2730,34 +2730,34 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="204" t="s">
+      <c r="F14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="205"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="204" t="s">
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="205"/>
-      <c r="M14" s="205"/>
-      <c r="N14" s="205"/>
-      <c r="O14" s="206"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="191"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="204" t="s">
+      <c r="Q14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="205"/>
-      <c r="S14" s="205"/>
-      <c r="T14" s="205"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="190"/>
       <c r="U14" s="172"/>
-      <c r="V14" s="204" t="s">
+      <c r="V14" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="W14" s="205"/>
-      <c r="X14" s="205"/>
-      <c r="Y14" s="205"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="190"/>
       <c r="Z14" s="172"/>
       <c r="AA14" s="51"/>
       <c r="AB14" s="51"/>
@@ -3531,31 +3531,31 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="204" t="s">
+      <c r="F26" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="204" t="s">
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="205"/>
-      <c r="O26" s="206"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="191"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="207"/>
-      <c r="R26" s="208"/>
-      <c r="S26" s="208"/>
-      <c r="T26" s="208"/>
-      <c r="U26" s="209"/>
-      <c r="V26" s="207"/>
-      <c r="W26" s="208"/>
-      <c r="X26" s="208"/>
-      <c r="Y26" s="208"/>
-      <c r="Z26" s="209"/>
+      <c r="Q26" s="195"/>
+      <c r="R26" s="196"/>
+      <c r="S26" s="196"/>
+      <c r="T26" s="196"/>
+      <c r="U26" s="197"/>
+      <c r="V26" s="195"/>
+      <c r="W26" s="196"/>
+      <c r="X26" s="196"/>
+      <c r="Y26" s="196"/>
+      <c r="Z26" s="197"/>
       <c r="AA26" s="51"/>
       <c r="AB26" s="51"/>
       <c r="AC26" s="51"/>
@@ -4328,31 +4328,31 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="204" t="s">
+      <c r="F38" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="206"/>
-      <c r="K38" s="204" t="s">
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="205"/>
-      <c r="M38" s="205"/>
-      <c r="N38" s="205"/>
-      <c r="O38" s="206"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="190"/>
+      <c r="N38" s="190"/>
+      <c r="O38" s="191"/>
       <c r="P38" s="34"/>
-      <c r="Q38" s="207"/>
-      <c r="R38" s="208"/>
-      <c r="S38" s="208"/>
-      <c r="T38" s="208"/>
-      <c r="U38" s="209"/>
-      <c r="V38" s="207"/>
-      <c r="W38" s="208"/>
-      <c r="X38" s="208"/>
-      <c r="Y38" s="208"/>
-      <c r="Z38" s="209"/>
+      <c r="Q38" s="195"/>
+      <c r="R38" s="196"/>
+      <c r="S38" s="196"/>
+      <c r="T38" s="196"/>
+      <c r="U38" s="197"/>
+      <c r="V38" s="195"/>
+      <c r="W38" s="196"/>
+      <c r="X38" s="196"/>
+      <c r="Y38" s="196"/>
+      <c r="Z38" s="197"/>
       <c r="AA38" s="51"/>
       <c r="AB38" s="51"/>
       <c r="AC38" s="51"/>
@@ -5125,31 +5125,31 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="204" t="s">
+      <c r="F50" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="205"/>
-      <c r="H50" s="205"/>
-      <c r="I50" s="205"/>
-      <c r="J50" s="206"/>
-      <c r="K50" s="204" t="s">
+      <c r="G50" s="190"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="205"/>
-      <c r="M50" s="205"/>
-      <c r="N50" s="205"/>
-      <c r="O50" s="206"/>
+      <c r="L50" s="190"/>
+      <c r="M50" s="190"/>
+      <c r="N50" s="190"/>
+      <c r="O50" s="191"/>
       <c r="P50" s="34"/>
-      <c r="Q50" s="207"/>
-      <c r="R50" s="208"/>
-      <c r="S50" s="208"/>
-      <c r="T50" s="208"/>
-      <c r="U50" s="209"/>
-      <c r="V50" s="207"/>
-      <c r="W50" s="208"/>
-      <c r="X50" s="208"/>
-      <c r="Y50" s="208"/>
-      <c r="Z50" s="209"/>
+      <c r="Q50" s="195"/>
+      <c r="R50" s="196"/>
+      <c r="S50" s="196"/>
+      <c r="T50" s="196"/>
+      <c r="U50" s="197"/>
+      <c r="V50" s="195"/>
+      <c r="W50" s="196"/>
+      <c r="X50" s="196"/>
+      <c r="Y50" s="196"/>
+      <c r="Z50" s="197"/>
       <c r="AA50" s="51"/>
       <c r="AB50" s="51"/>
       <c r="AC50" s="51"/>
@@ -6059,22 +6059,22 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="201"/>
-      <c r="G82" s="202"/>
-      <c r="H82" s="202"/>
-      <c r="I82" s="202"/>
-      <c r="J82" s="203"/>
+      <c r="F82" s="192"/>
+      <c r="G82" s="193"/>
+      <c r="H82" s="193"/>
+      <c r="I82" s="193"/>
+      <c r="J82" s="194"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
       <c r="N82" s="81"/>
       <c r="O82" s="61"/>
       <c r="P82" s="88"/>
-      <c r="Q82" s="201"/>
-      <c r="R82" s="202"/>
-      <c r="S82" s="202"/>
-      <c r="T82" s="202"/>
-      <c r="U82" s="203"/>
+      <c r="Q82" s="192"/>
+      <c r="R82" s="193"/>
+      <c r="S82" s="193"/>
+      <c r="T82" s="193"/>
+      <c r="U82" s="194"/>
       <c r="V82" s="62"/>
       <c r="W82" s="81"/>
       <c r="X82" s="81"/>
@@ -7823,16 +7823,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="Q82:U82"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="V38:Z38"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:O2"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
@@ -7849,14 +7847,16 @@
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="K50:O50"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="Q82:U82"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:Z50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7867,9 +7867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81A5C4-0DEF-4D93-A6BF-5419A031E380}">
   <dimension ref="A1:BS318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T32" sqref="T32"/>
+      <selection pane="topRight" activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7909,63 +7909,63 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="215"/>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="214" t="s">
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="213"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="215"/>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="215"/>
-      <c r="AD1" s="215"/>
-      <c r="AE1" s="215"/>
-      <c r="AF1" s="215"/>
-      <c r="AG1" s="215"/>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="215"/>
-      <c r="AJ1" s="215"/>
-      <c r="AK1" s="215"/>
-      <c r="AL1" s="215"/>
-      <c r="AM1" s="215"/>
-      <c r="AN1" s="215"/>
-      <c r="AO1" s="216"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="213"/>
+      <c r="AA1" s="213"/>
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="213"/>
+      <c r="AE1" s="213"/>
+      <c r="AF1" s="213"/>
+      <c r="AG1" s="213"/>
+      <c r="AH1" s="213"/>
+      <c r="AI1" s="213"/>
+      <c r="AJ1" s="213"/>
+      <c r="AK1" s="213"/>
+      <c r="AL1" s="213"/>
+      <c r="AM1" s="213"/>
+      <c r="AN1" s="213"/>
+      <c r="AO1" s="214"/>
       <c r="AP1" s="50"/>
-      <c r="AQ1" s="214" t="s">
+      <c r="AQ1" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="215"/>
-      <c r="AS1" s="215"/>
-      <c r="AT1" s="215"/>
-      <c r="AU1" s="215"/>
-      <c r="AV1" s="215"/>
-      <c r="AW1" s="215"/>
-      <c r="AX1" s="215"/>
-      <c r="AY1" s="215"/>
-      <c r="AZ1" s="215"/>
-      <c r="BA1" s="215"/>
-      <c r="BB1" s="215"/>
-      <c r="BC1" s="215"/>
-      <c r="BD1" s="216"/>
+      <c r="AR1" s="213"/>
+      <c r="AS1" s="213"/>
+      <c r="AT1" s="213"/>
+      <c r="AU1" s="213"/>
+      <c r="AV1" s="213"/>
+      <c r="AW1" s="213"/>
+      <c r="AX1" s="213"/>
+      <c r="AY1" s="213"/>
+      <c r="AZ1" s="213"/>
+      <c r="BA1" s="213"/>
+      <c r="BB1" s="213"/>
+      <c r="BC1" s="213"/>
+      <c r="BD1" s="214"/>
       <c r="BE1" s="176"/>
       <c r="BF1" s="176"/>
       <c r="BG1" s="176"/>
@@ -7988,79 +7988,79 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="189" t="s">
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="189" t="s">
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="189" t="s">
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="198" t="s">
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="199"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="189" t="s">
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="191"/>
-      <c r="AH2" s="189" t="s">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="200"/>
+      <c r="AH2" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="190"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="191"/>
-      <c r="AL2" s="189" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="199"/>
+      <c r="AK2" s="200"/>
+      <c r="AL2" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="190"/>
-      <c r="AN2" s="190"/>
-      <c r="AO2" s="191"/>
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
       <c r="AP2" s="13"/>
-      <c r="AQ2" s="198" t="s">
+      <c r="AQ2" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="199"/>
-      <c r="AT2" s="199"/>
-      <c r="AU2" s="200"/>
-      <c r="AV2" s="189" t="s">
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="208"/>
+      <c r="AT2" s="208"/>
+      <c r="AU2" s="209"/>
+      <c r="AV2" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="190"/>
-      <c r="AX2" s="190"/>
-      <c r="AY2" s="190"/>
-      <c r="AZ2" s="191"/>
-      <c r="BA2" s="189" t="s">
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="199"/>
+      <c r="AY2" s="199"/>
+      <c r="AZ2" s="200"/>
+      <c r="BA2" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="BB2" s="190"/>
-      <c r="BC2" s="190"/>
-      <c r="BD2" s="191"/>
+      <c r="BB2" s="199"/>
+      <c r="BC2" s="199"/>
+      <c r="BD2" s="200"/>
       <c r="BE2" s="170"/>
       <c r="BF2" s="170"/>
       <c r="BG2" s="170"/>
@@ -9991,12 +9991,12 @@
       <c r="Y14" s="148"/>
       <c r="Z14" s="148"/>
       <c r="AA14" s="139"/>
-      <c r="AB14" s="210"/>
+      <c r="AB14" s="215"/>
       <c r="AC14" s="183"/>
       <c r="AD14" s="139"/>
       <c r="AE14" s="139"/>
       <c r="AF14" s="139"/>
-      <c r="AG14" s="210"/>
+      <c r="AG14" s="215"/>
       <c r="AH14" s="183"/>
       <c r="AI14" s="139"/>
       <c r="AJ14" s="139"/>
@@ -10006,9 +10006,9 @@
       <c r="AN14" s="116"/>
       <c r="AO14" s="152"/>
       <c r="AP14" s="181"/>
-      <c r="AU14" s="212"/>
+      <c r="AU14" s="210"/>
       <c r="AV14" s="126"/>
-      <c r="AZ14" s="212"/>
+      <c r="AZ14" s="210"/>
       <c r="BA14" s="126"/>
       <c r="BD14" s="117"/>
     </row>
@@ -10040,12 +10040,12 @@
       <c r="Y15" s="120"/>
       <c r="Z15" s="120"/>
       <c r="AA15" s="121"/>
-      <c r="AB15" s="211"/>
+      <c r="AB15" s="216"/>
       <c r="AC15" s="153"/>
       <c r="AD15" s="121"/>
       <c r="AE15" s="121"/>
       <c r="AF15" s="121"/>
-      <c r="AG15" s="211"/>
+      <c r="AG15" s="216"/>
       <c r="AH15" s="153"/>
       <c r="AI15" s="121"/>
       <c r="AJ15" s="121"/>
@@ -10055,9 +10055,9 @@
       <c r="AN15" s="121"/>
       <c r="AO15" s="154"/>
       <c r="AP15" s="187"/>
-      <c r="AU15" s="213"/>
+      <c r="AU15" s="211"/>
       <c r="AV15" s="127"/>
-      <c r="AZ15" s="213"/>
+      <c r="AZ15" s="211"/>
       <c r="BA15" s="127"/>
       <c r="BD15" s="122"/>
     </row>
@@ -11872,10 +11872,18 @@
       <c r="S32" s="137">
         <v>11988.4</v>
       </c>
-      <c r="T32" s="136"/>
-      <c r="U32" s="137"/>
-      <c r="V32" s="137"/>
-      <c r="W32" s="142"/>
+      <c r="T32" s="136">
+        <v>251809</v>
+      </c>
+      <c r="U32" s="137">
+        <v>51743</v>
+      </c>
+      <c r="V32" s="137">
+        <v>51744.1</v>
+      </c>
+      <c r="W32" s="142">
+        <v>12496.4</v>
+      </c>
       <c r="X32" s="147"/>
       <c r="Y32" s="148"/>
       <c r="Z32" s="148"/>
@@ -11977,10 +11985,18 @@
       <c r="S33" s="102">
         <v>54.666200000000003</v>
       </c>
-      <c r="T33" s="101"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="103"/>
+      <c r="T33" s="101">
+        <v>2.6026099999999999</v>
+      </c>
+      <c r="U33" s="102">
+        <v>12.665699999999999</v>
+      </c>
+      <c r="V33" s="102">
+        <v>12.6654</v>
+      </c>
+      <c r="W33" s="103">
+        <v>52.4437</v>
+      </c>
       <c r="X33" s="119"/>
       <c r="Y33" s="120"/>
       <c r="Z33" s="120"/>
@@ -12046,24 +12062,60 @@
         <v>163840000</v>
       </c>
       <c r="E34" s="63"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="137"/>
-      <c r="M34" s="137"/>
-      <c r="N34" s="137"/>
-      <c r="O34" s="137"/>
-      <c r="P34" s="136"/>
-      <c r="Q34" s="137"/>
-      <c r="R34" s="137"/>
-      <c r="S34" s="137"/>
-      <c r="T34" s="136"/>
-      <c r="U34" s="137"/>
-      <c r="V34" s="137"/>
-      <c r="W34" s="142"/>
+      <c r="F34" s="136">
+        <v>39353.800000000003</v>
+      </c>
+      <c r="G34" s="137">
+        <v>40808.199999999997</v>
+      </c>
+      <c r="H34" s="137">
+        <v>40808</v>
+      </c>
+      <c r="I34" s="137">
+        <v>11618.6</v>
+      </c>
+      <c r="J34" s="137">
+        <v>13666</v>
+      </c>
+      <c r="K34" s="136">
+        <v>39205.4</v>
+      </c>
+      <c r="L34" s="137">
+        <v>39924.6</v>
+      </c>
+      <c r="M34" s="137">
+        <v>42253.8</v>
+      </c>
+      <c r="N34" s="137">
+        <v>11924.3</v>
+      </c>
+      <c r="O34" s="137">
+        <v>13382.6</v>
+      </c>
+      <c r="P34" s="136">
+        <v>217840</v>
+      </c>
+      <c r="Q34" s="137">
+        <v>49128.3</v>
+      </c>
+      <c r="R34" s="137">
+        <v>50793.5</v>
+      </c>
+      <c r="S34" s="137">
+        <v>10971.6</v>
+      </c>
+      <c r="T34" s="136">
+        <v>258246</v>
+      </c>
+      <c r="U34" s="137">
+        <v>53988</v>
+      </c>
+      <c r="V34" s="137">
+        <v>53987.8</v>
+      </c>
+      <c r="W34" s="142">
+        <v>11256.3</v>
+      </c>
       <c r="X34" s="147"/>
       <c r="Y34" s="148"/>
       <c r="Z34" s="148"/>
@@ -12123,24 +12175,60 @@
       <c r="E35" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="101"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="102"/>
-      <c r="O35" s="102"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="102"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="102"/>
-      <c r="V35" s="102"/>
-      <c r="W35" s="103"/>
+      <c r="F35" s="101">
+        <v>16.652999999999999</v>
+      </c>
+      <c r="G35" s="102">
+        <v>16.0595</v>
+      </c>
+      <c r="H35" s="102">
+        <v>16.0596</v>
+      </c>
+      <c r="I35" s="102">
+        <v>56.405900000000003</v>
+      </c>
+      <c r="J35" s="102">
+        <v>47.955500000000001</v>
+      </c>
+      <c r="K35" s="101">
+        <v>16.716100000000001</v>
+      </c>
+      <c r="L35" s="102">
+        <v>16.414899999999999</v>
+      </c>
+      <c r="M35" s="102">
+        <v>15.5101</v>
+      </c>
+      <c r="N35" s="102">
+        <v>54.959899999999998</v>
+      </c>
+      <c r="O35" s="102">
+        <v>48.9709</v>
+      </c>
+      <c r="P35" s="101">
+        <v>3.0084499999999998</v>
+      </c>
+      <c r="Q35" s="102">
+        <v>13.3398</v>
+      </c>
+      <c r="R35" s="102">
+        <v>12.9024</v>
+      </c>
+      <c r="S35" s="102">
+        <v>59.732599999999998</v>
+      </c>
+      <c r="T35" s="101">
+        <v>2.5377299999999998</v>
+      </c>
+      <c r="U35" s="102">
+        <v>12.138999999999999</v>
+      </c>
+      <c r="V35" s="102">
+        <v>12.138999999999999</v>
+      </c>
+      <c r="W35" s="103">
+        <v>58.221400000000003</v>
+      </c>
       <c r="X35" s="119"/>
       <c r="Y35" s="120"/>
       <c r="Z35" s="120"/>
@@ -12569,24 +12657,60 @@
         <v>163840000</v>
       </c>
       <c r="E40" s="63"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="138"/>
-      <c r="O40" s="138"/>
-      <c r="P40" s="140"/>
-      <c r="Q40" s="138"/>
-      <c r="R40" s="138"/>
-      <c r="S40" s="138"/>
-      <c r="T40" s="140"/>
-      <c r="U40" s="138"/>
-      <c r="V40" s="138"/>
-      <c r="W40" s="141"/>
+      <c r="F40" s="140">
+        <v>37225.599999999999</v>
+      </c>
+      <c r="G40" s="138">
+        <v>27708.400000000001</v>
+      </c>
+      <c r="H40" s="138">
+        <v>27708.400000000001</v>
+      </c>
+      <c r="I40" s="138">
+        <v>11122.1</v>
+      </c>
+      <c r="J40" s="138">
+        <v>46070.7</v>
+      </c>
+      <c r="K40" s="140">
+        <v>39086.9</v>
+      </c>
+      <c r="L40" s="138">
+        <v>28502.1</v>
+      </c>
+      <c r="M40" s="138">
+        <v>28502.1</v>
+      </c>
+      <c r="N40" s="138">
+        <v>11328.1</v>
+      </c>
+      <c r="O40" s="138">
+        <v>27120.6</v>
+      </c>
+      <c r="P40" s="140">
+        <v>225450</v>
+      </c>
+      <c r="Q40" s="138">
+        <v>46760.2</v>
+      </c>
+      <c r="R40" s="138">
+        <v>48268.6</v>
+      </c>
+      <c r="S40" s="138">
+        <v>9122.9699999999993</v>
+      </c>
+      <c r="T40" s="140">
+        <v>247710</v>
+      </c>
+      <c r="U40" s="138">
+        <v>50062.400000000001</v>
+      </c>
+      <c r="V40" s="138">
+        <v>50062.400000000001</v>
+      </c>
+      <c r="W40" s="141">
+        <v>9774.58</v>
+      </c>
       <c r="X40" s="147"/>
       <c r="Y40" s="148"/>
       <c r="Z40" s="148"/>
@@ -12646,24 +12770,60 @@
       <c r="E41" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="53"/>
+      <c r="F41" s="54">
+        <v>17.6051</v>
+      </c>
+      <c r="G41" s="52">
+        <v>23.652000000000001</v>
+      </c>
+      <c r="H41" s="52">
+        <v>23.652000000000001</v>
+      </c>
+      <c r="I41" s="52">
+        <v>58.923900000000003</v>
+      </c>
+      <c r="J41" s="52">
+        <v>14.225099999999999</v>
+      </c>
+      <c r="K41" s="54">
+        <v>16.7667</v>
+      </c>
+      <c r="L41" s="52">
+        <v>22.993400000000001</v>
+      </c>
+      <c r="M41" s="52">
+        <v>22.993400000000001</v>
+      </c>
+      <c r="N41" s="52">
+        <v>57.852600000000002</v>
+      </c>
+      <c r="O41" s="52">
+        <v>24.1646</v>
+      </c>
+      <c r="P41" s="54">
+        <v>2.9068999999999998</v>
+      </c>
+      <c r="Q41" s="52">
+        <v>14.0153</v>
+      </c>
+      <c r="R41" s="52">
+        <v>13.577400000000001</v>
+      </c>
+      <c r="S41" s="52">
+        <v>71.836200000000005</v>
+      </c>
+      <c r="T41" s="54">
+        <v>2.64568</v>
+      </c>
+      <c r="U41" s="52">
+        <v>13.0909</v>
+      </c>
+      <c r="V41" s="52">
+        <v>13.0909</v>
+      </c>
+      <c r="W41" s="53">
+        <v>67.047399999999996</v>
+      </c>
       <c r="X41" s="119"/>
       <c r="Y41" s="120"/>
       <c r="Z41" s="120"/>
@@ -14706,11 +14866,11 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="201"/>
-      <c r="G82" s="202"/>
-      <c r="H82" s="202"/>
-      <c r="I82" s="202"/>
-      <c r="J82" s="203"/>
+      <c r="F82" s="192"/>
+      <c r="G82" s="193"/>
+      <c r="H82" s="193"/>
+      <c r="I82" s="193"/>
+      <c r="J82" s="194"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
@@ -17664,6 +17824,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AZ14:AZ15"/>
     <mergeCell ref="AQ1:BD1"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="F1:W1"/>
@@ -17677,12 +17843,6 @@
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AQ2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AZ14:AZ15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17925,10 +18085,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -17949,10 +18109,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -17975,10 +18135,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -17999,10 +18159,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -18081,10 +18241,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -18105,10 +18265,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -18131,15 +18291,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -18356,10 +18516,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -18380,10 +18540,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -18406,10 +18566,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -18430,10 +18590,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -18512,10 +18672,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -18536,10 +18696,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -18562,15 +18722,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -18787,10 +18947,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -18811,10 +18971,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -18837,10 +18997,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -18861,10 +19021,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -18943,10 +19103,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -18967,10 +19127,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -18993,15 +19153,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -19218,10 +19378,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -19242,10 +19402,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -19268,10 +19428,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -19292,10 +19452,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -19374,10 +19534,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -19398,10 +19558,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -19424,15 +19584,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -19649,10 +19809,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -19673,10 +19833,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -19699,10 +19859,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -19723,10 +19883,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -19805,10 +19965,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -19829,10 +19989,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -19855,15 +20015,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -19874,60 +20034,11 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -19944,11 +20055,60 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19987,15 +20147,15 @@
       <c r="D1" s="48">
         <v>128</v>
       </c>
-      <c r="G1" s="238" t="s">
+      <c r="G1" s="241" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="49" t="s">
@@ -20046,7 +20206,7 @@
       <c r="F5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="239" t="s">
+      <c r="G5" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="21"/>
@@ -20063,7 +20223,7 @@
       <c r="N5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="239" t="s">
+      <c r="O5" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20076,7 +20236,7 @@
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
-      <c r="G6" s="240"/>
+      <c r="G6" s="239"/>
       <c r="I6" s="232" t="s">
         <v>30</v>
       </c>
@@ -20085,7 +20245,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="240"/>
+      <c r="O6" s="239"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="234" t="s">
@@ -20104,7 +20264,7 @@
       <c r="F7" s="68">
         <v>327.29599999999999</v>
       </c>
-      <c r="G7" s="240"/>
+      <c r="G7" s="239"/>
       <c r="I7" s="234" t="s">
         <v>9</v>
       </c>
@@ -20121,7 +20281,7 @@
       <c r="N7" s="68">
         <v>966.87400000000002</v>
       </c>
-      <c r="O7" s="240"/>
+      <c r="O7" s="239"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="234"/>
@@ -20138,7 +20298,7 @@
       <c r="F8" s="68">
         <v>417.601</v>
       </c>
-      <c r="G8" s="240"/>
+      <c r="G8" s="239"/>
       <c r="I8" s="234"/>
       <c r="J8" s="235"/>
       <c r="K8" s="64">
@@ -20153,7 +20313,7 @@
       <c r="N8" s="68">
         <v>963.16</v>
       </c>
-      <c r="O8" s="240"/>
+      <c r="O8" s="239"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="234"/>
@@ -20170,7 +20330,7 @@
       <c r="F9" s="68">
         <v>413.22800000000001</v>
       </c>
-      <c r="G9" s="240"/>
+      <c r="G9" s="239"/>
       <c r="I9" s="234"/>
       <c r="J9" s="235"/>
       <c r="K9" s="64">
@@ -20185,13 +20345,13 @@
       <c r="N9" s="68">
         <v>968.12</v>
       </c>
-      <c r="O9" s="240"/>
+      <c r="O9" s="239"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>586.58100000000002</v>
@@ -20208,11 +20368,11 @@
         <f t="shared" si="0"/>
         <v>386.04166666666669</v>
       </c>
-      <c r="G10" s="240"/>
-      <c r="I10" s="217" t="s">
+      <c r="G10" s="239"/>
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6275.6866666666674</v>
@@ -20229,13 +20389,13 @@
         <f t="shared" si="1"/>
         <v>966.05133333333333</v>
       </c>
-      <c r="O10" s="240"/>
+      <c r="O10" s="239"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58658100000000002</v>
@@ -20252,11 +20412,11 @@
         <f t="shared" si="2"/>
         <v>0.38604166666666667</v>
       </c>
-      <c r="G11" s="241"/>
-      <c r="I11" s="219" t="s">
+      <c r="G11" s="240"/>
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.2756866666666671</v>
@@ -20273,7 +20433,7 @@
         <f t="shared" si="3"/>
         <v>0.96605133333333337</v>
       </c>
-      <c r="O11" s="241"/>
+      <c r="O11" s="240"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="221" t="s">
@@ -20332,10 +20492,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1117.2540535748685</v>
@@ -20353,10 +20513,10 @@
         <v>1697.6405828386401</v>
       </c>
       <c r="G15" s="174"/>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>104.42841314575935</v>
@@ -20376,15 +20536,15 @@
       <c r="O15" s="174"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="175"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -20447,7 +20607,7 @@
       <c r="F25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="239" t="s">
+      <c r="G25" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="21"/>
@@ -20464,7 +20624,7 @@
       <c r="N25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O25" s="239" t="s">
+      <c r="O25" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20477,7 +20637,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="240"/>
+      <c r="G26" s="239"/>
       <c r="I26" s="232" t="s">
         <v>30</v>
       </c>
@@ -20486,7 +20646,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="240"/>
+      <c r="O26" s="239"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="234" t="s">
@@ -20505,7 +20665,7 @@
       <c r="F27" s="68">
         <v>437.14299999999997</v>
       </c>
-      <c r="G27" s="240"/>
+      <c r="G27" s="239"/>
       <c r="I27" s="234" t="s">
         <v>9</v>
       </c>
@@ -20522,7 +20682,7 @@
       <c r="N27" s="68">
         <v>1041.47</v>
       </c>
-      <c r="O27" s="240"/>
+      <c r="O27" s="239"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="234"/>
@@ -20539,7 +20699,7 @@
       <c r="F28" s="68">
         <v>397.48099999999999</v>
       </c>
-      <c r="G28" s="240"/>
+      <c r="G28" s="239"/>
       <c r="I28" s="234"/>
       <c r="J28" s="235"/>
       <c r="K28" s="64">
@@ -20554,7 +20714,7 @@
       <c r="N28" s="68">
         <v>1030.71</v>
       </c>
-      <c r="O28" s="240"/>
+      <c r="O28" s="239"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="234"/>
@@ -20571,7 +20731,7 @@
       <c r="F29" s="68">
         <v>398.31400000000002</v>
       </c>
-      <c r="G29" s="240"/>
+      <c r="G29" s="239"/>
       <c r="I29" s="234"/>
       <c r="J29" s="235"/>
       <c r="K29" s="64">
@@ -20586,13 +20746,13 @@
       <c r="N29" s="68">
         <v>1035.75</v>
       </c>
-      <c r="O29" s="240"/>
+      <c r="O29" s="239"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>533.87399999999991</v>
@@ -20609,11 +20769,11 @@
         <f t="shared" si="6"/>
         <v>410.97933333333339</v>
       </c>
-      <c r="G30" s="240"/>
-      <c r="I30" s="217" t="s">
+      <c r="G30" s="239"/>
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6165.626666666667</v>
@@ -20630,13 +20790,13 @@
         <f t="shared" si="7"/>
         <v>1035.9766666666667</v>
       </c>
-      <c r="O30" s="240"/>
+      <c r="O30" s="239"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.53387399999999996</v>
@@ -20653,11 +20813,11 @@
         <f t="shared" si="8"/>
         <v>0.41097933333333336</v>
       </c>
-      <c r="G31" s="241"/>
-      <c r="I31" s="219" t="s">
+      <c r="G31" s="240"/>
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.1656266666666673</v>
@@ -20674,7 +20834,7 @@
         <f t="shared" si="9"/>
         <v>1.0359766666666668</v>
       </c>
-      <c r="O31" s="241"/>
+      <c r="O31" s="240"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="221" t="s">
@@ -20733,10 +20893,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1227.5555655454284</v>
@@ -20754,10 +20914,10 @@
         <v>1594.6300625011152</v>
       </c>
       <c r="G35" s="174"/>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>106.2925206845695</v>
@@ -20777,15 +20937,15 @@
       <c r="O35" s="174"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="175"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -20848,7 +21008,7 @@
       <c r="F45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="239" t="s">
+      <c r="G45" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I45" s="21"/>
@@ -20865,7 +21025,7 @@
       <c r="N45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="239" t="s">
+      <c r="O45" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20878,7 +21038,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="240"/>
+      <c r="G46" s="239"/>
       <c r="I46" s="232" t="s">
         <v>30</v>
       </c>
@@ -20887,7 +21047,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="240"/>
+      <c r="O46" s="239"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="234" t="s">
@@ -20906,7 +21066,7 @@
       <c r="F47" s="68">
         <v>437.28500000000003</v>
       </c>
-      <c r="G47" s="240"/>
+      <c r="G47" s="239"/>
       <c r="I47" s="234" t="s">
         <v>9</v>
       </c>
@@ -20923,7 +21083,7 @@
       <c r="N47" s="68">
         <v>1183.42</v>
       </c>
-      <c r="O47" s="240"/>
+      <c r="O47" s="239"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="234"/>
@@ -20940,7 +21100,7 @@
       <c r="F48" s="68">
         <v>417.85300000000001</v>
       </c>
-      <c r="G48" s="240"/>
+      <c r="G48" s="239"/>
       <c r="I48" s="234"/>
       <c r="J48" s="235"/>
       <c r="K48" s="64">
@@ -20955,7 +21115,7 @@
       <c r="N48" s="68">
         <v>1259.21</v>
       </c>
-      <c r="O48" s="240"/>
+      <c r="O48" s="239"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="234"/>
@@ -20972,7 +21132,7 @@
       <c r="F49" s="68">
         <v>412.06599999999997</v>
       </c>
-      <c r="G49" s="240"/>
+      <c r="G49" s="239"/>
       <c r="I49" s="234"/>
       <c r="J49" s="235"/>
       <c r="K49" s="64">
@@ -20987,13 +21147,13 @@
       <c r="N49" s="68">
         <v>1149.72</v>
       </c>
-      <c r="O49" s="240"/>
+      <c r="O49" s="239"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>563.93933333333337</v>
@@ -21010,11 +21170,11 @@
         <f t="shared" si="12"/>
         <v>422.4013333333333</v>
       </c>
-      <c r="G50" s="240"/>
-      <c r="I50" s="217" t="s">
+      <c r="G50" s="239"/>
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6146.0533333333333</v>
@@ -21031,13 +21191,13 @@
         <f t="shared" si="13"/>
         <v>1197.45</v>
       </c>
-      <c r="O50" s="240"/>
+      <c r="O50" s="239"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.56393933333333335</v>
@@ -21054,11 +21214,11 @@
         <f t="shared" si="14"/>
         <v>0.4224013333333333</v>
       </c>
-      <c r="G51" s="241"/>
-      <c r="I51" s="219" t="s">
+      <c r="G51" s="240"/>
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1460533333333336</v>
@@ -21075,7 +21235,7 @@
         <f t="shared" si="15"/>
         <v>1.1974500000000001</v>
       </c>
-      <c r="O51" s="241"/>
+      <c r="O51" s="240"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="221" t="s">
@@ -21134,10 +21294,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1162.1108180667188</v>
@@ -21155,10 +21315,10 @@
         <v>1551.5102540711678</v>
       </c>
       <c r="G55" s="174"/>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.63103042819891</v>
@@ -21178,15 +21338,15 @@
       <c r="O55" s="174"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="175"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -21249,7 +21409,7 @@
       <c r="F65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="239" t="s">
+      <c r="G65" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I65" s="21"/>
@@ -21266,7 +21426,7 @@
       <c r="N65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="239" t="s">
+      <c r="O65" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -21279,7 +21439,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="240"/>
+      <c r="G66" s="239"/>
       <c r="I66" s="232" t="s">
         <v>30</v>
       </c>
@@ -21288,7 +21448,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="240"/>
+      <c r="O66" s="239"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="234" t="s">
@@ -21307,7 +21467,7 @@
       <c r="F67" s="68">
         <v>440.95</v>
       </c>
-      <c r="G67" s="240"/>
+      <c r="G67" s="239"/>
       <c r="I67" s="234" t="s">
         <v>9</v>
       </c>
@@ -21324,7 +21484,7 @@
       <c r="N67" s="68">
         <v>1420.55</v>
       </c>
-      <c r="O67" s="240"/>
+      <c r="O67" s="239"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="234"/>
@@ -21341,7 +21501,7 @@
       <c r="F68" s="68">
         <v>420.99700000000001</v>
       </c>
-      <c r="G68" s="240"/>
+      <c r="G68" s="239"/>
       <c r="I68" s="234"/>
       <c r="J68" s="235"/>
       <c r="K68" s="64">
@@ -21356,7 +21516,7 @@
       <c r="N68" s="68">
         <v>1422.21</v>
       </c>
-      <c r="O68" s="240"/>
+      <c r="O68" s="239"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="234"/>
@@ -21373,7 +21533,7 @@
       <c r="F69" s="68">
         <v>443.94799999999998</v>
       </c>
-      <c r="G69" s="240"/>
+      <c r="G69" s="239"/>
       <c r="I69" s="234"/>
       <c r="J69" s="235"/>
       <c r="K69" s="64">
@@ -21388,13 +21548,13 @@
       <c r="N69" s="68">
         <v>1410.78</v>
       </c>
-      <c r="O69" s="240"/>
+      <c r="O69" s="239"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>651.27133333333336</v>
@@ -21411,11 +21571,11 @@
         <f t="shared" si="18"/>
         <v>435.29833333333335</v>
       </c>
-      <c r="G70" s="240"/>
-      <c r="I70" s="217" t="s">
+      <c r="G70" s="239"/>
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6132.8466666666673</v>
@@ -21432,13 +21592,13 @@
         <f t="shared" si="19"/>
         <v>1417.8466666666666</v>
       </c>
-      <c r="O70" s="240"/>
+      <c r="O70" s="239"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.65127133333333331</v>
@@ -21455,11 +21615,11 @@
         <f t="shared" si="20"/>
         <v>0.43529833333333334</v>
       </c>
-      <c r="G71" s="241"/>
-      <c r="I71" s="219" t="s">
+      <c r="G71" s="240"/>
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1328466666666674</v>
@@ -21476,7 +21636,7 @@
         <f t="shared" si="21"/>
         <v>1.4178466666666665</v>
       </c>
-      <c r="O71" s="241"/>
+      <c r="O71" s="240"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="221" t="s">
@@ -21535,10 +21695,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>1006.2779773304932</v>
@@ -21556,10 +21716,10 @@
         <v>1505.5421760555021</v>
       </c>
       <c r="G75" s="174"/>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>106.86065307355909</v>
@@ -21579,15 +21739,15 @@
       <c r="O75" s="174"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="175"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -21650,7 +21810,7 @@
       <c r="F85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="239" t="s">
+      <c r="G85" s="238" t="s">
         <v>42</v>
       </c>
       <c r="I85" s="21"/>
@@ -21667,7 +21827,7 @@
       <c r="N85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O85" s="239" t="s">
+      <c r="O85" s="238" t="s">
         <v>42</v>
       </c>
     </row>
@@ -21680,7 +21840,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="240"/>
+      <c r="G86" s="239"/>
       <c r="I86" s="232" t="s">
         <v>30</v>
       </c>
@@ -21689,7 +21849,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
-      <c r="O86" s="240"/>
+      <c r="O86" s="239"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="234" t="s">
@@ -21708,7 +21868,7 @@
       <c r="F87" s="68">
         <v>918.81200000000001</v>
       </c>
-      <c r="G87" s="240"/>
+      <c r="G87" s="239"/>
       <c r="I87" s="234" t="s">
         <v>9</v>
       </c>
@@ -21725,7 +21885,7 @@
       <c r="N87" s="68">
         <v>2538.4899999999998</v>
       </c>
-      <c r="O87" s="240"/>
+      <c r="O87" s="239"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="234"/>
@@ -21742,7 +21902,7 @@
       <c r="F88" s="68">
         <v>919.29399999999998</v>
       </c>
-      <c r="G88" s="240"/>
+      <c r="G88" s="239"/>
       <c r="I88" s="234"/>
       <c r="J88" s="235"/>
       <c r="K88" s="64">
@@ -21757,7 +21917,7 @@
       <c r="N88" s="68">
         <v>2575.33</v>
       </c>
-      <c r="O88" s="240"/>
+      <c r="O88" s="239"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="234"/>
@@ -21774,7 +21934,7 @@
       <c r="F89" s="68">
         <v>916.76499999999999</v>
       </c>
-      <c r="G89" s="240"/>
+      <c r="G89" s="239"/>
       <c r="I89" s="234"/>
       <c r="J89" s="235"/>
       <c r="K89" s="64">
@@ -21789,13 +21949,13 @@
       <c r="N89" s="68">
         <v>2523.56</v>
       </c>
-      <c r="O89" s="240"/>
+      <c r="O89" s="239"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1342.7166666666665</v>
@@ -21812,11 +21972,11 @@
         <f t="shared" si="24"/>
         <v>918.29033333333336</v>
       </c>
-      <c r="G90" s="240"/>
-      <c r="I90" s="217" t="s">
+      <c r="G90" s="239"/>
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>7889.706666666666</v>
@@ -21833,13 +21993,13 @@
         <f t="shared" si="25"/>
         <v>2545.7933333333331</v>
       </c>
-      <c r="O90" s="240"/>
+      <c r="O90" s="239"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.3427166666666666</v>
@@ -21856,11 +22016,11 @@
         <f t="shared" si="26"/>
         <v>0.91829033333333332</v>
       </c>
-      <c r="G91" s="241"/>
-      <c r="I91" s="219" t="s">
+      <c r="G91" s="240"/>
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>7.8897066666666662</v>
@@ -21877,7 +22037,7 @@
         <f t="shared" si="27"/>
         <v>2.5457933333333331</v>
       </c>
-      <c r="O91" s="241"/>
+      <c r="O91" s="240"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="221" t="s">
@@ -21936,10 +22096,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>488.08510110100173</v>
@@ -21957,10 +22117,10 @@
         <v>713.67407040111857</v>
       </c>
       <c r="G95" s="174"/>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>83.065192115296227</v>
@@ -21980,15 +22140,15 @@
       <c r="O95" s="174"/>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="175"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -21999,17 +22159,65 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="O5:O11"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="G45:G51"/>
-    <mergeCell ref="O45:O51"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="O65:O71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="O25:O31"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="I95:J95"/>
     <mergeCell ref="A96:B96"/>
@@ -22026,65 +22234,17 @@
     <mergeCell ref="O85:O91"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O5:O11"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="G45:G51"/>
+    <mergeCell ref="O45:O51"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="O65:O71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="O25:O31"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22327,10 +22487,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -22351,10 +22511,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -22377,10 +22537,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -22401,10 +22561,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -22483,10 +22643,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -22507,10 +22667,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -22533,15 +22693,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -22758,10 +22918,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -22782,10 +22942,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -22808,10 +22968,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -22832,10 +22992,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -22914,10 +23074,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -22938,10 +23098,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -22964,15 +23124,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -23189,10 +23349,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -23213,10 +23373,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -23239,10 +23399,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -23263,10 +23423,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -23345,10 +23505,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -23369,10 +23529,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -23395,15 +23555,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -23620,10 +23780,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -23644,10 +23804,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -23670,10 +23830,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -23694,10 +23854,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -23776,10 +23936,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -23800,10 +23960,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -23826,15 +23986,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -24051,10 +24211,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -24075,10 +24235,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="95">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -24101,10 +24261,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -24125,10 +24285,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -24207,10 +24367,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -24231,10 +24391,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -24257,15 +24417,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -24276,48 +24436,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -24330,27 +24469,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24593,10 +24753,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -24617,10 +24777,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -24643,10 +24803,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -24667,10 +24827,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -24749,10 +24909,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -24773,10 +24933,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -24799,15 +24959,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -25024,10 +25184,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -25048,10 +25208,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -25074,10 +25234,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -25098,10 +25258,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -25180,10 +25340,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -25204,10 +25364,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -25230,15 +25390,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -25455,10 +25615,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="68">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -25479,10 +25639,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -25505,10 +25665,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="70">
         <v>0.63</v>
       </c>
@@ -25524,10 +25684,10 @@
       <c r="G51" s="72">
         <v>0.65</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -25606,10 +25766,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -25630,10 +25790,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -25656,15 +25816,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -25881,10 +26041,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -25905,10 +26065,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -25931,10 +26091,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -25955,10 +26115,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -26037,10 +26197,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -26061,10 +26221,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -26087,15 +26247,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -26312,10 +26472,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -26336,10 +26496,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -26362,10 +26522,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -26386,10 +26546,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -26468,10 +26628,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -26492,10 +26652,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -26518,15 +26678,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -26537,48 +26697,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -26591,27 +26730,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26854,10 +27014,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -26878,10 +27038,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="218"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -26904,10 +27064,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="220"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -26928,10 +27088,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="220"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -27010,10 +27170,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="220"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -27034,10 +27194,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="220"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -27060,15 +27220,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236"/>
-      <c r="B16" s="237"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="237"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -27285,10 +27445,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="218"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -27309,10 +27469,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="237"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -27335,10 +27495,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="220"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -27359,10 +27519,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="220"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -27441,10 +27601,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="220"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -27465,10 +27625,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="220"/>
+      <c r="J35" s="218"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -27491,15 +27651,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="237"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="237"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -27716,10 +27876,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="218"/>
+      <c r="B50" s="237"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -27740,10 +27900,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="218"/>
+      <c r="J50" s="237"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -27766,10 +27926,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="220"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -27790,10 +27950,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -27872,10 +28032,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="220"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -27896,10 +28056,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="220"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -27922,15 +28082,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="220"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="236"/>
-      <c r="J56" s="237"/>
+      <c r="I56" s="219"/>
+      <c r="J56" s="220"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -28147,10 +28307,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="218"/>
+      <c r="B70" s="237"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -28171,10 +28331,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="217" t="s">
+      <c r="I70" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="218"/>
+      <c r="J70" s="237"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -28197,10 +28357,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="220"/>
+      <c r="B71" s="218"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -28221,10 +28381,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -28303,10 +28463,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="220"/>
+      <c r="B75" s="218"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -28327,10 +28487,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="220"/>
+      <c r="J75" s="218"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -28353,15 +28513,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="236"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="219"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="237"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="220"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -28578,10 +28738,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="217" t="s">
+      <c r="A90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="218"/>
+      <c r="B90" s="237"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -28602,10 +28762,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="217" t="s">
+      <c r="I90" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="218"/>
+      <c r="J90" s="237"/>
       <c r="K90" s="64">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -28628,10 +28788,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="220"/>
+      <c r="B91" s="218"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -28652,10 +28812,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="219" t="s">
+      <c r="I91" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="220"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -28734,10 +28894,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="220"/>
+      <c r="B95" s="218"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -28758,10 +28918,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="219" t="s">
+      <c r="I95" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="220"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -28784,15 +28944,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="236"/>
-      <c r="B96" s="237"/>
+      <c r="A96" s="219"/>
+      <c r="B96" s="220"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="236"/>
-      <c r="J96" s="237"/>
+      <c r="I96" s="219"/>
+      <c r="J96" s="220"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -28803,48 +28963,27 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -28857,27 +28996,48 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E21CBB2-9AC0-4FC7-B037-2E6ED3E536BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D4176B-DD8F-469C-9C52-2599ECCD7E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="730" activeTab="1" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -1219,12 +1219,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1238,6 +1232,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7867,9 +7867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81A5C4-0DEF-4D93-A6BF-5419A031E380}">
   <dimension ref="A1:BS318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S46" sqref="S46"/>
+      <selection pane="topRight" activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7909,63 +7909,63 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="212" t="s">
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="212"/>
+      <c r="X1" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="213"/>
-      <c r="AG1" s="213"/>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="213"/>
-      <c r="AJ1" s="213"/>
-      <c r="AK1" s="213"/>
-      <c r="AL1" s="213"/>
-      <c r="AM1" s="213"/>
-      <c r="AN1" s="213"/>
-      <c r="AO1" s="214"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="211"/>
+      <c r="AH1" s="211"/>
+      <c r="AI1" s="211"/>
+      <c r="AJ1" s="211"/>
+      <c r="AK1" s="211"/>
+      <c r="AL1" s="211"/>
+      <c r="AM1" s="211"/>
+      <c r="AN1" s="211"/>
+      <c r="AO1" s="212"/>
       <c r="AP1" s="50"/>
-      <c r="AQ1" s="212" t="s">
+      <c r="AQ1" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="213"/>
-      <c r="AS1" s="213"/>
-      <c r="AT1" s="213"/>
-      <c r="AU1" s="213"/>
-      <c r="AV1" s="213"/>
-      <c r="AW1" s="213"/>
-      <c r="AX1" s="213"/>
-      <c r="AY1" s="213"/>
-      <c r="AZ1" s="213"/>
-      <c r="BA1" s="213"/>
-      <c r="BB1" s="213"/>
-      <c r="BC1" s="213"/>
-      <c r="BD1" s="214"/>
+      <c r="AR1" s="211"/>
+      <c r="AS1" s="211"/>
+      <c r="AT1" s="211"/>
+      <c r="AU1" s="211"/>
+      <c r="AV1" s="211"/>
+      <c r="AW1" s="211"/>
+      <c r="AX1" s="211"/>
+      <c r="AY1" s="211"/>
+      <c r="AZ1" s="211"/>
+      <c r="BA1" s="211"/>
+      <c r="BB1" s="211"/>
+      <c r="BC1" s="211"/>
+      <c r="BD1" s="212"/>
       <c r="BE1" s="176"/>
       <c r="BF1" s="176"/>
       <c r="BG1" s="176"/>
@@ -9991,12 +9991,12 @@
       <c r="Y14" s="148"/>
       <c r="Z14" s="148"/>
       <c r="AA14" s="139"/>
-      <c r="AB14" s="215"/>
+      <c r="AB14" s="213"/>
       <c r="AC14" s="183"/>
       <c r="AD14" s="139"/>
       <c r="AE14" s="139"/>
       <c r="AF14" s="139"/>
-      <c r="AG14" s="215"/>
+      <c r="AG14" s="213"/>
       <c r="AH14" s="183"/>
       <c r="AI14" s="139"/>
       <c r="AJ14" s="139"/>
@@ -10006,9 +10006,9 @@
       <c r="AN14" s="116"/>
       <c r="AO14" s="152"/>
       <c r="AP14" s="181"/>
-      <c r="AU14" s="210"/>
+      <c r="AU14" s="215"/>
       <c r="AV14" s="126"/>
-      <c r="AZ14" s="210"/>
+      <c r="AZ14" s="215"/>
       <c r="BA14" s="126"/>
       <c r="BD14" s="117"/>
     </row>
@@ -10040,12 +10040,12 @@
       <c r="Y15" s="120"/>
       <c r="Z15" s="120"/>
       <c r="AA15" s="121"/>
-      <c r="AB15" s="216"/>
+      <c r="AB15" s="214"/>
       <c r="AC15" s="153"/>
       <c r="AD15" s="121"/>
       <c r="AE15" s="121"/>
       <c r="AF15" s="121"/>
-      <c r="AG15" s="216"/>
+      <c r="AG15" s="214"/>
       <c r="AH15" s="153"/>
       <c r="AI15" s="121"/>
       <c r="AJ15" s="121"/>
@@ -10055,9 +10055,9 @@
       <c r="AN15" s="121"/>
       <c r="AO15" s="154"/>
       <c r="AP15" s="187"/>
-      <c r="AU15" s="211"/>
+      <c r="AU15" s="216"/>
       <c r="AV15" s="127"/>
-      <c r="AZ15" s="211"/>
+      <c r="AZ15" s="216"/>
       <c r="BA15" s="127"/>
       <c r="BD15" s="122"/>
     </row>
@@ -13121,24 +13121,60 @@
         <v>163840000</v>
       </c>
       <c r="E44" s="63"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="136"/>
-      <c r="L44" s="137"/>
-      <c r="M44" s="137"/>
-      <c r="N44" s="137"/>
-      <c r="O44" s="137"/>
-      <c r="P44" s="136"/>
-      <c r="Q44" s="137"/>
-      <c r="R44" s="137"/>
-      <c r="S44" s="137"/>
-      <c r="T44" s="136"/>
-      <c r="U44" s="137"/>
-      <c r="V44" s="137"/>
-      <c r="W44" s="142"/>
+      <c r="F44" s="136">
+        <v>40502.400000000001</v>
+      </c>
+      <c r="G44" s="137">
+        <v>27348</v>
+      </c>
+      <c r="H44" s="137">
+        <v>27348</v>
+      </c>
+      <c r="I44" s="137">
+        <v>12764</v>
+      </c>
+      <c r="J44" s="137">
+        <v>10588.5</v>
+      </c>
+      <c r="K44" s="136">
+        <v>38148.6</v>
+      </c>
+      <c r="L44" s="137">
+        <v>27709.9</v>
+      </c>
+      <c r="M44" s="137">
+        <v>27407.599999999999</v>
+      </c>
+      <c r="N44" s="137">
+        <v>11328.1</v>
+      </c>
+      <c r="O44" s="137">
+        <v>10513.9</v>
+      </c>
+      <c r="P44" s="136">
+        <v>207164</v>
+      </c>
+      <c r="Q44" s="137">
+        <v>49446.3</v>
+      </c>
+      <c r="R44" s="137">
+        <v>49446.3</v>
+      </c>
+      <c r="S44" s="137">
+        <v>11070.4</v>
+      </c>
+      <c r="T44" s="136">
+        <v>256064</v>
+      </c>
+      <c r="U44" s="137">
+        <v>50044.3</v>
+      </c>
+      <c r="V44" s="137">
+        <v>50044.3</v>
+      </c>
+      <c r="W44" s="142">
+        <v>10685.3</v>
+      </c>
       <c r="X44" s="147"/>
       <c r="Y44" s="148"/>
       <c r="Z44" s="148"/>
@@ -13198,24 +13234,60 @@
       <c r="E45" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="101"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="102"/>
-      <c r="N45" s="102"/>
-      <c r="O45" s="102"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="102"/>
-      <c r="R45" s="102"/>
-      <c r="S45" s="102"/>
-      <c r="T45" s="101"/>
-      <c r="U45" s="102"/>
-      <c r="V45" s="102"/>
-      <c r="W45" s="103"/>
+      <c r="F45" s="101">
+        <v>16.180800000000001</v>
+      </c>
+      <c r="G45" s="102">
+        <v>23.963699999999999</v>
+      </c>
+      <c r="H45" s="102">
+        <v>23.963699999999999</v>
+      </c>
+      <c r="I45" s="102">
+        <v>51.344200000000001</v>
+      </c>
+      <c r="J45" s="102">
+        <v>61.893799999999999</v>
+      </c>
+      <c r="K45" s="101">
+        <v>17.179099999999998</v>
+      </c>
+      <c r="L45" s="102">
+        <v>23.6508</v>
+      </c>
+      <c r="M45" s="102">
+        <v>23.9116</v>
+      </c>
+      <c r="N45" s="102">
+        <v>57.852600000000002</v>
+      </c>
+      <c r="O45" s="102">
+        <v>62.332799999999999</v>
+      </c>
+      <c r="P45" s="101">
+        <v>3.1634799999999998</v>
+      </c>
+      <c r="Q45" s="102">
+        <v>13.254</v>
+      </c>
+      <c r="R45" s="102">
+        <v>13.254</v>
+      </c>
+      <c r="S45" s="102">
+        <v>59.1995</v>
+      </c>
+      <c r="T45" s="101">
+        <v>2.5593599999999999</v>
+      </c>
+      <c r="U45" s="102">
+        <v>13.095599999999999</v>
+      </c>
+      <c r="V45" s="102">
+        <v>13.095599999999999</v>
+      </c>
+      <c r="W45" s="103">
+        <v>61.332599999999999</v>
+      </c>
       <c r="X45" s="119"/>
       <c r="Y45" s="120"/>
       <c r="Z45" s="120"/>
@@ -17824,9 +17896,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AQ2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BD2"/>
     <mergeCell ref="AU14:AU15"/>
     <mergeCell ref="AZ14:AZ15"/>
@@ -17843,6 +17912,9 @@
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Measurements/0_measurements_evaluation.xlsx
+++ b/Measurements/0_measurements_evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\FPGA-SIMD-Sandbox\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69E537C-1899-4861-998F-E65188BB4C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153AA5DF-0815-4E73-A985-C333A44AC3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="730" activeTab="1" xr2:uid="{E844A9DA-1A30-477C-9862-EC514B4B7F27}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="42">
   <si>
     <t>distinctValues</t>
   </si>
@@ -140,9 +140,6 @@
     <t>node n143</t>
   </si>
   <si>
-    <t>41,284,3</t>
-  </si>
-  <si>
     <t>FPGA-PROJEKT                            (kernel runtime in ms; lower is better)</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>11,514,9</t>
-  </si>
-  <si>
-    <t>13,912,6</t>
   </si>
   <si>
     <r>
@@ -1156,33 +1150,6 @@
     <xf numFmtId="4" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1219,6 +1186,42 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="7" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1231,26 +1234,17 @@
     <xf numFmtId="4" fontId="7" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1297,11 +1291,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1311,9 +1308,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1672,35 +1666,35 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="198" t="s">
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="200"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="191"/>
       <c r="P1" s="50"/>
-      <c r="Q1" s="198" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="198" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="200"/>
+      <c r="Q1" s="189" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
       <c r="AA1" s="169"/>
       <c r="AB1" s="169"/>
       <c r="AC1" s="169"/>
@@ -1725,51 +1719,51 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="201" t="s">
+      <c r="F2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="203" t="s">
+      <c r="G2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="203" t="s">
+      <c r="I2" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="205" t="s">
+      <c r="J2" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="209"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="201" t="s">
+      <c r="Q2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="203" t="s">
+      <c r="R2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="203" t="s">
+      <c r="S2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="203" t="s">
+      <c r="T2" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="205" t="s">
+      <c r="U2" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="207" t="s">
+      <c r="V2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="209"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
       <c r="AA2" s="170"/>
       <c r="AB2" s="170"/>
       <c r="AC2" s="170"/>
@@ -1802,11 +1796,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="206"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="197"/>
       <c r="K3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1823,11 +1817,11 @@
         <v>19</v>
       </c>
       <c r="P3" s="17"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="206"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="197"/>
       <c r="V3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2730,34 +2724,34 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="189" t="s">
+      <c r="F14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="189" t="s">
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="191"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="205"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="206"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="189" t="s">
+      <c r="Q14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="190"/>
-      <c r="S14" s="190"/>
-      <c r="T14" s="190"/>
+      <c r="R14" s="205"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="205"/>
       <c r="U14" s="172"/>
-      <c r="V14" s="189" t="s">
+      <c r="V14" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="W14" s="190"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="190"/>
+      <c r="W14" s="205"/>
+      <c r="X14" s="205"/>
+      <c r="Y14" s="205"/>
       <c r="Z14" s="172"/>
       <c r="AA14" s="51"/>
       <c r="AB14" s="51"/>
@@ -3531,31 +3525,31 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="189" t="s">
+      <c r="F26" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="190"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="189" t="s">
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="190"/>
-      <c r="O26" s="191"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="206"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="195"/>
-      <c r="R26" s="196"/>
-      <c r="S26" s="196"/>
-      <c r="T26" s="196"/>
-      <c r="U26" s="197"/>
-      <c r="V26" s="195"/>
-      <c r="W26" s="196"/>
-      <c r="X26" s="196"/>
-      <c r="Y26" s="196"/>
-      <c r="Z26" s="197"/>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="208"/>
+      <c r="S26" s="208"/>
+      <c r="T26" s="208"/>
+      <c r="U26" s="209"/>
+      <c r="V26" s="207"/>
+      <c r="W26" s="208"/>
+      <c r="X26" s="208"/>
+      <c r="Y26" s="208"/>
+      <c r="Z26" s="209"/>
       <c r="AA26" s="51"/>
       <c r="AB26" s="51"/>
       <c r="AC26" s="51"/>
@@ -4328,31 +4322,31 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="189" t="s">
+      <c r="F38" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="189" t="s">
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="206"/>
+      <c r="K38" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="191"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="205"/>
+      <c r="O38" s="206"/>
       <c r="P38" s="34"/>
-      <c r="Q38" s="195"/>
-      <c r="R38" s="196"/>
-      <c r="S38" s="196"/>
-      <c r="T38" s="196"/>
-      <c r="U38" s="197"/>
-      <c r="V38" s="195"/>
-      <c r="W38" s="196"/>
-      <c r="X38" s="196"/>
-      <c r="Y38" s="196"/>
-      <c r="Z38" s="197"/>
+      <c r="Q38" s="207"/>
+      <c r="R38" s="208"/>
+      <c r="S38" s="208"/>
+      <c r="T38" s="208"/>
+      <c r="U38" s="209"/>
+      <c r="V38" s="207"/>
+      <c r="W38" s="208"/>
+      <c r="X38" s="208"/>
+      <c r="Y38" s="208"/>
+      <c r="Z38" s="209"/>
       <c r="AA38" s="51"/>
       <c r="AB38" s="51"/>
       <c r="AC38" s="51"/>
@@ -5125,31 +5119,31 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="189" t="s">
+      <c r="F50" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="190"/>
-      <c r="H50" s="190"/>
-      <c r="I50" s="190"/>
-      <c r="J50" s="191"/>
-      <c r="K50" s="189" t="s">
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
+      <c r="I50" s="205"/>
+      <c r="J50" s="206"/>
+      <c r="K50" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="190"/>
-      <c r="M50" s="190"/>
-      <c r="N50" s="190"/>
-      <c r="O50" s="191"/>
+      <c r="L50" s="205"/>
+      <c r="M50" s="205"/>
+      <c r="N50" s="205"/>
+      <c r="O50" s="206"/>
       <c r="P50" s="34"/>
-      <c r="Q50" s="195"/>
-      <c r="R50" s="196"/>
-      <c r="S50" s="196"/>
-      <c r="T50" s="196"/>
-      <c r="U50" s="197"/>
-      <c r="V50" s="195"/>
-      <c r="W50" s="196"/>
-      <c r="X50" s="196"/>
-      <c r="Y50" s="196"/>
-      <c r="Z50" s="197"/>
+      <c r="Q50" s="207"/>
+      <c r="R50" s="208"/>
+      <c r="S50" s="208"/>
+      <c r="T50" s="208"/>
+      <c r="U50" s="209"/>
+      <c r="V50" s="207"/>
+      <c r="W50" s="208"/>
+      <c r="X50" s="208"/>
+      <c r="Y50" s="208"/>
+      <c r="Z50" s="209"/>
       <c r="AA50" s="51"/>
       <c r="AB50" s="51"/>
       <c r="AC50" s="51"/>
@@ -6059,22 +6053,22 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="192"/>
-      <c r="G82" s="193"/>
-      <c r="H82" s="193"/>
-      <c r="I82" s="193"/>
-      <c r="J82" s="194"/>
+      <c r="F82" s="201"/>
+      <c r="G82" s="202"/>
+      <c r="H82" s="202"/>
+      <c r="I82" s="202"/>
+      <c r="J82" s="203"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
       <c r="N82" s="81"/>
       <c r="O82" s="61"/>
       <c r="P82" s="88"/>
-      <c r="Q82" s="192"/>
-      <c r="R82" s="193"/>
-      <c r="S82" s="193"/>
-      <c r="T82" s="193"/>
-      <c r="U82" s="194"/>
+      <c r="Q82" s="201"/>
+      <c r="R82" s="202"/>
+      <c r="S82" s="202"/>
+      <c r="T82" s="202"/>
+      <c r="U82" s="203"/>
       <c r="V82" s="62"/>
       <c r="W82" s="81"/>
       <c r="X82" s="81"/>
@@ -7823,14 +7817,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="Q82:U82"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:Z50"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
@@ -7847,16 +7843,14 @@
     <mergeCell ref="F50:J50"/>
     <mergeCell ref="K50:O50"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="Q82:U82"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="V38:Z38"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7868,8 +7862,8 @@
   <dimension ref="A1:BS318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO9" sqref="AO9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7909,63 +7903,63 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="214" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="215"/>
-      <c r="T1" s="215"/>
-      <c r="U1" s="215"/>
-      <c r="V1" s="215"/>
-      <c r="W1" s="216"/>
-      <c r="X1" s="214" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="215"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="215"/>
-      <c r="AB1" s="215"/>
-      <c r="AC1" s="215"/>
-      <c r="AD1" s="215"/>
-      <c r="AE1" s="215"/>
-      <c r="AF1" s="215"/>
-      <c r="AG1" s="215"/>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="215"/>
-      <c r="AJ1" s="215"/>
-      <c r="AK1" s="215"/>
-      <c r="AL1" s="215"/>
-      <c r="AM1" s="215"/>
-      <c r="AN1" s="215"/>
-      <c r="AO1" s="216"/>
+      <c r="F1" s="210" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="212"/>
+      <c r="X1" s="210" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="211"/>
+      <c r="AH1" s="211"/>
+      <c r="AI1" s="211"/>
+      <c r="AJ1" s="211"/>
+      <c r="AK1" s="211"/>
+      <c r="AL1" s="211"/>
+      <c r="AM1" s="211"/>
+      <c r="AN1" s="211"/>
+      <c r="AO1" s="212"/>
       <c r="AP1" s="50"/>
-      <c r="AQ1" s="214" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR1" s="215"/>
-      <c r="AS1" s="215"/>
-      <c r="AT1" s="215"/>
-      <c r="AU1" s="215"/>
-      <c r="AV1" s="215"/>
-      <c r="AW1" s="215"/>
-      <c r="AX1" s="215"/>
-      <c r="AY1" s="215"/>
-      <c r="AZ1" s="215"/>
-      <c r="BA1" s="215"/>
-      <c r="BB1" s="215"/>
-      <c r="BC1" s="215"/>
-      <c r="BD1" s="216"/>
+      <c r="AQ1" s="210" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="211"/>
+      <c r="AS1" s="211"/>
+      <c r="AT1" s="211"/>
+      <c r="AU1" s="211"/>
+      <c r="AV1" s="211"/>
+      <c r="AW1" s="211"/>
+      <c r="AX1" s="211"/>
+      <c r="AY1" s="211"/>
+      <c r="AZ1" s="211"/>
+      <c r="BA1" s="211"/>
+      <c r="BB1" s="211"/>
+      <c r="BC1" s="211"/>
+      <c r="BD1" s="212"/>
       <c r="BE1" s="176"/>
       <c r="BF1" s="176"/>
       <c r="BG1" s="176"/>
@@ -7988,79 +7982,79 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="207" t="s">
+      <c r="F2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="198" t="s">
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="198" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="198" t="s">
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="207" t="s">
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="198" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="199"/>
-      <c r="AE2" s="199"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="200"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AD2" s="190"/>
+      <c r="AE2" s="190"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="191"/>
+      <c r="AH2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="199"/>
-      <c r="AK2" s="200"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AI2" s="190"/>
+      <c r="AJ2" s="190"/>
+      <c r="AK2" s="191"/>
+      <c r="AL2" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="199"/>
-      <c r="AO2" s="200"/>
+      <c r="AM2" s="190"/>
+      <c r="AN2" s="190"/>
+      <c r="AO2" s="191"/>
       <c r="AP2" s="13"/>
-      <c r="AQ2" s="207" t="s">
+      <c r="AQ2" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="208"/>
-      <c r="AT2" s="208"/>
-      <c r="AU2" s="209"/>
-      <c r="AV2" s="198" t="s">
+      <c r="AR2" s="199"/>
+      <c r="AS2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
+      <c r="AV2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="199"/>
-      <c r="AY2" s="199"/>
-      <c r="AZ2" s="200"/>
-      <c r="BA2" s="198" t="s">
+      <c r="AW2" s="190"/>
+      <c r="AX2" s="190"/>
+      <c r="AY2" s="190"/>
+      <c r="AZ2" s="191"/>
+      <c r="BA2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="BB2" s="199"/>
-      <c r="BC2" s="199"/>
-      <c r="BD2" s="200"/>
+      <c r="BB2" s="190"/>
+      <c r="BC2" s="190"/>
+      <c r="BD2" s="191"/>
       <c r="BE2" s="170"/>
       <c r="BF2" s="170"/>
       <c r="BG2" s="170"/>
@@ -9991,12 +9985,12 @@
       <c r="Y14" s="148"/>
       <c r="Z14" s="148"/>
       <c r="AA14" s="139"/>
-      <c r="AB14" s="210"/>
+      <c r="AB14" s="213"/>
       <c r="AC14" s="183"/>
       <c r="AD14" s="139"/>
       <c r="AE14" s="139"/>
       <c r="AF14" s="139"/>
-      <c r="AG14" s="210"/>
+      <c r="AG14" s="213"/>
       <c r="AH14" s="183"/>
       <c r="AI14" s="139"/>
       <c r="AJ14" s="139"/>
@@ -10006,9 +10000,9 @@
       <c r="AN14" s="116"/>
       <c r="AO14" s="152"/>
       <c r="AP14" s="181"/>
-      <c r="AU14" s="212"/>
+      <c r="AU14" s="215"/>
       <c r="AV14" s="126"/>
-      <c r="AZ14" s="212"/>
+      <c r="AZ14" s="215"/>
       <c r="BA14" s="126"/>
       <c r="BD14" s="117"/>
     </row>
@@ -10040,12 +10034,12 @@
       <c r="Y15" s="120"/>
       <c r="Z15" s="120"/>
       <c r="AA15" s="121"/>
-      <c r="AB15" s="211"/>
+      <c r="AB15" s="214"/>
       <c r="AC15" s="153"/>
       <c r="AD15" s="121"/>
       <c r="AE15" s="121"/>
       <c r="AF15" s="121"/>
-      <c r="AG15" s="211"/>
+      <c r="AG15" s="214"/>
       <c r="AH15" s="153"/>
       <c r="AI15" s="121"/>
       <c r="AJ15" s="121"/>
@@ -10055,9 +10049,9 @@
       <c r="AN15" s="121"/>
       <c r="AO15" s="154"/>
       <c r="AP15" s="187"/>
-      <c r="AU15" s="213"/>
+      <c r="AU15" s="216"/>
       <c r="AV15" s="127"/>
-      <c r="AZ15" s="213"/>
+      <c r="AZ15" s="216"/>
       <c r="BA15" s="127"/>
       <c r="BD15" s="122"/>
     </row>
@@ -11043,7 +11037,7 @@
         <v>67387.7</v>
       </c>
       <c r="S24" s="133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T24" s="132">
         <v>259054</v>
@@ -12306,8 +12300,8 @@
       <c r="I36" s="133">
         <v>14526.8</v>
       </c>
-      <c r="J36" s="133" t="s">
-        <v>36</v>
+      <c r="J36" s="133">
+        <v>13912.6</v>
       </c>
       <c r="K36" s="132">
         <v>40756.5</v>
@@ -13585,8 +13579,8 @@
         <v>163840000</v>
       </c>
       <c r="E48" s="63"/>
-      <c r="F48" s="132" t="s">
-        <v>32</v>
+      <c r="F48" s="132">
+        <v>41284.300000000003</v>
       </c>
       <c r="G48" s="133">
         <v>52887.7</v>
@@ -13604,7 +13598,7 @@
         <v>41440.6</v>
       </c>
       <c r="L48" s="133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M48" s="133">
         <v>51969.1</v>
@@ -13625,7 +13619,7 @@
         <v>62642.2</v>
       </c>
       <c r="S48" s="133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T48" s="132">
         <v>254833</v>
@@ -15010,11 +15004,11 @@
       <c r="C82" s="91"/>
       <c r="D82" s="91"/>
       <c r="E82" s="88"/>
-      <c r="F82" s="192"/>
-      <c r="G82" s="193"/>
-      <c r="H82" s="193"/>
-      <c r="I82" s="193"/>
-      <c r="J82" s="194"/>
+      <c r="F82" s="201"/>
+      <c r="G82" s="202"/>
+      <c r="H82" s="202"/>
+      <c r="I82" s="202"/>
+      <c r="J82" s="203"/>
       <c r="K82" s="62"/>
       <c r="L82" s="81"/>
       <c r="M82" s="81"/>
@@ -17968,6 +17962,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AZ14:AZ15"/>
     <mergeCell ref="AQ1:BD1"/>
     <mergeCell ref="F82:J82"/>
     <mergeCell ref="F1:W1"/>
@@ -17984,9 +17981,6 @@
     <mergeCell ref="AB14:AB15"/>
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AZ14:AZ15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18229,10 +18223,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>631.25833333333333</v>
@@ -18253,10 +18247,10 @@
         <f t="shared" si="0"/>
         <v>1493.8266666666666</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7176.6866666666674</v>
@@ -18279,10 +18273,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.63125833333333337</v>
@@ -18303,10 +18297,10 @@
         <f t="shared" si="2"/>
         <v>1.4938266666666666</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1766866666666678</v>
@@ -18385,10 +18379,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1038.1803540547319</v>
@@ -18409,10 +18403,10 @@
         <f t="shared" si="4"/>
         <v>438.7122111445326</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.317906220419246</v>
@@ -18435,15 +18429,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -18660,10 +18654,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.23099999999999</v>
@@ -18684,10 +18678,10 @@
         <f t="shared" si="6"/>
         <v>1062.3533333333332</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>7055.56</v>
@@ -18710,10 +18704,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59423099999999995</v>
@@ -18734,10 +18728,10 @@
         <f t="shared" si="8"/>
         <v>1.0623533333333333</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>7.0555600000000007</v>
@@ -18816,10 +18810,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1102.8707691116756</v>
@@ -18840,10 +18834,10 @@
         <f t="shared" si="10"/>
         <v>616.89456740695186</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>92.885610780717613</v>
@@ -18866,15 +18860,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -19091,10 +19085,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>750.60666666666657</v>
@@ -19115,10 +19109,10 @@
         <f t="shared" si="12"/>
         <v>2919.0966666666668</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>7345.1933333333327</v>
@@ -19141,10 +19135,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.75060666666666653</v>
@@ -19165,10 +19159,10 @@
         <f t="shared" si="14"/>
         <v>2.9190966666666669</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>7.3451933333333326</v>
@@ -19247,10 +19241,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>873.10708671208192</v>
@@ -19271,10 +19265,10 @@
         <f t="shared" si="16"/>
         <v>224.50781006452908</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>89.222974843412345</v>
@@ -19297,15 +19291,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -19522,10 +19516,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>845.12266666666665</v>
@@ -19546,10 +19540,10 @@
         <f t="shared" si="18"/>
         <v>2848.7366666666662</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>7457.1500000000005</v>
@@ -19572,10 +19566,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.84512266666666669</v>
@@ -19596,10 +19590,10 @@
         <f t="shared" si="20"/>
         <v>2.848736666666666</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>7.4571500000000004</v>
@@ -19678,10 +19672,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>775.46139258679602</v>
@@ -19702,10 +19696,10 @@
         <f t="shared" si="22"/>
         <v>230.05285383813415</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>87.883440724673633</v>
@@ -19728,15 +19722,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -19953,10 +19947,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1511.6633333333332</v>
@@ -19977,10 +19971,10 @@
         <f t="shared" si="24"/>
         <v>3661.8433333333337</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10524.433333333334</v>
@@ -20003,10 +19997,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5116633333333331</v>
@@ -20027,10 +20021,10 @@
         <f t="shared" si="26"/>
         <v>3.6618433333333336</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.524433333333334</v>
@@ -20109,10 +20103,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>433.5356858559777</v>
@@ -20133,10 +20127,10 @@
         <f>$G3/G91</f>
         <v>178.9699723181312</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>62.270336011756761</v>
@@ -20159,15 +20153,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -20178,11 +20172,60 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I26:J26"/>
@@ -20199,60 +20242,11 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20291,15 +20285,15 @@
       <c r="D1" s="48">
         <v>128</v>
       </c>
-      <c r="G1" s="241" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
+      <c r="G1" s="238" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="49" t="s">
@@ -20350,8 +20344,8 @@
       <c r="F5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="238" t="s">
-        <v>42</v>
+      <c r="G5" s="239" t="s">
+        <v>40</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
@@ -20367,8 +20361,8 @@
       <c r="N5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="238" t="s">
-        <v>42</v>
+      <c r="O5" s="239" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -20380,7 +20374,7 @@
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
-      <c r="G6" s="239"/>
+      <c r="G6" s="240"/>
       <c r="I6" s="232" t="s">
         <v>30</v>
       </c>
@@ -20389,7 +20383,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="239"/>
+      <c r="O6" s="240"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="234" t="s">
@@ -20408,7 +20402,7 @@
       <c r="F7" s="68">
         <v>327.29599999999999</v>
       </c>
-      <c r="G7" s="239"/>
+      <c r="G7" s="240"/>
       <c r="I7" s="234" t="s">
         <v>9</v>
       </c>
@@ -20425,7 +20419,7 @@
       <c r="N7" s="68">
         <v>966.87400000000002</v>
       </c>
-      <c r="O7" s="239"/>
+      <c r="O7" s="240"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="234"/>
@@ -20442,7 +20436,7 @@
       <c r="F8" s="68">
         <v>417.601</v>
       </c>
-      <c r="G8" s="239"/>
+      <c r="G8" s="240"/>
       <c r="I8" s="234"/>
       <c r="J8" s="235"/>
       <c r="K8" s="64">
@@ -20457,7 +20451,7 @@
       <c r="N8" s="68">
         <v>963.16</v>
       </c>
-      <c r="O8" s="239"/>
+      <c r="O8" s="240"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="234"/>
@@ -20474,7 +20468,7 @@
       <c r="F9" s="68">
         <v>413.22800000000001</v>
       </c>
-      <c r="G9" s="239"/>
+      <c r="G9" s="240"/>
       <c r="I9" s="234"/>
       <c r="J9" s="235"/>
       <c r="K9" s="64">
@@ -20489,13 +20483,13 @@
       <c r="N9" s="68">
         <v>968.12</v>
       </c>
-      <c r="O9" s="239"/>
+      <c r="O9" s="240"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>586.58100000000002</v>
@@ -20512,11 +20506,11 @@
         <f t="shared" si="0"/>
         <v>386.04166666666669</v>
       </c>
-      <c r="G10" s="239"/>
-      <c r="I10" s="236" t="s">
+      <c r="G10" s="240"/>
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6275.6866666666674</v>
@@ -20533,13 +20527,13 @@
         <f t="shared" si="1"/>
         <v>966.05133333333333</v>
       </c>
-      <c r="O10" s="239"/>
+      <c r="O10" s="240"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58658100000000002</v>
@@ -20556,11 +20550,11 @@
         <f t="shared" si="2"/>
         <v>0.38604166666666667</v>
       </c>
-      <c r="G11" s="240"/>
-      <c r="I11" s="217" t="s">
+      <c r="G11" s="241"/>
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.2756866666666671</v>
@@ -20577,7 +20571,7 @@
         <f t="shared" si="3"/>
         <v>0.96605133333333337</v>
       </c>
-      <c r="O11" s="240"/>
+      <c r="O11" s="241"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="221" t="s">
@@ -20636,10 +20630,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1117.2540535748685</v>
@@ -20657,10 +20651,10 @@
         <v>1697.6405828386401</v>
       </c>
       <c r="G15" s="174"/>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>104.42841314575935</v>
@@ -20680,15 +20674,15 @@
       <c r="O15" s="174"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="175"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -20751,8 +20745,8 @@
       <c r="F25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="238" t="s">
-        <v>42</v>
+      <c r="G25" s="239" t="s">
+        <v>40</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
@@ -20768,8 +20762,8 @@
       <c r="N25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O25" s="238" t="s">
-        <v>42</v>
+      <c r="O25" s="239" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -20781,7 +20775,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="239"/>
+      <c r="G26" s="240"/>
       <c r="I26" s="232" t="s">
         <v>30</v>
       </c>
@@ -20790,7 +20784,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="239"/>
+      <c r="O26" s="240"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="234" t="s">
@@ -20809,7 +20803,7 @@
       <c r="F27" s="68">
         <v>437.14299999999997</v>
       </c>
-      <c r="G27" s="239"/>
+      <c r="G27" s="240"/>
       <c r="I27" s="234" t="s">
         <v>9</v>
       </c>
@@ -20826,7 +20820,7 @@
       <c r="N27" s="68">
         <v>1041.47</v>
       </c>
-      <c r="O27" s="239"/>
+      <c r="O27" s="240"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="234"/>
@@ -20843,7 +20837,7 @@
       <c r="F28" s="68">
         <v>397.48099999999999</v>
       </c>
-      <c r="G28" s="239"/>
+      <c r="G28" s="240"/>
       <c r="I28" s="234"/>
       <c r="J28" s="235"/>
       <c r="K28" s="64">
@@ -20858,7 +20852,7 @@
       <c r="N28" s="68">
         <v>1030.71</v>
       </c>
-      <c r="O28" s="239"/>
+      <c r="O28" s="240"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="234"/>
@@ -20875,7 +20869,7 @@
       <c r="F29" s="68">
         <v>398.31400000000002</v>
       </c>
-      <c r="G29" s="239"/>
+      <c r="G29" s="240"/>
       <c r="I29" s="234"/>
       <c r="J29" s="235"/>
       <c r="K29" s="64">
@@ -20890,13 +20884,13 @@
       <c r="N29" s="68">
         <v>1035.75</v>
       </c>
-      <c r="O29" s="239"/>
+      <c r="O29" s="240"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>533.87399999999991</v>
@@ -20913,11 +20907,11 @@
         <f t="shared" si="6"/>
         <v>410.97933333333339</v>
       </c>
-      <c r="G30" s="239"/>
-      <c r="I30" s="236" t="s">
+      <c r="G30" s="240"/>
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6165.626666666667</v>
@@ -20934,13 +20928,13 @@
         <f t="shared" si="7"/>
         <v>1035.9766666666667</v>
       </c>
-      <c r="O30" s="239"/>
+      <c r="O30" s="240"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.53387399999999996</v>
@@ -20957,11 +20951,11 @@
         <f t="shared" si="8"/>
         <v>0.41097933333333336</v>
       </c>
-      <c r="G31" s="240"/>
-      <c r="I31" s="217" t="s">
+      <c r="G31" s="241"/>
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.1656266666666673</v>
@@ -20978,7 +20972,7 @@
         <f t="shared" si="9"/>
         <v>1.0359766666666668</v>
       </c>
-      <c r="O31" s="240"/>
+      <c r="O31" s="241"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="221" t="s">
@@ -21037,10 +21031,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1227.5555655454284</v>
@@ -21058,10 +21052,10 @@
         <v>1594.6300625011152</v>
       </c>
       <c r="G35" s="174"/>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>106.2925206845695</v>
@@ -21081,15 +21075,15 @@
       <c r="O35" s="174"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="175"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -21152,8 +21146,8 @@
       <c r="F45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="238" t="s">
-        <v>42</v>
+      <c r="G45" s="239" t="s">
+        <v>40</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
@@ -21169,8 +21163,8 @@
       <c r="N45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="238" t="s">
-        <v>42</v>
+      <c r="O45" s="239" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -21182,7 +21176,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="239"/>
+      <c r="G46" s="240"/>
       <c r="I46" s="232" t="s">
         <v>30</v>
       </c>
@@ -21191,7 +21185,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="239"/>
+      <c r="O46" s="240"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="234" t="s">
@@ -21210,7 +21204,7 @@
       <c r="F47" s="68">
         <v>437.28500000000003</v>
       </c>
-      <c r="G47" s="239"/>
+      <c r="G47" s="240"/>
       <c r="I47" s="234" t="s">
         <v>9</v>
       </c>
@@ -21227,7 +21221,7 @@
       <c r="N47" s="68">
         <v>1183.42</v>
       </c>
-      <c r="O47" s="239"/>
+      <c r="O47" s="240"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="234"/>
@@ -21244,7 +21238,7 @@
       <c r="F48" s="68">
         <v>417.85300000000001</v>
       </c>
-      <c r="G48" s="239"/>
+      <c r="G48" s="240"/>
       <c r="I48" s="234"/>
       <c r="J48" s="235"/>
       <c r="K48" s="64">
@@ -21259,7 +21253,7 @@
       <c r="N48" s="68">
         <v>1259.21</v>
       </c>
-      <c r="O48" s="239"/>
+      <c r="O48" s="240"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="234"/>
@@ -21276,7 +21270,7 @@
       <c r="F49" s="68">
         <v>412.06599999999997</v>
       </c>
-      <c r="G49" s="239"/>
+      <c r="G49" s="240"/>
       <c r="I49" s="234"/>
       <c r="J49" s="235"/>
       <c r="K49" s="64">
@@ -21291,13 +21285,13 @@
       <c r="N49" s="68">
         <v>1149.72</v>
       </c>
-      <c r="O49" s="239"/>
+      <c r="O49" s="240"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>563.93933333333337</v>
@@ -21314,11 +21308,11 @@
         <f t="shared" si="12"/>
         <v>422.4013333333333</v>
       </c>
-      <c r="G50" s="239"/>
-      <c r="I50" s="236" t="s">
+      <c r="G50" s="240"/>
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6146.0533333333333</v>
@@ -21335,13 +21329,13 @@
         <f t="shared" si="13"/>
         <v>1197.45</v>
       </c>
-      <c r="O50" s="239"/>
+      <c r="O50" s="240"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.56393933333333335</v>
@@ -21358,11 +21352,11 @@
         <f t="shared" si="14"/>
         <v>0.4224013333333333</v>
       </c>
-      <c r="G51" s="240"/>
-      <c r="I51" s="217" t="s">
+      <c r="G51" s="241"/>
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1460533333333336</v>
@@ -21379,7 +21373,7 @@
         <f t="shared" si="15"/>
         <v>1.1974500000000001</v>
       </c>
-      <c r="O51" s="240"/>
+      <c r="O51" s="241"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="221" t="s">
@@ -21438,10 +21432,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1162.1108180667188</v>
@@ -21459,10 +21453,10 @@
         <v>1551.5102540711678</v>
       </c>
       <c r="G55" s="174"/>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.63103042819891</v>
@@ -21482,15 +21476,15 @@
       <c r="O55" s="174"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="175"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -21553,8 +21547,8 @@
       <c r="F65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="238" t="s">
-        <v>42</v>
+      <c r="G65" s="239" t="s">
+        <v>40</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="22"/>
@@ -21570,8 +21564,8 @@
       <c r="N65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="238" t="s">
-        <v>42</v>
+      <c r="O65" s="239" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -21583,7 +21577,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="239"/>
+      <c r="G66" s="240"/>
       <c r="I66" s="232" t="s">
         <v>30</v>
       </c>
@@ -21592,7 +21586,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="239"/>
+      <c r="O66" s="240"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="234" t="s">
@@ -21611,7 +21605,7 @@
       <c r="F67" s="68">
         <v>440.95</v>
       </c>
-      <c r="G67" s="239"/>
+      <c r="G67" s="240"/>
       <c r="I67" s="234" t="s">
         <v>9</v>
       </c>
@@ -21628,7 +21622,7 @@
       <c r="N67" s="68">
         <v>1420.55</v>
       </c>
-      <c r="O67" s="239"/>
+      <c r="O67" s="240"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="234"/>
@@ -21645,7 +21639,7 @@
       <c r="F68" s="68">
         <v>420.99700000000001</v>
       </c>
-      <c r="G68" s="239"/>
+      <c r="G68" s="240"/>
       <c r="I68" s="234"/>
       <c r="J68" s="235"/>
       <c r="K68" s="64">
@@ -21660,7 +21654,7 @@
       <c r="N68" s="68">
         <v>1422.21</v>
       </c>
-      <c r="O68" s="239"/>
+      <c r="O68" s="240"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="234"/>
@@ -21677,7 +21671,7 @@
       <c r="F69" s="68">
         <v>443.94799999999998</v>
       </c>
-      <c r="G69" s="239"/>
+      <c r="G69" s="240"/>
       <c r="I69" s="234"/>
       <c r="J69" s="235"/>
       <c r="K69" s="64">
@@ -21692,13 +21686,13 @@
       <c r="N69" s="68">
         <v>1410.78</v>
       </c>
-      <c r="O69" s="239"/>
+      <c r="O69" s="240"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>651.27133333333336</v>
@@ -21715,11 +21709,11 @@
         <f t="shared" si="18"/>
         <v>435.29833333333335</v>
       </c>
-      <c r="G70" s="239"/>
-      <c r="I70" s="236" t="s">
+      <c r="G70" s="240"/>
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6132.8466666666673</v>
@@ -21736,13 +21730,13 @@
         <f t="shared" si="19"/>
         <v>1417.8466666666666</v>
       </c>
-      <c r="O70" s="239"/>
+      <c r="O70" s="240"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.65127133333333331</v>
@@ -21759,11 +21753,11 @@
         <f t="shared" si="20"/>
         <v>0.43529833333333334</v>
       </c>
-      <c r="G71" s="240"/>
-      <c r="I71" s="217" t="s">
+      <c r="G71" s="241"/>
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1328466666666674</v>
@@ -21780,7 +21774,7 @@
         <f t="shared" si="21"/>
         <v>1.4178466666666665</v>
       </c>
-      <c r="O71" s="240"/>
+      <c r="O71" s="241"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="221" t="s">
@@ -21839,10 +21833,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>1006.2779773304932</v>
@@ -21860,10 +21854,10 @@
         <v>1505.5421760555021</v>
       </c>
       <c r="G75" s="174"/>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>106.86065307355909</v>
@@ -21883,15 +21877,15 @@
       <c r="O75" s="174"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="175"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -21954,8 +21948,8 @@
       <c r="F85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="238" t="s">
-        <v>42</v>
+      <c r="G85" s="239" t="s">
+        <v>40</v>
       </c>
       <c r="I85" s="21"/>
       <c r="J85" s="22"/>
@@ -21971,8 +21965,8 @@
       <c r="N85" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O85" s="238" t="s">
-        <v>42</v>
+      <c r="O85" s="239" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -21984,7 +21978,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="239"/>
+      <c r="G86" s="240"/>
       <c r="I86" s="232" t="s">
         <v>30</v>
       </c>
@@ -21993,7 +21987,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
-      <c r="O86" s="239"/>
+      <c r="O86" s="240"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="234" t="s">
@@ -22012,7 +22006,7 @@
       <c r="F87" s="68">
         <v>918.81200000000001</v>
       </c>
-      <c r="G87" s="239"/>
+      <c r="G87" s="240"/>
       <c r="I87" s="234" t="s">
         <v>9</v>
       </c>
@@ -22029,7 +22023,7 @@
       <c r="N87" s="68">
         <v>2538.4899999999998</v>
       </c>
-      <c r="O87" s="239"/>
+      <c r="O87" s="240"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="234"/>
@@ -22046,7 +22040,7 @@
       <c r="F88" s="68">
         <v>919.29399999999998</v>
       </c>
-      <c r="G88" s="239"/>
+      <c r="G88" s="240"/>
       <c r="I88" s="234"/>
       <c r="J88" s="235"/>
       <c r="K88" s="64">
@@ -22061,7 +22055,7 @@
       <c r="N88" s="68">
         <v>2575.33</v>
       </c>
-      <c r="O88" s="239"/>
+      <c r="O88" s="240"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="234"/>
@@ -22078,7 +22072,7 @@
       <c r="F89" s="68">
         <v>916.76499999999999</v>
       </c>
-      <c r="G89" s="239"/>
+      <c r="G89" s="240"/>
       <c r="I89" s="234"/>
       <c r="J89" s="235"/>
       <c r="K89" s="64">
@@ -22093,13 +22087,13 @@
       <c r="N89" s="68">
         <v>2523.56</v>
       </c>
-      <c r="O89" s="239"/>
+      <c r="O89" s="240"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1342.7166666666665</v>
@@ -22116,11 +22110,11 @@
         <f t="shared" si="24"/>
         <v>918.29033333333336</v>
       </c>
-      <c r="G90" s="239"/>
-      <c r="I90" s="236" t="s">
+      <c r="G90" s="240"/>
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>7889.706666666666</v>
@@ -22137,13 +22131,13 @@
         <f t="shared" si="25"/>
         <v>2545.7933333333331</v>
       </c>
-      <c r="O90" s="239"/>
+      <c r="O90" s="240"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.3427166666666666</v>
@@ -22160,11 +22154,11 @@
         <f t="shared" si="26"/>
         <v>0.91829033333333332</v>
       </c>
-      <c r="G91" s="240"/>
-      <c r="I91" s="217" t="s">
+      <c r="G91" s="241"/>
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>7.8897066666666662</v>
@@ -22181,7 +22175,7 @@
         <f t="shared" si="27"/>
         <v>2.5457933333333331</v>
       </c>
-      <c r="O91" s="240"/>
+      <c r="O91" s="241"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="221" t="s">
@@ -22240,10 +22234,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>488.08510110100173</v>
@@ -22261,10 +22255,10 @@
         <v>713.67407040111857</v>
       </c>
       <c r="G95" s="174"/>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>83.065192115296227</v>
@@ -22284,15 +22278,15 @@
       <c r="O95" s="174"/>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="175"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -22303,65 +22297,17 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="I47:J49"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G34"/>
-    <mergeCell ref="I32:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="O5:O11"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="G45:G51"/>
+    <mergeCell ref="O45:O51"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="O65:O71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="O25:O31"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="I95:J95"/>
     <mergeCell ref="A96:B96"/>
@@ -22378,17 +22324,65 @@
     <mergeCell ref="O85:O91"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="I76:J76"/>
-    <mergeCell ref="O5:O11"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="G45:G51"/>
-    <mergeCell ref="O45:O51"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="O65:O71"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="O25:O31"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="I47:J49"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="I32:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22631,10 +22625,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>610.91966666666667</v>
@@ -22655,10 +22649,10 @@
         <f t="shared" si="0"/>
         <v>842.91166666666675</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7418.93</v>
@@ -22681,10 +22675,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.61091966666666664</v>
@@ -22705,10 +22699,10 @@
         <f t="shared" si="2"/>
         <v>0.84291166666666673</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.4189300000000005</v>
@@ -22787,10 +22781,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1072.7433339571653</v>
@@ -22811,10 +22805,10 @@
         <f t="shared" si="4"/>
         <v>777.49546710113941</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>88.336188641758312</v>
@@ -22837,15 +22831,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -23062,10 +23056,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>594.10300000000007</v>
@@ -23086,10 +23080,10 @@
         <f t="shared" si="6"/>
         <v>653.12633333333326</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6993.663333333333</v>
@@ -23112,10 +23106,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.59410300000000005</v>
@@ -23136,10 +23130,10 @@
         <f t="shared" si="8"/>
         <v>0.65312633333333325</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.9936633333333331</v>
@@ -23218,10 +23212,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1103.1083835631196</v>
@@ -23242,10 +23236,10 @@
         <f t="shared" si="10"/>
         <v>1003.4199611203347</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>93.707684909053384</v>
@@ -23268,15 +23262,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -23493,10 +23487,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>627.60399999999993</v>
@@ -23517,10 +23511,10 @@
         <f t="shared" si="12"/>
         <v>712.93700000000001</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6578.2</v>
@@ -23543,10 +23537,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.62760399999999994</v>
@@ -23567,10 +23561,10 @@
         <f t="shared" si="14"/>
         <v>0.71293700000000004</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.5781999999999998</v>
@@ -23649,10 +23643,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1044.2253395453185</v>
@@ -23673,10 +23667,10 @@
         <f t="shared" si="16"/>
         <v>919.2397084174338</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>99.626037517862031</v>
@@ -23699,15 +23693,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -23924,10 +23918,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>731.15066666666655</v>
@@ -23948,10 +23942,10 @@
         <f t="shared" si="18"/>
         <v>837.26166666666666</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6641.3966666666665</v>
@@ -23974,10 +23968,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7311506666666665</v>
@@ -23998,10 +23992,10 @@
         <f t="shared" si="20"/>
         <v>0.83726166666666668</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.6413966666666662</v>
@@ -24080,10 +24074,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>896.34056272943315</v>
@@ -24104,10 +24098,10 @@
         <f t="shared" si="22"/>
         <v>782.74215348845541</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>98.678039107235989</v>
@@ -24130,15 +24124,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -24355,10 +24349,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1480.4866666666667</v>
@@ -24379,10 +24373,10 @@
         <f t="shared" si="24"/>
         <v>1341.5633333333333</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="95">
         <f>(K87+K88+K89)/3</f>
         <v>10299.466666666665</v>
@@ -24405,10 +24399,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.4804866666666667</v>
@@ -24429,10 +24423,10 @@
         <f t="shared" si="26"/>
         <v>1.3415633333333332</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.299466666666666</v>
@@ -24511,10 +24505,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>442.66524971518373</v>
@@ -24535,10 +24529,10 @@
         <f t="shared" si="28"/>
         <v>488.5047047101765</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>63.630479248116416</v>
@@ -24561,15 +24555,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -24580,27 +24574,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -24613,48 +24628,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24897,10 +24891,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>595.63</v>
@@ -24921,10 +24915,10 @@
         <f t="shared" si="0"/>
         <v>702.14666666666665</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>7172.78</v>
@@ -24947,10 +24941,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.59562999999999999</v>
@@ -24971,10 +24965,10 @@
         <f t="shared" si="2"/>
         <v>0.7021466666666667</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>7.1727799999999995</v>
@@ -25053,10 +25047,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1100.2803754008362</v>
@@ -25077,10 +25071,10 @@
         <f t="shared" si="4"/>
         <v>933.36624826721857</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>91.367642671321306</v>
@@ -25103,15 +25097,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -25328,10 +25322,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>567.53</v>
@@ -25352,10 +25346,10 @@
         <f t="shared" si="6"/>
         <v>653.46</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6815.2733333333335</v>
@@ -25378,10 +25372,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.56752999999999998</v>
@@ -25402,10 +25396,10 @@
         <f t="shared" si="8"/>
         <v>0.65346000000000004</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.8152733333333337</v>
@@ -25484,10 +25478,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1154.7583387662328</v>
@@ -25508,10 +25502,10 @@
         <f t="shared" si="10"/>
         <v>1002.9075995470265</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>96.160486593347684</v>
@@ -25534,15 +25528,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -25759,10 +25753,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="68">
         <f>(C47+C48+C49)/3</f>
         <v>633.5866666666667</v>
@@ -25783,10 +25777,10 @@
         <f t="shared" si="12"/>
         <v>645.70766666666668</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6159.5166666666664</v>
@@ -25809,10 +25803,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="70">
         <v>0.63</v>
       </c>
@@ -25828,10 +25822,10 @@
       <c r="G51" s="72">
         <v>0.65</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1595166666666668</v>
@@ -25910,10 +25904,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1040.2539682539682</v>
@@ -25934,10 +25928,10 @@
         <f t="shared" si="15"/>
         <v>1008.2461538461538</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.39795871429305</v>
@@ -25960,15 +25954,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -26185,10 +26179,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>746.14199999999994</v>
@@ -26209,10 +26203,10 @@
         <f t="shared" si="17"/>
         <v>792.24000000000012</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6710.6166666666659</v>
@@ -26235,10 +26229,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.74614199999999997</v>
@@ -26259,10 +26253,10 @@
         <f t="shared" si="19"/>
         <v>0.79224000000000017</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.7106166666666658</v>
@@ -26341,10 +26335,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>878.33147041715927</v>
@@ -26365,10 +26359,10 @@
         <f t="shared" si="21"/>
         <v>827.22407351307663</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>97.660175294371868</v>
@@ -26391,15 +26385,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -26616,10 +26610,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1534.8333333333333</v>
@@ -26640,10 +26634,10 @@
         <f t="shared" si="23"/>
         <v>1308.2433333333333</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K88+K89)/3</f>
         <v>10669.166666666666</v>
@@ -26666,10 +26660,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5348333333333333</v>
@@ -26690,10 +26684,10 @@
         <f t="shared" si="25"/>
         <v>1.3082433333333334</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.669166666666666</v>
@@ -26772,10 +26766,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>426.99098707785862</v>
@@ -26796,10 +26790,10 @@
         <f t="shared" si="27"/>
         <v>500.94656192910082</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.425603374209174</v>
@@ -26822,15 +26816,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -26841,27 +26835,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -26874,48 +26889,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27158,10 +27152,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="237"/>
+      <c r="B10" s="218"/>
       <c r="C10" s="64">
         <f>(C7+C8+C9)/3</f>
         <v>581.19966666666664</v>
@@ -27182,10 +27176,10 @@
         <f t="shared" si="0"/>
         <v>705.99233333333325</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="237"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="64">
         <f>(K7+K8+K9)/3</f>
         <v>6977.71</v>
@@ -27208,10 +27202,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="6">
         <f>C10/1000</f>
         <v>0.58119966666666667</v>
@@ -27232,10 +27226,10 @@
         <f t="shared" si="2"/>
         <v>0.70599233333333322</v>
       </c>
-      <c r="I11" s="217" t="s">
+      <c r="I11" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="218"/>
+      <c r="J11" s="220"/>
       <c r="K11" s="6">
         <f>K10/1000</f>
         <v>6.9777100000000001</v>
@@ -27314,10 +27308,10 @@
       <c r="O14" s="231"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="218"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="6">
         <f>$G3/C11</f>
         <v>1127.5987196597382</v>
@@ -27338,10 +27332,10 @@
         <f t="shared" si="4"/>
         <v>928.2820351684652</v>
       </c>
-      <c r="I15" s="217" t="s">
+      <c r="I15" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="218"/>
+      <c r="J15" s="220"/>
       <c r="K15" s="6">
         <f>$G3/K11</f>
         <v>93.921931407295517</v>
@@ -27364,15 +27358,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="236"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="74"/>
       <c r="G16" s="75"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
@@ -27589,10 +27583,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="64">
         <f>(C27+C28+C29)/3</f>
         <v>544.06399999999996</v>
@@ -27613,10 +27607,10 @@
         <f t="shared" si="6"/>
         <v>664.16466666666668</v>
       </c>
-      <c r="I30" s="236" t="s">
+      <c r="I30" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="237"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="64">
         <f>(K27+K28+K29)/3</f>
         <v>6642.75</v>
@@ -27639,10 +27633,10 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="6">
         <f>C30/1000</f>
         <v>0.54406399999999999</v>
@@ -27663,10 +27657,10 @@
         <f t="shared" si="8"/>
         <v>0.66416466666666663</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="218"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="6">
         <f>K30/1000</f>
         <v>6.6427500000000004</v>
@@ -27745,10 +27739,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="218"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="6">
         <f>$G3/C31</f>
         <v>1204.5641689213035</v>
@@ -27769,10 +27763,10 @@
         <f t="shared" si="10"/>
         <v>986.74324740752047</v>
       </c>
-      <c r="I35" s="217" t="s">
+      <c r="I35" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="218"/>
+      <c r="J35" s="220"/>
       <c r="K35" s="6">
         <f>$G3/K31</f>
         <v>98.657935343043164</v>
@@ -27795,15 +27789,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="220"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="74"/>
       <c r="G36" s="75"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="237"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
@@ -28020,10 +28014,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="236" t="s">
+      <c r="A50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="237"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="64">
         <f>(C47+C48+C49)/3</f>
         <v>638.16833333333341</v>
@@ -28044,10 +28038,10 @@
         <f t="shared" si="12"/>
         <v>587.23866666666675</v>
       </c>
-      <c r="I50" s="236" t="s">
+      <c r="I50" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="237"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="64">
         <f>(K47+K48+K49)/3</f>
         <v>6132.1866666666656</v>
@@ -28070,10 +28064,10 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="218"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="6">
         <f>C50/1000</f>
         <v>0.63816833333333345</v>
@@ -28094,10 +28088,10 @@
         <f t="shared" si="14"/>
         <v>0.5872386666666668</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="6">
         <f>K50/1000</f>
         <v>6.1321866666666658</v>
@@ -28176,10 +28170,10 @@
       <c r="O54" s="231"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="218"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="6">
         <f>$G3/C51</f>
         <v>1026.9390782473797</v>
@@ -28200,10 +28194,10 @@
         <f t="shared" si="16"/>
         <v>1116.0028063547131</v>
       </c>
-      <c r="I55" s="217" t="s">
+      <c r="I55" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="218"/>
+      <c r="J55" s="220"/>
       <c r="K55" s="6">
         <f>$G3/K51</f>
         <v>106.87215435929328</v>
@@ -28226,15 +28220,15 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
       <c r="F56" s="74"/>
       <c r="G56" s="75"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="220"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="237"/>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -28451,10 +28445,10 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="236" t="s">
+      <c r="A70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="237"/>
+      <c r="B70" s="218"/>
       <c r="C70" s="64">
         <f>(C67+C68+C69)/3</f>
         <v>745.21866666666665</v>
@@ -28475,10 +28469,10 @@
         <f t="shared" si="18"/>
         <v>753.73</v>
       </c>
-      <c r="I70" s="236" t="s">
+      <c r="I70" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="64">
         <f>(K67+K68+K69)/3</f>
         <v>6124.373333333333</v>
@@ -28501,10 +28495,10 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="217" t="s">
+      <c r="A71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="218"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="6">
         <f>C70/1000</f>
         <v>0.7452186666666667</v>
@@ -28525,10 +28519,10 @@
         <f t="shared" si="20"/>
         <v>0.75373000000000001</v>
       </c>
-      <c r="I71" s="217" t="s">
+      <c r="I71" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="218"/>
+      <c r="J71" s="220"/>
       <c r="K71" s="6">
         <f>K70/1000</f>
         <v>6.1243733333333328</v>
@@ -28607,10 +28601,10 @@
       <c r="O74" s="231"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="218"/>
+      <c r="B75" s="220"/>
       <c r="C75" s="6">
         <f>$G3/C71</f>
         <v>879.41973183709831</v>
@@ -28631,10 +28625,10 @@
         <f t="shared" si="22"/>
         <v>869.48907433696422</v>
       </c>
-      <c r="I75" s="217" t="s">
+      <c r="I75" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="218"/>
+      <c r="J75" s="220"/>
       <c r="K75" s="6">
         <f>$G3/K71</f>
         <v>107.00849937299708</v>
@@ -28657,15 +28651,15 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="219"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="236"/>
+      <c r="B76" s="237"/>
       <c r="C76" s="65"/>
       <c r="D76" s="65"/>
       <c r="E76" s="65"/>
       <c r="F76" s="74"/>
       <c r="G76" s="75"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="220"/>
+      <c r="I76" s="236"/>
+      <c r="J76" s="237"/>
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
@@ -28882,10 +28876,10 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="237"/>
+      <c r="B90" s="218"/>
       <c r="C90" s="64">
         <f>(C87+C88+C89)/3</f>
         <v>1588.5833333333333</v>
@@ -28906,10 +28900,10 @@
         <f t="shared" si="24"/>
         <v>1282.0733333333335</v>
       </c>
-      <c r="I90" s="236" t="s">
+      <c r="I90" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J90" s="237"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="64">
         <f>(K87+K89+K88)/3</f>
         <v>10732.133333333333</v>
@@ -28932,10 +28926,10 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="217" t="s">
+      <c r="A91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="218"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="6">
         <f>C90/1000</f>
         <v>1.5885833333333332</v>
@@ -28956,10 +28950,10 @@
         <f t="shared" si="26"/>
         <v>1.2820733333333334</v>
       </c>
-      <c r="I91" s="217" t="s">
+      <c r="I91" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="218"/>
+      <c r="J91" s="220"/>
       <c r="K91" s="6">
         <f>K90/1000</f>
         <v>10.732133333333334</v>
@@ -29038,10 +29032,10 @@
       <c r="O94" s="231"/>
     </row>
     <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="218"/>
+      <c r="B95" s="220"/>
       <c r="C95" s="6">
         <f>$G3/C91</f>
         <v>412.54367098567911</v>
@@ -29062,10 +29056,10 @@
         <f>$G3/G91</f>
         <v>511.17200784146513</v>
       </c>
-      <c r="I95" s="217" t="s">
+      <c r="I95" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="218"/>
+      <c r="J95" s="220"/>
       <c r="K95" s="6">
         <f>$G3/K91</f>
         <v>61.065212259755747</v>
@@ -29088,15 +29082,15 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="219"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="236"/>
+      <c r="B96" s="237"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65"/>
       <c r="E96" s="65"/>
       <c r="F96" s="74"/>
       <c r="G96" s="75"/>
-      <c r="I96" s="219"/>
-      <c r="J96" s="220"/>
+      <c r="I96" s="236"/>
+      <c r="J96" s="237"/>
       <c r="K96" s="65"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
@@ -29107,27 +29101,48 @@
     <row r="99" s="94" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K32:O34"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:G94"/>
+    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K92:O94"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="A87:B89"/>
+    <mergeCell ref="I87:J89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="C72:G74"/>
+    <mergeCell ref="I72:J74"/>
+    <mergeCell ref="K72:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A67:B69"/>
+    <mergeCell ref="I67:J69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K52:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B54"/>
+    <mergeCell ref="C52:G54"/>
+    <mergeCell ref="I52:J54"/>
     <mergeCell ref="A47:B49"/>
     <mergeCell ref="I47:J49"/>
     <mergeCell ref="A31:B31"/>
@@ -29140,48 +29155,27 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B54"/>
-    <mergeCell ref="C52:G54"/>
-    <mergeCell ref="I52:J54"/>
-    <mergeCell ref="K52:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A67:B69"/>
-    <mergeCell ref="I67:J69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="A72:B74"/>
-    <mergeCell ref="C72:G74"/>
-    <mergeCell ref="I72:J74"/>
-    <mergeCell ref="K72:O74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K92:O94"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="A87:B89"/>
-    <mergeCell ref="I87:J89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:G94"/>
-    <mergeCell ref="I92:J94"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
